--- a/文档/葡萄院儿会员日记.xlsx
+++ b/文档/葡萄院儿会员日记.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenxi/Dev/ptye/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenxi/Dev/ptye/文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="51" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
   <si>
     <t>葡萄院儿The Vineyard会员日记</t>
     <rPh sb="0" eb="1">
@@ -68,9 +68,6 @@
     <t>备注</t>
   </si>
   <si>
-    <t>党爸</t>
-  </si>
-  <si>
     <t>充值</t>
   </si>
   <si>
@@ -81,24 +78,8 @@
   </si>
   <si>
     <t>消费</t>
-  </si>
-  <si>
-    <t>消费</t>
     <rPh sb="0" eb="1">
       <t>xiao f</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(空白)</t>
-  </si>
-  <si>
-    <t>总计</t>
-  </si>
-  <si>
-    <t>拿铁</t>
-    <rPh sb="0" eb="1">
-      <t>na tie</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -221,13 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>次</t>
-    <rPh sb="0" eb="1">
-      <t>ci</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>菜单版本号</t>
     <rPh sb="0" eb="1">
       <t>cai dan</t>
@@ -241,9 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>充值1次</t>
-  </si>
-  <si>
     <t>充值金额</t>
     <rPh sb="0" eb="1">
       <t>chong zhi</t>
@@ -261,17 +232,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(全部)</t>
-  </si>
-  <si>
     <t>薛丹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张晓蓉</t>
-    <rPh sb="0" eb="1">
-      <t>zhang xiao rong</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -306,16 +267,6 @@
     <t>刘佳</t>
     <rPh sb="0" eb="1">
       <t>liu jia</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小爱爸</t>
-    <rPh sb="0" eb="1">
-      <t>xiao ai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ba</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,9 +278,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高山普洱1壶</t>
-  </si>
-  <si>
     <t>兔妈</t>
     <rPh sb="0" eb="1">
       <t>tu ma</t>
@@ -366,13 +314,177 @@
       <t>n n</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手冲拿铁</t>
+    <rPh sb="2" eb="3">
+      <t>na tie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>档爸</t>
+    <rPh sb="0" eb="1">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ba</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张小蓉</t>
+    <rPh sb="0" eb="1">
+      <t>zhang xiao rong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小艾爸</t>
+    <rPh sb="0" eb="1">
+      <t>xiao ai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ba</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>档爸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费</t>
+    <rPh sb="0" eb="1">
+      <t>xiao fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚果</t>
+    <rPh sb="0" eb="1">
+      <t>jian guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小吃</t>
+    <rPh sb="0" eb="1">
+      <t>xiao chi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘</t>
+    <rPh sb="0" eb="1">
+      <t>pan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿茶</t>
+    <rPh sb="0" eb="1">
+      <t>lü cha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇上</t>
+    <rPh sb="0" eb="1">
+      <t>huang shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费</t>
+  </si>
+  <si>
+    <t>余额</t>
+  </si>
+  <si>
+    <t>茶位费</t>
+    <rPh sb="0" eb="1">
+      <t>cha wei fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位</t>
+    <rPh sb="0" eb="1">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示条目</t>
+    <rPh sb="0" eb="1">
+      <t>xian shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tiao mu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何利</t>
+  </si>
+  <si>
+    <t>何利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高山普洱(壶)</t>
+  </si>
+  <si>
+    <t>手冲拿铁(杯)</t>
+  </si>
+  <si>
+    <t>茶位费(位)</t>
+  </si>
+  <si>
+    <t>坚果(盘)</t>
+  </si>
+  <si>
+    <t>锡兰红茶(壶)</t>
+  </si>
+  <si>
+    <t>绿茶(杯)</t>
+  </si>
+  <si>
+    <t>花果茶玫瑰(壶)</t>
+  </si>
+  <si>
+    <t>充值x1</t>
+  </si>
+  <si>
+    <t>锡兰红茶(壶)x1</t>
+  </si>
+  <si>
+    <t>绿茶(杯)x2</t>
+  </si>
+  <si>
+    <t>花果茶玫瑰(壶)x1</t>
+  </si>
+  <si>
+    <t>坚果(盘)x3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
@@ -449,7 +561,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -481,19 +593,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -510,11 +715,638 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="46">
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="PingFang SC"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <sz val="18"/>
@@ -536,28 +1368,27 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42467.612250115744" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="18">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42468.047312962961" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="34">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B2:L20" sheet="明细"/>
+    <worksheetSource ref="B2:M36" sheet="明细"/>
   </cacheSource>
-  <cacheFields count="11">
+  <cacheFields count="12">
     <cacheField name="姓名" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsBlank="1" count="10">
+        <s v="冯宇"/>
+        <s v="薛丹"/>
+        <s v="张小蓉"/>
+        <s v="罗宏"/>
+        <s v="骆文明"/>
+        <s v="刘佳"/>
+        <s v="其他"/>
+        <s v="党委娅"/>
+        <m/>
+        <s v="何利"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="昵称" numFmtId="0">
-      <sharedItems containsBlank="1" count="11">
-        <s v="党爸"/>
-        <s v="皇上"/>
-        <s v="阳妈"/>
-        <s v="喜爸"/>
-        <s v="峰峰妈"/>
-        <s v="小爱爸"/>
-        <s v="宏哥朋友"/>
-        <s v="兔妈"/>
-        <s v="涵涵妈"/>
-        <s v="葡萄奶奶"/>
-        <m/>
-      </sharedItems>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="类型（充值／消费／其他）" numFmtId="0">
       <sharedItems containsBlank="1" count="3">
@@ -567,13 +1398,35 @@
       </sharedItems>
     </cacheField>
     <cacheField name="日期" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2016-04-05T00:00:00" maxDate="2016-04-08T00:00:00" count="6">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-05T00:00:00" maxDate="2016-04-08T00:00:00" count="4">
         <d v="2016-04-05T00:00:00"/>
         <d v="2016-04-06T00:00:00"/>
         <d v="2016-04-07T00:00:00"/>
         <m/>
-        <s v="4月5日 周二" u="1"/>
-        <s v="4月6日 周三" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="显示条目" numFmtId="0">
+      <sharedItems containsBlank="1" count="20">
+        <s v="充值x1"/>
+        <s v="高山普洱(壶)x10"/>
+        <s v="手冲拿铁(杯)x1"/>
+        <s v="茶位费(位)x1"/>
+        <s v="坚果(盘)x1"/>
+        <s v="锡兰红茶(壶)x1"/>
+        <s v="绿茶(杯)x2"/>
+        <s v="花果茶玫瑰(壶)x1"/>
+        <s v="坚果(盘)x3"/>
+        <m/>
+        <s v="花果茶玫瑰1壶x1" u="1"/>
+        <s v="坚果1盘x1" u="1"/>
+        <s v="坚果1盘x3" u="1"/>
+        <s v="高山普洱1杯x1" u="1"/>
+        <s v="手冲拿铁1杯x1" u="1"/>
+        <s v="锡兰红茶1壶x1" u="1"/>
+        <s v="充值1次x1" u="1"/>
+        <s v="茶位费1位x1" u="1"/>
+        <s v="绿茶1杯x2" u="1"/>
+        <s v="高山普洱1壶x10" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="产品" numFmtId="0">
@@ -589,7 +1442,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="2000"/>
     </cacheField>
     <cacheField name="汇总金额" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-308" maxValue="2000"/>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="-308" maxValue="2000"/>
     </cacheField>
     <cacheField name="签名" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -607,13 +1460,14 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="18">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="34">
   <r>
-    <m/>
+    <x v="0"/>
+    <s v="档爸"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="充值1次"/>
+    <s v="充值"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1500"/>
@@ -622,24 +1476,26 @@
     <m/>
   </r>
   <r>
-    <s v="薛丹"/>
+    <x v="1"/>
+    <s v="皇上"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="1"/>
-    <s v="充值1次"/>
+    <s v="充值"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="1000"/>
-    <n v="1000"/>
+    <n v="1500"/>
+    <n v="1500"/>
     <m/>
     <m/>
   </r>
   <r>
-    <s v="张晓蓉"/>
     <x v="2"/>
+    <s v="阳妈"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="充值1次"/>
+    <x v="0"/>
+    <s v="充值"/>
     <n v="1"/>
     <n v="1"/>
     <n v="2000"/>
@@ -648,11 +1504,12 @@
     <m/>
   </r>
   <r>
-    <s v="罗宏"/>
     <x v="3"/>
+    <s v="喜爸"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="充值1次"/>
+    <x v="0"/>
+    <s v="充值"/>
     <n v="1"/>
     <n v="1"/>
     <n v="2000"/>
@@ -661,11 +1518,12 @@
     <m/>
   </r>
   <r>
-    <s v="骆文明"/>
     <x v="4"/>
+    <s v="峰峰妈"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="充值1次"/>
+    <x v="0"/>
+    <s v="充值"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1500"/>
@@ -674,11 +1532,12 @@
     <m/>
   </r>
   <r>
-    <s v="刘佳"/>
     <x v="5"/>
+    <s v="小艾爸"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="充值1次"/>
+    <x v="0"/>
+    <s v="充值"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1500"/>
@@ -687,11 +1546,12 @@
     <m/>
   </r>
   <r>
-    <s v="其他"/>
     <x v="6"/>
+    <s v="宏哥朋友"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="高山普洱1壶"/>
+    <x v="1"/>
+    <s v="高山普洱(壶)"/>
     <n v="10"/>
     <n v="0.44"/>
     <n v="0"/>
@@ -700,11 +1560,12 @@
     <m/>
   </r>
   <r>
-    <s v="党委娅"/>
     <x v="7"/>
+    <s v="兔妈"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="充值1次"/>
+    <x v="0"/>
+    <s v="充值"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1500"/>
@@ -713,11 +1574,12 @@
     <m/>
   </r>
   <r>
-    <m/>
     <x v="8"/>
+    <s v="涵涵妈"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="充值1次"/>
+    <x v="0"/>
+    <s v="充值"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1500"/>
@@ -726,11 +1588,12 @@
     <m/>
   </r>
   <r>
-    <m/>
     <x v="9"/>
+    <s v="葡萄奶奶"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="充值1次"/>
+    <x v="0"/>
+    <s v="充值"/>
     <n v="1"/>
     <n v="1"/>
     <n v="500"/>
@@ -739,23 +1602,123 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <x v="10"/>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="档爸"/>
+    <x v="1"/>
     <x v="2"/>
     <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="茶位费(位)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
     <m/>
     <m/>
   </r>
   <r>
-    <m/>
-    <x v="10"/>
+    <x v="0"/>
+    <s v="档爸"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <s v="坚果(盘)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="葡萄奶奶"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="5"/>
+    <s v="锡兰红茶(壶)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-70"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="葡萄奶奶"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="6"/>
+    <s v="绿茶(杯)"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-60"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="葡萄奶奶"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="7"/>
+    <s v="花果茶玫瑰(壶)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-70"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="葡萄奶奶"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <s v="坚果(盘)"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <n v="-60"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="皇上"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
     <x v="2"/>
     <x v="3"/>
+    <x v="9"/>
     <m/>
     <m/>
     <m/>
@@ -765,10 +1728,11 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <x v="10"/>
+    <x v="8"/>
+    <m/>
     <x v="2"/>
     <x v="3"/>
+    <x v="9"/>
     <m/>
     <m/>
     <m/>
@@ -778,10 +1742,11 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <x v="10"/>
+    <x v="8"/>
+    <m/>
     <x v="2"/>
     <x v="3"/>
+    <x v="9"/>
     <m/>
     <m/>
     <m/>
@@ -791,10 +1756,11 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <x v="10"/>
+    <x v="8"/>
+    <m/>
     <x v="2"/>
     <x v="3"/>
+    <x v="9"/>
     <m/>
     <m/>
     <m/>
@@ -804,10 +1770,11 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <x v="10"/>
+    <x v="8"/>
+    <m/>
     <x v="2"/>
     <x v="3"/>
+    <x v="9"/>
     <m/>
     <m/>
     <m/>
@@ -817,10 +1784,11 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <x v="10"/>
+    <x v="8"/>
+    <m/>
     <x v="2"/>
     <x v="3"/>
+    <x v="9"/>
     <m/>
     <m/>
     <m/>
@@ -830,15 +1798,142 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <x v="10"/>
+    <x v="8"/>
+    <m/>
     <x v="2"/>
     <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <e v="#N/A"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <e v="#N/A"/>
     <m/>
     <m/>
   </r>
@@ -846,26 +1941,25 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="会员汇总" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="11">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="会员汇总" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" grandTotalCaption="余额" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B4:C14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="11">
+        <item h="1" x="7"/>
+        <item h="1" x="0"/>
+        <item h="1" x="5"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="6"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="8"/>
         <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0" countASubtotal="1">
       <items count="4">
         <item x="0"/>
@@ -875,14 +1969,36 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
+      <items count="5">
+        <item sd="0" x="3"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item x="2"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="20">
+        <item m="1" x="16"/>
+        <item m="1" x="13"/>
+        <item m="1" x="19"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item m="1" x="12"/>
+        <item m="1" x="18"/>
+        <item m="1" x="14"/>
+        <item m="1" x="15"/>
+        <item x="9"/>
         <item x="0"/>
+        <item m="1" x="17"/>
         <item x="1"/>
         <item x="2"/>
-        <item t="default"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
       </items>
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -893,31 +2009,38 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="3">
     <field x="2"/>
     <field x="3"/>
+    <field x="4"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="10">
     <i>
       <x/>
     </i>
     <i r="1">
       <x v="3"/>
     </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
+    <i r="2">
+      <x v="10"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i r="1">
-      <x v="4"/>
+      <x v="3"/>
     </i>
-    <i>
-      <x v="2"/>
+    <i r="2">
+      <x v="16"/>
+    </i>
+    <i r="2">
+      <x v="17"/>
+    </i>
+    <i r="2">
+      <x v="18"/>
+    </i>
+    <i r="2">
+      <x v="19"/>
     </i>
     <i t="grand">
       <x/>
@@ -927,13 +2050,13 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="1" hier="-1"/>
+    <pageField fld="0" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="消费明细" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="消费明细" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="11">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -944,6 +2067,27 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:M36" totalsRowShown="0" headerRowDxfId="22" dataDxfId="23" headerRowBorderDxfId="37" tableBorderDxfId="38" totalsRowBorderDxfId="36">
+  <autoFilter ref="B2:M36"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="姓名" dataDxfId="35"/>
+    <tableColumn id="2" name="昵称" dataDxfId="34"/>
+    <tableColumn id="3" name="类型（充值／消费／其他）" dataDxfId="33"/>
+    <tableColumn id="4" name="日期" dataDxfId="32"/>
+    <tableColumn id="5" name="显示条目" dataDxfId="31"/>
+    <tableColumn id="6" name="产品" dataDxfId="30"/>
+    <tableColumn id="7" name="数量" dataDxfId="29"/>
+    <tableColumn id="8" name="DC" dataDxfId="28"/>
+    <tableColumn id="9" name="充值金额" dataDxfId="27"/>
+    <tableColumn id="10" name="汇总金额" dataDxfId="26"/>
+    <tableColumn id="11" name="签名" dataDxfId="25"/>
+    <tableColumn id="12" name="备注" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1209,113 +2353,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K11"/>
+  <dimension ref="B1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
+    <row r="1" spans="2:7" ht="53" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="B5" s="15">
-        <v>42465</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="B6" s="15">
-        <v>42466</v>
-      </c>
-      <c r="C6" s="13">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="B7" s="15">
+    <row r="5" spans="2:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="B6" s="14">
         <v>42467</v>
       </c>
-      <c r="C7" s="13">
-        <v>2000</v>
-      </c>
-      <c r="K7">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="13">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <f>8*25</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="B9" s="15">
-        <v>42466</v>
-      </c>
-      <c r="C9" s="13">
-        <v>-308</v>
-      </c>
-      <c r="K9">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="13"/>
-    </row>
-    <row r="11" spans="2:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="13">
-        <v>12692</v>
-      </c>
-    </row>
+      <c r="C6" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="B9" s="14">
+        <v>42467</v>
+      </c>
+      <c r="C9" s="12">
+        <v>-260</v>
+      </c>
+      <c r="E9" s="28"/>
+    </row>
+    <row r="10" spans="2:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="12">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="12">
+        <v>-60</v>
+      </c>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="2:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="12">
+        <v>-70</v>
+      </c>
+      <c r="G12" s="28"/>
+    </row>
+    <row r="13" spans="2:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="12">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="12">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:7" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="24" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1325,10 +2489,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L20"/>
+  <dimension ref="B1:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A42" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1336,493 +2500,947 @@
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="6" width="23.1640625" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="62" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
+    <row r="1" spans="2:13" ht="62" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="2:12" ht="37" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="4" t="s">
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="2:13" ht="37" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="K2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="L2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="13">
+        <v>42465</v>
+      </c>
+      <c r="F3" s="13" t="str">
+        <f>CONCATENATE(G3,"x",H3)</f>
+        <v>充值x1</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1500</v>
+      </c>
+      <c r="K3" s="6">
+        <f>IF(D3="充值",J3,VLOOKUP(G3,产品表!$B$3:$E$100,4,FALSE)*H3*I3*-1)</f>
+        <v>1500</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="2:13" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="13">
+        <v>42466</v>
+      </c>
+      <c r="F4" s="13" t="str">
+        <f t="shared" ref="F4:F20" si="0">CONCATENATE(G4,"x",H4)</f>
+        <v>充值x1</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1500</v>
+      </c>
+      <c r="K4" s="6">
+        <f>IF(D4="充值",J4,VLOOKUP(G4,产品表!$B$3:$E$100,4,FALSE)*H4*I4*-1)</f>
+        <v>1500</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B5" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="13">
+        <v>42466</v>
+      </c>
+      <c r="F5" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>充值x1</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>2000</v>
+      </c>
+      <c r="K5" s="6">
+        <f>IF(D5="充值",J5,VLOOKUP(G5,产品表!$B$3:$E$100,4,FALSE)*H5*I5*-1)</f>
+        <v>2000</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="19"/>
+    </row>
+    <row r="6" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="13">
+        <v>42466</v>
+      </c>
+      <c r="F6" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>充值x1</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>2000</v>
+      </c>
+      <c r="K6" s="6">
+        <f>IF(D6="充值",J6,VLOOKUP(G6,产品表!$B$3:$E$100,4,FALSE)*H6*I6*-1)</f>
+        <v>2000</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="13">
+        <v>42466</v>
+      </c>
+      <c r="F7" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>充值x1</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1500</v>
+      </c>
+      <c r="K7" s="6">
+        <f>IF(D7="充值",J7,VLOOKUP(G7,产品表!$B$3:$E$100,4,FALSE)*H7*I7*-1)</f>
+        <v>1500</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B8" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="C8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="13">
+        <v>42466</v>
+      </c>
+      <c r="F8" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>充值x1</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1500</v>
+      </c>
+      <c r="K8" s="6">
+        <f>IF(D8="充值",J8,VLOOKUP(G8,产品表!$B$3:$E$100,4,FALSE)*H8*I8*-1)</f>
+        <v>1500</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="37" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="14">
-        <v>42465</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7">
-        <v>1500</v>
-      </c>
-      <c r="J3" s="7">
-        <f>IF(D3="充值",I3,VLOOKUP(F3,产品表!$B$3:$E$11,4,FALSE)*G3*H3*-1)</f>
-        <v>1500</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="2:12" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="13">
+        <v>42466</v>
+      </c>
+      <c r="F9" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>高山普洱(壶)x10</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="7">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="14">
-        <v>42466</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1</v>
-      </c>
-      <c r="I4" s="8">
-        <v>1000</v>
-      </c>
-      <c r="J4" s="7">
-        <f>IF(D4="充值",I4,VLOOKUP(F4,产品表!$B$3:$E$11,4,FALSE)*G4*H4*-1)</f>
-        <v>1000</v>
-      </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="2:12" ht="22" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="14">
-        <v>42466</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8">
-        <v>2000</v>
-      </c>
-      <c r="J5" s="7">
-        <f>IF(D5="充值",I5,VLOOKUP(F5,产品表!$B$3:$E$11,4,FALSE)*G5*H5*-1)</f>
-        <v>2000</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="2:12" ht="22" x14ac:dyDescent="0.35">
-      <c r="B6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="14">
-        <v>42466</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1</v>
-      </c>
-      <c r="I6" s="8">
-        <v>2000</v>
-      </c>
-      <c r="J6" s="7">
-        <f>IF(D6="充值",I6,VLOOKUP(F6,产品表!$B$3:$E$11,4,FALSE)*G6*H6*-1)</f>
-        <v>2000</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="2:12" ht="22" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="14">
-        <v>42466</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8">
-        <v>1500</v>
-      </c>
-      <c r="J7" s="7">
-        <f>IF(D7="充值",I7,VLOOKUP(F7,产品表!$B$3:$E$11,4,FALSE)*G7*H7*-1)</f>
-        <v>1500</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="2:12" ht="22" x14ac:dyDescent="0.35">
-      <c r="B8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="14">
-        <v>42466</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8">
-        <v>1500</v>
-      </c>
-      <c r="J8" s="7">
-        <f>IF(D8="充值",I8,VLOOKUP(F8,产品表!$B$3:$E$11,4,FALSE)*G8*H8*-1)</f>
-        <v>1500</v>
-      </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="2:12" ht="22" x14ac:dyDescent="0.35">
-      <c r="B9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="14">
-        <v>42466</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="8">
-        <v>10</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="I9" s="7">
         <f>308/700</f>
         <v>0.44</v>
       </c>
-      <c r="I9" s="8">
+      <c r="J9" s="7">
         <v>0</v>
       </c>
-      <c r="J9" s="7">
-        <f>IF(D9="充值",I9,VLOOKUP(F9,产品表!$B$3:$E$11,4,FALSE)*G9*H9*(-1))</f>
+      <c r="K9" s="6">
+        <f>IF(D9="充值",J9,VLOOKUP(G9,产品表!$B$3:$E$100,4,FALSE)*H9*I9*-1)</f>
         <v>-308</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="2:12" ht="22" x14ac:dyDescent="0.35">
-      <c r="B10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="L9" s="7"/>
+      <c r="M9" s="19"/>
+    </row>
+    <row r="10" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B10" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="13">
+        <v>42466</v>
+      </c>
+      <c r="F10" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>充值x1</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1500</v>
+      </c>
+      <c r="K10" s="6">
+        <f>IF(D10="充值",J10,VLOOKUP(G10,产品表!$B$3:$E$100,4,FALSE)*H10*I10*-1)</f>
+        <v>1500</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="19"/>
+    </row>
+    <row r="11" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B11" s="18"/>
+      <c r="C11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="13">
+        <v>42467</v>
+      </c>
+      <c r="F11" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>充值x1</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1500</v>
+      </c>
+      <c r="K11" s="6">
+        <f>IF(D11="充值",J11,VLOOKUP(G11,产品表!$B$3:$E$100,4,FALSE)*H11*I11*-1)</f>
+        <v>1500</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="19"/>
+    </row>
+    <row r="12" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B12" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="13">
+        <v>42467</v>
+      </c>
+      <c r="F12" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>充值x1</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7">
+        <v>500</v>
+      </c>
+      <c r="K12" s="6">
+        <f>IF(D12="充值",J12,VLOOKUP(G12,产品表!$B$3:$E$100,4,FALSE)*H12*I12*-1)</f>
+        <v>500</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="19"/>
+    </row>
+    <row r="13" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B13" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="13">
+        <v>42467</v>
+      </c>
+      <c r="F13" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>手冲拿铁(杯)x1</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="6">
+        <f>IF(D13="充值",J13,VLOOKUP(G13,产品表!$B$3:$E$100,4,FALSE)*H13*I13*-1)</f>
+        <v>-25</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="19"/>
+    </row>
+    <row r="14" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B14" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="14">
-        <v>42466</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8">
-        <v>1500</v>
-      </c>
-      <c r="J10" s="7">
-        <f>IF(D10="充值",I10,VLOOKUP(F10,产品表!$B$3:$E$11,4,FALSE)*G10*H10*(-1))</f>
-        <v>1500</v>
-      </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="2:12" ht="22" x14ac:dyDescent="0.35">
-      <c r="B11" s="8"/>
-      <c r="C11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="14">
+      <c r="E14" s="13">
         <v>42467</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8">
-        <v>1500</v>
-      </c>
-      <c r="J11" s="7">
-        <f>IF(D11="充值",I11,VLOOKUP(F11,产品表!$B$3:$E$11,4,FALSE)*G11*H11*(-1))</f>
-        <v>1500</v>
-      </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="2:12" ht="22" x14ac:dyDescent="0.35">
-      <c r="B12" s="8"/>
-      <c r="C12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="F14" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>茶位费(位)x1</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="6">
+        <f>IF(D14="充值",J14,VLOOKUP(G14,产品表!$B$3:$E$100,4,FALSE)*H14*I14*-1)</f>
+        <v>-20</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="19"/>
+    </row>
+    <row r="15" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="13">
         <v>42467</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1</v>
-      </c>
-      <c r="I12" s="8">
-        <v>500</v>
-      </c>
-      <c r="J12" s="7">
-        <f>IF(D12="充值",I12,VLOOKUP(F12,产品表!$B$3:$E$11,4,FALSE)*G12*H12*(-1))</f>
-        <v>500</v>
-      </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="2:12" ht="22" x14ac:dyDescent="0.35">
-      <c r="B13" s="8"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="2:12" ht="22" x14ac:dyDescent="0.35">
-      <c r="B14" s="8"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="2:12" ht="22" x14ac:dyDescent="0.35">
-      <c r="B15" s="8"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="2:12" ht="22" x14ac:dyDescent="0.35">
-      <c r="B16" s="8"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="2:12" ht="22" x14ac:dyDescent="0.35">
-      <c r="B17" s="8"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="2:12" ht="22" x14ac:dyDescent="0.35">
-      <c r="B18" s="8"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="2:12" ht="22" x14ac:dyDescent="0.35">
-      <c r="B19" s="8"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="2:12" ht="22" x14ac:dyDescent="0.35">
-      <c r="B20" s="8"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="5"/>
+      <c r="F15" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>坚果(盘)x1</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="6">
+        <f>IF(D15="充值",J15,VLOOKUP(G15,产品表!$B$3:$E$100,4,FALSE)*H15*I15*-1)</f>
+        <v>-20</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="19"/>
+    </row>
+    <row r="16" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B16" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="13">
+        <v>42467</v>
+      </c>
+      <c r="F16" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>锡兰红茶(壶)x1</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="6">
+        <f>IF(D16="充值",J16,VLOOKUP(G16,产品表!$B$3:$E$100,4,FALSE)*H16*I16*-1)</f>
+        <v>-70</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="19"/>
+    </row>
+    <row r="17" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B17" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="13">
+        <v>42467</v>
+      </c>
+      <c r="F17" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>绿茶(杯)x2</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="6">
+        <f>IF(D17="充值",J17,VLOOKUP(G17,产品表!$B$3:$E$100,4,FALSE)*H17*I17*-1)</f>
+        <v>-60</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="19"/>
+    </row>
+    <row r="18" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B18" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="13">
+        <v>42467</v>
+      </c>
+      <c r="F18" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>花果茶玫瑰(壶)x1</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="6">
+        <f>IF(D18="充值",J18,VLOOKUP(G18,产品表!$B$3:$E$100,4,FALSE)*H18*I18*-1)</f>
+        <v>-70</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="19"/>
+    </row>
+    <row r="19" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B19" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="13">
+        <v>42467</v>
+      </c>
+      <c r="F19" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>坚果(盘)x3</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="6">
+        <f>IF(D19="充值",J19,VLOOKUP(G19,产品表!$B$3:$E$100,4,FALSE)*H19*I19*-1)</f>
+        <v>-60</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="19"/>
+    </row>
+    <row r="20" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B20" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="13">
+        <v>42467</v>
+      </c>
+      <c r="F20" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>手冲拿铁(杯)x1</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="6">
+        <f>IF(D20="充值",J20,VLOOKUP(G20,产品表!$B$3:$E$100,4,FALSE)*H20*I20*-1)</f>
+        <v>-25</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="19"/>
+    </row>
+    <row r="21" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B21" s="18"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="19"/>
+    </row>
+    <row r="22" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B22" s="18"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="19"/>
+    </row>
+    <row r="23" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B23" s="18"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="19"/>
+    </row>
+    <row r="24" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B24" s="18"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="19"/>
+    </row>
+    <row r="25" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B25" s="18"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="19"/>
+    </row>
+    <row r="26" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B26" s="18"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="19"/>
+    </row>
+    <row r="27" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B27" s="18"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="19"/>
+    </row>
+    <row r="28" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B28" s="18"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="19"/>
+    </row>
+    <row r="29" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B29" s="18"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="19"/>
+    </row>
+    <row r="30" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B30" s="18"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="19"/>
+    </row>
+    <row r="31" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B31" s="18"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="19"/>
+    </row>
+    <row r="32" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B32" s="18"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="19"/>
+    </row>
+    <row r="33" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B33" s="18"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="19"/>
+    </row>
+    <row r="34" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B34" s="18"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="19"/>
+    </row>
+    <row r="35" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B35" s="18"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="6" t="e">
+        <f>IF(D35="充值",J35,VLOOKUP(G35,产品表!$B$3:$E$151,4,FALSE)*H35*I35*-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L35" s="7"/>
+      <c r="M35" s="19"/>
+    </row>
+    <row r="36" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="26" t="e">
+        <f>IF(D36="充值",J36,VLOOKUP(G36,产品表!$B$3:$E$151,4,FALSE)*H36*I36*-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L36" s="25"/>
+      <c r="M36" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>产品表!$B$3:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F20</xm:sqref>
+          <xm:sqref>G3:G8 G10:G12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>产品表!$B$3:$B$115</xm:f>
+          </x14:formula1>
+          <xm:sqref>G9 G13:G36</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1832,75 +3450,73 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G12"/>
+  <dimension ref="B2:G13"/>
   <sheetViews>
-    <sheetView zoomScale="132" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView zoomScale="169" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="str">
-        <f>CONCATENATE(C3,"1",F3)</f>
-        <v>充值1次</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="str">
-        <f>CONCATENATE(C4,"1",F4)</f>
-        <v>拿铁1杯</v>
+        <f>CONCATENATE(C4,"(",F4,")")</f>
+        <v>手冲拿铁(杯)</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -1908,20 +3524,20 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="str">
-        <f t="shared" ref="B5:B10" si="0">CONCATENATE(C5,"1",F5)</f>
-        <v>锡兰红茶1杯</v>
+        <f t="shared" ref="B5:B13" si="0">CONCATENATE(C5,"(",F5,")")</f>
+        <v>锡兰红茶(杯)</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1">
         <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -1930,19 +3546,19 @@
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>高山普洱1杯</v>
+        <v>高山普洱(杯)</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1">
         <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -1951,19 +3567,19 @@
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>花果茶玫瑰1杯</v>
+        <v>花果茶玫瑰(杯)</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1">
         <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -1972,19 +3588,19 @@
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>锡兰红茶1壶</v>
+        <v>锡兰红茶(壶)</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1">
         <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -1993,19 +3609,19 @@
     <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>高山普洱1壶</v>
+        <v>高山普洱(壶)</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1">
         <v>70</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -2014,39 +3630,86 @@
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>花果茶玫瑰1壶</v>
+        <v>花果茶玫瑰(壶)</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1">
         <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="B11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>坚果(盘)</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="B12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>绿茶(杯)</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>茶位费(位)</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="29">
+        <v>20</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/文档/葡萄院儿会员日记.xlsx
+++ b/文档/葡萄院儿会员日记.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,8 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="51" r:id="rId4"/>
+    <pivotCache cacheId="90" r:id="rId4"/>
+    <pivotCache cacheId="89" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="129">
   <si>
     <t>葡萄院儿The Vineyard会员日记</t>
     <rPh sb="0" eb="1">
@@ -337,16 +338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张小蓉</t>
-    <rPh sb="0" eb="1">
-      <t>zhang xiao rong</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>xiao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小艾爸</t>
     <rPh sb="0" eb="1">
       <t>xiao ai</t>
@@ -406,9 +397,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消费</t>
-  </si>
-  <si>
     <t>余额</t>
   </si>
   <si>
@@ -437,9 +425,6 @@
   </si>
   <si>
     <t>何利</t>
-  </si>
-  <si>
-    <t>何利</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -464,19 +449,368 @@
     <t>花果茶玫瑰(壶)</t>
   </si>
   <si>
-    <t>充值x1</t>
-  </si>
-  <si>
-    <t>锡兰红茶(壶)x1</t>
-  </si>
-  <si>
-    <t>绿茶(杯)x2</t>
-  </si>
-  <si>
-    <t>花果茶玫瑰(壶)x1</t>
-  </si>
-  <si>
-    <t>坚果(盘)x3</t>
+    <t>张小容</t>
+    <rPh sb="0" eb="1">
+      <t>zhang xiao rong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>rong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在一起，消磨最美好的时光。</t>
+    <rPh sb="0" eb="1">
+      <t>zai yi qi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao mo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zui mei hao de shi guang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘟嘟妈妈</t>
+    <rPh sb="0" eb="1">
+      <t>du du ma</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>m ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花果茶玫瑰(杯)</t>
+  </si>
+  <si>
+    <t>热巧克力</t>
+    <rPh sb="0" eb="1">
+      <t>re</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qiao ke li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热巧克力(杯)</t>
+  </si>
+  <si>
+    <t>葡萄院儿帐单</t>
+    <rPh sb="0" eb="1">
+      <t>pu tao yuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>er</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhang dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感谢光临葡萄院儿  the vineyard！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原惠玲</t>
+    <rPh sb="2" eb="3">
+      <t>ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啤酒</t>
+    <rPh sb="0" eb="1">
+      <t>pi jiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒类</t>
+    <rPh sb="0" eb="1">
+      <t>jiu lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高山普洱(杯)</t>
+  </si>
+  <si>
+    <t>冯宇</t>
+    <rPh sb="0" eb="1">
+      <t>feng yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>档爸</t>
+    <rPh sb="0" eb="1">
+      <t>dang ba</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛丹</t>
+    <rPh sb="0" eb="1">
+      <t>xue dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇上</t>
+    <rPh sb="0" eb="1">
+      <t>huang s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗宏</t>
+    <rPh sb="0" eb="1">
+      <t>luo hong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜爸</t>
+    <rPh sb="0" eb="1">
+      <t>xi ba</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张小容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳妈</t>
+    <rPh sb="0" eb="1">
+      <t>yang ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慧君</t>
+    <rPh sb="0" eb="1">
+      <t>hui jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锡兰红茶(杯)</t>
+  </si>
+  <si>
+    <t>张小容</t>
+    <rPh sb="0" eb="1">
+      <t>zhang xiao rong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零点</t>
+    <rPh sb="0" eb="1">
+      <t>ling dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如有疑问，请拨打18181996296.</t>
+    <rPh sb="0" eb="1">
+      <t>ru you yi wen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qing bo da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费</t>
+  </si>
+  <si>
+    <t>(空白)</t>
+  </si>
+  <si>
+    <t>(全部)</t>
+  </si>
+  <si>
+    <t>会员消费</t>
+  </si>
+  <si>
+    <t>会员消费</t>
+    <rPh sb="0" eb="1">
+      <t>hui yuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党委娅</t>
+    <rPh sb="0" eb="1">
+      <t>dang wei ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原慧玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施济</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜榨果汁</t>
+    <rPh sb="0" eb="1">
+      <t>xian zha guo zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信和活动</t>
+    <rPh sb="0" eb="1">
+      <t>xin he</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huo dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插花</t>
+  </si>
+  <si>
+    <t>插花</t>
+    <rPh sb="0" eb="1">
+      <t>cha hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞哥</t>
+    <rPh sb="0" eb="1">
+      <t>fei ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果汁</t>
+    <rPh sb="0" eb="1">
+      <t>guo zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果汁(杯)</t>
+  </si>
+  <si>
+    <t>手冲拿铁(杯)x1</t>
+  </si>
+  <si>
+    <t>冰锐酒</t>
+    <rPh sb="0" eb="1">
+      <t>bing rui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓶</t>
+    <rPh sb="0" eb="1">
+      <t>ping</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啤酒(瓶)</t>
+  </si>
+  <si>
+    <t>冰锐果酒</t>
+    <rPh sb="0" eb="1">
+      <t>bing rui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guo jiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰锐果酒(瓶)</t>
+  </si>
+  <si>
+    <t>赵鹏飞</t>
+    <rPh sb="0" eb="1">
+      <t>z p f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <rPh sb="0" eb="1">
+      <t>huo dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花果茶玫瑰(杯)x1</t>
+  </si>
+  <si>
+    <t>手冲拿铁(杯)x7</t>
+  </si>
+  <si>
+    <t>啤酒(瓶)x8</t>
+  </si>
+  <si>
+    <t>列标签</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>求和/汇总金额</t>
+  </si>
+  <si>
+    <t>行标签</t>
+  </si>
+  <si>
+    <t>冰锐果酒(瓶)x1</t>
+  </si>
+  <si>
+    <t>插花x1</t>
+  </si>
+  <si>
+    <t>果汁(杯)x2</t>
+  </si>
+  <si>
+    <t>绿茶(杯)x1</t>
+  </si>
+  <si>
+    <t>手冲拿铁(杯)x2</t>
+  </si>
+  <si>
+    <t>求和/数量</t>
+  </si>
+  <si>
+    <t>帕萨迪纳业主</t>
+    <rPh sb="0" eb="1">
+      <t>pa s d n</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ye z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -487,7 +821,7 @@
     <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -552,6 +886,26 @@
       <color theme="1"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="雅痞-简 常规体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="雅痞-简 常规体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -561,7 +915,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -689,14 +1043,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -712,12 +1076,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="58" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -738,138 +1096,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="32">
     <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     </dxf>
     <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     </dxf>
     <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     </dxf>
     <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     </dxf>
     <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     </dxf>
     <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -882,21 +1160,138 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Helvetica"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1301,13 +1696,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -1324,33 +1712,55 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="18"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <sz val="18"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1368,45 +1778,59 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42468.047312962961" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="34">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42470.983657986108" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="53">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B2:M36" sheet="明细"/>
+    <worksheetSource ref="B2:M75" sheet="明细"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="姓名" numFmtId="0">
-      <sharedItems containsBlank="1" count="10">
+      <sharedItems containsBlank="1" count="20">
         <s v="冯宇"/>
         <s v="薛丹"/>
-        <s v="张小蓉"/>
+        <s v="张小容"/>
         <s v="罗宏"/>
         <s v="骆文明"/>
         <s v="刘佳"/>
         <s v="其他"/>
         <s v="党委娅"/>
+        <s v="涵涵妈"/>
+        <s v="何利"/>
+        <s v="嘟嘟妈妈"/>
+        <s v="原惠玲"/>
+        <s v="慧君"/>
+        <s v="零点"/>
+        <s v="原慧玲"/>
+        <s v="施济"/>
+        <s v="活动"/>
+        <s v="赵鹏飞"/>
         <m/>
-        <s v="何利"/>
+        <s v="张小蓉" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="昵称" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="类型（充值／消费／其他）" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
+      <sharedItems containsBlank="1" count="4">
         <s v="充值"/>
         <s v="消费"/>
+        <s v="会员消费"/>
         <m/>
       </sharedItems>
     </cacheField>
-    <cacheField name="日期" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-05T00:00:00" maxDate="2016-04-08T00:00:00" count="4">
+    <cacheField name="日期" numFmtId="58">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-05T00:00:00" maxDate="2016-04-11T00:00:00" count="7">
         <d v="2016-04-05T00:00:00"/>
         <d v="2016-04-06T00:00:00"/>
         <d v="2016-04-07T00:00:00"/>
+        <d v="2016-04-08T00:00:00"/>
+        <d v="2016-04-09T00:00:00"/>
+        <d v="2016-04-10T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
-    <cacheField name="显示条目" numFmtId="0">
-      <sharedItems containsBlank="1" count="20">
+    <cacheField name="显示条目" numFmtId="58">
+      <sharedItems containsBlank="1" count="35">
         <s v="充值x1"/>
         <s v="高山普洱(壶)x10"/>
         <s v="手冲拿铁(杯)x1"/>
@@ -1416,7 +1840,22 @@
         <s v="绿茶(杯)x2"/>
         <s v="花果茶玫瑰(壶)x1"/>
         <s v="坚果(盘)x3"/>
-        <m/>
+        <s v="绿茶(杯)x1"/>
+        <s v="手冲拿铁(杯)x2"/>
+        <s v="花果茶玫瑰(杯)x2"/>
+        <s v="热巧克力(杯)x1"/>
+        <s v="高山普洱(杯)x1"/>
+        <s v="锡兰红茶(杯)x1"/>
+        <s v="手冲拿铁(杯)x3"/>
+        <s v="高山普洱(杯)x3"/>
+        <s v="花果茶玫瑰(杯)x1"/>
+        <s v="手冲拿铁(杯)x7"/>
+        <s v="啤酒(瓶)x8"/>
+        <s v="果汁(杯)x2"/>
+        <s v="插花x1"/>
+        <s v="冰锐果酒(瓶)x1"/>
+        <s v="x1"/>
+        <m u="1"/>
         <s v="花果茶玫瑰1壶x1" u="1"/>
         <s v="坚果1盘x1" u="1"/>
         <s v="坚果1盘x3" u="1"/>
@@ -1433,22 +1872,149 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="数量" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
     </cacheField>
     <cacheField name="DC" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.44" maxValue="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.44" maxValue="1"/>
     </cacheField>
     <cacheField name="充值金额" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="2000"/>
     </cacheField>
     <cacheField name="汇总金额" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="-308" maxValue="2000"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-308" maxValue="2000"/>
     </cacheField>
     <cacheField name="签名" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="备注" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42470.99478252315" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="53">
+  <cacheSource type="worksheet">
+    <worksheetSource name="表1"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="姓名" numFmtId="0">
+      <sharedItems containsBlank="1" count="19">
+        <s v="冯宇"/>
+        <s v="薛丹"/>
+        <s v="张小容"/>
+        <s v="罗宏"/>
+        <s v="骆文明"/>
+        <s v="刘佳"/>
+        <s v="其他"/>
+        <s v="党委娅"/>
+        <s v="涵涵妈"/>
+        <s v="何利"/>
+        <s v="嘟嘟妈妈"/>
+        <s v="原惠玲"/>
+        <s v="慧君"/>
+        <s v="零点"/>
+        <s v="原慧玲"/>
+        <s v="施济"/>
+        <s v="活动"/>
+        <s v="赵鹏飞"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="昵称" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="类型（充值／消费／其他）" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="充值"/>
+        <s v="消费"/>
+        <s v="会员消费"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="日期" numFmtId="58">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-05T00:00:00" maxDate="2016-04-11T00:00:00" count="7">
+        <d v="2016-04-05T00:00:00"/>
+        <d v="2016-04-06T00:00:00"/>
+        <d v="2016-04-07T00:00:00"/>
+        <d v="2016-04-08T00:00:00"/>
+        <d v="2016-04-09T00:00:00"/>
+        <d v="2016-04-10T00:00:00"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="显示条目" numFmtId="58">
+      <sharedItems count="24">
+        <s v="充值x1"/>
+        <s v="高山普洱(壶)x10"/>
+        <s v="手冲拿铁(杯)x1"/>
+        <s v="茶位费(位)x1"/>
+        <s v="坚果(盘)x1"/>
+        <s v="锡兰红茶(壶)x1"/>
+        <s v="绿茶(杯)x2"/>
+        <s v="花果茶玫瑰(壶)x1"/>
+        <s v="坚果(盘)x3"/>
+        <s v="绿茶(杯)x1"/>
+        <s v="手冲拿铁(杯)x2"/>
+        <s v="花果茶玫瑰(杯)x2"/>
+        <s v="热巧克力(杯)x1"/>
+        <s v="高山普洱(杯)x1"/>
+        <s v="锡兰红茶(杯)x1"/>
+        <s v="手冲拿铁(杯)x3"/>
+        <s v="高山普洱(杯)x3"/>
+        <s v="花果茶玫瑰(杯)x1"/>
+        <s v="手冲拿铁(杯)x7"/>
+        <s v="啤酒(瓶)x8"/>
+        <s v="果汁(杯)x2"/>
+        <s v="插花x1"/>
+        <s v="冰锐果酒(瓶)x1"/>
+        <s v="x1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="产品" numFmtId="0">
+      <sharedItems containsBlank="1" count="17">
+        <s v="充值"/>
+        <s v="高山普洱(壶)"/>
+        <s v="手冲拿铁(杯)"/>
+        <s v="茶位费(位)"/>
+        <s v="坚果(盘)"/>
+        <s v="锡兰红茶(壶)"/>
+        <s v="绿茶(杯)"/>
+        <s v="花果茶玫瑰(壶)"/>
+        <s v="花果茶玫瑰(杯)"/>
+        <s v="热巧克力(杯)"/>
+        <s v="高山普洱(杯)"/>
+        <s v="锡兰红茶(杯)"/>
+        <s v="啤酒(瓶)"/>
+        <s v="果汁(杯)"/>
+        <s v="插花"/>
+        <s v="冰锐果酒(瓶)"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="数量" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
+    </cacheField>
+    <cacheField name="DC" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.44" maxValue="1"/>
+    </cacheField>
+    <cacheField name="充值金额" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="2000"/>
+    </cacheField>
+    <cacheField name="汇总金额" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-308" maxValue="2000"/>
+    </cacheField>
+    <cacheField name="签名" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="备注" numFmtId="0">
+      <sharedItems containsBlank="1"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1460,7 +2026,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="34">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="53">
   <r>
     <x v="0"/>
     <s v="档爸"/>
@@ -1604,7 +2170,7 @@
   <r>
     <x v="2"/>
     <s v="阳妈"/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="2"/>
     <s v="手冲拿铁(杯)"/>
@@ -1618,7 +2184,7 @@
   <r>
     <x v="0"/>
     <s v="档爸"/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="3"/>
     <s v="茶位费(位)"/>
@@ -1632,7 +2198,7 @@
   <r>
     <x v="0"/>
     <s v="档爸"/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="4"/>
     <s v="坚果(盘)"/>
@@ -1646,7 +2212,7 @@
   <r>
     <x v="9"/>
     <s v="葡萄奶奶"/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="5"/>
     <s v="锡兰红茶(壶)"/>
@@ -1660,35 +2226,35 @@
   <r>
     <x v="9"/>
     <s v="葡萄奶奶"/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="6"/>
     <s v="绿茶(杯)"/>
     <n v="2"/>
     <n v="1"/>
     <m/>
-    <n v="-60"/>
+    <n v="-40"/>
     <m/>
     <m/>
   </r>
   <r>
     <x v="9"/>
     <s v="葡萄奶奶"/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="7"/>
     <s v="花果茶玫瑰(壶)"/>
     <n v="1"/>
     <n v="1"/>
     <m/>
-    <n v="-70"/>
+    <n v="-80"/>
     <m/>
     <m/>
   </r>
   <r>
     <x v="9"/>
     <s v="葡萄奶奶"/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="8"/>
     <s v="坚果(盘)"/>
@@ -1702,8 +2268,22 @@
   <r>
     <x v="1"/>
     <s v="皇上"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <x v="1"/>
-    <x v="2"/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
     <x v="2"/>
     <s v="手冲拿铁(杯)"/>
     <n v="1"/>
@@ -1714,226 +2294,1225 @@
     <m/>
   </r>
   <r>
-    <x v="8"/>
+    <x v="1"/>
     <m/>
     <x v="2"/>
     <x v="3"/>
     <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="绿茶(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="10"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="11"/>
+    <s v="花果茶玫瑰(杯)"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="12"/>
+    <s v="热巧克力(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="7"/>
+    <s v="花果茶玫瑰(壶)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-80"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="峰峰妈"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="11"/>
+    <s v="花果茶玫瑰(杯)"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="喜爸"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="13"/>
+    <s v="高山普洱(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="档爸"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="3"/>
+    <s v="茶位费(位)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="皇上"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="喜爸"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="11"/>
+    <s v="花果茶玫瑰(杯)"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="慧君"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="慧君"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="14"/>
+    <s v="锡兰红茶(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="15"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <n v="-75"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="喜爸"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="13"/>
+    <s v="高山普洱(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="零点"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="零点"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="16"/>
+    <s v="高山普洱(杯)"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <n v="-60"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="零点"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="17"/>
+    <s v="花果茶玫瑰(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="17"/>
+    <s v="花果茶玫瑰(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="18"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="7"/>
+    <n v="1"/>
+    <m/>
+    <n v="-175"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="2"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="19"/>
+    <s v="啤酒(瓶)"/>
+    <n v="8"/>
+    <n v="1"/>
+    <m/>
+    <n v="-160"/>
+    <m/>
+    <s v="啤酒"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="原慧玲"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="10"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="施济"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="10"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="施济"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="20"/>
+    <s v="果汁(杯)"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <s v="鲜榨果汁"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="信和活动"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="21"/>
+    <s v="插花"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-300"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="飞哥"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="9"/>
+    <s v="绿茶(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="飞哥"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="22"/>
+    <s v="冰锐果酒(瓶)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-18"/>
+    <m/>
+    <s v="冰锐酒"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <m/>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="23"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <m/>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="23"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <m/>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="23"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <m/>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="23"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="53">
+  <r>
+    <x v="0"/>
+    <s v="档爸"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1500"/>
+    <n v="1500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="皇上"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1500"/>
+    <n v="1500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2000"/>
+    <n v="2000"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="喜爸"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2000"/>
+    <n v="2000"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="峰峰妈"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1500"/>
+    <n v="1500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="小艾爸"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1500"/>
+    <n v="1500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="宏哥朋友"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="10"/>
+    <n v="0.44"/>
+    <n v="0"/>
+    <n v="-308"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="兔妈"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1500"/>
+    <n v="1500"/>
     <m/>
     <m/>
   </r>
   <r>
     <x v="8"/>
+    <s v="涵涵妈"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1500"/>
+    <n v="1500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="葡萄奶奶"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="500"/>
+    <n v="500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="档爸"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="档爸"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="葡萄奶奶"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-70"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="葡萄奶奶"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-40"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="葡萄奶奶"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-80"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="葡萄奶奶"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <n v="-60"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="皇上"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
     <m/>
     <x v="2"/>
     <x v="3"/>
     <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="11"/>
     <x v="8"/>
-    <m/>
-    <x v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+    <x v="1"/>
     <x v="3"/>
+    <x v="12"/>
     <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-80"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="峰峰妈"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="11"/>
     <x v="8"/>
-    <m/>
-    <x v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <x v="3"/>
+    <s v="喜爸"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="13"/>
+    <x v="10"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="档爸"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="皇上"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="喜爸"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="11"/>
+    <x v="8"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="慧君"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="慧君"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="11"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="15"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <n v="-75"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="喜爸"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="10"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="零点"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="零点"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="16"/>
+    <x v="10"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <n v="-60"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="零点"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="17"/>
+    <x v="8"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="17"/>
+    <x v="8"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="18"/>
+    <x v="2"/>
+    <n v="7"/>
+    <n v="1"/>
+    <m/>
+    <n v="-175"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="19"/>
+    <x v="12"/>
+    <n v="8"/>
+    <n v="1"/>
+    <m/>
+    <n v="-160"/>
+    <m/>
+    <s v="啤酒"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="原慧玲"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="施济"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="施济"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="13"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <s v="鲜榨果汁"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="信和活动"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="21"/>
+    <x v="14"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-300"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="飞哥"/>
+    <x v="1"/>
+    <x v="5"/>
     <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <x v="2"/>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="飞哥"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="22"/>
+    <x v="15"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-18"/>
+    <m/>
+    <s v="冰锐酒"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <m/>
     <x v="3"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <x v="2"/>
+    <x v="6"/>
+    <x v="23"/>
+    <x v="16"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <m/>
     <x v="3"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <x v="2"/>
+    <x v="6"/>
+    <x v="23"/>
+    <x v="16"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <m/>
     <x v="3"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <x v="2"/>
+    <x v="6"/>
+    <x v="23"/>
+    <x v="16"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <m/>
     <x v="3"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <e v="#N/A"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <e v="#N/A"/>
+    <x v="6"/>
+    <x v="23"/>
+    <x v="16"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
     <m/>
     <m/>
   </r>
@@ -1941,56 +3520,355 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="会员汇总" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" grandTotalCaption="余额" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B4:C14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="89" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="Q10:R28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="11">
-        <item h="1" x="7"/>
-        <item h="1" x="0"/>
-        <item h="1" x="5"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="6"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="8"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="18">
+        <item x="15"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="12"/>
         <item x="9"/>
+        <item x="2"/>
+        <item x="11"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="18">
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="求和/数量" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="89" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H10:M19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="20">
+        <item sd="0" x="7"/>
+        <item x="10"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item x="12"/>
+        <item sd="0" x="16"/>
+        <item x="13"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="1"/>
+        <item x="11"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="17"/>
+        <item x="18"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="25">
+        <item sd="0" x="23"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="21"/>
+        <item x="3"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="5"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="3"/>
+    <field x="0"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="求和/汇总金额" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="会员汇总" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" grandTotalCaption="余额" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B12:C33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="21">
+        <item x="7"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item m="1" x="19"/>
+        <item x="18"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0" countASubtotal="1">
-      <items count="4">
-        <item x="0"/>
+      <items count="5">
+        <item sd="0" x="0"/>
         <item x="1"/>
-        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item x="2"/>
         <item t="countA"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item sd="0" x="3"/>
+      <items count="8">
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
-        <item x="2"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item x="5"/>
+        <item x="6"/>
         <item t="default" sd="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="20">
-        <item m="1" x="16"/>
-        <item m="1" x="13"/>
-        <item m="1" x="19"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item m="1" x="12"/>
-        <item m="1" x="18"/>
-        <item m="1" x="14"/>
-        <item m="1" x="15"/>
-        <item x="9"/>
+      <items count="35">
+        <item m="1" x="31"/>
+        <item m="1" x="28"/>
+        <item m="1" x="34"/>
+        <item m="1" x="25"/>
+        <item m="1" x="26"/>
+        <item m="1" x="27"/>
+        <item m="1" x="33"/>
+        <item m="1" x="29"/>
+        <item m="1" x="30"/>
+        <item m="1" x="24"/>
         <item x="0"/>
-        <item m="1" x="17"/>
+        <item m="1" x="32"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
@@ -1999,6 +3877,21 @@
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
+        <item x="9"/>
+        <item x="23"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="16"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
       </items>
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -2010,37 +3903,70 @@
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="3">
+    <field x="3"/>
     <field x="2"/>
-    <field x="3"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="21">
     <i>
       <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="20"/>
+    </i>
+    <i r="2">
+      <x v="22"/>
+    </i>
+    <i r="2">
+      <x v="32"/>
+    </i>
+    <i r="2">
+      <x v="33"/>
     </i>
     <i r="1">
       <x v="3"/>
     </i>
     <i r="2">
-      <x v="10"/>
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="29"/>
+    </i>
+    <i r="2">
+      <x v="30"/>
+    </i>
+    <i r="2">
+      <x v="31"/>
+    </i>
+    <i r="2">
+      <x v="34"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="6"/>
     </i>
     <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="16"/>
-    </i>
-    <i r="2">
-      <x v="17"/>
-    </i>
-    <i r="2">
-      <x v="18"/>
-    </i>
-    <i r="2">
-      <x v="19"/>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -2056,7 +3982,7 @@
     <dataField name="消费明细" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="11">
+    <format dxfId="31">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -2070,21 +3996,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:M36" totalsRowShown="0" headerRowDxfId="22" dataDxfId="23" headerRowBorderDxfId="37" tableBorderDxfId="38" totalsRowBorderDxfId="36">
-  <autoFilter ref="B2:M36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:M75" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="12">
-    <tableColumn id="1" name="姓名" dataDxfId="35"/>
-    <tableColumn id="2" name="昵称" dataDxfId="34"/>
-    <tableColumn id="3" name="类型（充值／消费／其他）" dataDxfId="33"/>
-    <tableColumn id="4" name="日期" dataDxfId="32"/>
-    <tableColumn id="5" name="显示条目" dataDxfId="31"/>
-    <tableColumn id="6" name="产品" dataDxfId="30"/>
-    <tableColumn id="7" name="数量" dataDxfId="29"/>
-    <tableColumn id="8" name="DC" dataDxfId="28"/>
-    <tableColumn id="9" name="充值金额" dataDxfId="27"/>
-    <tableColumn id="10" name="汇总金额" dataDxfId="26"/>
-    <tableColumn id="11" name="签名" dataDxfId="25"/>
-    <tableColumn id="12" name="备注" dataDxfId="24"/>
+    <tableColumn id="1" name="姓名" dataDxfId="25"/>
+    <tableColumn id="2" name="昵称" dataDxfId="24"/>
+    <tableColumn id="3" name="类型（充值／消费／其他）" dataDxfId="23"/>
+    <tableColumn id="4" name="日期" dataDxfId="22"/>
+    <tableColumn id="5" name="显示条目" dataDxfId="21"/>
+    <tableColumn id="6" name="产品" dataDxfId="20"/>
+    <tableColumn id="7" name="数量" dataDxfId="19"/>
+    <tableColumn id="8" name="DC" dataDxfId="18"/>
+    <tableColumn id="9" name="充值金额" dataDxfId="17"/>
+    <tableColumn id="10" name="汇总金额" dataDxfId="16">
+      <calculatedColumnFormula>IF(表1[[#This Row],[姓名]]="",0,IF(D3="充值",J3,VLOOKUP(G3,表2[#All],4,FALSE)*H3*I3*-1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="签名" dataDxfId="15"/>
+    <tableColumn id="12" name="备注" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B2:G17" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="12" tableBorderDxfId="13">
+  <autoFilter ref="B2:G17"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="描述" dataDxfId="11"/>
+    <tableColumn id="2" name="名称" dataDxfId="10"/>
+    <tableColumn id="3" name="类别" dataDxfId="9"/>
+    <tableColumn id="4" name="售价" dataDxfId="8"/>
+    <tableColumn id="5" name="单位" dataDxfId="7"/>
+    <tableColumn id="6" name="菜单版本号" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2353,134 +4295,530 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G22"/>
+  <dimension ref="B1:R33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" topLeftCell="F7" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="36.83203125" customWidth="1"/>
+    <col min="2" max="2" width="37.1640625" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.83203125" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.83203125" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" customWidth="1"/>
-    <col min="12" max="12" width="7.83203125" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="6.5" customWidth="1"/>
+    <col min="12" max="12" width="7.5" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" customWidth="1"/>
+    <col min="17" max="17" width="15.5" customWidth="1"/>
+    <col min="18" max="18" width="10.5" customWidth="1"/>
+    <col min="19" max="22" width="9.5" customWidth="1"/>
+    <col min="23" max="23" width="10.5" customWidth="1"/>
+    <col min="24" max="24" width="7.5" customWidth="1"/>
+    <col min="25" max="25" width="5.5" customWidth="1"/>
+    <col min="26" max="26" width="15.5" customWidth="1"/>
+    <col min="27" max="29" width="9.5" customWidth="1"/>
+    <col min="30" max="33" width="13.5" customWidth="1"/>
+    <col min="34" max="34" width="7.5" customWidth="1"/>
+    <col min="35" max="35" width="5.5" customWidth="1"/>
+    <col min="36" max="36" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.5" customWidth="1"/>
+    <col min="38" max="38" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.5" customWidth="1"/>
+    <col min="40" max="40" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.5" customWidth="1"/>
+    <col min="42" max="42" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.5" customWidth="1"/>
+    <col min="44" max="44" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.5" customWidth="1"/>
+    <col min="46" max="46" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.5" customWidth="1"/>
+    <col min="48" max="48" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.5" customWidth="1"/>
+    <col min="50" max="50" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.5" customWidth="1"/>
+    <col min="52" max="52" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="53" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="2:18" ht="53" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="2:18" ht="13" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="27"/>
+    </row>
+    <row r="4" spans="2:18" ht="24" x14ac:dyDescent="0.35">
+      <c r="B4" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="24" x14ac:dyDescent="0.35">
+      <c r="B5" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="11" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="28"/>
+    </row>
+    <row r="8" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="31"/>
+    </row>
+    <row r="9" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="27"/>
+    </row>
+    <row r="10" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C10" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q10" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="R10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="H11" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q11" s="33" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10" t="s">
+      <c r="R11" s="34">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="H12" s="37">
+        <v>42465</v>
+      </c>
+      <c r="I12" s="34">
+        <v>1500</v>
+      </c>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34">
+        <v>1500</v>
+      </c>
+      <c r="Q12" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="R12" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="B13" s="38">
+        <v>42465</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1500</v>
+      </c>
+      <c r="H13" s="37">
+        <v>42466</v>
+      </c>
+      <c r="I13" s="34">
+        <v>10000</v>
+      </c>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34">
+        <v>-308</v>
+      </c>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34">
+        <v>9692</v>
+      </c>
+      <c r="Q13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="B6" s="14">
+      <c r="R13" s="34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="B14" s="38">
+        <v>42466</v>
+      </c>
+      <c r="C14" s="11">
+        <v>9692</v>
+      </c>
+      <c r="H14" s="37">
         <v>42467</v>
       </c>
-      <c r="C6" s="12">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="I14" s="34">
+        <v>2000</v>
+      </c>
+      <c r="J14" s="34">
+        <v>-340</v>
+      </c>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34">
+        <v>1660</v>
+      </c>
+      <c r="Q14" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="R14" s="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="B15" s="38">
+        <v>42467</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1660</v>
+      </c>
+      <c r="H15" s="37">
+        <v>42468</v>
+      </c>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34">
+        <v>-245</v>
+      </c>
+      <c r="K15" s="34">
+        <v>-100</v>
+      </c>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34">
+        <v>-345</v>
+      </c>
+      <c r="Q15" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="12">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="12">
+      <c r="R15" s="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="B16" s="38">
+        <v>42468</v>
+      </c>
+      <c r="C16" s="11">
+        <v>-345</v>
+      </c>
+      <c r="H16" s="37">
+        <v>42469</v>
+      </c>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34">
+        <v>-215</v>
+      </c>
+      <c r="K16" s="34">
+        <v>-155</v>
+      </c>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34">
+        <v>-370</v>
+      </c>
+      <c r="Q16" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="R16" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="B17" s="38">
+        <v>42469</v>
+      </c>
+      <c r="C17" s="11">
+        <v>-370</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="H17" s="37">
+        <v>42470</v>
+      </c>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34">
+        <v>-403</v>
+      </c>
+      <c r="K17" s="34">
+        <v>-505</v>
+      </c>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34">
+        <v>-908</v>
+      </c>
+      <c r="Q17" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="R17" s="34">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="B9" s="14">
-        <v>42467</v>
-      </c>
-      <c r="C9" s="12">
-        <v>-260</v>
-      </c>
-      <c r="E9" s="28"/>
-    </row>
-    <row r="10" spans="2:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="12">
-        <v>-70</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+    <row r="18" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="B18" s="38">
+        <v>42470</v>
+      </c>
+      <c r="C18" s="11">
+        <v>-898</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34">
+        <v>0</v>
+      </c>
+      <c r="M18" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="R18" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="B19" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="11">
+        <v>6</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="H19" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" s="34">
+        <v>13500</v>
+      </c>
+      <c r="J19" s="34">
+        <v>-1203</v>
+      </c>
+      <c r="K19" s="34">
+        <v>-1068</v>
+      </c>
+      <c r="L19" s="34">
+        <v>0</v>
+      </c>
+      <c r="M19" s="34">
+        <v>11229</v>
+      </c>
+      <c r="Q19" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="R19" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="B20" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="11">
+        <v>-25</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="R20" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="B21" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="11">
+        <v>-20</v>
+      </c>
+      <c r="Q21" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="R21" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="B22" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="11">
+        <v>-100</v>
+      </c>
+      <c r="Q22" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="R22" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="B23" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="11">
+        <v>-50</v>
+      </c>
+      <c r="Q23" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="R23" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="B24" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="11">
+        <v>-300</v>
+      </c>
+      <c r="Q24" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="12">
-        <v>-60</v>
-      </c>
-      <c r="F11" s="28"/>
-    </row>
-    <row r="12" spans="2:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="12">
-        <v>-70</v>
-      </c>
-      <c r="G12" s="28"/>
-    </row>
-    <row r="13" spans="2:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="12">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="12">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:7" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="24" x14ac:dyDescent="0.25"/>
+      <c r="R24" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="B25" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="R25" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="B26" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="11">
+        <v>-25</v>
+      </c>
+      <c r="Q26" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="R26" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="B27" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="11">
+        <v>-25</v>
+      </c>
+      <c r="Q27" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="R27" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="B28" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="11">
+        <v>-175</v>
+      </c>
+      <c r="Q28" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="R28" s="34">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="B29" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="11">
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="B30" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="11">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="B32" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="11">
+        <v>11239</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2489,936 +4827,2339 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M36"/>
+  <dimension ref="B1:M75"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="109" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55:I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="6" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="11.1640625" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="62" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
+    <row r="1" spans="2:13" ht="46" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="2:13" ht="37" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="21" t="s">
+      <c r="E2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="37" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>42465</v>
       </c>
-      <c r="F3" s="13" t="str">
+      <c r="F3" s="12" t="str">
         <f>CONCATENATE(G3,"x",H3)</f>
         <v>充值x1</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="6">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
         <v>1500</v>
       </c>
-      <c r="K3" s="6">
-        <f>IF(D3="充值",J3,VLOOKUP(G3,产品表!$B$3:$E$100,4,FALSE)*H3*I3*-1)</f>
+      <c r="K3" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D3="充值",J3,VLOOKUP(G3,表2[#All],4,FALSE)*H3*I3*-1))</f>
         <v>1500</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="19"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="16"/>
     </row>
     <row r="4" spans="2:13" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>42466</v>
       </c>
-      <c r="F4" s="13" t="str">
-        <f t="shared" ref="F4:F20" si="0">CONCATENATE(G4,"x",H4)</f>
+      <c r="F4" s="12" t="str">
+        <f t="shared" ref="F4:F67" si="0">CONCATENATE(G4,"x",H4)</f>
         <v>充值x1</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7">
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6">
         <v>1500</v>
       </c>
-      <c r="K4" s="6">
-        <f>IF(D4="充值",J4,VLOOKUP(G4,产品表!$B$3:$E$100,4,FALSE)*H4*I4*-1)</f>
+      <c r="K4" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D4="充值",J4,VLOOKUP(G4,表2[#All],4,FALSE)*H4*I4*-1))</f>
         <v>1500</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="19"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="16"/>
     </row>
     <row r="5" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B5" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>42466</v>
       </c>
-      <c r="F5" s="13" t="str">
+      <c r="F5" s="12" t="str">
         <f t="shared" si="0"/>
         <v>充值x1</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7">
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
         <v>2000</v>
       </c>
-      <c r="K5" s="6">
-        <f>IF(D5="充值",J5,VLOOKUP(G5,产品表!$B$3:$E$100,4,FALSE)*H5*I5*-1)</f>
+      <c r="K5" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D5="充值",J5,VLOOKUP(G5,表2[#All],4,FALSE)*H5*I5*-1))</f>
         <v>2000</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="19"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="16"/>
     </row>
     <row r="6" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>42466</v>
       </c>
-      <c r="F6" s="13" t="str">
+      <c r="F6" s="12" t="str">
         <f t="shared" si="0"/>
         <v>充值x1</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
         <v>2000</v>
       </c>
-      <c r="K6" s="6">
-        <f>IF(D6="充值",J6,VLOOKUP(G6,产品表!$B$3:$E$100,4,FALSE)*H6*I6*-1)</f>
+      <c r="K6" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D6="充值",J6,VLOOKUP(G6,表2[#All],4,FALSE)*H6*I6*-1))</f>
         <v>2000</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="19"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="16"/>
     </row>
     <row r="7" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>42466</v>
       </c>
-      <c r="F7" s="13" t="str">
+      <c r="F7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>充值x1</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="7">
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
         <v>1500</v>
       </c>
-      <c r="K7" s="6">
-        <f>IF(D7="充值",J7,VLOOKUP(G7,产品表!$B$3:$E$100,4,FALSE)*H7*I7*-1)</f>
+      <c r="K7" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D7="充值",J7,VLOOKUP(G7,表2[#All],4,FALSE)*H7*I7*-1))</f>
         <v>1500</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="19"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>42466</v>
       </c>
-      <c r="F8" s="13" t="str">
+      <c r="F8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>充值x1</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1</v>
-      </c>
-      <c r="J8" s="7">
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
         <v>1500</v>
       </c>
-      <c r="K8" s="6">
-        <f>IF(D8="充值",J8,VLOOKUP(G8,产品表!$B$3:$E$100,4,FALSE)*H8*I8*-1)</f>
+      <c r="K8" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D8="充值",J8,VLOOKUP(G8,表2[#All],4,FALSE)*H8*I8*-1))</f>
         <v>1500</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="19"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>42466</v>
       </c>
-      <c r="F9" s="13" t="str">
+      <c r="F9" s="12" t="str">
         <f t="shared" si="0"/>
         <v>高山普洱(壶)x10</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="7">
+      <c r="G9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="6">
         <v>10</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <f>308/700</f>
         <v>0.44</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>0</v>
       </c>
-      <c r="K9" s="6">
-        <f>IF(D9="充值",J9,VLOOKUP(G9,产品表!$B$3:$E$100,4,FALSE)*H9*I9*-1)</f>
+      <c r="K9" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D9="充值",J9,VLOOKUP(G9,表2[#All],4,FALSE)*H9*I9*-1))</f>
         <v>-308</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="19"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>42466</v>
       </c>
-      <c r="F10" s="13" t="str">
+      <c r="F10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>充值x1</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1</v>
-      </c>
-      <c r="J10" s="7">
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
         <v>1500</v>
       </c>
-      <c r="K10" s="6">
-        <f>IF(D10="充值",J10,VLOOKUP(G10,产品表!$B$3:$E$100,4,FALSE)*H10*I10*-1)</f>
+      <c r="K10" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D10="充值",J10,VLOOKUP(G10,表2[#All],4,FALSE)*H10*I10*-1))</f>
         <v>1500</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="19"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="16"/>
     </row>
     <row r="11" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B11" s="18"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>42467</v>
       </c>
-      <c r="F11" s="13" t="str">
+      <c r="F11" s="12" t="str">
         <f t="shared" si="0"/>
         <v>充值x1</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1</v>
-      </c>
-      <c r="J11" s="7">
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
         <v>1500</v>
       </c>
-      <c r="K11" s="6">
-        <f>IF(D11="充值",J11,VLOOKUP(G11,产品表!$B$3:$E$100,4,FALSE)*H11*I11*-1)</f>
+      <c r="K11" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D11="充值",J11,VLOOKUP(G11,表2[#All],4,FALSE)*H11*I11*-1))</f>
         <v>1500</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="19"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B12" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>42467</v>
       </c>
-      <c r="F12" s="13" t="str">
+      <c r="F12" s="12" t="str">
         <f t="shared" si="0"/>
         <v>充值x1</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1</v>
-      </c>
-      <c r="J12" s="7">
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
         <v>500</v>
       </c>
-      <c r="K12" s="6">
-        <f>IF(D12="充值",J12,VLOOKUP(G12,产品表!$B$3:$E$100,4,FALSE)*H12*I12*-1)</f>
+      <c r="K12" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D12="充值",J12,VLOOKUP(G12,表2[#All],4,FALSE)*H12*I12*-1))</f>
         <v>500</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="19"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="16"/>
     </row>
     <row r="13" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B13" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="13">
+      <c r="D13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="12">
         <v>42467</v>
       </c>
-      <c r="F13" s="13" t="str">
+      <c r="F13" s="12" t="str">
         <f t="shared" si="0"/>
         <v>手冲拿铁(杯)x1</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1</v>
-      </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="6">
-        <f>IF(D13="充值",J13,VLOOKUP(G13,产品表!$B$3:$E$100,4,FALSE)*H13*I13*-1)</f>
+      <c r="G13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D13="充值",J13,VLOOKUP(G13,表2[#All],4,FALSE)*H13*I13*-1))</f>
         <v>-25</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="19"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="16"/>
     </row>
     <row r="14" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="13">
+      <c r="C14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="12">
         <v>42467</v>
       </c>
-      <c r="F14" s="13" t="str">
+      <c r="F14" s="12" t="str">
         <f t="shared" si="0"/>
         <v>茶位费(位)x1</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="6">
-        <f>IF(D14="充值",J14,VLOOKUP(G14,产品表!$B$3:$E$100,4,FALSE)*H14*I14*-1)</f>
+      <c r="G14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D14="充值",J14,VLOOKUP(G14,表2[#All],4,FALSE)*H14*I14*-1))</f>
         <v>-20</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="19"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="16"/>
     </row>
     <row r="15" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="13">
+      <c r="C15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="12">
         <v>42467</v>
       </c>
-      <c r="F15" s="13" t="str">
+      <c r="F15" s="12" t="str">
         <f t="shared" si="0"/>
         <v>坚果(盘)x1</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7">
-        <v>1</v>
-      </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="6">
-        <f>IF(D15="充值",J15,VLOOKUP(G15,产品表!$B$3:$E$100,4,FALSE)*H15*I15*-1)</f>
+      <c r="G15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D15="充值",J15,VLOOKUP(G15,表2[#All],4,FALSE)*H15*I15*-1))</f>
         <v>-20</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="19"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="16"/>
     </row>
     <row r="16" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B16" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="13">
+      <c r="D16" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="12">
         <v>42467</v>
       </c>
-      <c r="F16" s="13" t="str">
+      <c r="F16" s="12" t="str">
         <f t="shared" si="0"/>
         <v>锡兰红茶(壶)x1</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="6">
-        <f>IF(D16="充值",J16,VLOOKUP(G16,产品表!$B$3:$E$100,4,FALSE)*H16*I16*-1)</f>
+      <c r="G16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D16="充值",J16,VLOOKUP(G16,表2[#All],4,FALSE)*H16*I16*-1))</f>
         <v>-70</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="19"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="16"/>
     </row>
     <row r="17" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B17" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="13">
+      <c r="D17" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="12">
         <v>42467</v>
       </c>
-      <c r="F17" s="13" t="str">
+      <c r="F17" s="12" t="str">
         <f t="shared" si="0"/>
         <v>绿茶(杯)x2</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="7">
+      <c r="G17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="6">
         <v>2</v>
       </c>
-      <c r="I17" s="7">
-        <v>1</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="6">
-        <f>IF(D17="充值",J17,VLOOKUP(G17,产品表!$B$3:$E$100,4,FALSE)*H17*I17*-1)</f>
-        <v>-60</v>
-      </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="19"/>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D17="充值",J17,VLOOKUP(G17,表2[#All],4,FALSE)*H17*I17*-1))</f>
+        <v>-40</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="16"/>
     </row>
     <row r="18" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B18" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="13">
+      <c r="D18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="12">
         <v>42467</v>
       </c>
-      <c r="F18" s="13" t="str">
+      <c r="F18" s="12" t="str">
         <f t="shared" si="0"/>
         <v>花果茶玫瑰(壶)x1</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1</v>
-      </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="6">
-        <f>IF(D18="充值",J18,VLOOKUP(G18,产品表!$B$3:$E$100,4,FALSE)*H18*I18*-1)</f>
-        <v>-70</v>
-      </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="19"/>
+      <c r="G18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D18="充值",J18,VLOOKUP(G18,表2[#All],4,FALSE)*H18*I18*-1))</f>
+        <v>-80</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="16"/>
     </row>
     <row r="19" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B19" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="13">
+      <c r="D19" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="12">
         <v>42467</v>
       </c>
-      <c r="F19" s="13" t="str">
+      <c r="F19" s="12" t="str">
         <f t="shared" si="0"/>
         <v>坚果(盘)x3</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="G19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="6">
         <v>3</v>
       </c>
-      <c r="I19" s="7">
-        <v>1</v>
-      </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="6">
-        <f>IF(D19="充值",J19,VLOOKUP(G19,产品表!$B$3:$E$100,4,FALSE)*H19*I19*-1)</f>
+      <c r="I19" s="6">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D19="充值",J19,VLOOKUP(G19,表2[#All],4,FALSE)*H19*I19*-1))</f>
         <v>-60</v>
       </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="19"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="16"/>
     </row>
     <row r="20" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="13">
+      <c r="C20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="12">
         <v>42467</v>
       </c>
-      <c r="F20" s="13" t="str">
+      <c r="F20" s="12" t="str">
         <f t="shared" si="0"/>
         <v>手冲拿铁(杯)x1</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1</v>
-      </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="6">
-        <f>IF(D20="充值",J20,VLOOKUP(G20,产品表!$B$3:$E$100,4,FALSE)*H20*I20*-1)</f>
+      <c r="G20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D20="充值",J20,VLOOKUP(G20,表2[#All],4,FALSE)*H20*I20*-1))</f>
         <v>-25</v>
       </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="19"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="16"/>
     </row>
     <row r="21" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B21" s="18"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="19"/>
+      <c r="B21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="12">
+        <v>42468</v>
+      </c>
+      <c r="F21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>手冲拿铁(杯)x1</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D21="充值",J21,VLOOKUP(G21,表2[#All],4,FALSE)*H21*I21*-1))</f>
+        <v>-25</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="16"/>
     </row>
     <row r="22" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B22" s="18"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="19"/>
+      <c r="B22" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="12">
+        <v>42468</v>
+      </c>
+      <c r="F22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>绿茶(杯)x1</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D22="充值",J22,VLOOKUP(G22,表2[#All],4,FALSE)*H22*I22*-1))</f>
+        <v>-20</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="16"/>
     </row>
     <row r="23" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B23" s="18"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="19"/>
+      <c r="B23" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="12">
+        <v>42468</v>
+      </c>
+      <c r="F23" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>手冲拿铁(杯)x2</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="6">
+        <v>2</v>
+      </c>
+      <c r="I23" s="6">
+        <v>1</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D23="充值",J23,VLOOKUP(G23,表2[#All],4,FALSE)*H23*I23*-1))</f>
+        <v>-50</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="16"/>
     </row>
     <row r="24" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B24" s="18"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="19"/>
+      <c r="B24" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="12">
+        <v>42468</v>
+      </c>
+      <c r="F24" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>花果茶玫瑰(杯)x2</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="6">
+        <v>2</v>
+      </c>
+      <c r="I24" s="6">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D24="充值",J24,VLOOKUP(G24,表2[#All],4,FALSE)*H24*I24*-1))</f>
+        <v>-50</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="16"/>
     </row>
     <row r="25" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B25" s="18"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="19"/>
+      <c r="B25" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="12">
+        <v>42468</v>
+      </c>
+      <c r="F25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>热巧克力(杯)x1</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1</v>
+      </c>
+      <c r="I25" s="6">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D25="充值",J25,VLOOKUP(G25,表2[#All],4,FALSE)*H25*I25*-1))</f>
+        <v>-25</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="16"/>
     </row>
     <row r="26" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B26" s="18"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="19"/>
+      <c r="B26" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="12">
+        <v>42468</v>
+      </c>
+      <c r="F26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>花果茶玫瑰(壶)x1</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1</v>
+      </c>
+      <c r="I26" s="6">
+        <v>1</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D26="充值",J26,VLOOKUP(G26,表2[#All],4,FALSE)*H26*I26*-1))</f>
+        <v>-80</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="16"/>
     </row>
     <row r="27" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B27" s="18"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="19"/>
+      <c r="B27" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="12">
+        <v>42468</v>
+      </c>
+      <c r="F27" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>手冲拿铁(杯)x1</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1</v>
+      </c>
+      <c r="I27" s="6">
+        <v>1</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D27="充值",J27,VLOOKUP(G27,表2[#All],4,FALSE)*H27*I27*-1))</f>
+        <v>-25</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="16"/>
     </row>
     <row r="28" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B28" s="18"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="19"/>
+      <c r="B28" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="12">
+        <v>42468</v>
+      </c>
+      <c r="F28" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>花果茶玫瑰(杯)x2</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="6">
+        <v>2</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D28="充值",J28,VLOOKUP(G28,表2[#All],4,FALSE)*H28*I28*-1))</f>
+        <v>-50</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="16"/>
     </row>
     <row r="29" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B29" s="18"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="19"/>
+      <c r="B29" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="12">
+        <v>42468</v>
+      </c>
+      <c r="F29" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>高山普洱(杯)x1</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="6">
+        <v>1</v>
+      </c>
+      <c r="I29" s="6">
+        <v>1</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D29="充值",J29,VLOOKUP(G29,表2[#All],4,FALSE)*H29*I29*-1))</f>
+        <v>-20</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="16"/>
     </row>
     <row r="30" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B30" s="18"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="19"/>
+      <c r="B30" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="12">
+        <v>42469</v>
+      </c>
+      <c r="F30" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>茶位费(位)x1</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="6">
+        <v>1</v>
+      </c>
+      <c r="I30" s="6">
+        <v>1</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D30="充值",J30,VLOOKUP(G30,表2[#All],4,FALSE)*H30*I30*-1))</f>
+        <v>-20</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="16"/>
     </row>
     <row r="31" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B31" s="18"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="19"/>
+      <c r="B31" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="12">
+        <v>42469</v>
+      </c>
+      <c r="F31" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>手冲拿铁(杯)x1</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="6">
+        <v>1</v>
+      </c>
+      <c r="I31" s="6">
+        <v>1</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D31="充值",J31,VLOOKUP(G31,表2[#All],4,FALSE)*H31*I31*-1))</f>
+        <v>-25</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="16"/>
     </row>
     <row r="32" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B32" s="18"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="19"/>
+      <c r="B32" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="12">
+        <v>42469</v>
+      </c>
+      <c r="F32" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>手冲拿铁(杯)x1</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" s="6">
+        <v>1</v>
+      </c>
+      <c r="I32" s="6">
+        <v>1</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="K32" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D32="充值",J32,VLOOKUP(G32,表2[#All],4,FALSE)*H32*I32*-1))</f>
+        <v>-25</v>
+      </c>
+      <c r="L32" s="6"/>
+      <c r="M32" s="16"/>
     </row>
     <row r="33" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B33" s="18"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="19"/>
+      <c r="B33" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="12">
+        <v>42469</v>
+      </c>
+      <c r="F33" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>花果茶玫瑰(杯)x2</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="6">
+        <v>2</v>
+      </c>
+      <c r="I33" s="6">
+        <v>1</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="K33" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D33="充值",J33,VLOOKUP(G33,表2[#All],4,FALSE)*H33*I33*-1))</f>
+        <v>-50</v>
+      </c>
+      <c r="L33" s="6"/>
+      <c r="M33" s="16"/>
     </row>
     <row r="34" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B34" s="18"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="19"/>
-    </row>
-    <row r="35" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B35" s="18"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="6" t="e">
-        <f>IF(D35="充值",J35,VLOOKUP(G35,产品表!$B$3:$E$151,4,FALSE)*H35*I35*-1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L35" s="7"/>
-      <c r="M35" s="19"/>
+      <c r="B34" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="12">
+        <v>42469</v>
+      </c>
+      <c r="F34" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>手冲拿铁(杯)x1</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1</v>
+      </c>
+      <c r="I34" s="6">
+        <v>1</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="K34" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D34="充值",J34,VLOOKUP(G34,表2[#All],4,FALSE)*H34*I34*-1))</f>
+        <v>-25</v>
+      </c>
+      <c r="L34" s="6"/>
+      <c r="M34" s="16"/>
+    </row>
+    <row r="35" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="B35" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="12">
+        <v>42469</v>
+      </c>
+      <c r="F35" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>锡兰红茶(杯)x1</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="H35" s="6">
+        <v>1</v>
+      </c>
+      <c r="I35" s="6">
+        <v>1</v>
+      </c>
+      <c r="J35" s="22"/>
+      <c r="K35" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D35="充值",J35,VLOOKUP(G35,表2[#All],4,FALSE)*H35*I35*-1))</f>
+        <v>-20</v>
+      </c>
+      <c r="L35" s="22"/>
+      <c r="M35" s="24"/>
     </row>
     <row r="36" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="26" t="e">
-        <f>IF(D36="充值",J36,VLOOKUP(G36,产品表!$B$3:$E$151,4,FALSE)*H36*I36*-1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L36" s="25"/>
-      <c r="M36" s="27"/>
+      <c r="B36" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="12">
+        <v>42469</v>
+      </c>
+      <c r="F36" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>手冲拿铁(杯)x3</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H36" s="6">
+        <v>3</v>
+      </c>
+      <c r="I36" s="6">
+        <v>1</v>
+      </c>
+      <c r="J36" s="6"/>
+      <c r="K36" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D36="充值",J36,VLOOKUP(G36,表2[#All],4,FALSE)*H36*I36*-1))</f>
+        <v>-75</v>
+      </c>
+      <c r="L36" s="6"/>
+      <c r="M36" s="16"/>
+    </row>
+    <row r="37" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B37" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="12">
+        <v>42469</v>
+      </c>
+      <c r="F37" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>高山普洱(杯)x1</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" s="6">
+        <v>1</v>
+      </c>
+      <c r="I37" s="6">
+        <v>1</v>
+      </c>
+      <c r="J37" s="6"/>
+      <c r="K37" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D37="充值",J37,VLOOKUP(G37,表2[#All],4,FALSE)*H37*I37*-1))</f>
+        <v>-20</v>
+      </c>
+      <c r="L37" s="6"/>
+      <c r="M37" s="16"/>
+    </row>
+    <row r="38" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B38" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="12">
+        <v>42469</v>
+      </c>
+      <c r="F38" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>手冲拿铁(杯)x1</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" s="6">
+        <v>1</v>
+      </c>
+      <c r="I38" s="6">
+        <v>1</v>
+      </c>
+      <c r="J38" s="6"/>
+      <c r="K38" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D38="充值",J38,VLOOKUP(G38,表2[#All],4,FALSE)*H38*I38*-1))</f>
+        <v>-25</v>
+      </c>
+      <c r="L38" s="6"/>
+      <c r="M38" s="16"/>
+    </row>
+    <row r="39" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B39" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="12">
+        <v>42469</v>
+      </c>
+      <c r="F39" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>高山普洱(杯)x3</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" s="6">
+        <v>3</v>
+      </c>
+      <c r="I39" s="6">
+        <v>1</v>
+      </c>
+      <c r="J39" s="6"/>
+      <c r="K39" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D39="充值",J39,VLOOKUP(G39,表2[#All],4,FALSE)*H39*I39*-1))</f>
+        <v>-60</v>
+      </c>
+      <c r="L39" s="6"/>
+      <c r="M39" s="16"/>
+    </row>
+    <row r="40" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B40" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="12">
+        <v>42469</v>
+      </c>
+      <c r="F40" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>花果茶玫瑰(杯)x1</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H40" s="6">
+        <v>1</v>
+      </c>
+      <c r="I40" s="6">
+        <v>1</v>
+      </c>
+      <c r="J40" s="6"/>
+      <c r="K40" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D40="充值",J40,VLOOKUP(G40,表2[#All],4,FALSE)*H40*I40*-1))</f>
+        <v>-25</v>
+      </c>
+      <c r="L40" s="6"/>
+      <c r="M40" s="16"/>
+    </row>
+    <row r="41" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B41" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="12">
+        <v>42470</v>
+      </c>
+      <c r="F41" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>花果茶玫瑰(杯)x1</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H41" s="6">
+        <v>1</v>
+      </c>
+      <c r="I41" s="6">
+        <v>1</v>
+      </c>
+      <c r="J41" s="6"/>
+      <c r="K41" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D41="充值",J41,VLOOKUP(G41,表2[#All],4,FALSE)*H41*I41*-1))</f>
+        <v>-25</v>
+      </c>
+      <c r="L41" s="6"/>
+      <c r="M41" s="16"/>
+    </row>
+    <row r="42" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B42" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="12">
+        <v>42470</v>
+      </c>
+      <c r="F42" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>手冲拿铁(杯)x7</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" s="6">
+        <v>7</v>
+      </c>
+      <c r="I42" s="6">
+        <v>1</v>
+      </c>
+      <c r="J42" s="6"/>
+      <c r="K42" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D42="充值",J42,VLOOKUP(G42,表2[#All],4,FALSE)*H42*I42*-1))</f>
+        <v>-175</v>
+      </c>
+      <c r="L42" s="6"/>
+      <c r="M42" s="16"/>
+    </row>
+    <row r="43" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B43" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="12">
+        <v>42470</v>
+      </c>
+      <c r="F43" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>手冲拿铁(杯)x1</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" s="6">
+        <v>1</v>
+      </c>
+      <c r="I43" s="6">
+        <v>1</v>
+      </c>
+      <c r="J43" s="6"/>
+      <c r="K43" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D43="充值",J43,VLOOKUP(G43,表2[#All],4,FALSE)*H43*I43*-1))</f>
+        <v>-25</v>
+      </c>
+      <c r="L43" s="6"/>
+      <c r="M43" s="16"/>
+    </row>
+    <row r="44" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B44" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="12">
+        <v>42470</v>
+      </c>
+      <c r="F44" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>啤酒(瓶)x8</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H44" s="6">
+        <v>8</v>
+      </c>
+      <c r="I44" s="6">
+        <v>1</v>
+      </c>
+      <c r="J44" s="6"/>
+      <c r="K44" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D44="充值",J44,VLOOKUP(G44,表2[#All],4,FALSE)*H44*I44*-1))</f>
+        <v>-160</v>
+      </c>
+      <c r="L44" s="6"/>
+      <c r="M44" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B45" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="12">
+        <v>42470</v>
+      </c>
+      <c r="F45" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>手冲拿铁(杯)x2</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="6">
+        <v>2</v>
+      </c>
+      <c r="I45" s="6">
+        <v>1</v>
+      </c>
+      <c r="J45" s="6"/>
+      <c r="K45" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D45="充值",J45,VLOOKUP(G45,表2[#All],4,FALSE)*H45*I45*-1))</f>
+        <v>-50</v>
+      </c>
+      <c r="L45" s="6"/>
+      <c r="M45" s="16"/>
+    </row>
+    <row r="46" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B46" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="12">
+        <v>42470</v>
+      </c>
+      <c r="F46" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>手冲拿铁(杯)x2</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H46" s="6">
+        <v>2</v>
+      </c>
+      <c r="I46" s="6">
+        <v>1</v>
+      </c>
+      <c r="J46" s="6"/>
+      <c r="K46" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D46="充值",J46,VLOOKUP(G46,表2[#All],4,FALSE)*H46*I46*-1))</f>
+        <v>-50</v>
+      </c>
+      <c r="L46" s="6"/>
+      <c r="M46" s="16"/>
+    </row>
+    <row r="47" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B47" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="12">
+        <v>42470</v>
+      </c>
+      <c r="F47" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>果汁(杯)x2</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H47" s="6">
+        <v>2</v>
+      </c>
+      <c r="I47" s="6">
+        <v>1</v>
+      </c>
+      <c r="J47" s="6"/>
+      <c r="K47" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D47="充值",J47,VLOOKUP(G47,表2[#All],4,FALSE)*H47*I47*-1))</f>
+        <v>-50</v>
+      </c>
+      <c r="L47" s="6"/>
+      <c r="M47" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B48" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="12">
+        <v>42470</v>
+      </c>
+      <c r="F48" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>插花x1</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H48" s="6">
+        <v>1</v>
+      </c>
+      <c r="I48" s="6">
+        <v>1</v>
+      </c>
+      <c r="J48" s="6"/>
+      <c r="K48" s="5">
+        <v>-300</v>
+      </c>
+      <c r="L48" s="6"/>
+      <c r="M48" s="16"/>
+    </row>
+    <row r="49" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B49" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="12">
+        <v>42470</v>
+      </c>
+      <c r="F49" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>绿茶(杯)x1</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H49" s="6">
+        <v>1</v>
+      </c>
+      <c r="I49" s="6">
+        <v>1</v>
+      </c>
+      <c r="J49" s="6"/>
+      <c r="K49" s="5">
+        <v>-30</v>
+      </c>
+      <c r="L49" s="6"/>
+      <c r="M49" s="16"/>
+    </row>
+    <row r="50" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B50" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" s="12">
+        <v>42470</v>
+      </c>
+      <c r="F50" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>手冲拿铁(杯)x1</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H50" s="6">
+        <v>1</v>
+      </c>
+      <c r="I50" s="6">
+        <v>1</v>
+      </c>
+      <c r="J50" s="6"/>
+      <c r="K50" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D50="充值",J50,VLOOKUP(G50,表2[#All],4,FALSE)*H50*I50*-1))</f>
+        <v>-25</v>
+      </c>
+      <c r="L50" s="6"/>
+      <c r="M50" s="16"/>
+    </row>
+    <row r="51" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B51" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="12">
+        <v>42470</v>
+      </c>
+      <c r="F51" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>冰锐果酒(瓶)x1</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H51" s="6">
+        <v>1</v>
+      </c>
+      <c r="I51" s="6">
+        <v>1</v>
+      </c>
+      <c r="J51" s="6"/>
+      <c r="K51" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D51="充值",J51,VLOOKUP(G51,表2[#All],4,FALSE)*H51*I51*-1))</f>
+        <v>-18</v>
+      </c>
+      <c r="L51" s="6"/>
+      <c r="M51" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B52" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="12">
+        <v>42470</v>
+      </c>
+      <c r="F52" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>手冲拿铁(杯)x1</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H52" s="6">
+        <v>1</v>
+      </c>
+      <c r="I52" s="6">
+        <v>1</v>
+      </c>
+      <c r="J52" s="6"/>
+      <c r="K52" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D52="充值",J52,VLOOKUP(G52,表2[#All],4,FALSE)*H52*I52*-1))</f>
+        <v>-25</v>
+      </c>
+      <c r="L52" s="6"/>
+      <c r="M52" s="16"/>
+    </row>
+    <row r="53" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B53" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="12">
+        <v>42470</v>
+      </c>
+      <c r="F53" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>花果茶玫瑰(杯)x1</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H53" s="6">
+        <v>1</v>
+      </c>
+      <c r="I53" s="6">
+        <v>1</v>
+      </c>
+      <c r="J53" s="6"/>
+      <c r="K53" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D53="充值",J53,VLOOKUP(G53,表2[#All],4,FALSE)*H53*I53*-1))</f>
+        <v>-25</v>
+      </c>
+      <c r="L53" s="6"/>
+      <c r="M53" s="16"/>
+    </row>
+    <row r="54" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B54" s="15"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>x1</v>
+      </c>
+      <c r="G54" s="5"/>
+      <c r="H54" s="6">
+        <v>1</v>
+      </c>
+      <c r="I54" s="6">
+        <v>1</v>
+      </c>
+      <c r="J54" s="6"/>
+      <c r="K54" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D54="充值",J54,VLOOKUP(G54,表2[#All],4,FALSE)*H54*I54*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L54" s="6"/>
+      <c r="M54" s="16"/>
+    </row>
+    <row r="55" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B55" s="20"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>x1</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="6">
+        <v>1</v>
+      </c>
+      <c r="I55" s="6">
+        <v>1</v>
+      </c>
+      <c r="J55" s="22"/>
+      <c r="K55" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D55="充值",J55,VLOOKUP(G55,表2[#All],4,FALSE)*H55*I55*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L55" s="22"/>
+      <c r="M55" s="24"/>
+    </row>
+    <row r="56" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B56" s="15"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>x1</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="6">
+        <v>1</v>
+      </c>
+      <c r="I56" s="6">
+        <v>1</v>
+      </c>
+      <c r="J56" s="6"/>
+      <c r="K56" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D56="充值",J56,VLOOKUP(G56,表2[#All],4,FALSE)*H56*I56*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L56" s="6"/>
+      <c r="M56" s="16"/>
+    </row>
+    <row r="57" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B57" s="15"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>x1</v>
+      </c>
+      <c r="G57" s="5"/>
+      <c r="H57" s="6">
+        <v>1</v>
+      </c>
+      <c r="I57" s="6">
+        <v>1</v>
+      </c>
+      <c r="J57" s="6"/>
+      <c r="K57" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D57="充值",J57,VLOOKUP(G57,表2[#All],4,FALSE)*H57*I57*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L57" s="6"/>
+      <c r="M57" s="16"/>
+    </row>
+    <row r="58" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B58" s="15"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>x1</v>
+      </c>
+      <c r="G58" s="5"/>
+      <c r="H58" s="6">
+        <v>1</v>
+      </c>
+      <c r="I58" s="6">
+        <v>1</v>
+      </c>
+      <c r="J58" s="6"/>
+      <c r="K58" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D58="充值",J58,VLOOKUP(G58,表2[#All],4,FALSE)*H58*I58*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L58" s="6"/>
+      <c r="M58" s="16"/>
+    </row>
+    <row r="59" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B59" s="15"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>x1</v>
+      </c>
+      <c r="G59" s="5"/>
+      <c r="H59" s="6">
+        <v>1</v>
+      </c>
+      <c r="I59" s="6">
+        <v>1</v>
+      </c>
+      <c r="J59" s="6"/>
+      <c r="K59" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D59="充值",J59,VLOOKUP(G59,表2[#All],4,FALSE)*H59*I59*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L59" s="6"/>
+      <c r="M59" s="16"/>
+    </row>
+    <row r="60" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B60" s="15"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>x1</v>
+      </c>
+      <c r="G60" s="5"/>
+      <c r="H60" s="6">
+        <v>1</v>
+      </c>
+      <c r="I60" s="6">
+        <v>1</v>
+      </c>
+      <c r="J60" s="6"/>
+      <c r="K60" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D60="充值",J60,VLOOKUP(G60,表2[#All],4,FALSE)*H60*I60*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L60" s="6"/>
+      <c r="M60" s="16"/>
+    </row>
+    <row r="61" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B61" s="15"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>x1</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="6">
+        <v>1</v>
+      </c>
+      <c r="I61" s="6">
+        <v>1</v>
+      </c>
+      <c r="J61" s="6"/>
+      <c r="K61" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D61="充值",J61,VLOOKUP(G61,表2[#All],4,FALSE)*H61*I61*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L61" s="6"/>
+      <c r="M61" s="16"/>
+    </row>
+    <row r="62" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B62" s="15"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>x1</v>
+      </c>
+      <c r="G62" s="5"/>
+      <c r="H62" s="6">
+        <v>1</v>
+      </c>
+      <c r="I62" s="6">
+        <v>1</v>
+      </c>
+      <c r="J62" s="6"/>
+      <c r="K62" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D62="充值",J62,VLOOKUP(G62,表2[#All],4,FALSE)*H62*I62*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L62" s="6"/>
+      <c r="M62" s="16"/>
+    </row>
+    <row r="63" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B63" s="15"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>x1</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="6">
+        <v>1</v>
+      </c>
+      <c r="I63" s="6">
+        <v>1</v>
+      </c>
+      <c r="J63" s="6"/>
+      <c r="K63" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D63="充值",J63,VLOOKUP(G63,表2[#All],4,FALSE)*H63*I63*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L63" s="6"/>
+      <c r="M63" s="16"/>
+    </row>
+    <row r="64" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B64" s="15"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>x1</v>
+      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" s="6">
+        <v>1</v>
+      </c>
+      <c r="I64" s="6">
+        <v>1</v>
+      </c>
+      <c r="J64" s="6"/>
+      <c r="K64" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D64="充值",J64,VLOOKUP(G64,表2[#All],4,FALSE)*H64*I64*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L64" s="6"/>
+      <c r="M64" s="16"/>
+    </row>
+    <row r="65" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B65" s="15"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>x1</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="6">
+        <v>1</v>
+      </c>
+      <c r="I65" s="6">
+        <v>1</v>
+      </c>
+      <c r="J65" s="6"/>
+      <c r="K65" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D65="充值",J65,VLOOKUP(G65,表2[#All],4,FALSE)*H65*I65*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L65" s="6"/>
+      <c r="M65" s="16"/>
+    </row>
+    <row r="66" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B66" s="15"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>x1</v>
+      </c>
+      <c r="G66" s="5"/>
+      <c r="H66" s="6">
+        <v>1</v>
+      </c>
+      <c r="I66" s="6">
+        <v>1</v>
+      </c>
+      <c r="J66" s="6"/>
+      <c r="K66" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D66="充值",J66,VLOOKUP(G66,表2[#All],4,FALSE)*H66*I66*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L66" s="6"/>
+      <c r="M66" s="16"/>
+    </row>
+    <row r="67" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B67" s="15"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>x1</v>
+      </c>
+      <c r="G67" s="5"/>
+      <c r="H67" s="6">
+        <v>1</v>
+      </c>
+      <c r="I67" s="6">
+        <v>1</v>
+      </c>
+      <c r="J67" s="6"/>
+      <c r="K67" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D67="充值",J67,VLOOKUP(G67,表2[#All],4,FALSE)*H67*I67*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L67" s="6"/>
+      <c r="M67" s="16"/>
+    </row>
+    <row r="68" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B68" s="15"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12" t="str">
+        <f t="shared" ref="F68:F75" si="1">CONCATENATE(G68,"x",H68)</f>
+        <v>x1</v>
+      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" s="6">
+        <v>1</v>
+      </c>
+      <c r="I68" s="6">
+        <v>1</v>
+      </c>
+      <c r="J68" s="6"/>
+      <c r="K68" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D68="充值",J68,VLOOKUP(G68,表2[#All],4,FALSE)*H68*I68*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L68" s="6"/>
+      <c r="M68" s="16"/>
+    </row>
+    <row r="69" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B69" s="15"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>x1</v>
+      </c>
+      <c r="G69" s="5"/>
+      <c r="H69" s="6">
+        <v>1</v>
+      </c>
+      <c r="I69" s="6">
+        <v>1</v>
+      </c>
+      <c r="J69" s="6"/>
+      <c r="K69" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D69="充值",J69,VLOOKUP(G69,表2[#All],4,FALSE)*H69*I69*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L69" s="6"/>
+      <c r="M69" s="16"/>
+    </row>
+    <row r="70" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B70" s="15"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>x1</v>
+      </c>
+      <c r="G70" s="5"/>
+      <c r="H70" s="6">
+        <v>1</v>
+      </c>
+      <c r="I70" s="6">
+        <v>1</v>
+      </c>
+      <c r="J70" s="6"/>
+      <c r="K70" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D70="充值",J70,VLOOKUP(G70,表2[#All],4,FALSE)*H70*I70*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L70" s="6"/>
+      <c r="M70" s="16"/>
+    </row>
+    <row r="71" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B71" s="15"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>x1</v>
+      </c>
+      <c r="G71" s="5"/>
+      <c r="H71" s="6">
+        <v>1</v>
+      </c>
+      <c r="I71" s="6">
+        <v>1</v>
+      </c>
+      <c r="J71" s="6"/>
+      <c r="K71" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D71="充值",J71,VLOOKUP(G71,表2[#All],4,FALSE)*H71*I71*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L71" s="6"/>
+      <c r="M71" s="16"/>
+    </row>
+    <row r="72" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B72" s="15"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>x1</v>
+      </c>
+      <c r="G72" s="5"/>
+      <c r="H72" s="6">
+        <v>1</v>
+      </c>
+      <c r="I72" s="6">
+        <v>1</v>
+      </c>
+      <c r="J72" s="6"/>
+      <c r="K72" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D72="充值",J72,VLOOKUP(G72,表2[#All],4,FALSE)*H72*I72*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L72" s="6"/>
+      <c r="M72" s="16"/>
+    </row>
+    <row r="73" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B73" s="15"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>x1</v>
+      </c>
+      <c r="G73" s="5"/>
+      <c r="H73" s="6">
+        <v>1</v>
+      </c>
+      <c r="I73" s="6">
+        <v>1</v>
+      </c>
+      <c r="J73" s="6"/>
+      <c r="K73" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D73="充值",J73,VLOOKUP(G73,表2[#All],4,FALSE)*H73*I73*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L73" s="6"/>
+      <c r="M73" s="16"/>
+    </row>
+    <row r="74" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B74" s="15"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>x1</v>
+      </c>
+      <c r="G74" s="5"/>
+      <c r="H74" s="6">
+        <v>1</v>
+      </c>
+      <c r="I74" s="6">
+        <v>1</v>
+      </c>
+      <c r="J74" s="6"/>
+      <c r="K74" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D74="充值",J74,VLOOKUP(G74,表2[#All],4,FALSE)*H74*I74*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L74" s="6"/>
+      <c r="M74" s="16"/>
+    </row>
+    <row r="75" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B75" s="20"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>x1</v>
+      </c>
+      <c r="G75" s="5"/>
+      <c r="H75" s="6">
+        <v>1</v>
+      </c>
+      <c r="I75" s="22">
+        <v>1</v>
+      </c>
+      <c r="J75" s="22"/>
+      <c r="K75" s="23">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D75="充值",J75,VLOOKUP(G75,表2[#All],4,FALSE)*H75*I75*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L75" s="22"/>
+      <c r="M75" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3440,7 +7181,7 @@
           <x14:formula1>
             <xm:f>产品表!$B$3:$B$115</xm:f>
           </x14:formula1>
-          <xm:sqref>G9 G13:G36</xm:sqref>
+          <xm:sqref>G9 G13:G47 G49:G75</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3450,10 +7191,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G13"/>
+  <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView zoomScale="169" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3461,25 +7202,26 @@
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="32" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3497,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="2">
+      <c r="G3" s="40">
         <v>1</v>
       </c>
     </row>
@@ -3518,7 +7260,7 @@
       <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="40">
         <v>1</v>
       </c>
     </row>
@@ -3539,7 +7281,7 @@
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="40">
         <v>1</v>
       </c>
     </row>
@@ -3560,7 +7302,7 @@
       <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="40">
         <v>1</v>
       </c>
     </row>
@@ -3576,12 +7318,12 @@
         <v>14</v>
       </c>
       <c r="E7" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="40">
         <v>1</v>
       </c>
     </row>
@@ -3602,7 +7344,7 @@
       <c r="F8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="40">
         <v>1</v>
       </c>
     </row>
@@ -3623,7 +7365,7 @@
       <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="40">
         <v>1</v>
       </c>
     </row>
@@ -3639,12 +7381,12 @@
         <v>14</v>
       </c>
       <c r="E10" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="40">
         <v>1</v>
       </c>
     </row>
@@ -3654,18 +7396,18 @@
         <v>坚果(盘)</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E11" s="1">
         <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="2">
+        <v>51</v>
+      </c>
+      <c r="G11" s="40">
         <v>1</v>
       </c>
     </row>
@@ -3675,18 +7417,18 @@
         <v>绿茶(杯)</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="40">
         <v>1</v>
       </c>
     </row>
@@ -3696,23 +7438,111 @@
         <v>茶位费(位)</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="26">
         <v>20</v>
       </c>
-      <c r="F13" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="F13" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="str">
+        <f t="shared" ref="B14:B17" si="1">CONCATENATE(C14,"(",F14,")")</f>
+        <v>热巧克力(杯)</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="26">
+        <v>25</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>啤酒(瓶)</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="29">
+        <v>20</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>果汁(杯)</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="29">
+        <v>25</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>冰锐果酒(瓶)</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="29">
+        <v>18</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="40">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/文档/葡萄院儿会员日记.xlsx
+++ b/文档/葡萄院儿会员日记.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,8 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="90" r:id="rId4"/>
-    <pivotCache cacheId="89" r:id="rId5"/>
+    <pivotCache cacheId="291" r:id="rId4"/>
+    <pivotCache cacheId="298" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="148">
   <si>
     <t>葡萄院儿The Vineyard会员日记</t>
     <rPh sb="0" eb="1">
@@ -286,10 +286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>党委娅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>充值</t>
     <rPh sb="0" eb="1">
       <t>chong z</t>
@@ -514,10 +510,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>感谢光临葡萄院儿  the vineyard！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>原惠玲</t>
     <rPh sb="2" eb="3">
       <t>ling</t>
@@ -636,12 +628,6 @@
     <t>消费</t>
   </si>
   <si>
-    <t>(空白)</t>
-  </si>
-  <si>
-    <t>(全部)</t>
-  </si>
-  <si>
     <t>会员消费</t>
   </si>
   <si>
@@ -655,11 +641,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>党委娅</t>
-    <rPh sb="0" eb="1">
-      <t>dang wei ya</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>张小容</t>
+  </si>
+  <si>
+    <t>零点</t>
   </si>
   <si>
     <t>原慧玲</t>
@@ -714,6 +699,9 @@
     <t>果汁(杯)</t>
   </si>
   <si>
+    <t>充值x1</t>
+  </si>
+  <si>
     <t>手冲拿铁(杯)x1</t>
   </si>
   <si>
@@ -764,13 +752,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>花果茶玫瑰(杯)x1</t>
-  </si>
-  <si>
-    <t>手冲拿铁(杯)x7</t>
-  </si>
-  <si>
-    <t>啤酒(瓶)x8</t>
+    <t>手冲拿铁(杯)x3</t>
   </si>
   <si>
     <t>列标签</t>
@@ -783,21 +765,6 @@
   </si>
   <si>
     <t>行标签</t>
-  </si>
-  <si>
-    <t>冰锐果酒(瓶)x1</t>
-  </si>
-  <si>
-    <t>插花x1</t>
-  </si>
-  <si>
-    <t>果汁(杯)x2</t>
-  </si>
-  <si>
-    <t>绿茶(杯)x1</t>
-  </si>
-  <si>
-    <t>手冲拿铁(杯)x2</t>
   </si>
   <si>
     <t>求和/数量</t>
@@ -809,6 +776,216 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>ye z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感谢光临葡萄院儿  the Vineyard！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔚蓝</t>
+  </si>
+  <si>
+    <t>蔚蓝</t>
+    <rPh sb="0" eb="1">
+      <t>wei lan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crystal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯里兰卡上等红茶</t>
+    <rPh sb="0" eb="1">
+      <t>si li lan ka</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shang deng hong cha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>峨眉山明前绿茶</t>
+    <rPh sb="0" eb="1">
+      <t>e m s</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ming</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lü</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高山古树普洱茶</t>
+    <rPh sb="0" eb="1">
+      <t>g s</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gu shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pu er c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德国手工花果茶</t>
+    <rPh sb="0" eb="1">
+      <t>de guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>s gong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hua guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建日期</t>
+    <rPh sb="0" eb="1">
+      <t>c j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>r q</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壶（2杯）</t>
+    <rPh sb="0" eb="1">
+      <t>hu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壶（4杯）</t>
+    <rPh sb="0" eb="1">
+      <t>hu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啤酒(瓶)x1</t>
+  </si>
+  <si>
+    <t>斯里兰卡上等红茶(杯)</t>
+  </si>
+  <si>
+    <t>斯里兰卡上等红茶(杯)x1</t>
+  </si>
+  <si>
+    <t>颗颗妈妈</t>
+    <rPh sb="0" eb="1">
+      <t>ke ke</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ma m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党玮娅</t>
+    <rPh sb="1" eb="2">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啤酒(瓶)x6</t>
+  </si>
+  <si>
+    <t>高波</t>
+  </si>
+  <si>
+    <t>高波</t>
+    <rPh sb="0" eb="1">
+      <t>gao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>bo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二宝妈</t>
+    <rPh sb="0" eb="1">
+      <t>er bao ma</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maji妈妈</t>
+    <rPh sb="4" eb="5">
+      <t>ma ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢芳</t>
+    <rPh sb="0" eb="1">
+      <t>lu fang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非洲腰果</t>
+    <rPh sb="0" eb="1">
+      <t>fei zhou yao guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零食</t>
+    <rPh sb="0" eb="1">
+      <t>ling shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袋</t>
+    <rPh sb="0" eb="1">
+      <t>dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非洲腰果(袋)</t>
+  </si>
+  <si>
+    <t>林总，唐老师</t>
+    <rPh sb="0" eb="1">
+      <t>lin zong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lao shi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -821,7 +998,7 @@
     <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -905,6 +1082,14 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1058,7 +1243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1113,36 +1298,461 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="115">
     <dxf>
       <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
@@ -1778,13 +2388,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42470.983657986108" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="53">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42473.913693171293" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="73">
   <cacheSource type="worksheet">
     <worksheetSource ref="B2:M75" sheet="明细"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="姓名" numFmtId="0">
-      <sharedItems containsBlank="1" count="20">
+      <sharedItems containsBlank="1" count="23">
         <s v="冯宇"/>
         <s v="薛丹"/>
         <s v="张小容"/>
@@ -1792,7 +2402,7 @@
         <s v="骆文明"/>
         <s v="刘佳"/>
         <s v="其他"/>
-        <s v="党委娅"/>
+        <s v="党玮娅"/>
         <s v="涵涵妈"/>
         <s v="何利"/>
         <s v="嘟嘟妈妈"/>
@@ -1803,34 +2413,41 @@
         <s v="施济"/>
         <s v="活动"/>
         <s v="赵鹏飞"/>
+        <s v="蔚蓝"/>
+        <s v="高波"/>
         <m/>
         <s v="张小蓉" u="1"/>
+        <s v="党委娅" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="昵称" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="类型（充值／消费／其他）" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
+      <sharedItems containsBlank="1" count="5">
         <s v="充值"/>
         <s v="消费"/>
         <s v="会员消费"/>
+        <s v="卢芳"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="日期" numFmtId="58">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-05T00:00:00" maxDate="2016-04-11T00:00:00" count="7">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-05T00:00:00" maxDate="2016-04-14T00:00:00" count="10">
         <d v="2016-04-05T00:00:00"/>
         <d v="2016-04-06T00:00:00"/>
         <d v="2016-04-07T00:00:00"/>
         <d v="2016-04-08T00:00:00"/>
         <d v="2016-04-09T00:00:00"/>
         <d v="2016-04-10T00:00:00"/>
+        <d v="2016-04-11T00:00:00"/>
+        <d v="2016-04-12T00:00:00"/>
+        <d v="2016-04-13T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="显示条目" numFmtId="58">
-      <sharedItems containsBlank="1" count="35">
+      <sharedItems containsBlank="1" count="40">
         <s v="充值x1"/>
         <s v="高山普洱(壶)x10"/>
         <s v="手冲拿铁(杯)x1"/>
@@ -1854,6 +2471,10 @@
         <s v="果汁(杯)x2"/>
         <s v="插花x1"/>
         <s v="冰锐果酒(瓶)x1"/>
+        <s v="啤酒(瓶)x1"/>
+        <s v="斯里兰卡上等红茶(杯)x1"/>
+        <s v="啤酒(瓶)x6"/>
+        <s v="茶位费(位)x4"/>
         <s v="x1"/>
         <m u="1"/>
         <s v="花果茶玫瑰1壶x1" u="1"/>
@@ -1864,6 +2485,7 @@
         <s v="锡兰红茶1壶x1" u="1"/>
         <s v="充值1次x1" u="1"/>
         <s v="茶位费1位x1" u="1"/>
+        <s v="x4" u="1"/>
         <s v="绿茶1杯x2" u="1"/>
         <s v="高山普洱1壶x10" u="1"/>
       </sharedItems>
@@ -1881,7 +2503,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="2000"/>
     </cacheField>
     <cacheField name="汇总金额" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-308" maxValue="2000"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="-308" maxValue="2000"/>
     </cacheField>
     <cacheField name="签名" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -1899,13 +2521,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42470.99478252315" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="53">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42473.913694328701" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="73">
   <cacheSource type="worksheet">
     <worksheetSource name="表1"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="姓名" numFmtId="0">
-      <sharedItems containsBlank="1" count="19">
+      <sharedItems containsBlank="1" count="22">
         <s v="冯宇"/>
         <s v="薛丹"/>
         <s v="张小容"/>
@@ -1913,7 +2535,7 @@
         <s v="骆文明"/>
         <s v="刘佳"/>
         <s v="其他"/>
-        <s v="党委娅"/>
+        <s v="党玮娅"/>
         <s v="涵涵妈"/>
         <s v="何利"/>
         <s v="嘟嘟妈妈"/>
@@ -1924,33 +2546,40 @@
         <s v="施济"/>
         <s v="活动"/>
         <s v="赵鹏飞"/>
+        <s v="蔚蓝"/>
+        <s v="高波"/>
         <m/>
+        <s v="党委娅" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="昵称" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="类型（充值／消费／其他）" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
+      <sharedItems containsBlank="1" count="5">
         <s v="充值"/>
         <s v="消费"/>
         <s v="会员消费"/>
+        <s v="卢芳"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="日期" numFmtId="58">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-05T00:00:00" maxDate="2016-04-11T00:00:00" count="7">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-05T00:00:00" maxDate="2016-04-14T00:00:00" count="10">
         <d v="2016-04-05T00:00:00"/>
         <d v="2016-04-06T00:00:00"/>
         <d v="2016-04-07T00:00:00"/>
         <d v="2016-04-08T00:00:00"/>
         <d v="2016-04-09T00:00:00"/>
         <d v="2016-04-10T00:00:00"/>
+        <d v="2016-04-11T00:00:00"/>
+        <d v="2016-04-12T00:00:00"/>
+        <d v="2016-04-13T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="显示条目" numFmtId="58">
-      <sharedItems count="24">
+      <sharedItems count="29">
         <s v="充值x1"/>
         <s v="高山普洱(壶)x10"/>
         <s v="手冲拿铁(杯)x1"/>
@@ -1974,11 +2603,16 @@
         <s v="果汁(杯)x2"/>
         <s v="插花x1"/>
         <s v="冰锐果酒(瓶)x1"/>
+        <s v="啤酒(瓶)x1"/>
+        <s v="斯里兰卡上等红茶(杯)x1"/>
+        <s v="啤酒(瓶)x6"/>
+        <s v="茶位费(位)x4"/>
         <s v="x1"/>
+        <s v="x4" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="产品" numFmtId="0">
-      <sharedItems containsBlank="1" count="17">
+      <sharedItems containsBlank="1" count="18">
         <s v="充值"/>
         <s v="高山普洱(壶)"/>
         <s v="手冲拿铁(杯)"/>
@@ -1995,6 +2629,7 @@
         <s v="果汁(杯)"/>
         <s v="插花"/>
         <s v="冰锐果酒(瓶)"/>
+        <s v="斯里兰卡上等红茶(杯)"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -2008,7 +2643,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="2000"/>
     </cacheField>
     <cacheField name="汇总金额" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-308" maxValue="2000"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="-308" maxValue="2000"/>
     </cacheField>
     <cacheField name="签名" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -2026,7 +2661,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="53">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="73">
   <r>
     <x v="0"/>
     <s v="档爸"/>
@@ -2681,7 +3316,7 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
-    <n v="-20"/>
+    <n v="-30"/>
     <m/>
     <m/>
   </r>
@@ -2714,11 +3349,235 @@
     <s v="冰锐酒"/>
   </r>
   <r>
-    <x v="18"/>
-    <m/>
-    <x v="3"/>
+    <x v="13"/>
+    <s v="帕萨迪纳业主"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="帕萨迪纳业主"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="17"/>
+    <s v="花果茶玫瑰(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="蔚蓝"/>
+    <x v="1"/>
     <x v="6"/>
     <x v="23"/>
+    <s v="啤酒(瓶)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="2"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="crystal"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="15"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <n v="-75"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="crystal"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="24"/>
+    <s v="斯里兰卡上等红茶(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="颗颗妈妈"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="0"/>
+    <s v="充值"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="500"/>
+    <n v="500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="颗颗妈妈"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="23"/>
+    <s v="啤酒(瓶)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="25"/>
+    <s v="啤酒(瓶)"/>
+    <n v="6"/>
+    <n v="1"/>
+    <m/>
+    <n v="-120"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="二宝妈"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="0"/>
+    <s v="充值"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1500"/>
+    <n v="1500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="二宝妈"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="2"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="maji妈妈"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="26"/>
+    <s v="茶位费(位)"/>
+    <n v="4"/>
+    <n v="1"/>
+    <m/>
+    <n v="-80"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="卢芳"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="2"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="卢芳"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="24"/>
+    <s v="斯里兰卡上等红茶(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="2"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="27"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <e v="#N/A"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="27"/>
     <m/>
     <n v="1"/>
     <n v="1"/>
@@ -2728,11 +3587,11 @@
     <m/>
   </r>
   <r>
-    <x v="18"/>
-    <m/>
-    <x v="3"/>
-    <x v="6"/>
-    <x v="23"/>
+    <x v="20"/>
+    <m/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="27"/>
     <m/>
     <n v="1"/>
     <n v="1"/>
@@ -2742,11 +3601,11 @@
     <m/>
   </r>
   <r>
-    <x v="18"/>
-    <m/>
-    <x v="3"/>
-    <x v="6"/>
-    <x v="23"/>
+    <x v="20"/>
+    <m/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="27"/>
     <m/>
     <n v="1"/>
     <n v="1"/>
@@ -2756,11 +3615,67 @@
     <m/>
   </r>
   <r>
-    <x v="18"/>
-    <m/>
-    <x v="3"/>
-    <x v="6"/>
-    <x v="23"/>
+    <x v="20"/>
+    <m/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="27"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="27"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="27"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="27"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="27"/>
     <m/>
     <n v="1"/>
     <n v="1"/>
@@ -2773,7 +3688,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="53">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="73">
   <r>
     <x v="0"/>
     <s v="档爸"/>
@@ -3461,26 +4376,250 @@
     <s v="冰锐酒"/>
   </r>
   <r>
-    <x v="18"/>
-    <m/>
-    <x v="3"/>
+    <x v="13"/>
+    <s v="帕萨迪纳业主"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="帕萨迪纳业主"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="17"/>
+    <x v="8"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="蔚蓝"/>
+    <x v="1"/>
     <x v="6"/>
     <x v="23"/>
+    <x v="12"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="crystal"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="15"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <n v="-75"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="crystal"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="24"/>
     <x v="16"/>
     <n v="1"/>
     <n v="1"/>
     <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="颗颗妈妈"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="500"/>
+    <n v="500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="颗颗妈妈"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="23"/>
+    <x v="12"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="25"/>
+    <x v="12"/>
+    <n v="6"/>
+    <n v="1"/>
+    <m/>
+    <n v="-120"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="二宝妈"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1500"/>
+    <n v="1500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="二宝妈"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="maji妈妈"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="26"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <m/>
+    <n v="-80"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="卢芳"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="卢芳"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="24"/>
+    <x v="16"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="27"/>
+    <x v="17"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <e v="#N/A"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="27"/>
+    <x v="17"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
     <n v="0"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="18"/>
-    <m/>
-    <x v="3"/>
-    <x v="6"/>
-    <x v="23"/>
-    <x v="16"/>
+    <x v="20"/>
+    <m/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="27"/>
+    <x v="17"/>
     <n v="1"/>
     <n v="1"/>
     <m/>
@@ -3489,12 +4628,12 @@
     <m/>
   </r>
   <r>
-    <x v="18"/>
-    <m/>
-    <x v="3"/>
-    <x v="6"/>
-    <x v="23"/>
-    <x v="16"/>
+    <x v="20"/>
+    <m/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="27"/>
+    <x v="17"/>
     <n v="1"/>
     <n v="1"/>
     <m/>
@@ -3503,12 +4642,68 @@
     <m/>
   </r>
   <r>
-    <x v="18"/>
-    <m/>
-    <x v="3"/>
-    <x v="6"/>
-    <x v="23"/>
-    <x v="16"/>
+    <x v="20"/>
+    <m/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="27"/>
+    <x v="17"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="27"/>
+    <x v="17"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="27"/>
+    <x v="17"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="27"/>
+    <x v="17"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="27"/>
+    <x v="17"/>
     <n v="1"/>
     <n v="1"/>
     <m/>
@@ -3520,8 +4715,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="89" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="Q10:R28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="298" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="Q10:R27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -3529,7 +4724,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="18">
+      <items count="19">
         <item x="15"/>
         <item x="14"/>
         <item x="3"/>
@@ -3546,7 +4741,8 @@
         <item x="2"/>
         <item x="11"/>
         <item x="5"/>
-        <item x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="16"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -3569,36 +4765,33 @@
   <rowFields count="1">
     <field x="5"/>
   </rowFields>
-  <rowItems count="18">
+  <rowItems count="17">
     <i>
       <x v="13"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i>
       <x v="5"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="7"/>
     </i>
     <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="7"/>
+      <x v="2"/>
     </i>
     <i>
       <x v="4"/>
     </i>
     <i>
-      <x v="10"/>
-    </i>
-    <i>
       <x v="9"/>
     </i>
     <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="2"/>
+      <x v="10"/>
     </i>
     <i>
       <x v="6"/>
@@ -3607,19 +4800,19 @@
       <x v="8"/>
     </i>
     <i>
-      <x v="15"/>
+      <x v="14"/>
     </i>
     <i>
-      <x v="12"/>
+      <x/>
+    </i>
+    <i>
+      <x v="15"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i>
-      <x/>
-    </i>
-    <i>
-      <x v="14"/>
+      <x v="12"/>
     </i>
     <i t="grand">
       <x/>
@@ -3641,12 +4834,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="89" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H10:M19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="298" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H10:L28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
-      <items count="20">
-        <item sd="0" x="7"/>
+      <items count="23">
+        <item sd="0" m="1" x="21"/>
         <item x="10"/>
         <item sd="0" x="0"/>
         <item sd="0" x="8"/>
@@ -3662,37 +4855,44 @@
         <item sd="0" x="1"/>
         <item x="11"/>
         <item sd="0" x="14"/>
-        <item sd="0" x="2"/>
+        <item x="2"/>
         <item sd="0" x="17"/>
+        <item x="20"/>
         <item x="18"/>
+        <item x="7"/>
+        <item x="19"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
-      <items count="5">
+      <items count="6">
         <item x="0"/>
         <item x="2"/>
         <item x="1"/>
+        <item x="4"/>
         <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="8">
+      <items count="11">
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
         <item sd="0" x="2"/>
         <item sd="0" x="3"/>
         <item sd="0" x="4"/>
         <item sd="0" x="5"/>
+        <item h="1" sd="0" x="9"/>
         <item sd="0" x="6"/>
+        <item x="7"/>
+        <item h="1" x="8"/>
         <item t="default" sd="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="25">
-        <item sd="0" x="23"/>
+      <items count="30">
+        <item sd="0" x="27"/>
         <item sd="0" x="22"/>
         <item sd="0" x="21"/>
         <item x="3"/>
@@ -3716,6 +4916,11 @@
         <item sd="0" x="18"/>
         <item sd="0" x="14"/>
         <item sd="0" x="5"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item m="1" x="28"/>
+        <item x="26"/>
         <item t="default" sd="0"/>
       </items>
     </pivotField>
@@ -3732,7 +4937,7 @@
     <field x="0"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="17">
     <i>
       <x/>
     </i>
@@ -3752,7 +4957,34 @@
       <x v="5"/>
     </i>
     <i>
-      <x v="6"/>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="20"/>
+    </i>
+    <i r="2">
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="2">
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="24"/>
     </i>
     <i t="grand">
       <x/>
@@ -3761,7 +4993,7 @@
   <colFields count="1">
     <field x="2"/>
   </colFields>
-  <colItems count="5">
+  <colItems count="4">
     <i>
       <x/>
     </i>
@@ -3771,9 +5003,6 @@
     <i>
       <x v="2"/>
     </i>
-    <i>
-      <x v="3"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
@@ -3781,8 +5010,8 @@
   <dataFields count="1">
     <dataField name="求和/汇总金额" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="1">
-    <format dxfId="4">
+  <formats count="9">
+    <format dxfId="87">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -3791,6 +5020,76 @@
           <reference field="3" count="1" selected="0">
             <x v="2"/>
           </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="86">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="85">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="84">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="83">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="82">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="81">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="80">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="79">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
@@ -3805,70 +5104,77 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="会员汇总" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" grandTotalCaption="余额" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B12:C33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="会员汇总" cacheId="291" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" grandTotalCaption="余额" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B12:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
-    <pivotField axis="axisPage" showAll="0">
-      <items count="21">
-        <item x="7"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item m="1" x="19"/>
-        <item x="18"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="8"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="24">
+        <item h="1" m="1" x="22"/>
+        <item h="1" x="0"/>
+        <item h="1" x="5"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="6"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" x="20"/>
+        <item h="1" x="9"/>
+        <item h="1" x="2"/>
+        <item h="1" x="10"/>
+        <item h="1" x="8"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item h="1" x="7"/>
+        <item x="19"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0" countASubtotal="1">
-      <items count="5">
-        <item sd="0" x="0"/>
+      <items count="6">
+        <item x="0"/>
         <item x="1"/>
-        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
         <item x="2"/>
+        <item x="3"/>
         <item t="countA"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="8">
+      <items count="11">
         <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
+        <item x="1"/>
         <item sd="0" x="2"/>
         <item sd="0" x="3"/>
         <item sd="0" x="4"/>
-        <item x="5"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="9"/>
         <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
         <item t="default" sd="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="35">
-        <item m="1" x="31"/>
-        <item m="1" x="28"/>
-        <item m="1" x="34"/>
-        <item m="1" x="25"/>
-        <item m="1" x="26"/>
-        <item m="1" x="27"/>
-        <item m="1" x="33"/>
+      <items count="40">
+        <item m="1" x="35"/>
+        <item m="1" x="32"/>
+        <item m="1" x="39"/>
         <item m="1" x="29"/>
         <item m="1" x="30"/>
-        <item m="1" x="24"/>
+        <item m="1" x="31"/>
+        <item m="1" x="38"/>
+        <item m="1" x="33"/>
+        <item m="1" x="34"/>
+        <item m="1" x="28"/>
         <item x="0"/>
-        <item m="1" x="32"/>
+        <item m="1" x="36"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
@@ -3878,7 +5184,7 @@
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
-        <item x="23"/>
+        <item x="27"/>
         <item x="10"/>
         <item x="11"/>
         <item x="12"/>
@@ -3892,6 +5198,11 @@
         <item x="20"/>
         <item x="21"/>
         <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item m="1" x="37"/>
+        <item x="26"/>
       </items>
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -3907,66 +5218,21 @@
     <field x="2"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="21">
+  <rowItems count="6">
     <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
       <x/>
     </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
     <i r="2">
-      <x v="13"/>
-    </i>
-    <i r="2">
-      <x v="20"/>
-    </i>
-    <i r="2">
-      <x v="22"/>
-    </i>
-    <i r="2">
-      <x v="32"/>
-    </i>
-    <i r="2">
-      <x v="33"/>
+      <x v="10"/>
     </i>
     <i r="1">
       <x v="3"/>
     </i>
     <i r="2">
       <x v="13"/>
-    </i>
-    <i r="2">
-      <x v="29"/>
-    </i>
-    <i r="2">
-      <x v="30"/>
-    </i>
-    <i r="2">
-      <x v="31"/>
-    </i>
-    <i r="2">
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -3982,7 +5248,7 @@
     <dataField name="消费明细" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="31">
+    <format dxfId="114">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3996,37 +5262,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:M75" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:M75" totalsRowShown="0" headerRowDxfId="113" dataDxfId="111" headerRowBorderDxfId="112" tableBorderDxfId="110" totalsRowBorderDxfId="109">
+  <autoFilter ref="B2:M75"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="姓名" dataDxfId="25"/>
-    <tableColumn id="2" name="昵称" dataDxfId="24"/>
-    <tableColumn id="3" name="类型（充值／消费／其他）" dataDxfId="23"/>
-    <tableColumn id="4" name="日期" dataDxfId="22"/>
-    <tableColumn id="5" name="显示条目" dataDxfId="21"/>
-    <tableColumn id="6" name="产品" dataDxfId="20"/>
-    <tableColumn id="7" name="数量" dataDxfId="19"/>
-    <tableColumn id="8" name="DC" dataDxfId="18"/>
-    <tableColumn id="9" name="充值金额" dataDxfId="17"/>
-    <tableColumn id="10" name="汇总金额" dataDxfId="16">
+    <tableColumn id="1" name="姓名" dataDxfId="108"/>
+    <tableColumn id="2" name="昵称" dataDxfId="107"/>
+    <tableColumn id="3" name="类型（充值／消费／其他）" dataDxfId="106"/>
+    <tableColumn id="4" name="日期" dataDxfId="105"/>
+    <tableColumn id="5" name="显示条目" dataDxfId="104"/>
+    <tableColumn id="6" name="产品" dataDxfId="103"/>
+    <tableColumn id="7" name="数量" dataDxfId="102"/>
+    <tableColumn id="8" name="DC" dataDxfId="101"/>
+    <tableColumn id="9" name="充值金额" dataDxfId="100"/>
+    <tableColumn id="10" name="汇总金额" dataDxfId="99">
       <calculatedColumnFormula>IF(表1[[#This Row],[姓名]]="",0,IF(D3="充值",J3,VLOOKUP(G3,表2[#All],4,FALSE)*H3*I3*-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="签名" dataDxfId="15"/>
-    <tableColumn id="12" name="备注" dataDxfId="14"/>
+    <tableColumn id="11" name="签名" dataDxfId="98"/>
+    <tableColumn id="12" name="备注" dataDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B2:G17" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="12" tableBorderDxfId="13">
-  <autoFilter ref="B2:G17"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="描述" dataDxfId="11"/>
-    <tableColumn id="2" name="名称" dataDxfId="10"/>
-    <tableColumn id="3" name="类别" dataDxfId="9"/>
-    <tableColumn id="4" name="售价" dataDxfId="8"/>
-    <tableColumn id="5" name="单位" dataDxfId="7"/>
-    <tableColumn id="6" name="菜单版本号" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B2:H35" totalsRowShown="0" headerRowDxfId="88" headerRowBorderDxfId="95" tableBorderDxfId="96">
+  <autoFilter ref="B2:H35"/>
+  <sortState ref="B3:H35">
+    <sortCondition descending="1" ref="H2:H35"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" name="描述" dataDxfId="94"/>
+    <tableColumn id="2" name="名称" dataDxfId="93"/>
+    <tableColumn id="3" name="类别" dataDxfId="92"/>
+    <tableColumn id="4" name="售价" dataDxfId="91"/>
+    <tableColumn id="5" name="单位" dataDxfId="90"/>
+    <tableColumn id="6" name="菜单版本号" dataDxfId="89"/>
+    <tableColumn id="7" name="创建日期"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4295,26 +5566,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R33"/>
+  <dimension ref="B1:R36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F7" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="37.1640625" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.83203125" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="34.1640625" customWidth="1"/>
     <col min="9" max="9" width="10.1640625" customWidth="1"/>
     <col min="10" max="10" width="9.5" customWidth="1"/>
     <col min="11" max="11" width="6.5" customWidth="1"/>
-    <col min="12" max="12" width="7.5" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" customWidth="1"/>
+    <col min="12" max="13" width="6.6640625" customWidth="1"/>
     <col min="17" max="17" width="15.5" customWidth="1"/>
     <col min="18" max="18" width="10.5" customWidth="1"/>
     <col min="19" max="22" width="9.5" customWidth="1"/>
@@ -4352,17 +5622,17 @@
     </row>
     <row r="4" spans="2:18" ht="24" x14ac:dyDescent="0.35">
       <c r="B4" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:18" ht="24" x14ac:dyDescent="0.35">
       <c r="B5" s="28" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="2:18" ht="11" customHeight="1" x14ac:dyDescent="0.35">
@@ -4370,7 +5640,7 @@
     </row>
     <row r="8" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="31"/>
     </row>
@@ -4382,45 +5652,42 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I10" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q10" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="R10" t="s">
         <v>118</v>
-      </c>
-      <c r="Q10" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="R10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H11" s="35" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I11" t="s">
         <v>8</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L11" t="s">
-        <v>93</v>
-      </c>
-      <c r="M11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R11" s="34">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:18" ht="24" x14ac:dyDescent="0.25">
@@ -4428,393 +5695,392 @@
       <c r="C12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="43">
         <v>42465</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="44">
         <v>1500</v>
       </c>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34">
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44">
         <v>1500</v>
       </c>
       <c r="Q12" s="33" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="R12" s="34">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:18" ht="24" x14ac:dyDescent="0.25">
       <c r="B13" s="38">
-        <v>42465</v>
+        <v>42473</v>
       </c>
       <c r="C13" s="11">
-        <v>1500</v>
-      </c>
-      <c r="H13" s="37">
+        <v>1475</v>
+      </c>
+      <c r="H13" s="43">
         <v>42466</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="44">
         <v>10000</v>
       </c>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34">
+      <c r="J13" s="44"/>
+      <c r="K13" s="44">
         <v>-308</v>
       </c>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34">
+      <c r="L13" s="44">
         <v>9692</v>
       </c>
       <c r="Q13" s="33" t="s">
         <v>8</v>
       </c>
       <c r="R13" s="34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="B14" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="43">
+        <v>42467</v>
+      </c>
+      <c r="I14" s="44">
+        <v>2000</v>
+      </c>
+      <c r="J14" s="44">
+        <v>-340</v>
+      </c>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44">
+        <v>1660</v>
+      </c>
+      <c r="Q14" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="R14" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="B15" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1500</v>
+      </c>
+      <c r="H15" s="43">
+        <v>42468</v>
+      </c>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44">
+        <v>-245</v>
+      </c>
+      <c r="K15" s="44">
+        <v>-100</v>
+      </c>
+      <c r="L15" s="44">
+        <v>-345</v>
+      </c>
+      <c r="Q15" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="R15" s="34">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B14" s="38">
-        <v>42466</v>
-      </c>
-      <c r="C14" s="11">
-        <v>9692</v>
-      </c>
-      <c r="H14" s="37">
-        <v>42467</v>
-      </c>
-      <c r="I14" s="34">
-        <v>2000</v>
-      </c>
-      <c r="J14" s="34">
-        <v>-340</v>
-      </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34">
-        <v>1660</v>
-      </c>
-      <c r="Q14" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="R14" s="34">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B15" s="38">
-        <v>42467</v>
-      </c>
-      <c r="C15" s="11">
-        <v>1660</v>
-      </c>
-      <c r="H15" s="37">
-        <v>42468</v>
-      </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34">
-        <v>-245</v>
-      </c>
-      <c r="K15" s="34">
-        <v>-100</v>
-      </c>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34">
-        <v>-345</v>
-      </c>
-      <c r="Q15" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="R15" s="34">
-        <v>8</v>
-      </c>
-    </row>
     <row r="16" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B16" s="38">
-        <v>42468</v>
+      <c r="B16" s="40" t="s">
+        <v>91</v>
       </c>
       <c r="C16" s="11">
-        <v>-345</v>
-      </c>
-      <c r="H16" s="37">
+        <v>1</v>
+      </c>
+      <c r="H16" s="43">
         <v>42469</v>
       </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34">
+      <c r="I16" s="44"/>
+      <c r="J16" s="44">
         <v>-215</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="44">
         <v>-155</v>
       </c>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34">
+      <c r="L16" s="44">
         <v>-370</v>
       </c>
       <c r="Q16" s="33" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="R16" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="B17" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="11">
+        <v>-25</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="H17" s="43">
+        <v>42470</v>
+      </c>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44">
+        <v>-403</v>
+      </c>
+      <c r="K17" s="44">
+        <v>-555</v>
+      </c>
+      <c r="L17" s="44">
+        <v>-958</v>
+      </c>
+      <c r="Q17" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="R17" s="34">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B17" s="38">
-        <v>42469</v>
-      </c>
-      <c r="C17" s="11">
-        <v>-370</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="H17" s="37">
-        <v>42470</v>
-      </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34">
-        <v>-403</v>
-      </c>
-      <c r="K17" s="34">
-        <v>-505</v>
-      </c>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34">
-        <v>-908</v>
-      </c>
-      <c r="Q17" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="R17" s="34">
-        <v>4</v>
-      </c>
-    </row>
     <row r="18" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B18" s="38">
-        <v>42470</v>
+      <c r="B18" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="C18" s="11">
-        <v>-898</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>93</v>
+        <v>1475</v>
+      </c>
+      <c r="H18" s="43">
+        <v>42471</v>
       </c>
       <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
+      <c r="J18" s="34">
+        <v>-25</v>
+      </c>
+      <c r="K18" s="34">
+        <v>-20</v>
+      </c>
       <c r="L18" s="34">
-        <v>0</v>
-      </c>
-      <c r="M18" s="34">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R18" s="34">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B19" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="11">
-        <v>6</v>
-      </c>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
       <c r="F19" s="25"/>
-      <c r="H19" s="33" t="s">
-        <v>119</v>
+      <c r="H19" s="43">
+        <v>42472</v>
       </c>
       <c r="I19" s="34">
-        <v>13500</v>
+        <v>500</v>
       </c>
       <c r="J19" s="34">
-        <v>-1203</v>
+        <v>-140</v>
       </c>
       <c r="K19" s="34">
-        <v>-1068</v>
+        <v>-105</v>
       </c>
       <c r="L19" s="34">
-        <v>0</v>
-      </c>
-      <c r="M19" s="34">
-        <v>11229</v>
+        <v>255</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="R19" s="34">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B20" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="11">
-        <v>-25</v>
-      </c>
       <c r="G20" s="25"/>
+      <c r="H20" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34">
+        <v>-105</v>
+      </c>
+      <c r="L20" s="34">
+        <v>-105</v>
+      </c>
       <c r="P20" s="25"/>
       <c r="Q20" s="33" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="R20" s="34">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B21" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="11">
-        <v>-20</v>
+      <c r="H21" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34">
+        <v>-75</v>
+      </c>
+      <c r="L21" s="34">
+        <v>-75</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="R21" s="34">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B22" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="11">
-        <v>-100</v>
+      <c r="H22" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34">
+        <v>-30</v>
+      </c>
+      <c r="L22" s="34">
+        <v>-30</v>
       </c>
       <c r="Q22" s="33" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="R22" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B23" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="11">
-        <v>-50</v>
+      <c r="H23" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34">
+        <v>-120</v>
+      </c>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34">
+        <v>-120</v>
       </c>
       <c r="Q23" s="33" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="R23" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B24" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="11">
-        <v>-300</v>
+      <c r="H24" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34">
+        <v>-120</v>
+      </c>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34">
+        <v>-120</v>
       </c>
       <c r="Q24" s="33" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="R24" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B25" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="11">
-        <v>5</v>
+      <c r="H25" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="I25" s="34">
+        <v>500</v>
+      </c>
+      <c r="J25" s="34">
+        <v>-20</v>
+      </c>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34">
+        <v>480</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R25" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B26" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="11">
-        <v>-25</v>
+      <c r="H26" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" s="34">
+        <v>500</v>
+      </c>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34">
+        <v>500</v>
       </c>
       <c r="Q26" s="33" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="R26" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B27" s="36" t="s">
+      <c r="H27" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34">
+        <v>-20</v>
+      </c>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34">
+        <v>-20</v>
+      </c>
+      <c r="Q27" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="11">
-        <v>-25</v>
-      </c>
-      <c r="Q27" s="33" t="s">
-        <v>88</v>
-      </c>
       <c r="R27" s="34">
-        <v>1</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B28" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="11">
-        <v>-175</v>
-      </c>
-      <c r="Q28" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="R28" s="34">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B29" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="11">
-        <v>-160</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B30" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="11">
-        <v>-18</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B32" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="11">
-        <v>11239</v>
-      </c>
-    </row>
+      <c r="H28" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28" s="34">
+        <v>14000</v>
+      </c>
+      <c r="J28" s="34">
+        <v>-1368</v>
+      </c>
+      <c r="K28" s="34">
+        <v>-1243</v>
+      </c>
+      <c r="L28" s="34">
+        <v>11389</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:18" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:18" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:18" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="24" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B8:C8"/>
@@ -4829,8 +6095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="109" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55:I75"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="109" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4874,7 +6140,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>23</v>
@@ -4900,10 +6166,10 @@
     </row>
     <row r="3" spans="2:13" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>8</v>
@@ -4948,7 +6214,7 @@
         <v>42466</v>
       </c>
       <c r="F4" s="12" t="str">
-        <f t="shared" ref="F4:F67" si="0">CONCATENATE(G4,"x",H4)</f>
+        <f t="shared" ref="F4:F68" si="0">CONCATENATE(G4,"x",H4)</f>
         <v>充值x1</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -4972,7 +6238,7 @@
     </row>
     <row r="5" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B5" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
@@ -5083,7 +6349,7 @@
         <v>36</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>26</v>
@@ -5132,7 +6398,7 @@
         <v>高山普洱(壶)x10</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="6">
         <v>10</v>
@@ -5153,13 +6419,13 @@
     </row>
     <row r="10" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B10" s="15" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="12">
         <v>42466</v>
@@ -5189,13 +6455,13 @@
     </row>
     <row r="11" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="12">
         <v>42467</v>
@@ -5225,13 +6491,13 @@
     </row>
     <row r="12" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B12" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="12">
         <v>42467</v>
@@ -5261,13 +6527,13 @@
     </row>
     <row r="13" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E13" s="12">
         <v>42467</v>
@@ -5277,7 +6543,7 @@
         <v>手冲拿铁(杯)x1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H13" s="6">
         <v>1</v>
@@ -5295,13 +6561,13 @@
     </row>
     <row r="14" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E14" s="12">
         <v>42467</v>
@@ -5311,7 +6577,7 @@
         <v>茶位费(位)x1</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H14" s="6">
         <v>1</v>
@@ -5329,13 +6595,13 @@
     </row>
     <row r="15" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B15" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E15" s="12">
         <v>42467</v>
@@ -5345,7 +6611,7 @@
         <v>坚果(盘)x1</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H15" s="6">
         <v>1</v>
@@ -5363,13 +6629,13 @@
     </row>
     <row r="16" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E16" s="12">
         <v>42467</v>
@@ -5379,7 +6645,7 @@
         <v>锡兰红茶(壶)x1</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H16" s="6">
         <v>1</v>
@@ -5397,13 +6663,13 @@
     </row>
     <row r="17" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E17" s="12">
         <v>42467</v>
@@ -5413,7 +6679,7 @@
         <v>绿茶(杯)x2</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H17" s="6">
         <v>2</v>
@@ -5431,13 +6697,13 @@
     </row>
     <row r="18" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E18" s="12">
         <v>42467</v>
@@ -5447,7 +6713,7 @@
         <v>花果茶玫瑰(壶)x1</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H18" s="6">
         <v>1</v>
@@ -5465,13 +6731,13 @@
     </row>
     <row r="19" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E19" s="12">
         <v>42467</v>
@@ -5481,7 +6747,7 @@
         <v>坚果(盘)x3</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H19" s="6">
         <v>3</v>
@@ -5502,10 +6768,10 @@
         <v>31</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E20" s="12">
         <v>42467</v>
@@ -5515,7 +6781,7 @@
         <v>手冲拿铁(杯)x1</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H20" s="6">
         <v>1</v>
@@ -5537,7 +6803,7 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E21" s="12">
         <v>42468</v>
@@ -5547,7 +6813,7 @@
         <v>手冲拿铁(杯)x1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="6">
         <v>1</v>
@@ -5569,7 +6835,7 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E22" s="12">
         <v>42468</v>
@@ -5579,7 +6845,7 @@
         <v>绿茶(杯)x1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H22" s="6">
         <v>1</v>
@@ -5597,11 +6863,11 @@
     </row>
     <row r="23" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B23" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E23" s="12">
         <v>42468</v>
@@ -5611,7 +6877,7 @@
         <v>手冲拿铁(杯)x2</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H23" s="6">
         <v>2</v>
@@ -5629,11 +6895,11 @@
     </row>
     <row r="24" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B24" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" s="12">
         <v>42468</v>
@@ -5643,7 +6909,7 @@
         <v>花果茶玫瑰(杯)x2</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H24" s="6">
         <v>2</v>
@@ -5661,11 +6927,11 @@
     </row>
     <row r="25" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B25" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" s="12">
         <v>42468</v>
@@ -5675,7 +6941,7 @@
         <v>热巧克力(杯)x1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H25" s="6">
         <v>1</v>
@@ -5693,11 +6959,11 @@
     </row>
     <row r="26" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E26" s="12">
         <v>42468</v>
@@ -5707,7 +6973,7 @@
         <v>花果茶玫瑰(壶)x1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H26" s="6">
         <v>1</v>
@@ -5725,11 +6991,11 @@
     </row>
     <row r="27" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" s="12">
         <v>42468</v>
@@ -5739,7 +7005,7 @@
         <v>手冲拿铁(杯)x1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="6">
         <v>1</v>
@@ -5763,7 +7029,7 @@
         <v>34</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E28" s="12">
         <v>42468</v>
@@ -5773,7 +7039,7 @@
         <v>花果茶玫瑰(杯)x2</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H28" s="6">
         <v>2</v>
@@ -5791,13 +7057,13 @@
     </row>
     <row r="29" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B29" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E29" s="12">
         <v>42468</v>
@@ -5807,7 +7073,7 @@
         <v>高山普洱(杯)x1</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H29" s="6">
         <v>1</v>
@@ -5825,13 +7091,13 @@
     </row>
     <row r="30" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E30" s="12">
         <v>42469</v>
@@ -5841,7 +7107,7 @@
         <v>茶位费(位)x1</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H30" s="6">
         <v>1</v>
@@ -5859,13 +7125,13 @@
     </row>
     <row r="31" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E31" s="12">
         <v>42469</v>
@@ -5875,7 +7141,7 @@
         <v>手冲拿铁(杯)x1</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H31" s="6">
         <v>1</v>
@@ -5893,13 +7159,13 @@
     </row>
     <row r="32" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E32" s="12">
         <v>42469</v>
@@ -5909,7 +7175,7 @@
         <v>手冲拿铁(杯)x1</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H32" s="6">
         <v>1</v>
@@ -5927,13 +7193,13 @@
     </row>
     <row r="33" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E33" s="12">
         <v>42469</v>
@@ -5943,7 +7209,7 @@
         <v>花果茶玫瑰(杯)x2</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H33" s="6">
         <v>2</v>
@@ -5961,13 +7227,13 @@
     </row>
     <row r="34" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E34" s="12">
         <v>42469</v>
@@ -5977,7 +7243,7 @@
         <v>手冲拿铁(杯)x1</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H34" s="6">
         <v>1</v>
@@ -5995,13 +7261,13 @@
     </row>
     <row r="35" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B35" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E35" s="12">
         <v>42469</v>
@@ -6011,7 +7277,7 @@
         <v>锡兰红茶(杯)x1</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H35" s="6">
         <v>1</v>
@@ -6029,13 +7295,13 @@
     </row>
     <row r="36" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E36" s="12">
         <v>42469</v>
@@ -6045,7 +7311,7 @@
         <v>手冲拿铁(杯)x3</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H36" s="6">
         <v>3</v>
@@ -6063,13 +7329,13 @@
     </row>
     <row r="37" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E37" s="12">
         <v>42469</v>
@@ -6079,7 +7345,7 @@
         <v>高山普洱(杯)x1</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H37" s="6">
         <v>1</v>
@@ -6097,13 +7363,13 @@
     </row>
     <row r="38" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E38" s="12">
         <v>42469</v>
@@ -6113,7 +7379,7 @@
         <v>手冲拿铁(杯)x1</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H38" s="6">
         <v>1</v>
@@ -6131,13 +7397,13 @@
     </row>
     <row r="39" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E39" s="12">
         <v>42469</v>
@@ -6147,7 +7413,7 @@
         <v>高山普洱(杯)x3</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H39" s="6">
         <v>3</v>
@@ -6165,13 +7431,13 @@
     </row>
     <row r="40" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E40" s="12">
         <v>42469</v>
@@ -6181,7 +7447,7 @@
         <v>花果茶玫瑰(杯)x1</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H40" s="6">
         <v>1</v>
@@ -6199,11 +7465,11 @@
     </row>
     <row r="41" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E41" s="12">
         <v>42470</v>
@@ -6213,7 +7479,7 @@
         <v>花果茶玫瑰(杯)x1</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H41" s="6">
         <v>1</v>
@@ -6231,11 +7497,11 @@
     </row>
     <row r="42" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E42" s="12">
         <v>42470</v>
@@ -6245,7 +7511,7 @@
         <v>手冲拿铁(杯)x7</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H42" s="6">
         <v>7</v>
@@ -6263,11 +7529,11 @@
     </row>
     <row r="43" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E43" s="12">
         <v>42470</v>
@@ -6277,7 +7543,7 @@
         <v>手冲拿铁(杯)x1</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H43" s="6">
         <v>1</v>
@@ -6295,11 +7561,11 @@
     </row>
     <row r="44" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E44" s="12">
         <v>42470</v>
@@ -6309,7 +7575,7 @@
         <v>啤酒(瓶)x8</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H44" s="6">
         <v>8</v>
@@ -6324,18 +7590,18 @@
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B45" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E45" s="12">
         <v>42470</v>
@@ -6345,7 +7611,7 @@
         <v>手冲拿铁(杯)x2</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H45" s="6">
         <v>2</v>
@@ -6363,13 +7629,13 @@
     </row>
     <row r="46" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E46" s="12">
         <v>42470</v>
@@ -6379,7 +7645,7 @@
         <v>手冲拿铁(杯)x2</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H46" s="6">
         <v>2</v>
@@ -6397,13 +7663,13 @@
     </row>
     <row r="47" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B47" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E47" s="12">
         <v>42470</v>
@@ -6413,7 +7679,7 @@
         <v>果汁(杯)x2</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H47" s="6">
         <v>2</v>
@@ -6428,18 +7694,18 @@
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E48" s="12">
         <v>42470</v>
@@ -6449,7 +7715,7 @@
         <v>插花x1</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H48" s="6">
         <v>1</v>
@@ -6466,13 +7732,13 @@
     </row>
     <row r="49" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E49" s="12">
         <v>42470</v>
@@ -6482,7 +7748,7 @@
         <v>绿茶(杯)x1</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H49" s="6">
         <v>1</v>
@@ -6499,13 +7765,13 @@
     </row>
     <row r="50" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E50" s="12">
         <v>42470</v>
@@ -6515,7 +7781,7 @@
         <v>手冲拿铁(杯)x1</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H50" s="6">
         <v>1</v>
@@ -6533,11 +7799,11 @@
     </row>
     <row r="51" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E51" s="12">
         <v>42470</v>
@@ -6547,7 +7813,7 @@
         <v>冰锐果酒(瓶)x1</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H51" s="6">
         <v>1</v>
@@ -6562,18 +7828,18 @@
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E52" s="12">
         <v>42470</v>
@@ -6583,7 +7849,7 @@
         <v>手冲拿铁(杯)x1</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H52" s="6">
         <v>1</v>
@@ -6601,13 +7867,13 @@
     </row>
     <row r="53" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E53" s="12">
         <v>42470</v>
@@ -6617,7 +7883,7 @@
         <v>花果茶玫瑰(杯)x1</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H53" s="6">
         <v>1</v>
@@ -6634,15 +7900,25 @@
       <c r="M53" s="16"/>
     </row>
     <row r="54" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B54" s="15"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="12"/>
+      <c r="B54" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" s="12">
+        <v>42471</v>
+      </c>
       <c r="F54" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>x1</v>
-      </c>
-      <c r="G54" s="5"/>
+        <v>啤酒(瓶)x1</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="H54" s="6">
         <v>1</v>
       </c>
@@ -6652,21 +7928,29 @@
       <c r="J54" s="6"/>
       <c r="K54" s="5">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D54="充值",J54,VLOOKUP(G54,表2[#All],4,FALSE)*H54*I54*-1))</f>
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="16"/>
     </row>
     <row r="55" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B55" s="20"/>
+      <c r="B55" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C55" s="21"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="30"/>
+      <c r="D55" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="12">
+        <v>42471</v>
+      </c>
       <c r="F55" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>x1</v>
-      </c>
-      <c r="G55" s="5"/>
+        <v>手冲拿铁(杯)x1</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="H55" s="6">
         <v>1</v>
       </c>
@@ -6676,23 +7960,33 @@
       <c r="J55" s="22"/>
       <c r="K55" s="5">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D55="充值",J55,VLOOKUP(G55,表2[#All],4,FALSE)*H55*I55*-1))</f>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L55" s="22"/>
       <c r="M55" s="24"/>
     </row>
     <row r="56" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B56" s="15"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="12"/>
+      <c r="B56" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" s="12">
+        <v>42472</v>
+      </c>
       <c r="F56" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>x1</v>
-      </c>
-      <c r="G56" s="5"/>
+        <v>手冲拿铁(杯)x3</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="H56" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I56" s="6">
         <v>1</v>
@@ -6700,21 +7994,31 @@
       <c r="J56" s="6"/>
       <c r="K56" s="5">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D56="充值",J56,VLOOKUP(G56,表2[#All],4,FALSE)*H56*I56*-1))</f>
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="L56" s="6"/>
       <c r="M56" s="16"/>
     </row>
     <row r="57" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B57" s="15"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="12"/>
+      <c r="B57" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E57" s="12">
+        <v>42472</v>
+      </c>
       <c r="F57" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>x1</v>
-      </c>
-      <c r="G57" s="5"/>
+        <v>斯里兰卡上等红茶(杯)x1</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="H57" s="6">
         <v>1</v>
       </c>
@@ -6724,45 +8028,67 @@
       <c r="J57" s="6"/>
       <c r="K57" s="5">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D57="充值",J57,VLOOKUP(G57,表2[#All],4,FALSE)*H57*I57*-1))</f>
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="L57" s="6"/>
       <c r="M57" s="16"/>
     </row>
     <row r="58" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B58" s="15"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="12"/>
+      <c r="B58" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="12">
+        <v>42472</v>
+      </c>
       <c r="F58" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>x1</v>
-      </c>
-      <c r="G58" s="5"/>
+        <v>充值x1</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="H58" s="6">
         <v>1</v>
       </c>
       <c r="I58" s="6">
         <v>1</v>
       </c>
-      <c r="J58" s="6"/>
+      <c r="J58" s="6">
+        <v>500</v>
+      </c>
       <c r="K58" s="5">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D58="充值",J58,VLOOKUP(G58,表2[#All],4,FALSE)*H58*I58*-1))</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="16"/>
     </row>
     <row r="59" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B59" s="15"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="12"/>
+      <c r="B59" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59" s="12">
+        <v>42472</v>
+      </c>
       <c r="F59" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>x1</v>
-      </c>
-      <c r="G59" s="5"/>
+        <v>啤酒(瓶)x1</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="H59" s="6">
         <v>1</v>
       </c>
@@ -6772,23 +8098,33 @@
       <c r="J59" s="6"/>
       <c r="K59" s="5">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D59="充值",J59,VLOOKUP(G59,表2[#All],4,FALSE)*H59*I59*-1))</f>
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L59" s="6"/>
       <c r="M59" s="16"/>
     </row>
     <row r="60" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B60" s="15"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="12"/>
+      <c r="B60" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" s="12">
+        <v>42472</v>
+      </c>
       <c r="F60" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>x1</v>
-      </c>
-      <c r="G60" s="5"/>
+        <v>啤酒(瓶)x6</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="H60" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I60" s="6">
         <v>1</v>
@@ -6796,45 +8132,67 @@
       <c r="J60" s="6"/>
       <c r="K60" s="5">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D60="充值",J60,VLOOKUP(G60,表2[#All],4,FALSE)*H60*I60*-1))</f>
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="L60" s="6"/>
       <c r="M60" s="16"/>
     </row>
     <row r="61" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B61" s="15"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="12"/>
+      <c r="B61" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="12">
+        <v>42473</v>
+      </c>
       <c r="F61" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>x1</v>
-      </c>
-      <c r="G61" s="5"/>
+        <v>充值x1</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="H61" s="6">
         <v>1</v>
       </c>
       <c r="I61" s="6">
         <v>1</v>
       </c>
-      <c r="J61" s="6"/>
+      <c r="J61" s="6">
+        <v>1500</v>
+      </c>
       <c r="K61" s="5">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D61="充值",J61,VLOOKUP(G61,表2[#All],4,FALSE)*H61*I61*-1))</f>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="L61" s="6"/>
       <c r="M61" s="16"/>
     </row>
     <row r="62" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B62" s="15"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="12"/>
+      <c r="B62" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" s="12">
+        <v>42473</v>
+      </c>
       <c r="F62" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>x1</v>
-      </c>
-      <c r="G62" s="5"/>
+        <v>手冲拿铁(杯)x1</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="H62" s="6">
         <v>1</v>
       </c>
@@ -6844,23 +8202,33 @@
       <c r="J62" s="6"/>
       <c r="K62" s="5">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D62="充值",J62,VLOOKUP(G62,表2[#All],4,FALSE)*H62*I62*-1))</f>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L62" s="6"/>
       <c r="M62" s="16"/>
     </row>
     <row r="63" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B63" s="15"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="12"/>
+      <c r="B63" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E63" s="12">
+        <v>42473</v>
+      </c>
       <c r="F63" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>x1</v>
-      </c>
-      <c r="G63" s="5"/>
+        <v>茶位费(位)x4</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="H63" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I63" s="6">
         <v>1</v>
@@ -6868,21 +8236,31 @@
       <c r="J63" s="6"/>
       <c r="K63" s="5">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D63="充值",J63,VLOOKUP(G63,表2[#All],4,FALSE)*H63*I63*-1))</f>
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="L63" s="6"/>
       <c r="M63" s="16"/>
     </row>
     <row r="64" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B64" s="15"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="12"/>
+      <c r="B64" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E64" s="12">
+        <v>42473</v>
+      </c>
       <c r="F64" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>x1</v>
-      </c>
-      <c r="G64" s="5"/>
+        <v>手冲拿铁(杯)x1</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="H64" s="6">
         <v>1</v>
       </c>
@@ -6892,21 +8270,31 @@
       <c r="J64" s="6"/>
       <c r="K64" s="5">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D64="充值",J64,VLOOKUP(G64,表2[#All],4,FALSE)*H64*I64*-1))</f>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L64" s="6"/>
       <c r="M64" s="16"/>
     </row>
     <row r="65" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B65" s="15"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="12"/>
+      <c r="B65" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E65" s="12">
+        <v>42473</v>
+      </c>
       <c r="F65" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>x1</v>
-      </c>
-      <c r="G65" s="5"/>
+        <v>斯里兰卡上等红茶(杯)x1</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="H65" s="6">
         <v>1</v>
       </c>
@@ -6916,21 +8304,31 @@
       <c r="J65" s="6"/>
       <c r="K65" s="5">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D65="充值",J65,VLOOKUP(G65,表2[#All],4,FALSE)*H65*I65*-1))</f>
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="L65" s="6"/>
       <c r="M65" s="16"/>
     </row>
     <row r="66" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B66" s="15"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="12"/>
+      <c r="B66" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" s="12">
+        <v>42473</v>
+      </c>
       <c r="F66" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>x1</v>
-      </c>
-      <c r="G66" s="5"/>
+        <v>手冲拿铁(杯)x1</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="H66" s="6">
         <v>1</v>
       </c>
@@ -6940,21 +8338,31 @@
       <c r="J66" s="6"/>
       <c r="K66" s="5">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D66="充值",J66,VLOOKUP(G66,表2[#All],4,FALSE)*H66*I66*-1))</f>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L66" s="6"/>
       <c r="M66" s="16"/>
     </row>
     <row r="67" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B67" s="15"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="12"/>
+      <c r="B67" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E67" s="12">
+        <v>42473</v>
+      </c>
       <c r="F67" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>x1</v>
-      </c>
-      <c r="G67" s="5"/>
+        <v>非洲腰果(袋)x1</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="H67" s="6">
         <v>1</v>
       </c>
@@ -6964,21 +8372,31 @@
       <c r="J67" s="6"/>
       <c r="K67" s="5">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D67="充值",J67,VLOOKUP(G67,表2[#All],4,FALSE)*H67*I67*-1))</f>
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="L67" s="6"/>
       <c r="M67" s="16"/>
     </row>
     <row r="68" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B68" s="15"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="12"/>
+      <c r="B68" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E68" s="12">
+        <v>42473</v>
+      </c>
       <c r="F68" s="12" t="str">
-        <f t="shared" ref="F68:F75" si="1">CONCATENATE(G68,"x",H68)</f>
-        <v>x1</v>
-      </c>
-      <c r="G68" s="5"/>
+        <f t="shared" si="0"/>
+        <v>手冲拿铁(杯)x1</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="H68" s="6">
         <v>1</v>
       </c>
@@ -6988,23 +8406,33 @@
       <c r="J68" s="6"/>
       <c r="K68" s="5">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D68="充值",J68,VLOOKUP(G68,表2[#All],4,FALSE)*H68*I68*-1))</f>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L68" s="6"/>
       <c r="M68" s="16"/>
     </row>
     <row r="69" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B69" s="15"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="12"/>
+      <c r="B69" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E69" s="12">
+        <v>42473</v>
+      </c>
       <c r="F69" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>x1</v>
-      </c>
-      <c r="G69" s="5"/>
+        <f t="shared" ref="F68:F75" si="1">CONCATENATE(G69,"x",H69)</f>
+        <v>手冲拿铁(杯)x2</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="H69" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" s="6">
         <v>1</v>
@@ -7012,21 +8440,31 @@
       <c r="J69" s="6"/>
       <c r="K69" s="5">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D69="充值",J69,VLOOKUP(G69,表2[#All],4,FALSE)*H69*I69*-1))</f>
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L69" s="6"/>
       <c r="M69" s="16"/>
     </row>
     <row r="70" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B70" s="15"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="12"/>
+      <c r="B70" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E70" s="12">
+        <v>42473</v>
+      </c>
       <c r="F70" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>x1</v>
-      </c>
-      <c r="G70" s="5"/>
+        <v>斯里兰卡上等红茶(杯)x1</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="H70" s="6">
         <v>1</v>
       </c>
@@ -7036,23 +8474,33 @@
       <c r="J70" s="6"/>
       <c r="K70" s="5">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D70="充值",J70,VLOOKUP(G70,表2[#All],4,FALSE)*H70*I70*-1))</f>
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="L70" s="6"/>
       <c r="M70" s="16"/>
     </row>
     <row r="71" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B71" s="15"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="12"/>
+      <c r="B71" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E71" s="12">
+        <v>42473</v>
+      </c>
       <c r="F71" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>x1</v>
-      </c>
-      <c r="G71" s="5"/>
+        <v>啤酒(瓶)x2</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="H71" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" s="6">
         <v>1</v>
@@ -7060,7 +8508,7 @@
       <c r="J71" s="6"/>
       <c r="K71" s="5">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D71="充值",J71,VLOOKUP(G71,表2[#All],4,FALSE)*H71*I71*-1))</f>
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="L71" s="6"/>
       <c r="M71" s="16"/>
@@ -7163,6 +8611,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D64 D66:D75">
+      <formula1>"充值,会员消费,消费"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
@@ -7191,10 +8644,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G17"/>
+  <dimension ref="B2:H35"/>
   <sheetViews>
-    <sheetView zoomScale="169" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A12" zoomScale="169" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -7202,340 +8655,733 @@
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="41" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="42" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="32" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>26</v>
+      <c r="H2" s="42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="str">
+        <f>CONCATENATE(C3,"(",F3,")")</f>
+        <v>德国手工花果茶(壶（4杯）)</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="26">
+        <v>80</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="41">
+        <v>1</v>
+      </c>
+      <c r="H3" s="48">
+        <v>42472</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="str">
         <f>CONCATENATE(C4,"(",F4,")")</f>
-        <v>手冲拿铁(杯)</v>
+        <v>德国手工花果茶(杯)</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="26">
+        <v>30</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G4" s="41">
+        <v>1</v>
+      </c>
+      <c r="H4" s="48">
+        <v>42472</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="str">
-        <f t="shared" ref="B5:B13" si="0">CONCATENATE(C5,"(",F5,")")</f>
-        <v>锡兰红茶(杯)</v>
+        <f>CONCATENATE(C5,"(",F5,")")</f>
+        <v>德国手工花果茶(壶（2杯）)</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="26">
+        <v>50</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="41">
+        <v>1</v>
+      </c>
+      <c r="H5" s="48">
+        <v>42472</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="str">
+        <f>CONCATENATE(C6,"(",F6,")")</f>
+        <v>峨眉山明前绿茶(杯)</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="26">
+        <v>30</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="41">
+        <v>1</v>
+      </c>
+      <c r="H6" s="48">
+        <v>42472</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="str">
+        <f>CONCATENATE(C7,"(",F7,")")</f>
+        <v>高山古树普洱茶(杯)</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="26">
+        <v>30</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="41">
+        <v>1</v>
+      </c>
+      <c r="H7" s="48">
+        <v>42472</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="str">
+        <f>CONCATENATE(C8,"(",F8,")")</f>
+        <v>高山古树普洱茶(壶（2杯）)</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="26">
+        <v>50</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="41">
+        <v>1</v>
+      </c>
+      <c r="H8" s="51">
+        <v>42472</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="str">
+        <f>CONCATENATE(C9,"(",F9,")")</f>
+        <v>高山古树普洱茶(壶（2杯）)</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="26">
+        <v>80</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="41">
+        <v>1</v>
+      </c>
+      <c r="H9" s="51">
+        <v>42472</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="str">
+        <f>CONCATENATE(C10,"(",F10,")")</f>
+        <v>斯里兰卡上等红茶(杯)</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="26">
+        <v>30</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="41">
+        <v>1</v>
+      </c>
+      <c r="H10" s="48">
+        <v>42472</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="str">
+        <f>CONCATENATE(C11,"(",F11,")")</f>
+        <v>斯里兰卡上等红茶(壶（2杯）)</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="26">
+        <v>50</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="41">
+        <v>1</v>
+      </c>
+      <c r="H11" s="51">
+        <v>42472</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="str">
+        <f>CONCATENATE(C12,"(",F12,")")</f>
+        <v>斯里兰卡上等红茶(壶（4杯）)</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="26">
+        <v>80</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="41">
+        <v>1</v>
+      </c>
+      <c r="H12" s="51">
+        <v>42472</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="str">
+        <f>CONCATENATE(C13,"(",F13,")")</f>
+        <v>冰锐果酒(瓶)</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="26">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>高山普洱(杯)</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>花果茶玫瑰(杯)</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>锡兰红茶(壶)</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1">
-        <v>70</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>高山普洱(壶)</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1">
-        <v>70</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>花果茶玫瑰(壶)</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1">
-        <v>80</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>坚果(盘)</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="1">
-        <v>20</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>绿茶(杯)</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="1">
-        <v>20</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="F13" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="41">
+        <v>1</v>
+      </c>
+      <c r="H13" s="48">
+        <v>42466</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="str">
+        <f>CONCATENATE(C14,"(",F14,")")</f>
         <v>茶位费(位)</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="26">
-        <v>20</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="1" t="str">
-        <f t="shared" ref="B14:B17" si="1">CONCATENATE(C14,"(",F14,")")</f>
-        <v>热巧克力(杯)</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="26">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>啤酒(瓶)</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="29">
-        <v>20</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+      <c r="G14" s="41">
+        <v>1</v>
+      </c>
+      <c r="H14" s="48">
+        <v>42466</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="49">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="41">
+        <v>1</v>
+      </c>
+      <c r="H15" s="48">
+        <v>42466</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>果汁(杯)</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>105</v>
+        <f>CONCATENATE(C16,"(",F16,")")</f>
+        <v>高山普洱(杯)</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="49">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="41">
+        <v>1</v>
+      </c>
+      <c r="H16" s="48">
+        <v>42466</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="str">
+        <f>CONCATENATE(C17,"(",F17,")")</f>
+        <v>高山普洱(壶)</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="49">
+        <v>70</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="41">
+        <v>1</v>
+      </c>
+      <c r="H17" s="48">
+        <v>42466</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="str">
+        <f>CONCATENATE(C18,"(",F18,")")</f>
+        <v>果汁(杯)</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="29">
         <v>25</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F18" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>冰锐果酒(瓶)</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="29" t="s">
+      <c r="G18" s="41">
+        <v>1</v>
+      </c>
+      <c r="H18" s="48">
+        <v>42466</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="str">
+        <f>CONCATENATE(C19,"(",F19,")")</f>
+        <v>花果茶玫瑰(杯)</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E19" s="49">
+        <v>25</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="41">
+        <v>1</v>
+      </c>
+      <c r="H19" s="48">
+        <v>42466</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="str">
+        <f>CONCATENATE(C20,"(",F20,")")</f>
+        <v>花果茶玫瑰(壶)</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="49">
+        <v>80</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="41">
+        <v>1</v>
+      </c>
+      <c r="H20" s="48">
+        <v>42466</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="str">
+        <f>CONCATENATE(C21,"(",F21,")")</f>
+        <v>坚果(盘)</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="49">
+        <v>20</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="41">
+        <v>1</v>
+      </c>
+      <c r="H21" s="48">
+        <v>42466</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="1" t="str">
+        <f>CONCATENATE(C22,"(",F22,")")</f>
+        <v>绿茶(杯)</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="49">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="41">
+        <v>1</v>
+      </c>
+      <c r="H22" s="48">
+        <v>42466</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="str">
+        <f>CONCATENATE(C23,"(",F23,")")</f>
+        <v>啤酒(瓶)</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="29">
+        <v>20</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="41">
+        <v>1</v>
+      </c>
+      <c r="H23" s="48">
+        <v>42466</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="str">
+        <f>CONCATENATE(C24,"(",F24,")")</f>
+        <v>热巧克力(杯)</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="26">
+        <v>25</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="41">
+        <v>1</v>
+      </c>
+      <c r="H24" s="48">
+        <v>42466</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="str">
+        <f>CONCATENATE(C25,"(",F25,")")</f>
+        <v>手冲拿铁(杯)</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1">
+        <v>25</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="41">
+        <v>1</v>
+      </c>
+      <c r="H25" s="48">
+        <v>42466</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="str">
+        <f>CONCATENATE(C26,"(",F26,")")</f>
+        <v>锡兰红茶(杯)</v>
+      </c>
+      <c r="C26" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="40">
-        <v>1</v>
-      </c>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="49">
+        <v>20</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="41">
+        <v>1</v>
+      </c>
+      <c r="H26" s="48">
+        <v>42466</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="str">
+        <f>CONCATENATE(C27,"(",F27,")")</f>
+        <v>锡兰红茶(壶)</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="49">
+        <v>70</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="41">
+        <v>1</v>
+      </c>
+      <c r="H27" s="48">
+        <v>42466</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="str">
+        <f>CONCATENATE(C28,"(",F28,")")</f>
+        <v>非洲腰果(袋)</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="29">
+        <v>30</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="41">
+        <v>1</v>
+      </c>
+      <c r="H28" s="51">
+        <v>42472</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="str">
+        <f>CONCATENATE(C29,"(",F29,")")</f>
+        <v>()</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="50"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="1" t="str">
+        <f>CONCATENATE(C30,"(",F30,")")</f>
+        <v>()</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="50"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="str">
+        <f>CONCATENATE(C31,"(",F31,")")</f>
+        <v>()</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="50"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="1" t="str">
+        <f>CONCATENATE(C32,"(",F32,")")</f>
+        <v>()</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="50"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B33" s="1" t="str">
+        <f>CONCATENATE(C33,"(",F33,")")</f>
+        <v>()</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="50"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B34" s="1" t="str">
+        <f>CONCATENATE(C34,"(",F34,")")</f>
+        <v>()</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="50"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B35" s="1" t="str">
+        <f>CONCATENATE(C35,"(",F35,")")</f>
+        <v>()</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/文档/葡萄院儿会员日记.xlsx
+++ b/文档/葡萄院儿会员日记.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenxi/Dev/ptye/文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenxi/dev/ptye/文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,8 +18,8 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="291" r:id="rId4"/>
-    <pivotCache cacheId="298" r:id="rId5"/>
+    <pivotCache cacheId="263" r:id="rId4"/>
+    <pivotCache cacheId="269" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="166">
   <si>
     <t>葡萄院儿The Vineyard会员日记</t>
     <rPh sb="0" eb="1">
@@ -628,6 +628,9 @@
     <t>消费</t>
   </si>
   <si>
+    <t>(空白)</t>
+  </si>
+  <si>
     <t>会员消费</t>
   </si>
   <si>
@@ -641,9 +644,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张小容</t>
-  </si>
-  <si>
     <t>零点</t>
   </si>
   <si>
@@ -699,12 +699,6 @@
     <t>果汁(杯)</t>
   </si>
   <si>
-    <t>充值x1</t>
-  </si>
-  <si>
-    <t>手冲拿铁(杯)x1</t>
-  </si>
-  <si>
     <t>冰锐酒</t>
     <rPh sb="0" eb="1">
       <t>bing rui</t>
@@ -752,9 +746,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手冲拿铁(杯)x3</t>
-  </si>
-  <si>
     <t>列标签</t>
   </si>
   <si>
@@ -785,9 +776,6 @@
   </si>
   <si>
     <t>蔚蓝</t>
-  </si>
-  <si>
-    <t>蔚蓝</t>
     <rPh sb="0" eb="1">
       <t>wei lan</t>
     </rPh>
@@ -880,13 +868,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>啤酒(瓶)x1</t>
-  </si>
-  <si>
     <t>斯里兰卡上等红茶(杯)</t>
-  </si>
-  <si>
-    <t>斯里兰卡上等红茶(杯)x1</t>
   </si>
   <si>
     <t>颗颗妈妈</t>
@@ -910,12 +892,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>啤酒(瓶)x6</t>
-  </si>
-  <si>
-    <t>高波</t>
-  </si>
-  <si>
     <t>高波</t>
     <rPh sb="0" eb="1">
       <t>gao</t>
@@ -944,6 +920,9 @@
   </si>
   <si>
     <t>卢芳</t>
+  </si>
+  <si>
+    <t>卢芳</t>
     <rPh sb="0" eb="1">
       <t>lu fang</t>
     </rPh>
@@ -986,6 +965,158 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>lao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝山美术</t>
+    <rPh sb="0" eb="1">
+      <t>lan shan mei shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草莓酸奶</t>
+    <rPh sb="0" eb="1">
+      <t>cao mei suan nai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜点</t>
+    <rPh sb="0" eb="1">
+      <t>tian dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草莓酸奶(杯)</t>
+  </si>
+  <si>
+    <t>曹曹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹曹妹妹</t>
+    <rPh sb="0" eb="1">
+      <t>cao cao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄勇</t>
+    <rPh sb="0" eb="1">
+      <t>huang yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇哥</t>
+    <rPh sb="0" eb="1">
+      <t>yong ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄一鸾</t>
+    <rPh sb="0" eb="1">
+      <t>huang yi luan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一鸾</t>
+    <rPh sb="0" eb="1">
+      <t>yi luan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(多项)</t>
+  </si>
+  <si>
+    <t>曹曹</t>
+    <rPh sb="0" eb="1">
+      <t>cao cao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德国手工花果茶(杯)</t>
+  </si>
+  <si>
+    <t>颗颗妈妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>峨眉山明前绿茶(杯)</t>
+  </si>
+  <si>
+    <t>混合腰果</t>
+    <rPh sb="0" eb="1">
+      <t>hun he yao guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yao guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合腰果(袋)</t>
+  </si>
+  <si>
+    <t>达哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>candicie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>candice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔兔妈妈</t>
+    <rPh sb="0" eb="1">
+      <t>tu tu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ma ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党玮娅</t>
+    <rPh sb="0" eb="1">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米果</t>
+    <rPh sb="0" eb="1">
+      <t>mi guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高卉</t>
+    <rPh sb="0" eb="1">
+      <t>gao hui</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>hui</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1243,7 +1374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1289,36 +1420,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1326,11 +1442,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="115">
+  <dxfs count="96">
     <dxf>
       <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     </dxf>
@@ -1338,6 +1457,158 @@
       <font>
         <color theme="1" tint="4.9989318521683403E-2"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     </dxf>
     <dxf>
       <font>
@@ -1424,36 +1695,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <sz val="18"/>
       </font>
     </dxf>
@@ -1499,275 +1740,6 @@
       <font>
         <color theme="1" tint="4.9989318521683403E-2"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="0.0"/>
@@ -1888,19 +1860,31 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2377,6 +2361,44 @@
         <sz val="18"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -2388,13 +2410,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42473.913693171293" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="73">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42476.673469444446" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="110">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B2:M75" sheet="明细"/>
+    <worksheetSource name="表1"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="姓名" numFmtId="0">
-      <sharedItems containsBlank="1" count="23">
+      <sharedItems containsBlank="1" count="26">
         <s v="冯宇"/>
         <s v="薛丹"/>
         <s v="张小容"/>
@@ -2415,8 +2437,11 @@
         <s v="赵鹏飞"/>
         <s v="蔚蓝"/>
         <s v="高波"/>
+        <s v="曹曹"/>
+        <s v="黄勇"/>
+        <s v="黄一鸾"/>
+        <s v="candicie"/>
         <m/>
-        <s v="张小蓉" u="1"/>
         <s v="党委娅" u="1"/>
       </sharedItems>
     </cacheField>
@@ -2424,16 +2449,17 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="类型（充值／消费／其他）" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
+      <sharedItems containsBlank="1" count="6">
         <s v="充值"/>
         <s v="消费"/>
         <s v="会员消费"/>
         <s v="卢芳"/>
+        <s v="零点"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="日期" numFmtId="58">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-05T00:00:00" maxDate="2016-04-14T00:00:00" count="10">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-05T00:00:00" maxDate="2016-04-17T00:00:00" count="13">
         <d v="2016-04-05T00:00:00"/>
         <d v="2016-04-06T00:00:00"/>
         <d v="2016-04-07T00:00:00"/>
@@ -2443,6 +2469,9 @@
         <d v="2016-04-11T00:00:00"/>
         <d v="2016-04-12T00:00:00"/>
         <d v="2016-04-13T00:00:00"/>
+        <d v="2016-04-14T00:00:00"/>
+        <d v="2016-04-15T00:00:00"/>
+        <d v="2016-04-16T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -2475,35 +2504,60 @@
         <s v="斯里兰卡上等红茶(杯)x1"/>
         <s v="啤酒(瓶)x6"/>
         <s v="茶位费(位)x4"/>
-        <s v="x1"/>
-        <m u="1"/>
-        <s v="花果茶玫瑰1壶x1" u="1"/>
-        <s v="坚果1盘x1" u="1"/>
-        <s v="坚果1盘x3" u="1"/>
-        <s v="高山普洱1杯x1" u="1"/>
-        <s v="手冲拿铁1杯x1" u="1"/>
-        <s v="锡兰红茶1壶x1" u="1"/>
-        <s v="充值1次x1" u="1"/>
-        <s v="茶位费1位x1" u="1"/>
+        <s v="非洲腰果(袋)x1"/>
+        <s v="啤酒(瓶)x2"/>
+        <s v="草莓酸奶(杯)x1"/>
+        <s v="德国手工花果茶(杯)x1"/>
+        <s v="峨眉山明前绿茶(杯)x1"/>
+        <s v="混合腰果(袋)x1"/>
+        <s v="啤酒(瓶)x3"/>
+        <s v="啤酒(瓶)x4"/>
+        <s v="手冲拿铁(杯)x5"/>
+        <m/>
+        <s v="x1" u="1"/>
+        <s v="米果(袋)x1" u="1"/>
         <s v="x4" u="1"/>
-        <s v="绿茶1杯x2" u="1"/>
-        <s v="高山普洱1壶x10" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="产品" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsBlank="1" count="24">
+        <s v="充值"/>
+        <s v="高山普洱(壶)"/>
+        <s v="手冲拿铁(杯)"/>
+        <s v="茶位费(位)"/>
+        <s v="坚果(盘)"/>
+        <s v="锡兰红茶(壶)"/>
+        <s v="绿茶(杯)"/>
+        <s v="花果茶玫瑰(壶)"/>
+        <s v="花果茶玫瑰(杯)"/>
+        <s v="热巧克力(杯)"/>
+        <s v="高山普洱(杯)"/>
+        <s v="锡兰红茶(杯)"/>
+        <s v="啤酒(瓶)"/>
+        <s v="果汁(杯)"/>
+        <s v="插花"/>
+        <s v="冰锐果酒(瓶)"/>
+        <s v="斯里兰卡上等红茶(杯)"/>
+        <s v="非洲腰果(袋)"/>
+        <s v="草莓酸奶(杯)"/>
+        <s v="德国手工花果茶(杯)"/>
+        <s v="峨眉山明前绿茶(杯)"/>
+        <s v="混合腰果(袋)"/>
+        <m/>
+        <s v="米果(袋)" u="1"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="数量" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
     </cacheField>
     <cacheField name="DC" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.44" maxValue="1"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.44" maxValue="1"/>
     </cacheField>
     <cacheField name="充值金额" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="2000"/>
     </cacheField>
     <cacheField name="汇总金额" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="-308" maxValue="2000"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-308" maxValue="2000"/>
     </cacheField>
     <cacheField name="签名" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -2521,13 +2575,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42473.913694328701" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="73">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42476.67347303241" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="110">
   <cacheSource type="worksheet">
-    <worksheetSource name="表1"/>
+    <worksheetSource ref="B2:M112" sheet="明细"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="姓名" numFmtId="0">
-      <sharedItems containsBlank="1" count="22">
+      <sharedItems containsBlank="1" count="27">
         <s v="冯宇"/>
         <s v="薛丹"/>
         <s v="张小容"/>
@@ -2548,7 +2602,12 @@
         <s v="赵鹏飞"/>
         <s v="蔚蓝"/>
         <s v="高波"/>
+        <s v="曹曹"/>
+        <s v="黄勇"/>
+        <s v="黄一鸾"/>
+        <s v="candicie"/>
         <m/>
+        <s v="张小蓉" u="1"/>
         <s v="党委娅" u="1"/>
       </sharedItems>
     </cacheField>
@@ -2556,16 +2615,17 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="类型（充值／消费／其他）" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
+      <sharedItems containsBlank="1" count="6">
         <s v="充值"/>
         <s v="消费"/>
         <s v="会员消费"/>
         <s v="卢芳"/>
+        <s v="零点"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="日期" numFmtId="58">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-05T00:00:00" maxDate="2016-04-14T00:00:00" count="10">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-05T00:00:00" maxDate="2016-04-17T00:00:00" count="13">
         <d v="2016-04-05T00:00:00"/>
         <d v="2016-04-06T00:00:00"/>
         <d v="2016-04-07T00:00:00"/>
@@ -2575,11 +2635,14 @@
         <d v="2016-04-11T00:00:00"/>
         <d v="2016-04-12T00:00:00"/>
         <d v="2016-04-13T00:00:00"/>
+        <d v="2016-04-14T00:00:00"/>
+        <d v="2016-04-15T00:00:00"/>
+        <d v="2016-04-16T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="显示条目" numFmtId="58">
-      <sharedItems count="29">
+      <sharedItems containsBlank="1" count="50">
         <s v="充值x1"/>
         <s v="高山普洱(壶)x10"/>
         <s v="手冲拿铁(杯)x1"/>
@@ -2607,43 +2670,45 @@
         <s v="斯里兰卡上等红茶(杯)x1"/>
         <s v="啤酒(瓶)x6"/>
         <s v="茶位费(位)x4"/>
-        <s v="x1"/>
+        <s v="非洲腰果(袋)x1"/>
+        <s v="啤酒(瓶)x2"/>
+        <s v="草莓酸奶(杯)x1"/>
+        <s v="德国手工花果茶(杯)x1"/>
+        <s v="峨眉山明前绿茶(杯)x1"/>
+        <s v="混合腰果(袋)x1"/>
+        <s v="啤酒(瓶)x3"/>
+        <s v="啤酒(瓶)x4"/>
+        <s v="手冲拿铁(杯)x5"/>
+        <m/>
+        <s v="花果茶玫瑰1壶x1" u="1"/>
+        <s v="x1" u="1"/>
+        <s v="坚果1盘x1" u="1"/>
+        <s v="米果(袋)x1" u="1"/>
+        <s v="坚果1盘x3" u="1"/>
+        <s v="高山普洱1杯x1" u="1"/>
+        <s v="手冲拿铁1杯x1" u="1"/>
+        <s v="锡兰红茶1壶x1" u="1"/>
+        <s v="充值1次x1" u="1"/>
+        <s v="茶位费1位x1" u="1"/>
         <s v="x4" u="1"/>
+        <s v="绿茶1杯x2" u="1"/>
+        <s v="高山普洱1壶x10" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="产品" numFmtId="0">
-      <sharedItems containsBlank="1" count="18">
-        <s v="充值"/>
-        <s v="高山普洱(壶)"/>
-        <s v="手冲拿铁(杯)"/>
-        <s v="茶位费(位)"/>
-        <s v="坚果(盘)"/>
-        <s v="锡兰红茶(壶)"/>
-        <s v="绿茶(杯)"/>
-        <s v="花果茶玫瑰(壶)"/>
-        <s v="花果茶玫瑰(杯)"/>
-        <s v="热巧克力(杯)"/>
-        <s v="高山普洱(杯)"/>
-        <s v="锡兰红茶(杯)"/>
-        <s v="啤酒(瓶)"/>
-        <s v="果汁(杯)"/>
-        <s v="插花"/>
-        <s v="冰锐果酒(瓶)"/>
-        <s v="斯里兰卡上等红茶(杯)"/>
-        <m/>
-      </sharedItems>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="数量" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
     </cacheField>
     <cacheField name="DC" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.44" maxValue="1"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.44" maxValue="1"/>
     </cacheField>
     <cacheField name="充值金额" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="2000"/>
     </cacheField>
     <cacheField name="汇总金额" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="-308" maxValue="2000"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-308" maxValue="2000"/>
     </cacheField>
     <cacheField name="签名" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -2661,7 +2726,1552 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="73">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="110">
+  <r>
+    <x v="0"/>
+    <s v="档爸"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1500"/>
+    <n v="1500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="皇上"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1500"/>
+    <n v="1500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2000"/>
+    <n v="2000"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="喜爸"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2000"/>
+    <n v="2000"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="峰峰妈"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1500"/>
+    <n v="1500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="小艾爸"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1500"/>
+    <n v="1500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="宏哥朋友"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="10"/>
+    <n v="0.44"/>
+    <n v="0"/>
+    <n v="-308"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="兔妈"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1500"/>
+    <n v="1500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="涵涵妈"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1500"/>
+    <n v="1500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="葡萄奶奶"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="500"/>
+    <n v="500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="档爸"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="档爸"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="葡萄奶奶"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-70"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="葡萄奶奶"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-40"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="葡萄奶奶"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-80"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="葡萄奶奶"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <n v="-60"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="皇上"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="8"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="12"/>
+    <x v="9"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-80"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="峰峰妈"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="8"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="喜爸"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="13"/>
+    <x v="10"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="档爸"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="皇上"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="喜爸"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="11"/>
+    <x v="8"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="慧君"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="慧君"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="11"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="15"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <n v="-75"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="喜爸"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="10"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="零点"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="零点"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="16"/>
+    <x v="10"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <n v="-60"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="零点"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="17"/>
+    <x v="8"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="17"/>
+    <x v="8"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="18"/>
+    <x v="2"/>
+    <n v="7"/>
+    <n v="1"/>
+    <m/>
+    <n v="-175"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="19"/>
+    <x v="12"/>
+    <n v="8"/>
+    <n v="1"/>
+    <m/>
+    <n v="-160"/>
+    <m/>
+    <s v="啤酒"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="原慧玲"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="施济"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="施济"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="13"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <s v="鲜榨果汁"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="信和活动"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="21"/>
+    <x v="14"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-300"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="飞哥"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="9"/>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="飞哥"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="22"/>
+    <x v="15"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-18"/>
+    <m/>
+    <s v="冰锐酒"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="帕萨迪纳业主"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="帕萨迪纳业主"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="17"/>
+    <x v="8"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="蔚蓝"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="23"/>
+    <x v="12"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="crystal"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="15"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <n v="-75"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="crystal"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="24"/>
+    <x v="16"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="颗颗妈妈"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="500"/>
+    <n v="500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="颗颗妈妈"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="23"/>
+    <x v="12"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="25"/>
+    <x v="12"/>
+    <n v="6"/>
+    <n v="1"/>
+    <m/>
+    <n v="-120"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="二宝妈"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1500"/>
+    <n v="1500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="二宝妈"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="maji妈妈"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="26"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <m/>
+    <n v="-80"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="卢芳"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="卢芳"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="24"/>
+    <x v="16"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="27"/>
+    <x v="17"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="皇上"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="林总，唐老师"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="林总，唐老师"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="24"/>
+    <x v="16"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="林总，唐老师"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="28"/>
+    <x v="12"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-40"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="蓝山美术"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="蓝山美术"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="29"/>
+    <x v="18"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="曹曹妹妹"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="500"/>
+    <n v="500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="勇哥"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="500"/>
+    <n v="500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="一鸾"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="500"/>
+    <n v="500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="曹曹妹妹"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="曹曹妹妹"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="30"/>
+    <x v="19"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="勇哥"/>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="颗颗妈妈"/>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="23"/>
+    <x v="12"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="皇上"/>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="小艾爸"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="小艾爸"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="31"/>
+    <x v="20"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="小艾爸"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="32"/>
+    <x v="21"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-35"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="达哥"/>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="15"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <n v="-75"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="达哥"/>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="29"/>
+    <x v="18"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="candice"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="500"/>
+    <n v="500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="candice"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="皇上"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="兔兔妈妈"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="33"/>
+    <x v="12"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <n v="-60"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="23"/>
+    <x v="12"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="皇上"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="34"/>
+    <x v="12"/>
+    <n v="4"/>
+    <n v="1"/>
+    <m/>
+    <n v="-80"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="23"/>
+    <x v="12"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="高卉"/>
+    <x v="4"/>
+    <x v="11"/>
+    <x v="35"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="1"/>
+    <m/>
+    <n v="-125"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="高卉"/>
+    <x v="4"/>
+    <x v="11"/>
+    <x v="24"/>
+    <x v="16"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="高卉"/>
+    <x v="4"/>
+    <x v="11"/>
+    <x v="30"/>
+    <x v="19"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="高卉"/>
+    <x v="4"/>
+    <x v="11"/>
+    <x v="29"/>
+    <x v="18"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="皇上"/>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="24"/>
+    <m/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="36"/>
+    <x v="22"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="24"/>
+    <m/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="36"/>
+    <x v="22"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="24"/>
+    <m/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="36"/>
+    <x v="22"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="24"/>
+    <m/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="36"/>
+    <x v="22"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="24"/>
+    <m/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="36"/>
+    <x v="22"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="24"/>
+    <m/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="36"/>
+    <x v="22"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="24"/>
+    <m/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="36"/>
+    <x v="22"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="24"/>
+    <m/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="36"/>
+    <x v="22"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="24"/>
+    <m/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="36"/>
+    <x v="22"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="24"/>
+    <m/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="36"/>
+    <x v="22"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="24"/>
+    <m/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="36"/>
+    <x v="22"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="24"/>
+    <m/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="36"/>
+    <x v="22"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="24"/>
+    <m/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="36"/>
+    <x v="22"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="110">
   <r>
     <x v="0"/>
     <s v="档爸"/>
@@ -3564,292 +5174,91 @@
     <x v="2"/>
     <x v="8"/>
     <x v="27"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <e v="#N/A"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <x v="4"/>
-    <x v="9"/>
-    <x v="27"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <x v="4"/>
-    <x v="9"/>
-    <x v="27"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <x v="4"/>
-    <x v="9"/>
-    <x v="27"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <x v="4"/>
-    <x v="9"/>
-    <x v="27"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <x v="4"/>
-    <x v="9"/>
-    <x v="27"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <x v="4"/>
-    <x v="9"/>
-    <x v="27"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <x v="4"/>
-    <x v="9"/>
-    <x v="27"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <x v="4"/>
-    <x v="9"/>
-    <x v="27"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="73">
-  <r>
-    <x v="0"/>
-    <s v="档爸"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1500"/>
-    <n v="1500"/>
+    <s v="非洲腰果(袋)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
     <m/>
     <m/>
   </r>
   <r>
     <x v="1"/>
     <s v="皇上"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="2"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="林总，唐老师"/>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1500"/>
-    <n v="1500"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="阳妈"/>
-    <x v="0"/>
+    <x v="8"/>
+    <x v="10"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="林总，唐老师"/>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2000"/>
-    <n v="2000"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="喜爸"/>
-    <x v="0"/>
+    <x v="8"/>
+    <x v="24"/>
+    <s v="斯里兰卡上等红茶(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="林总，唐老师"/>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2000"/>
-    <n v="2000"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="峰峰妈"/>
-    <x v="0"/>
+    <x v="8"/>
+    <x v="28"/>
+    <s v="啤酒(瓶)"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-40"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="蓝山美术"/>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1500"/>
-    <n v="1500"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="小艾爸"/>
-    <x v="0"/>
+    <x v="9"/>
+    <x v="2"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="蓝山美术"/>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1500"/>
-    <n v="1500"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="宏哥朋友"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="10"/>
-    <n v="0.44"/>
-    <n v="0"/>
-    <n v="-308"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="兔妈"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1500"/>
-    <n v="1500"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="8"/>
-    <s v="涵涵妈"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1500"/>
-    <n v="1500"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
     <x v="9"/>
-    <s v="葡萄奶奶"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="500"/>
-    <n v="500"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="阳妈"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="档爸"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
+    <x v="29"/>
+    <s v="草莓酸奶(杯)"/>
     <n v="1"/>
     <n v="1"/>
     <m/>
@@ -3858,670 +5267,54 @@
     <m/>
   </r>
   <r>
-    <x v="0"/>
-    <s v="档爸"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="葡萄奶奶"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-70"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="葡萄奶奶"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="6"/>
-    <n v="2"/>
-    <n v="1"/>
-    <m/>
-    <n v="-40"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="葡萄奶奶"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="7"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-80"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="葡萄奶奶"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="1"/>
-    <m/>
-    <n v="-60"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="皇上"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="6"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="1"/>
-    <m/>
-    <n v="-50"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="10"/>
-    <m/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="8"/>
-    <n v="2"/>
-    <n v="1"/>
-    <m/>
-    <n v="-50"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="10"/>
-    <m/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="12"/>
-    <x v="9"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="7"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-80"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="11"/>
-    <m/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="峰峰妈"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="8"/>
-    <n v="2"/>
-    <n v="1"/>
-    <m/>
-    <n v="-50"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="喜爸"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="13"/>
-    <x v="10"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="档爸"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="皇上"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="喜爸"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="阳妈"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="11"/>
-    <x v="8"/>
-    <n v="2"/>
-    <n v="1"/>
-    <m/>
-    <n v="-50"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <s v="慧君"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <s v="慧君"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="14"/>
-    <x v="11"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="阳妈"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="15"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-    <m/>
-    <n v="-75"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="喜爸"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="10"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="零点"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="零点"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="16"/>
-    <x v="10"/>
-    <n v="3"/>
-    <n v="1"/>
-    <m/>
-    <n v="-60"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="零点"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="17"/>
-    <x v="8"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="17"/>
-    <x v="8"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="18"/>
-    <x v="2"/>
-    <n v="7"/>
-    <n v="1"/>
-    <m/>
-    <n v="-175"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="19"/>
-    <x v="12"/>
-    <n v="8"/>
-    <n v="1"/>
-    <m/>
-    <n v="-160"/>
-    <m/>
-    <s v="啤酒"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <s v="原慧玲"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="10"/>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="1"/>
-    <m/>
-    <n v="-50"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="15"/>
-    <s v="施济"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="10"/>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="1"/>
-    <m/>
-    <n v="-50"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="15"/>
-    <s v="施济"/>
-    <x v="1"/>
-    <x v="5"/>
     <x v="20"/>
-    <x v="13"/>
-    <n v="2"/>
-    <n v="1"/>
-    <m/>
-    <n v="-50"/>
-    <m/>
-    <s v="鲜榨果汁"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <s v="信和活动"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="21"/>
-    <x v="14"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-300"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="17"/>
-    <s v="飞哥"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="9"/>
-    <x v="6"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="17"/>
-    <s v="飞哥"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="22"/>
-    <x v="15"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-18"/>
-    <m/>
-    <s v="冰锐酒"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="帕萨迪纳业主"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="帕萨迪纳业主"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="17"/>
-    <x v="8"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="蔚蓝"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="23"/>
-    <x v="12"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="crystal"/>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="15"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-    <m/>
-    <n v="-75"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="crystal"/>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="24"/>
-    <x v="16"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="18"/>
-    <s v="颗颗妈妈"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="500"/>
-    <n v="500"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="18"/>
-    <s v="颗颗妈妈"/>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="23"/>
-    <x v="12"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="阳妈"/>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="25"/>
-    <x v="12"/>
-    <n v="6"/>
-    <n v="1"/>
-    <m/>
-    <n v="-120"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="19"/>
-    <s v="二宝妈"/>
+    <s v="曹曹妹妹"/>
     <x v="0"/>
     <x v="8"/>
     <x v="0"/>
+    <s v="充值"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="500"/>
+    <n v="500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="勇哥"/>
     <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1500"/>
-    <n v="1500"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="19"/>
-    <s v="二宝妈"/>
+    <x v="9"/>
+    <x v="0"/>
+    <s v="充值"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="500"/>
+    <n v="500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="一鸾"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="0"/>
+    <s v="充值"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="500"/>
+    <n v="500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="曹曹妹妹"/>
     <x v="2"/>
     <x v="8"/>
     <x v="2"/>
-    <x v="2"/>
+    <s v="手冲拿铁(杯)"/>
     <n v="1"/>
     <n v="1"/>
     <m/>
@@ -4530,12 +5323,222 @@
     <m/>
   </r>
   <r>
+    <x v="20"/>
+    <s v="曹曹妹妹"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="30"/>
+    <s v="德国手工花果茶(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="勇哥"/>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="2"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="颗颗妈妈"/>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="23"/>
+    <s v="啤酒(瓶)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="皇上"/>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="2"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="小艾爸"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="2"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="小艾爸"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="31"/>
+    <s v="峨眉山明前绿茶(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="小艾爸"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="32"/>
+    <s v="混合腰果(袋)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-35"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <x v="13"/>
-    <s v="maji妈妈"/>
+    <s v="达哥"/>
     <x v="1"/>
-    <x v="8"/>
-    <x v="26"/>
-    <x v="3"/>
+    <x v="10"/>
+    <x v="15"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <n v="-75"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="达哥"/>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="29"/>
+    <s v="草莓酸奶(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="candice"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+    <s v="充值"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="500"/>
+    <n v="500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="candice"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="2"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="2"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="皇上"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="2"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="兔兔妈妈"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="33"/>
+    <s v="啤酒(瓶)"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <n v="-60"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="23"/>
+    <s v="啤酒(瓶)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="皇上"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="34"/>
+    <s v="啤酒(瓶)"/>
     <n v="4"/>
     <n v="1"/>
     <m/>
@@ -4544,12 +5547,82 @@
     <m/>
   </r>
   <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="23"/>
+    <s v="啤酒(瓶)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <x v="13"/>
-    <s v="卢芳"/>
+    <s v="高卉"/>
+    <x v="4"/>
+    <x v="11"/>
+    <x v="35"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="5"/>
+    <n v="1"/>
+    <m/>
+    <n v="-125"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="高卉"/>
+    <x v="4"/>
+    <x v="11"/>
+    <x v="24"/>
+    <s v="斯里兰卡上等红茶(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="高卉"/>
+    <x v="4"/>
+    <x v="11"/>
+    <x v="30"/>
+    <s v="德国手工花果茶(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="高卉"/>
+    <x v="4"/>
+    <x v="11"/>
+    <x v="29"/>
+    <s v="草莓酸奶(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <x v="1"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="皇上"/>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="2"/>
+    <s v="手冲拿铁(杯)"/>
     <n v="1"/>
     <n v="1"/>
     <m/>
@@ -4558,154 +5631,182 @@
     <m/>
   </r>
   <r>
-    <x v="13"/>
-    <s v="卢芳"/>
-    <x v="3"/>
-    <x v="8"/>
     <x v="24"/>
-    <x v="16"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="阳妈"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="阳妈"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="27"/>
-    <x v="17"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <e v="#N/A"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <x v="4"/>
-    <x v="9"/>
-    <x v="27"/>
-    <x v="17"/>
-    <n v="1"/>
-    <n v="1"/>
+    <m/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <n v="0"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="20"/>
-    <m/>
-    <x v="4"/>
-    <x v="9"/>
-    <x v="27"/>
-    <x v="17"/>
-    <n v="1"/>
-    <n v="1"/>
+    <x v="24"/>
+    <m/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <n v="0"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="20"/>
-    <m/>
-    <x v="4"/>
-    <x v="9"/>
-    <x v="27"/>
-    <x v="17"/>
-    <n v="1"/>
-    <n v="1"/>
+    <x v="24"/>
+    <m/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <n v="0"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="20"/>
-    <m/>
-    <x v="4"/>
-    <x v="9"/>
-    <x v="27"/>
-    <x v="17"/>
-    <n v="1"/>
-    <n v="1"/>
+    <x v="24"/>
+    <m/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <n v="0"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="20"/>
-    <m/>
-    <x v="4"/>
-    <x v="9"/>
-    <x v="27"/>
-    <x v="17"/>
-    <n v="1"/>
-    <n v="1"/>
+    <x v="24"/>
+    <m/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <n v="0"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="20"/>
-    <m/>
-    <x v="4"/>
-    <x v="9"/>
-    <x v="27"/>
-    <x v="17"/>
-    <n v="1"/>
-    <n v="1"/>
+    <x v="24"/>
+    <m/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <n v="0"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="20"/>
-    <m/>
-    <x v="4"/>
-    <x v="9"/>
-    <x v="27"/>
-    <x v="17"/>
-    <n v="1"/>
-    <n v="1"/>
+    <x v="24"/>
+    <m/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <n v="0"/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="20"/>
-    <m/>
-    <x v="4"/>
-    <x v="9"/>
-    <x v="27"/>
-    <x v="17"/>
-    <n v="1"/>
-    <n v="1"/>
+    <x v="24"/>
+    <m/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="24"/>
+    <m/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="24"/>
+    <m/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="24"/>
+    <m/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="24"/>
+    <m/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="24"/>
+    <m/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <n v="0"/>
     <m/>
@@ -4715,7 +5816,448 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="298" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="会员汇总" cacheId="269" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" grandTotalCaption="余额" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B12:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="28">
+        <item m="1" x="26"/>
+        <item h="1" x="0"/>
+        <item h="1" x="5"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="6"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" x="24"/>
+        <item h="1" x="9"/>
+        <item h="1" x="2"/>
+        <item h="1" x="10"/>
+        <item h="1" x="8"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item h="1" x="7"/>
+        <item h="1" x="19"/>
+        <item h="1" x="20"/>
+        <item h="1" x="21"/>
+        <item h="1" x="22"/>
+        <item h="1" x="23"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" countASubtotal="1">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="countA"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="14">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="50">
+        <item m="1" x="45"/>
+        <item m="1" x="42"/>
+        <item m="1" x="49"/>
+        <item m="1" x="37"/>
+        <item m="1" x="39"/>
+        <item m="1" x="41"/>
+        <item m="1" x="48"/>
+        <item m="1" x="43"/>
+        <item m="1" x="44"/>
+        <item x="36"/>
+        <item x="0"/>
+        <item m="1" x="46"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item m="1" x="38"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="16"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item m="1" x="47"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item m="1" x="40"/>
+        <item x="35"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="3"/>
+    <field x="2"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="消费明细" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="87">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="263" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H10:O25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="27">
+        <item sd="0" m="1" x="25"/>
+        <item x="10"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item x="12"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="13"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="1"/>
+        <item x="11"/>
+        <item sd="0" x="14"/>
+        <item x="2"/>
+        <item sd="0" x="17"/>
+        <item x="24"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="19"/>
+        <item x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="14">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="41">
+        <item sd="0" m="1" x="37"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="21"/>
+        <item x="3"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="5"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item m="1" x="39"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="36"/>
+        <item x="34"/>
+        <item m="1" x="38"/>
+        <item x="35"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="3"/>
+    <field x="0"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="求和/汇总金额" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="8">
+    <format dxfId="95">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="94">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="93">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="92">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="91">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="90">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="89">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="88">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="263" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="Q10:R27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -4724,7 +6266,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="19">
+      <items count="25">
         <item x="15"/>
         <item x="14"/>
         <item x="3"/>
@@ -4741,8 +6283,14 @@
         <item x="2"/>
         <item x="11"/>
         <item x="5"/>
+        <item h="1" x="22"/>
+        <item h="1" x="16"/>
         <item h="1" x="17"/>
-        <item h="1" x="16"/>
+        <item h="1" x="18"/>
+        <item h="1" x="19"/>
+        <item h="1" x="20"/>
+        <item h="1" x="21"/>
+        <item h="1" m="1" x="23"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -4833,470 +6381,42 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="298" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H10:L28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="23">
-        <item sd="0" m="1" x="21"/>
-        <item x="10"/>
-        <item sd="0" x="0"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item x="12"/>
-        <item sd="0" x="16"/>
-        <item x="13"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="1"/>
-        <item x="11"/>
-        <item sd="0" x="14"/>
-        <item x="2"/>
-        <item sd="0" x="17"/>
-        <item x="20"/>
-        <item x="18"/>
-        <item x="7"/>
-        <item x="19"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item h="1" sd="0" x="9"/>
-        <item sd="0" x="6"/>
-        <item x="7"/>
-        <item h="1" x="8"/>
-        <item t="default" sd="0"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="30">
-        <item sd="0" x="27"/>
-        <item sd="0" x="22"/>
-        <item sd="0" x="21"/>
-        <item x="3"/>
-        <item sd="0" x="0"/>
-        <item sd="0" x="13"/>
-        <item sd="0" x="16"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="20"/>
-        <item sd="0" x="17"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="19"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="5"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item m="1" x="28"/>
-        <item x="26"/>
-        <item t="default" sd="0"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="3">
-    <field x="3"/>
-    <field x="0"/>
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="17">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="2">
-      <x v="20"/>
-    </i>
-    <i r="2">
-      <x v="25"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-    </i>
-    <i r="2">
-      <x v="26"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="24"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="求和/汇总金额" fld="9" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="9">
-    <format dxfId="87">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1">
-            <x v="3"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="86">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="85">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="84">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="83">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="82">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="81">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="80">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="79">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="会员汇总" cacheId="291" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" grandTotalCaption="余额" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B12:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="24">
-        <item h="1" m="1" x="22"/>
-        <item h="1" x="0"/>
-        <item h="1" x="5"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="6"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" x="20"/>
-        <item h="1" x="9"/>
-        <item h="1" x="2"/>
-        <item h="1" x="10"/>
-        <item h="1" x="8"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item h="1" x="15"/>
-        <item h="1" x="16"/>
-        <item h="1" x="17"/>
-        <item h="1" x="18"/>
-        <item h="1" x="7"/>
-        <item x="19"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" countASubtotal="1">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item sd="0" x="4"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="countA"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item sd="0" x="0"/>
-        <item x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="9"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default" sd="0"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="40">
-        <item m="1" x="35"/>
-        <item m="1" x="32"/>
-        <item m="1" x="39"/>
-        <item m="1" x="29"/>
-        <item m="1" x="30"/>
-        <item m="1" x="31"/>
-        <item m="1" x="38"/>
-        <item m="1" x="33"/>
-        <item m="1" x="34"/>
-        <item m="1" x="28"/>
-        <item x="0"/>
-        <item m="1" x="36"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="27"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="16"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item m="1" x="37"/>
-        <item x="26"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="3">
-    <field x="3"/>
-    <field x="2"/>
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="13"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="消费明细" fld="9" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="114">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:M75" totalsRowShown="0" headerRowDxfId="113" dataDxfId="111" headerRowBorderDxfId="112" tableBorderDxfId="110" totalsRowBorderDxfId="109">
-  <autoFilter ref="B2:M75"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:M112" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83" totalsRowBorderDxfId="82">
+  <autoFilter ref="B2:M112"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="姓名" dataDxfId="108"/>
-    <tableColumn id="2" name="昵称" dataDxfId="107"/>
-    <tableColumn id="3" name="类型（充值／消费／其他）" dataDxfId="106"/>
-    <tableColumn id="4" name="日期" dataDxfId="105"/>
-    <tableColumn id="5" name="显示条目" dataDxfId="104"/>
-    <tableColumn id="6" name="产品" dataDxfId="103"/>
-    <tableColumn id="7" name="数量" dataDxfId="102"/>
-    <tableColumn id="8" name="DC" dataDxfId="101"/>
-    <tableColumn id="9" name="充值金额" dataDxfId="100"/>
-    <tableColumn id="10" name="汇总金额" dataDxfId="99">
+    <tableColumn id="1" name="姓名" dataDxfId="81"/>
+    <tableColumn id="2" name="昵称" dataDxfId="80"/>
+    <tableColumn id="3" name="类型（充值／消费／其他）" dataDxfId="79"/>
+    <tableColumn id="4" name="日期" dataDxfId="78"/>
+    <tableColumn id="5" name="显示条目" dataDxfId="77"/>
+    <tableColumn id="6" name="产品" dataDxfId="76"/>
+    <tableColumn id="7" name="数量" dataDxfId="75"/>
+    <tableColumn id="8" name="DC" dataDxfId="74"/>
+    <tableColumn id="9" name="充值金额" dataDxfId="73"/>
+    <tableColumn id="10" name="汇总金额" dataDxfId="72">
       <calculatedColumnFormula>IF(表1[[#This Row],[姓名]]="",0,IF(D3="充值",J3,VLOOKUP(G3,表2[#All],4,FALSE)*H3*I3*-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="签名" dataDxfId="98"/>
-    <tableColumn id="12" name="备注" dataDxfId="97"/>
+    <tableColumn id="11" name="签名" dataDxfId="71"/>
+    <tableColumn id="12" name="备注" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B2:H35" totalsRowShown="0" headerRowDxfId="88" headerRowBorderDxfId="95" tableBorderDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B2:H35" totalsRowShown="0" headerRowDxfId="69" headerRowBorderDxfId="68" tableBorderDxfId="67">
   <autoFilter ref="B2:H35"/>
   <sortState ref="B3:H35">
     <sortCondition descending="1" ref="H2:H35"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="描述" dataDxfId="94"/>
-    <tableColumn id="2" name="名称" dataDxfId="93"/>
-    <tableColumn id="3" name="类别" dataDxfId="92"/>
-    <tableColumn id="4" name="售价" dataDxfId="91"/>
-    <tableColumn id="5" name="单位" dataDxfId="90"/>
-    <tableColumn id="6" name="菜单版本号" dataDxfId="89"/>
+    <tableColumn id="1" name="描述" dataDxfId="66"/>
+    <tableColumn id="2" name="名称" dataDxfId="65"/>
+    <tableColumn id="3" name="类别" dataDxfId="64"/>
+    <tableColumn id="4" name="售价" dataDxfId="63"/>
+    <tableColumn id="5" name="单位" dataDxfId="62"/>
+    <tableColumn id="6" name="菜单版本号" dataDxfId="61"/>
     <tableColumn id="7" name="创建日期"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5566,25 +6686,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R36"/>
+  <dimension ref="B1:R47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.83203125" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="10.1640625" customWidth="1"/>
     <col min="10" max="10" width="9.5" customWidth="1"/>
     <col min="11" max="11" width="6.5" customWidth="1"/>
-    <col min="12" max="13" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.5" customWidth="1"/>
+    <col min="13" max="14" width="5.5" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" customWidth="1"/>
     <col min="17" max="17" width="15.5" customWidth="1"/>
     <col min="18" max="18" width="10.5" customWidth="1"/>
     <col min="19" max="22" width="9.5" customWidth="1"/>
@@ -5627,7 +6749,7 @@
     </row>
     <row r="5" spans="2:18" ht="24" x14ac:dyDescent="0.35">
       <c r="B5" s="28" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -5639,10 +6761,10 @@
       <c r="B7" s="28"/>
     </row>
     <row r="8" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="31"/>
+      <c r="C8" s="47"/>
     </row>
     <row r="9" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="27"/>
@@ -5652,42 +6774,51 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="I10" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q10" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="Q10" s="35" t="s">
-        <v>117</v>
-      </c>
       <c r="R10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="H11" s="35" t="s">
-        <v>117</v>
+      <c r="H11" s="34" t="s">
+        <v>114</v>
       </c>
       <c r="I11" t="s">
         <v>8</v>
       </c>
       <c r="J11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s">
         <v>90</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q11" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" t="s">
+        <v>134</v>
+      </c>
+      <c r="N11" t="s">
+        <v>94</v>
+      </c>
+      <c r="O11" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q11" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="R11" s="34">
-        <v>34</v>
+      <c r="R11" s="33">
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:18" ht="24" x14ac:dyDescent="0.25">
@@ -5695,392 +6826,399 @@
       <c r="C12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="43">
+      <c r="H12" s="37">
         <v>42465</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="38">
         <v>1500</v>
       </c>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44">
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38">
         <v>1500</v>
       </c>
-      <c r="Q12" s="33" t="s">
+      <c r="Q12" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="R12" s="33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="H13" s="37">
+        <v>42466</v>
+      </c>
+      <c r="I13" s="38">
+        <v>10000</v>
+      </c>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38">
+        <v>-308</v>
+      </c>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38">
+        <v>9692</v>
+      </c>
+      <c r="Q13" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="R13" s="33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="H14" s="37">
+        <v>42467</v>
+      </c>
+      <c r="I14" s="38">
+        <v>2000</v>
+      </c>
+      <c r="J14" s="38">
+        <v>-340</v>
+      </c>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38">
+        <v>1660</v>
+      </c>
+      <c r="Q14" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="R14" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="H15" s="37">
+        <v>42468</v>
+      </c>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38">
+        <v>-245</v>
+      </c>
+      <c r="K15" s="38">
+        <v>-100</v>
+      </c>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38">
+        <v>-345</v>
+      </c>
+      <c r="Q15" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="R15" s="33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="H16" s="37">
+        <v>42469</v>
+      </c>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38">
+        <v>-215</v>
+      </c>
+      <c r="K16" s="38">
+        <v>-155</v>
+      </c>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38">
+        <v>-370</v>
+      </c>
+      <c r="Q16" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="R16" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="E17" s="25"/>
+      <c r="H17" s="37">
+        <v>42470</v>
+      </c>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38">
+        <v>-403</v>
+      </c>
+      <c r="K17" s="38">
+        <v>-555</v>
+      </c>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38">
+        <v>-958</v>
+      </c>
+      <c r="Q17" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="R17" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="H18" s="37">
+        <v>42471</v>
+      </c>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33">
+        <v>-25</v>
+      </c>
+      <c r="K18" s="33">
+        <v>-20</v>
+      </c>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33">
+        <v>-45</v>
+      </c>
+      <c r="Q18" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="R18" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="F19" s="25"/>
+      <c r="H19" s="37">
+        <v>42472</v>
+      </c>
+      <c r="I19" s="33">
+        <v>500</v>
+      </c>
+      <c r="J19" s="33">
+        <v>-140</v>
+      </c>
+      <c r="K19" s="33">
+        <v>-105</v>
+      </c>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33">
+        <v>255</v>
+      </c>
+      <c r="Q19" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="R19" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="G20" s="25"/>
+      <c r="H20" s="37">
+        <v>42473</v>
+      </c>
+      <c r="I20" s="33">
+        <v>2000</v>
+      </c>
+      <c r="J20" s="33">
+        <v>-160</v>
+      </c>
+      <c r="K20" s="33">
+        <v>-225</v>
+      </c>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33">
+        <v>-30</v>
+      </c>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33">
+        <v>1585</v>
+      </c>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="R20" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="H21" s="37">
+        <v>42474</v>
+      </c>
+      <c r="I21" s="33">
+        <v>1000</v>
+      </c>
+      <c r="J21" s="33">
+        <v>-70</v>
+      </c>
+      <c r="K21" s="33">
+        <v>-45</v>
+      </c>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33">
+        <v>885</v>
+      </c>
+      <c r="Q21" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="R21" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="H22" s="37">
+        <v>42475</v>
+      </c>
+      <c r="I22" s="33">
+        <v>500</v>
+      </c>
+      <c r="J22" s="33">
+        <v>-345</v>
+      </c>
+      <c r="K22" s="33">
+        <v>-95</v>
+      </c>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33">
+        <v>60</v>
+      </c>
+      <c r="Q22" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="R22" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="H23" s="37">
+        <v>42476</v>
+      </c>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33">
+        <v>-25</v>
+      </c>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33">
+        <v>-205</v>
+      </c>
+      <c r="O23" s="33">
+        <v>-230</v>
+      </c>
+      <c r="Q23" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="R12" s="34">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B13" s="38">
-        <v>42473</v>
-      </c>
-      <c r="C13" s="11">
-        <v>1475</v>
-      </c>
-      <c r="H13" s="43">
-        <v>42466</v>
-      </c>
-      <c r="I13" s="44">
-        <v>10000</v>
-      </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44">
-        <v>-308</v>
-      </c>
-      <c r="L13" s="44">
-        <v>9692</v>
-      </c>
-      <c r="Q13" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="R13" s="34">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B14" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="11">
-        <v>1</v>
-      </c>
-      <c r="H14" s="43">
-        <v>42467</v>
-      </c>
-      <c r="I14" s="44">
-        <v>2000</v>
-      </c>
-      <c r="J14" s="44">
-        <v>-340</v>
-      </c>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44">
-        <v>1660</v>
-      </c>
-      <c r="Q14" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="R14" s="34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B15" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="11">
-        <v>1500</v>
-      </c>
-      <c r="H15" s="43">
-        <v>42468</v>
-      </c>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44">
-        <v>-245</v>
-      </c>
-      <c r="K15" s="44">
-        <v>-100</v>
-      </c>
-      <c r="L15" s="44">
-        <v>-345</v>
-      </c>
-      <c r="Q15" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="R15" s="34">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B16" s="40" t="s">
+      <c r="R23" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="H24" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="11">
-        <v>1</v>
-      </c>
-      <c r="H16" s="43">
-        <v>42469</v>
-      </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44">
-        <v>-215</v>
-      </c>
-      <c r="K16" s="44">
-        <v>-155</v>
-      </c>
-      <c r="L16" s="44">
-        <v>-370</v>
-      </c>
-      <c r="Q16" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="R16" s="34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B17" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="11">
-        <v>-25</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="H17" s="43">
-        <v>42470</v>
-      </c>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44">
-        <v>-403</v>
-      </c>
-      <c r="K17" s="44">
-        <v>-555</v>
-      </c>
-      <c r="L17" s="44">
-        <v>-958</v>
-      </c>
-      <c r="Q17" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="R17" s="34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="11">
-        <v>1475</v>
-      </c>
-      <c r="H18" s="43">
-        <v>42471</v>
-      </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34">
-        <v>-25</v>
-      </c>
-      <c r="K18" s="34">
-        <v>-20</v>
-      </c>
-      <c r="L18" s="34">
-        <v>-45</v>
-      </c>
-      <c r="Q18" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="R18" s="34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="F19" s="25"/>
-      <c r="H19" s="43">
-        <v>42472</v>
-      </c>
-      <c r="I19" s="34">
-        <v>500</v>
-      </c>
-      <c r="J19" s="34">
-        <v>-140</v>
-      </c>
-      <c r="K19" s="34">
-        <v>-105</v>
-      </c>
-      <c r="L19" s="34">
-        <v>255</v>
-      </c>
-      <c r="Q19" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="R19" s="34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="G20" s="25"/>
-      <c r="H20" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34">
-        <v>-105</v>
-      </c>
-      <c r="L20" s="34">
-        <v>-105</v>
-      </c>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="R20" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="H21" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34">
-        <v>-75</v>
-      </c>
-      <c r="L21" s="34">
-        <v>-75</v>
-      </c>
-      <c r="Q21" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="R21" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="H22" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34">
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33">
+        <v>0</v>
+      </c>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="R24" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="5:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="H25" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" s="33">
+        <v>17500</v>
+      </c>
+      <c r="J25" s="33">
+        <v>-1968</v>
+      </c>
+      <c r="K25" s="33">
+        <v>-1608</v>
+      </c>
+      <c r="L25" s="33">
+        <v>0</v>
+      </c>
+      <c r="M25" s="33">
         <v>-30</v>
       </c>
-      <c r="L22" s="34">
-        <v>-30</v>
-      </c>
-      <c r="Q22" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="R22" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="H23" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34">
-        <v>-120</v>
-      </c>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34">
-        <v>-120</v>
-      </c>
-      <c r="Q23" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="R23" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="H24" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34">
-        <v>-120</v>
-      </c>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34">
-        <v>-120</v>
-      </c>
-      <c r="Q24" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="R24" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="H25" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="I25" s="34">
-        <v>500</v>
-      </c>
-      <c r="J25" s="34">
-        <v>-20</v>
-      </c>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34">
-        <v>480</v>
-      </c>
-      <c r="Q25" s="33" t="s">
+      <c r="N25" s="33">
+        <v>-205</v>
+      </c>
+      <c r="O25" s="33">
+        <v>13689</v>
+      </c>
+      <c r="Q25" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="R25" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="H26" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="I26" s="34">
-        <v>500</v>
-      </c>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34">
-        <v>500</v>
-      </c>
-      <c r="Q26" s="33" t="s">
+      <c r="R25" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="Q26" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="R26" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="H27" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34">
-        <v>-20</v>
-      </c>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34">
-        <v>-20</v>
-      </c>
-      <c r="Q27" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="R27" s="34">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="H28" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="I28" s="34">
-        <v>14000</v>
-      </c>
-      <c r="J28" s="34">
-        <v>-1368</v>
-      </c>
-      <c r="K28" s="34">
-        <v>-1243</v>
-      </c>
-      <c r="L28" s="34">
-        <v>11389</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:18" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:18" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:18" ht="24" x14ac:dyDescent="0.25"/>
+      <c r="R26" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="Q27" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="R27" s="33">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="5:18" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="5:18" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="5:18" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="5:18" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="5:18" ht="24" x14ac:dyDescent="0.25"/>
     <row r="33" ht="24" x14ac:dyDescent="0.25"/>
     <row r="34" ht="24" x14ac:dyDescent="0.25"/>
     <row r="35" ht="24" x14ac:dyDescent="0.25"/>
     <row r="36" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="24" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B8:C8"/>
@@ -6093,10 +7231,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M75"/>
+  <dimension ref="B1:M112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="109" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="109" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6419,7 +7557,7 @@
     </row>
     <row r="10" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B10" s="15" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>38</v>
@@ -6533,7 +7671,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E13" s="12">
         <v>42467</v>
@@ -6567,7 +7705,7 @@
         <v>46</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E14" s="12">
         <v>42467</v>
@@ -6601,7 +7739,7 @@
         <v>46</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E15" s="12">
         <v>42467</v>
@@ -6635,7 +7773,7 @@
         <v>41</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E16" s="12">
         <v>42467</v>
@@ -6669,7 +7807,7 @@
         <v>41</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E17" s="12">
         <v>42467</v>
@@ -6703,7 +7841,7 @@
         <v>41</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E18" s="12">
         <v>42467</v>
@@ -6737,7 +7875,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E19" s="12">
         <v>42467</v>
@@ -6771,7 +7909,7 @@
         <v>52</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E20" s="12">
         <v>42467</v>
@@ -6803,7 +7941,7 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E21" s="12">
         <v>42468</v>
@@ -6835,7 +7973,7 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E22" s="12">
         <v>42468</v>
@@ -6867,7 +8005,7 @@
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E23" s="12">
         <v>42468</v>
@@ -6963,7 +8101,7 @@
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E26" s="12">
         <v>42468</v>
@@ -7029,7 +8167,7 @@
         <v>34</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E28" s="12">
         <v>42468</v>
@@ -7063,7 +8201,7 @@
         <v>82</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E29" s="12">
         <v>42468</v>
@@ -7097,7 +8235,7 @@
         <v>78</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E30" s="12">
         <v>42469</v>
@@ -7131,7 +8269,7 @@
         <v>80</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E31" s="12">
         <v>42469</v>
@@ -7165,7 +8303,7 @@
         <v>82</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E32" s="12">
         <v>42469</v>
@@ -7199,7 +8337,7 @@
         <v>84</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E33" s="12">
         <v>42469</v>
@@ -7301,7 +8439,7 @@
         <v>84</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E36" s="12">
         <v>42469</v>
@@ -7335,7 +8473,7 @@
         <v>82</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E37" s="12">
         <v>42469</v>
@@ -7469,7 +8607,7 @@
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E41" s="12">
         <v>42470</v>
@@ -7501,7 +8639,7 @@
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E42" s="12">
         <v>42470</v>
@@ -7529,11 +8667,11 @@
     </row>
     <row r="43" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E43" s="12">
         <v>42470</v>
@@ -7565,7 +8703,7 @@
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E44" s="12">
         <v>42470</v>
@@ -7575,7 +8713,7 @@
         <v>啤酒(瓶)x8</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H44" s="6">
         <v>8</v>
@@ -7699,7 +8837,7 @@
     </row>
     <row r="48" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>98</v>
@@ -7732,7 +8870,7 @@
     </row>
     <row r="49" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>101</v>
@@ -7765,7 +8903,7 @@
     </row>
     <row r="50" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>101</v>
@@ -7803,7 +8941,7 @@
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E51" s="12">
         <v>42470</v>
@@ -7813,7 +8951,7 @@
         <v>冰锐果酒(瓶)x1</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H51" s="6">
         <v>1</v>
@@ -7828,7 +8966,7 @@
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="2:13" ht="22" x14ac:dyDescent="0.35">
@@ -7836,7 +8974,7 @@
         <v>88</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>47</v>
@@ -7870,7 +9008,7 @@
         <v>88</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>47</v>
@@ -7904,7 +9042,7 @@
         <v>88</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>47</v>
@@ -7917,7 +9055,7 @@
         <v>啤酒(瓶)x1</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H54" s="6">
         <v>1</v>
@@ -7939,7 +9077,7 @@
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E55" s="12">
         <v>42471</v>
@@ -7970,7 +9108,7 @@
         <v>88</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>47</v>
@@ -8004,7 +9142,7 @@
         <v>88</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>47</v>
@@ -8017,7 +9155,7 @@
         <v>斯里兰卡上等红茶(杯)x1</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H57" s="6">
         <v>1</v>
@@ -8035,10 +9173,10 @@
     </row>
     <row r="58" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>8</v>
@@ -8071,13 +9209,13 @@
     </row>
     <row r="59" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59" s="12">
         <v>42472</v>
@@ -8087,7 +9225,7 @@
         <v>啤酒(瓶)x1</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H59" s="6">
         <v>1</v>
@@ -8108,10 +9246,10 @@
         <v>65</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E60" s="12">
         <v>42472</v>
@@ -8121,7 +9259,7 @@
         <v>啤酒(瓶)x6</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H60" s="6">
         <v>6</v>
@@ -8139,10 +9277,10 @@
     </row>
     <row r="61" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>8</v>
@@ -8175,13 +9313,13 @@
     </row>
     <row r="62" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E62" s="12">
         <v>42473</v>
@@ -8212,7 +9350,7 @@
         <v>88</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>47</v>
@@ -8246,7 +9384,7 @@
         <v>88</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>47</v>
@@ -8280,10 +9418,10 @@
         <v>88</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E65" s="12">
         <v>42473</v>
@@ -8293,7 +9431,7 @@
         <v>斯里兰卡上等红茶(杯)x1</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H65" s="6">
         <v>1</v>
@@ -8314,10 +9452,10 @@
         <v>65</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E66" s="12">
         <v>42473</v>
@@ -8348,10 +9486,10 @@
         <v>65</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E67" s="12">
         <v>42473</v>
@@ -8361,7 +9499,7 @@
         <v>非洲腰果(袋)x1</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H67" s="6">
         <v>1</v>
@@ -8385,7 +9523,7 @@
         <v>80</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E68" s="12">
         <v>42473</v>
@@ -8416,7 +9554,7 @@
         <v>88</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>47</v>
@@ -8425,7 +9563,7 @@
         <v>42473</v>
       </c>
       <c r="F69" s="12" t="str">
-        <f t="shared" ref="F68:F75" si="1">CONCATENATE(G69,"x",H69)</f>
+        <f t="shared" ref="F69:F96" si="1">CONCATENATE(G69,"x",H69)</f>
         <v>手冲拿铁(杯)x2</v>
       </c>
       <c r="G69" s="5" t="s">
@@ -8450,7 +9588,7 @@
         <v>88</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>47</v>
@@ -8463,7 +9601,7 @@
         <v>斯里兰卡上等红茶(杯)x1</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H70" s="6">
         <v>1</v>
@@ -8484,7 +9622,7 @@
         <v>88</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>47</v>
@@ -8497,7 +9635,7 @@
         <v>啤酒(瓶)x2</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H71" s="6">
         <v>2</v>
@@ -8514,15 +9652,25 @@
       <c r="M71" s="16"/>
     </row>
     <row r="72" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B72" s="15"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="12"/>
+      <c r="B72" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E72" s="12">
+        <v>42474</v>
+      </c>
       <c r="F72" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>x1</v>
-      </c>
-      <c r="G72" s="5"/>
+        <v>手冲拿铁(杯)x1</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="H72" s="6">
         <v>1</v>
       </c>
@@ -8532,21 +9680,31 @@
       <c r="J72" s="6"/>
       <c r="K72" s="5">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D72="充值",J72,VLOOKUP(G72,表2[#All],4,FALSE)*H72*I72*-1))</f>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L72" s="6"/>
       <c r="M72" s="16"/>
     </row>
     <row r="73" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B73" s="15"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="12"/>
+      <c r="B73" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E73" s="12">
+        <v>42474</v>
+      </c>
       <c r="F73" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>x1</v>
-      </c>
-      <c r="G73" s="5"/>
+        <v>草莓酸奶(杯)x1</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="H73" s="6">
         <v>1</v>
       </c>
@@ -8556,63 +9714,1128 @@
       <c r="J73" s="6"/>
       <c r="K73" s="5">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D73="充值",J73,VLOOKUP(G73,表2[#All],4,FALSE)*H73*I73*-1))</f>
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L73" s="6"/>
       <c r="M73" s="16"/>
     </row>
     <row r="74" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B74" s="15"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="12"/>
+      <c r="B74" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="12">
+        <v>42473</v>
+      </c>
       <c r="F74" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>x1</v>
-      </c>
-      <c r="G74" s="5"/>
+        <v>充值x1</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="H74" s="6">
         <v>1</v>
       </c>
       <c r="I74" s="6">
         <v>1</v>
       </c>
-      <c r="J74" s="6"/>
+      <c r="J74" s="6">
+        <v>500</v>
+      </c>
       <c r="K74" s="5">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D74="充值",J74,VLOOKUP(G74,表2[#All],4,FALSE)*H74*I74*-1))</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L74" s="6"/>
       <c r="M74" s="16"/>
     </row>
     <row r="75" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B75" s="20"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="30"/>
+      <c r="B75" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="12">
+        <v>42474</v>
+      </c>
       <c r="F75" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>x1</v>
-      </c>
-      <c r="G75" s="5"/>
+        <v>充值x1</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="H75" s="6">
         <v>1</v>
       </c>
       <c r="I75" s="22">
         <v>1</v>
       </c>
-      <c r="J75" s="22"/>
+      <c r="J75" s="22">
+        <v>500</v>
+      </c>
       <c r="K75" s="23">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D75="充值",J75,VLOOKUP(G75,表2[#All],4,FALSE)*H75*I75*-1))</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L75" s="22"/>
       <c r="M75" s="24"/>
+    </row>
+    <row r="76" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B76" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="12">
+        <v>42474</v>
+      </c>
+      <c r="F76" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>充值x1</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76" s="22">
+        <v>1</v>
+      </c>
+      <c r="I76" s="22">
+        <v>1</v>
+      </c>
+      <c r="J76" s="22">
+        <v>500</v>
+      </c>
+      <c r="K76" s="23">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D76="充值",J76,VLOOKUP(G76,表2[#All],4,FALSE)*H76*I76*-1))</f>
+        <v>500</v>
+      </c>
+      <c r="L76" s="22"/>
+      <c r="M76" s="24"/>
+    </row>
+    <row r="77" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B77" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E77" s="12">
+        <v>42473</v>
+      </c>
+      <c r="F77" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>手冲拿铁(杯)x1</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H77" s="22">
+        <v>1</v>
+      </c>
+      <c r="I77" s="22">
+        <v>1</v>
+      </c>
+      <c r="J77" s="22"/>
+      <c r="K77" s="23">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D77="充值",J77,VLOOKUP(G77,表2[#All],4,FALSE)*H77*I77*-1))</f>
+        <v>-25</v>
+      </c>
+      <c r="L77" s="22"/>
+      <c r="M77" s="24"/>
+    </row>
+    <row r="78" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B78" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E78" s="12">
+        <v>42473</v>
+      </c>
+      <c r="F78" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>德国手工花果茶(杯)x1</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H78" s="22">
+        <v>1</v>
+      </c>
+      <c r="I78" s="22">
+        <v>1</v>
+      </c>
+      <c r="J78" s="22"/>
+      <c r="K78" s="23">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D78="充值",J78,VLOOKUP(G78,表2[#All],4,FALSE)*H78*I78*-1))</f>
+        <v>-30</v>
+      </c>
+      <c r="L78" s="22"/>
+      <c r="M78" s="24"/>
+    </row>
+    <row r="79" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B79" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E79" s="12">
+        <v>42474</v>
+      </c>
+      <c r="F79" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>手冲拿铁(杯)x1</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H79" s="22">
+        <v>1</v>
+      </c>
+      <c r="I79" s="22">
+        <v>1</v>
+      </c>
+      <c r="J79" s="6"/>
+      <c r="K79" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D79="充值",J79,VLOOKUP(G79,表2[#All],4,FALSE)*H79*I79*-1))</f>
+        <v>-25</v>
+      </c>
+      <c r="L79" s="6"/>
+      <c r="M79" s="16"/>
+    </row>
+    <row r="80" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B80" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E80" s="12">
+        <v>42474</v>
+      </c>
+      <c r="F80" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>啤酒(瓶)x1</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H80" s="22">
+        <v>1</v>
+      </c>
+      <c r="I80" s="22">
+        <v>1</v>
+      </c>
+      <c r="J80" s="6"/>
+      <c r="K80" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D80="充值",J80,VLOOKUP(G80,表2[#All],4,FALSE)*H80*I80*-1))</f>
+        <v>-20</v>
+      </c>
+      <c r="L80" s="6"/>
+      <c r="M80" s="16"/>
+    </row>
+    <row r="81" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B81" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E81" s="12">
+        <v>42474</v>
+      </c>
+      <c r="F81" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>手冲拿铁(杯)x1</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H81" s="22">
+        <v>1</v>
+      </c>
+      <c r="I81" s="22">
+        <v>1</v>
+      </c>
+      <c r="J81" s="6"/>
+      <c r="K81" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D81="充值",J81,VLOOKUP(G81,表2[#All],4,FALSE)*H81*I81*-1))</f>
+        <v>-25</v>
+      </c>
+      <c r="L81" s="6"/>
+      <c r="M81" s="16"/>
+    </row>
+    <row r="82" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B82" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E82" s="12">
+        <v>42475</v>
+      </c>
+      <c r="F82" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>手冲拿铁(杯)x1</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H82" s="22">
+        <v>1</v>
+      </c>
+      <c r="I82" s="22">
+        <v>1</v>
+      </c>
+      <c r="J82" s="6"/>
+      <c r="K82" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D82="充值",J82,VLOOKUP(G82,表2[#All],4,FALSE)*H82*I82*-1))</f>
+        <v>-25</v>
+      </c>
+      <c r="L82" s="6"/>
+      <c r="M82" s="16"/>
+    </row>
+    <row r="83" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B83" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E83" s="12">
+        <v>42475</v>
+      </c>
+      <c r="F83" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>峨眉山明前绿茶(杯)x1</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H83" s="22">
+        <v>1</v>
+      </c>
+      <c r="I83" s="22">
+        <v>1</v>
+      </c>
+      <c r="J83" s="6"/>
+      <c r="K83" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D83="充值",J83,VLOOKUP(G83,表2[#All],4,FALSE)*H83*I83*-1))</f>
+        <v>-30</v>
+      </c>
+      <c r="L83" s="6"/>
+      <c r="M83" s="16"/>
+    </row>
+    <row r="84" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B84" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E84" s="12">
+        <v>42475</v>
+      </c>
+      <c r="F84" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>混合腰果(袋)x1</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H84" s="22">
+        <v>1</v>
+      </c>
+      <c r="I84" s="22">
+        <v>1</v>
+      </c>
+      <c r="J84" s="6"/>
+      <c r="K84" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D84="充值",J84,VLOOKUP(G84,表2[#All],4,FALSE)*H84*I84*-1))</f>
+        <v>-35</v>
+      </c>
+      <c r="L84" s="6"/>
+      <c r="M84" s="16"/>
+    </row>
+    <row r="85" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B85" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E85" s="12">
+        <v>42475</v>
+      </c>
+      <c r="F85" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>手冲拿铁(杯)x3</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H85" s="22">
+        <v>3</v>
+      </c>
+      <c r="I85" s="22">
+        <v>1</v>
+      </c>
+      <c r="J85" s="6"/>
+      <c r="K85" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D85="充值",J85,VLOOKUP(G85,表2[#All],4,FALSE)*H85*I85*-1))</f>
+        <v>-75</v>
+      </c>
+      <c r="L85" s="6"/>
+      <c r="M85" s="16"/>
+    </row>
+    <row r="86" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B86" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E86" s="12">
+        <v>42475</v>
+      </c>
+      <c r="F86" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>草莓酸奶(杯)x1</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H86" s="22">
+        <v>1</v>
+      </c>
+      <c r="I86" s="22">
+        <v>1</v>
+      </c>
+      <c r="J86" s="6"/>
+      <c r="K86" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D86="充值",J86,VLOOKUP(G86,表2[#All],4,FALSE)*H86*I86*-1))</f>
+        <v>-20</v>
+      </c>
+      <c r="L86" s="6"/>
+      <c r="M86" s="16"/>
+    </row>
+    <row r="87" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B87" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" s="12">
+        <v>42475</v>
+      </c>
+      <c r="F87" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>充值x1</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H87" s="22">
+        <v>1</v>
+      </c>
+      <c r="I87" s="22">
+        <v>1</v>
+      </c>
+      <c r="J87" s="6">
+        <v>500</v>
+      </c>
+      <c r="K87" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D87="充值",J87,VLOOKUP(G87,表2[#All],4,FALSE)*H87*I87*-1))</f>
+        <v>500</v>
+      </c>
+      <c r="L87" s="6"/>
+      <c r="M87" s="16"/>
+    </row>
+    <row r="88" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B88" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E88" s="12">
+        <v>42475</v>
+      </c>
+      <c r="F88" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>手冲拿铁(杯)x1</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H88" s="22">
+        <v>1</v>
+      </c>
+      <c r="I88" s="22">
+        <v>1</v>
+      </c>
+      <c r="J88" s="6"/>
+      <c r="K88" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D88="充值",J88,VLOOKUP(G88,表2[#All],4,FALSE)*H88*I88*-1))</f>
+        <v>-25</v>
+      </c>
+      <c r="L88" s="6"/>
+      <c r="M88" s="16"/>
+    </row>
+    <row r="89" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B89" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E89" s="12">
+        <v>42475</v>
+      </c>
+      <c r="F89" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>手冲拿铁(杯)x1</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H89" s="22">
+        <v>1</v>
+      </c>
+      <c r="I89" s="22">
+        <v>1</v>
+      </c>
+      <c r="J89" s="6"/>
+      <c r="K89" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D89="充值",J89,VLOOKUP(G89,表2[#All],4,FALSE)*H89*I89*-1))</f>
+        <v>-25</v>
+      </c>
+      <c r="L89" s="6"/>
+      <c r="M89" s="16"/>
+    </row>
+    <row r="90" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B90" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E90" s="12">
+        <v>42475</v>
+      </c>
+      <c r="F90" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>手冲拿铁(杯)x1</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H90" s="22">
+        <v>1</v>
+      </c>
+      <c r="I90" s="22">
+        <v>1</v>
+      </c>
+      <c r="J90" s="6"/>
+      <c r="K90" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D90="充值",J90,VLOOKUP(G90,表2[#All],4,FALSE)*H90*I90*-1))</f>
+        <v>-25</v>
+      </c>
+      <c r="L90" s="6"/>
+      <c r="M90" s="16"/>
+    </row>
+    <row r="91" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B91" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E91" s="12">
+        <v>42475</v>
+      </c>
+      <c r="F91" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>啤酒(瓶)x3</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H91" s="22">
+        <v>3</v>
+      </c>
+      <c r="I91" s="22">
+        <v>1</v>
+      </c>
+      <c r="J91" s="6"/>
+      <c r="K91" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D91="充值",J91,VLOOKUP(G91,表2[#All],4,FALSE)*H91*I91*-1))</f>
+        <v>-60</v>
+      </c>
+      <c r="L91" s="6"/>
+      <c r="M91" s="16"/>
+    </row>
+    <row r="92" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B92" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E92" s="12">
+        <v>42475</v>
+      </c>
+      <c r="F92" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>啤酒(瓶)x1</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H92" s="22">
+        <v>1</v>
+      </c>
+      <c r="I92" s="22">
+        <v>1</v>
+      </c>
+      <c r="J92" s="6"/>
+      <c r="K92" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D92="充值",J92,VLOOKUP(G92,表2[#All],4,FALSE)*H92*I92*-1))</f>
+        <v>-20</v>
+      </c>
+      <c r="L92" s="6"/>
+      <c r="M92" s="16"/>
+    </row>
+    <row r="93" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B93" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E93" s="12">
+        <v>42475</v>
+      </c>
+      <c r="F93" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>啤酒(瓶)x4</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H93" s="22">
+        <v>4</v>
+      </c>
+      <c r="I93" s="22">
+        <v>1</v>
+      </c>
+      <c r="J93" s="6"/>
+      <c r="K93" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D93="充值",J93,VLOOKUP(G93,表2[#All],4,FALSE)*H93*I93*-1))</f>
+        <v>-80</v>
+      </c>
+      <c r="L93" s="6"/>
+      <c r="M93" s="16"/>
+    </row>
+    <row r="94" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B94" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E94" s="12">
+        <v>42475</v>
+      </c>
+      <c r="F94" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>啤酒(瓶)x1</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H94" s="22">
+        <v>1</v>
+      </c>
+      <c r="I94" s="22">
+        <v>1</v>
+      </c>
+      <c r="J94" s="22"/>
+      <c r="K94" s="23">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D94="充值",J94,VLOOKUP(G94,表2[#All],4,FALSE)*H94*I94*-1))</f>
+        <v>-20</v>
+      </c>
+      <c r="L94" s="22"/>
+      <c r="M94" s="24"/>
+    </row>
+    <row r="95" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="B95" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E95" s="12">
+        <v>42476</v>
+      </c>
+      <c r="F95" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>手冲拿铁(杯)x5</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H95" s="6">
+        <v>5</v>
+      </c>
+      <c r="I95" s="6">
+        <v>1</v>
+      </c>
+      <c r="J95" s="6"/>
+      <c r="K95" s="23">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D95="充值",J95,VLOOKUP(G95,表2[#All],4,FALSE)*H95*I95*-1))</f>
+        <v>-125</v>
+      </c>
+      <c r="L95" s="6"/>
+      <c r="M95" s="16"/>
+    </row>
+    <row r="96" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="B96" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E96" s="12">
+        <v>42476</v>
+      </c>
+      <c r="F96" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>斯里兰卡上等红茶(杯)x1</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H96" s="6">
+        <v>1</v>
+      </c>
+      <c r="I96" s="6">
+        <v>1</v>
+      </c>
+      <c r="J96" s="6"/>
+      <c r="K96" s="23">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D96="充值",J96,VLOOKUP(G96,表2[#All],4,FALSE)*H96*I96*-1))</f>
+        <v>-30</v>
+      </c>
+      <c r="L96" s="6"/>
+      <c r="M96" s="16"/>
+    </row>
+    <row r="97" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="B97" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E97" s="12">
+        <v>42476</v>
+      </c>
+      <c r="F97" s="12" t="str">
+        <f t="shared" ref="F97:F99" si="2">CONCATENATE(G97,"x",H97)</f>
+        <v>德国手工花果茶(杯)x1</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H97" s="6">
+        <v>1</v>
+      </c>
+      <c r="I97" s="6">
+        <v>1</v>
+      </c>
+      <c r="J97" s="6"/>
+      <c r="K97" s="23">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D97="充值",J97,VLOOKUP(G97,表2[#All],4,FALSE)*H97*I97*-1))</f>
+        <v>-30</v>
+      </c>
+      <c r="L97" s="6"/>
+      <c r="M97" s="16"/>
+    </row>
+    <row r="98" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="B98" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E98" s="12">
+        <v>42476</v>
+      </c>
+      <c r="F98" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>草莓酸奶(杯)x1</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H98" s="6">
+        <v>1</v>
+      </c>
+      <c r="I98" s="6">
+        <v>1</v>
+      </c>
+      <c r="J98" s="6"/>
+      <c r="K98" s="23">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D98="充值",J98,VLOOKUP(G98,表2[#All],4,FALSE)*H98*I98*-1))</f>
+        <v>-20</v>
+      </c>
+      <c r="L98" s="6"/>
+      <c r="M98" s="16"/>
+    </row>
+    <row r="99" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B99" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E99" s="12">
+        <v>42476</v>
+      </c>
+      <c r="F99" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>手冲拿铁(杯)x1</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H99" s="6">
+        <v>1</v>
+      </c>
+      <c r="I99" s="6">
+        <v>1</v>
+      </c>
+      <c r="J99" s="6"/>
+      <c r="K99" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D99="充值",J99,VLOOKUP(G99,表2[#All],4,FALSE)*H99*I99*-1))</f>
+        <v>-25</v>
+      </c>
+      <c r="L99" s="6"/>
+      <c r="M99" s="16"/>
+    </row>
+    <row r="100" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B100" s="15"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D100="充值",J100,VLOOKUP(G100,表2[#All],4,FALSE)*H100*I100*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L100" s="6"/>
+      <c r="M100" s="16"/>
+    </row>
+    <row r="101" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B101" s="15"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D101="充值",J101,VLOOKUP(G101,表2[#All],4,FALSE)*H101*I101*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L101" s="6"/>
+      <c r="M101" s="16"/>
+    </row>
+    <row r="102" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B102" s="15"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D102="充值",J102,VLOOKUP(G102,表2[#All],4,FALSE)*H102*I102*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L102" s="6"/>
+      <c r="M102" s="16"/>
+    </row>
+    <row r="103" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B103" s="15"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D103="充值",J103,VLOOKUP(G103,表2[#All],4,FALSE)*H103*I103*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L103" s="6"/>
+      <c r="M103" s="16"/>
+    </row>
+    <row r="104" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B104" s="15"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D104="充值",J104,VLOOKUP(G104,表2[#All],4,FALSE)*H104*I104*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L104" s="6"/>
+      <c r="M104" s="16"/>
+    </row>
+    <row r="105" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B105" s="15"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D105="充值",J105,VLOOKUP(G105,表2[#All],4,FALSE)*H105*I105*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L105" s="6"/>
+      <c r="M105" s="16"/>
+    </row>
+    <row r="106" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B106" s="15"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D106="充值",J106,VLOOKUP(G106,表2[#All],4,FALSE)*H106*I106*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L106" s="6"/>
+      <c r="M106" s="16"/>
+    </row>
+    <row r="107" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B107" s="15"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D107="充值",J107,VLOOKUP(G107,表2[#All],4,FALSE)*H107*I107*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L107" s="6"/>
+      <c r="M107" s="16"/>
+    </row>
+    <row r="108" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B108" s="15"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D108="充值",J108,VLOOKUP(G108,表2[#All],4,FALSE)*H108*I108*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L108" s="6"/>
+      <c r="M108" s="16"/>
+    </row>
+    <row r="109" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B109" s="15"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D109="充值",J109,VLOOKUP(G109,表2[#All],4,FALSE)*H109*I109*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L109" s="6"/>
+      <c r="M109" s="16"/>
+    </row>
+    <row r="110" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B110" s="15"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D110="充值",J110,VLOOKUP(G110,表2[#All],4,FALSE)*H110*I110*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L110" s="6"/>
+      <c r="M110" s="16"/>
+    </row>
+    <row r="111" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B111" s="15"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D111="充值",J111,VLOOKUP(G111,表2[#All],4,FALSE)*H111*I111*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L111" s="6"/>
+      <c r="M111" s="16"/>
+    </row>
+    <row r="112" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B112" s="20"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="30"/>
+      <c r="G112" s="23"/>
+      <c r="H112" s="22"/>
+      <c r="I112" s="22"/>
+      <c r="J112" s="22"/>
+      <c r="K112" s="23">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D112="充值",J112,VLOOKUP(G112,表2[#All],4,FALSE)*H112*I112*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L112" s="22"/>
+      <c r="M112" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D64 D66:D75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D64 D66:D84 D88:D94 D99">
       <formula1>"充值,会员消费,消费"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8634,7 +10857,7 @@
           <x14:formula1>
             <xm:f>产品表!$B$3:$B$115</xm:f>
           </x14:formula1>
-          <xm:sqref>G9 G13:G47 G49:G75</xm:sqref>
+          <xm:sqref>G9 G13:G47 G49:G99</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8646,8 +10869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="169" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A14" zoomScale="169" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -8660,35 +10883,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="42" t="s">
-        <v>128</v>
+      <c r="H2" s="36" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="str">
-        <f>CONCATENATE(C3,"(",F3,")")</f>
+        <f t="shared" ref="B3:B14" si="0">CONCATENATE(C3,"(",F3,")")</f>
         <v>德国手工花果茶(壶（4杯）)</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>14</v>
@@ -8697,22 +10920,22 @@
         <v>80</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G3" s="41">
-        <v>1</v>
-      </c>
-      <c r="H3" s="48">
+        <v>126</v>
+      </c>
+      <c r="G3" s="35">
+        <v>1</v>
+      </c>
+      <c r="H3" s="43">
         <v>42472</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="str">
-        <f>CONCATENATE(C4,"(",F4,")")</f>
+        <f t="shared" si="0"/>
         <v>德国手工花果茶(杯)</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>14</v>
@@ -8723,20 +10946,20 @@
       <c r="F4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="41">
-        <v>1</v>
-      </c>
-      <c r="H4" s="48">
+      <c r="G4" s="35">
+        <v>1</v>
+      </c>
+      <c r="H4" s="43">
         <v>42472</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="str">
-        <f>CONCATENATE(C5,"(",F5,")")</f>
+        <f t="shared" si="0"/>
         <v>德国手工花果茶(壶（2杯）)</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>14</v>
@@ -8745,22 +10968,22 @@
         <v>50</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="41">
-        <v>1</v>
-      </c>
-      <c r="H5" s="48">
+        <v>125</v>
+      </c>
+      <c r="G5" s="35">
+        <v>1</v>
+      </c>
+      <c r="H5" s="43">
         <v>42472</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="str">
-        <f>CONCATENATE(C6,"(",F6,")")</f>
+        <f t="shared" si="0"/>
         <v>峨眉山明前绿茶(杯)</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>14</v>
@@ -8771,20 +10994,20 @@
       <c r="F6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="41">
-        <v>1</v>
-      </c>
-      <c r="H6" s="48">
+      <c r="G6" s="35">
+        <v>1</v>
+      </c>
+      <c r="H6" s="43">
         <v>42472</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="str">
-        <f>CONCATENATE(C7,"(",F7,")")</f>
+        <f t="shared" si="0"/>
         <v>高山古树普洱茶(杯)</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>14</v>
@@ -8795,20 +11018,20 @@
       <c r="F7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="41">
-        <v>1</v>
-      </c>
-      <c r="H7" s="48">
+      <c r="G7" s="35">
+        <v>1</v>
+      </c>
+      <c r="H7" s="43">
         <v>42472</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="str">
-        <f>CONCATENATE(C8,"(",F8,")")</f>
+        <f t="shared" si="0"/>
         <v>高山古树普洱茶(壶（2杯）)</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>14</v>
@@ -8817,22 +11040,22 @@
         <v>50</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="41">
-        <v>1</v>
-      </c>
-      <c r="H8" s="51">
+        <v>125</v>
+      </c>
+      <c r="G8" s="35">
+        <v>1</v>
+      </c>
+      <c r="H8" s="46">
         <v>42472</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="str">
-        <f>CONCATENATE(C9,"(",F9,")")</f>
+        <f t="shared" si="0"/>
         <v>高山古树普洱茶(壶（2杯）)</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>14</v>
@@ -8841,22 +11064,22 @@
         <v>80</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" s="41">
-        <v>1</v>
-      </c>
-      <c r="H9" s="51">
+        <v>125</v>
+      </c>
+      <c r="G9" s="35">
+        <v>1</v>
+      </c>
+      <c r="H9" s="46">
         <v>42472</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="str">
-        <f>CONCATENATE(C10,"(",F10,")")</f>
+        <f t="shared" si="0"/>
         <v>斯里兰卡上等红茶(杯)</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>14</v>
@@ -8867,64 +11090,64 @@
       <c r="F10" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="41">
-        <v>1</v>
-      </c>
-      <c r="H10" s="48">
+      <c r="G10" s="35">
+        <v>1</v>
+      </c>
+      <c r="H10" s="43">
         <v>42472</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="str">
-        <f>CONCATENATE(C11,"(",F11,")")</f>
+        <f t="shared" si="0"/>
         <v>斯里兰卡上等红茶(壶（2杯）)</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="26">
         <v>50</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="G11" s="41">
-        <v>1</v>
-      </c>
-      <c r="H11" s="51">
+        <v>125</v>
+      </c>
+      <c r="G11" s="35">
+        <v>1</v>
+      </c>
+      <c r="H11" s="46">
         <v>42472</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="str">
-        <f>CONCATENATE(C12,"(",F12,")")</f>
+        <f t="shared" si="0"/>
         <v>斯里兰卡上等红茶(壶（4杯）)</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="26">
         <v>80</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G12" s="41">
-        <v>1</v>
-      </c>
-      <c r="H12" s="51">
+        <v>126</v>
+      </c>
+      <c r="G12" s="35">
+        <v>1</v>
+      </c>
+      <c r="H12" s="46">
         <v>42472</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="str">
-        <f>CONCATENATE(C13,"(",F13,")")</f>
+        <f t="shared" si="0"/>
         <v>冰锐果酒(瓶)</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>14</v>
@@ -8933,18 +11156,18 @@
         <v>18</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="41">
-        <v>1</v>
-      </c>
-      <c r="H13" s="48">
+        <v>105</v>
+      </c>
+      <c r="G13" s="35">
+        <v>1</v>
+      </c>
+      <c r="H13" s="43">
         <v>42466</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="str">
-        <f>CONCATENATE(C14,"(",F14,")")</f>
+        <f t="shared" si="0"/>
         <v>茶位费(位)</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -8959,10 +11182,10 @@
       <c r="F14" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="41">
-        <v>1</v>
-      </c>
-      <c r="H14" s="48">
+      <c r="G14" s="35">
+        <v>1</v>
+      </c>
+      <c r="H14" s="43">
         <v>42466</v>
       </c>
     </row>
@@ -8970,80 +11193,80 @@
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="44">
         <v>0</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="41">
-        <v>1</v>
-      </c>
-      <c r="H15" s="48">
+      <c r="G15" s="35">
+        <v>1</v>
+      </c>
+      <c r="H15" s="43">
         <v>42466</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="str">
-        <f>CONCATENATE(C16,"(",F16,")")</f>
+        <f t="shared" ref="B16:B35" si="1">CONCATENATE(C16,"(",F16,")")</f>
         <v>高山普洱(杯)</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="44" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="44">
         <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="41">
-        <v>1</v>
-      </c>
-      <c r="H16" s="48">
+      <c r="G16" s="35">
+        <v>1</v>
+      </c>
+      <c r="H16" s="43">
         <v>42466</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="str">
-        <f>CONCATENATE(C17,"(",F17,")")</f>
+        <f t="shared" si="1"/>
         <v>高山普洱(壶)</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="44">
         <v>70</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="41">
-        <v>1</v>
-      </c>
-      <c r="H17" s="48">
+      <c r="G17" s="35">
+        <v>1</v>
+      </c>
+      <c r="H17" s="43">
         <v>42466</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="str">
-        <f>CONCATENATE(C18,"(",F18,")")</f>
+        <f t="shared" si="1"/>
         <v>果汁(杯)</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="44" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="29">
@@ -9052,115 +11275,115 @@
       <c r="F18" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="41">
-        <v>1</v>
-      </c>
-      <c r="H18" s="48">
+      <c r="G18" s="35">
+        <v>1</v>
+      </c>
+      <c r="H18" s="43">
         <v>42466</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="str">
-        <f>CONCATENATE(C19,"(",F19,")")</f>
+        <f t="shared" si="1"/>
         <v>花果茶玫瑰(杯)</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="44">
         <v>25</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="41">
-        <v>1</v>
-      </c>
-      <c r="H19" s="48">
+      <c r="G19" s="35">
+        <v>1</v>
+      </c>
+      <c r="H19" s="43">
         <v>42466</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="str">
-        <f>CONCATENATE(C20,"(",F20,")")</f>
+        <f t="shared" si="1"/>
         <v>花果茶玫瑰(壶)</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="44">
         <v>80</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="41">
-        <v>1</v>
-      </c>
-      <c r="H20" s="48">
+      <c r="G20" s="35">
+        <v>1</v>
+      </c>
+      <c r="H20" s="43">
         <v>42466</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="str">
-        <f>CONCATENATE(C21,"(",F21,")")</f>
+        <f t="shared" si="1"/>
         <v>坚果(盘)</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E21" s="44">
         <v>20</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="41">
-        <v>1</v>
-      </c>
-      <c r="H21" s="48">
+      <c r="G21" s="35">
+        <v>1</v>
+      </c>
+      <c r="H21" s="43">
         <v>42466</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="str">
-        <f>CONCATENATE(C22,"(",F22,")")</f>
+        <f t="shared" si="1"/>
         <v>绿茶(杯)</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="49">
+      <c r="E22" s="44">
         <v>20</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="41">
-        <v>1</v>
-      </c>
-      <c r="H22" s="48">
+      <c r="G22" s="35">
+        <v>1</v>
+      </c>
+      <c r="H22" s="43">
         <v>42466</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="str">
-        <f>CONCATENATE(C23,"(",F23,")")</f>
+        <f t="shared" si="1"/>
         <v>啤酒(瓶)</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="41" t="s">
         <v>73</v>
       </c>
       <c r="D23" s="29" t="s">
@@ -9170,18 +11393,18 @@
         <v>20</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="41">
-        <v>1</v>
-      </c>
-      <c r="H23" s="48">
+        <v>105</v>
+      </c>
+      <c r="G23" s="35">
+        <v>1</v>
+      </c>
+      <c r="H23" s="43">
         <v>42466</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="str">
-        <f>CONCATENATE(C24,"(",F24,")")</f>
+        <f t="shared" si="1"/>
         <v>热巧克力(杯)</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -9196,16 +11419,16 @@
       <c r="F24" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="41">
-        <v>1</v>
-      </c>
-      <c r="H24" s="48">
+      <c r="G24" s="35">
+        <v>1</v>
+      </c>
+      <c r="H24" s="43">
         <v>42466</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="str">
-        <f>CONCATENATE(C25,"(",F25,")")</f>
+        <f t="shared" si="1"/>
         <v>手冲拿铁(杯)</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -9220,168 +11443,204 @@
       <c r="F25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="41">
-        <v>1</v>
-      </c>
-      <c r="H25" s="48">
+      <c r="G25" s="35">
+        <v>1</v>
+      </c>
+      <c r="H25" s="43">
         <v>42466</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="str">
-        <f>CONCATENATE(C26,"(",F26,")")</f>
+        <f t="shared" si="1"/>
         <v>锡兰红茶(杯)</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="44" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="49">
+      <c r="E26" s="44">
         <v>20</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="41">
-        <v>1</v>
-      </c>
-      <c r="H26" s="48">
+      <c r="G26" s="35">
+        <v>1</v>
+      </c>
+      <c r="H26" s="43">
         <v>42466</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="str">
-        <f>CONCATENATE(C27,"(",F27,")")</f>
+        <f t="shared" si="1"/>
         <v>锡兰红茶(壶)</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="44" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="49">
+      <c r="E27" s="44">
         <v>70</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="41">
-        <v>1</v>
-      </c>
-      <c r="H27" s="48">
+      <c r="G27" s="35">
+        <v>1</v>
+      </c>
+      <c r="H27" s="43">
         <v>42466</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="str">
-        <f>CONCATENATE(C28,"(",F28,")")</f>
+        <f t="shared" si="1"/>
         <v>非洲腰果(袋)</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E28" s="29">
         <v>30</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="G28" s="41">
-        <v>1</v>
-      </c>
-      <c r="H28" s="51">
+        <v>138</v>
+      </c>
+      <c r="G28" s="35">
+        <v>1</v>
+      </c>
+      <c r="H28" s="46">
         <v>42472</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="str">
-        <f>CONCATENATE(C29,"(",F29,")")</f>
-        <v>()</v>
-      </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="50"/>
+        <f t="shared" si="1"/>
+        <v>草莓酸奶(杯)</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="29">
+        <v>20</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="35">
+        <v>1</v>
+      </c>
+      <c r="H29" s="46">
+        <v>42472</v>
+      </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="str">
-        <f>CONCATENATE(C30,"(",F30,")")</f>
-        <v>()</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="50"/>
+        <f t="shared" si="1"/>
+        <v>混合腰果(袋)</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="29">
+        <v>35</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="35">
+        <v>1</v>
+      </c>
+      <c r="H30" s="46">
+        <v>42472</v>
+      </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="str">
-        <f>CONCATENATE(C31,"(",F31,")")</f>
-        <v>()</v>
-      </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="50"/>
+        <f t="shared" si="1"/>
+        <v>米果(袋)</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="29">
+        <v>18</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" s="35">
+        <v>1</v>
+      </c>
+      <c r="H31" s="46">
+        <v>42472</v>
+      </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="str">
-        <f>CONCATENATE(C32,"(",F32,")")</f>
+        <f t="shared" si="1"/>
         <v>()</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="1"/>
       <c r="E32" s="29"/>
       <c r="F32" s="26"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="50"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="45"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="str">
-        <f>CONCATENATE(C33,"(",F33,")")</f>
+        <f t="shared" si="1"/>
         <v>()</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="1"/>
       <c r="E33" s="29"/>
       <c r="F33" s="26"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="50"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="45"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="str">
-        <f>CONCATENATE(C34,"(",F34,")")</f>
+        <f t="shared" si="1"/>
         <v>()</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="1"/>
       <c r="E34" s="29"/>
       <c r="F34" s="26"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="50"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="45"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="str">
-        <f>CONCATENATE(C35,"(",F35,")")</f>
+        <f t="shared" si="1"/>
         <v>()</v>
       </c>
       <c r="C35" s="29"/>
-      <c r="D35" s="45"/>
+      <c r="D35" s="40"/>
       <c r="E35" s="29"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="50"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/文档/葡萄院儿会员日记.xlsx
+++ b/文档/葡萄院儿会员日记.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="2" r:id="rId1"/>
@@ -20,9 +20,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="673" r:id="rId6"/>
-    <pivotCache cacheId="679" r:id="rId7"/>
-    <pivotCache cacheId="686" r:id="rId8"/>
+    <pivotCache cacheId="727" r:id="rId6"/>
+    <pivotCache cacheId="733" r:id="rId7"/>
+    <pivotCache cacheId="737" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="232">
   <si>
     <t>葡萄院儿The Vineyard会员日记</t>
     <rPh sb="0" eb="1">
@@ -618,16 +618,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如有疑问，请拨打18181996296.</t>
-    <rPh sb="0" eb="1">
-      <t>ru you yi wen</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>qing bo da</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>消费</t>
   </si>
   <si>
@@ -647,6 +637,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>张小容</t>
+  </si>
+  <si>
     <t>原慧玲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -699,6 +692,9 @@
     <t>果汁(杯)</t>
   </si>
   <si>
+    <t>薛丹</t>
+  </si>
+  <si>
     <t>冰锐酒</t>
     <rPh sb="0" eb="1">
       <t>bing rui</t>
@@ -1073,17 +1069,11 @@
   </si>
   <si>
     <t>candicie</t>
-  </si>
-  <si>
-    <t>candicie</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>candice</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>峨眉山明前绿茶(杯)x1</t>
   </si>
   <si>
     <t>阳妈</t>
@@ -1101,6 +1091,9 @@
   </si>
   <si>
     <t>党玮娅</t>
+  </si>
+  <si>
+    <t>党玮娅</t>
     <rPh sb="0" eb="1">
       <t>dang</t>
     </rPh>
@@ -1123,6 +1116,9 @@
     <t>米果(袋)</t>
   </si>
   <si>
+    <t>米果(袋)x1</t>
+  </si>
+  <si>
     <t>高卉</t>
     <rPh sb="0" eb="1">
       <t>gao hui</t>
@@ -1380,9 +1376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>坚果(盘)x1</t>
-  </si>
-  <si>
     <t>卫丹朋友</t>
     <rPh sb="0" eb="1">
       <t>wei dan</t>
@@ -1481,23 +1474,34 @@
     <t>进口无花果干(袋)</t>
   </si>
   <si>
-    <t>热巧克力(杯)x1</t>
-  </si>
-  <si>
-    <t>英式奶茶(杯)x1</t>
-  </si>
-  <si>
-    <t>美国蔓越梅子干(碟)x1</t>
-  </si>
-  <si>
-    <t>进口无花果干(袋)x1</t>
-  </si>
-  <si>
     <t>Candicie</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Candice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗宏</t>
+  </si>
+  <si>
+    <t>罗宏</t>
+    <rPh sb="0" eb="1">
+      <t>luo h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高山古树普洱茶(杯)x1</t>
+  </si>
+  <si>
+    <t>如有疑问，请拨打18181993242.</t>
+    <rPh sb="0" eb="1">
+      <t>ru you yi wen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qing bo da</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1886,7 +1890,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1966,6 +1970,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -2021,7 +2028,100 @@
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="85">
+  <dxfs count="97">
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <sz val="18"/>
@@ -2101,41 +2201,18 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
       <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <sz val="18"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <sz val="18"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <sz val="18"/>
       </font>
     </dxf>
     <dxf>
@@ -2182,41 +2259,33 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
       <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <sz val="18"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <sz val="18"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <sz val="18"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <sz val="18"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <sz val="18"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <sz val="18"/>
       </font>
     </dxf>
     <dxf>
@@ -2931,7 +3000,355 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42477.97712708333" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="34">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42479.942361574074" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="127">
+  <cacheSource type="worksheet">
+    <worksheetSource name="表1"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="姓名" numFmtId="0">
+      <sharedItems containsBlank="1" count="26">
+        <s v="冯宇"/>
+        <s v="薛丹"/>
+        <s v="张小容"/>
+        <s v="罗宏"/>
+        <s v="骆文明"/>
+        <s v="刘佳"/>
+        <s v="其他"/>
+        <s v="党玮娅"/>
+        <s v="涵涵妈"/>
+        <s v="何利"/>
+        <s v="嘟嘟妈妈"/>
+        <s v="原惠玲"/>
+        <s v="慧君"/>
+        <s v="零点"/>
+        <s v="原慧玲"/>
+        <s v="施济"/>
+        <s v="活动"/>
+        <s v="赵鹏飞"/>
+        <s v="蔚蓝"/>
+        <s v="高波"/>
+        <s v="曹曹"/>
+        <s v="黄勇"/>
+        <s v="黄一鸾"/>
+        <s v="candicie"/>
+        <m/>
+        <s v="党委娅" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="昵称" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="类型（充值／消费／其他）" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <s v="充值"/>
+        <s v="消费"/>
+        <s v="会员消费"/>
+        <m/>
+        <s v="零点" u="1"/>
+        <s v="卢芳" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="日期" numFmtId="58">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-05T00:00:00" maxDate="2016-04-20T00:00:00" count="15">
+        <d v="2016-04-05T00:00:00"/>
+        <d v="2016-04-06T00:00:00"/>
+        <d v="2016-04-07T00:00:00"/>
+        <d v="2016-04-08T00:00:00"/>
+        <d v="2016-04-09T00:00:00"/>
+        <d v="2016-04-10T00:00:00"/>
+        <d v="2016-04-11T00:00:00"/>
+        <d v="2016-04-12T00:00:00"/>
+        <d v="2016-04-13T00:00:00"/>
+        <d v="2016-04-14T00:00:00"/>
+        <d v="2016-04-15T00:00:00"/>
+        <d v="2016-04-16T00:00:00"/>
+        <d v="2016-04-17T00:00:00"/>
+        <d v="2016-04-19T00:00:00"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="显示条目" numFmtId="58">
+      <sharedItems containsBlank="1" count="50">
+        <s v="充值x1"/>
+        <s v="高山普洱(壶)x10"/>
+        <s v="手冲拿铁(杯)x1"/>
+        <s v="茶位费(位)x1"/>
+        <s v="坚果(盘)x1"/>
+        <s v="锡兰红茶(壶)x1"/>
+        <s v="绿茶(杯)x2"/>
+        <s v="花果茶玫瑰(壶)x1"/>
+        <s v="坚果(盘)x3"/>
+        <s v="绿茶(杯)x1"/>
+        <s v="手冲拿铁(杯)x2"/>
+        <s v="花果茶玫瑰(杯)x2"/>
+        <s v="热巧克力(杯)x1"/>
+        <s v="高山普洱(杯)x1"/>
+        <s v="锡兰红茶(杯)x1"/>
+        <s v="手冲拿铁(杯)x3"/>
+        <s v="高山普洱(杯)x3"/>
+        <s v="花果茶玫瑰(杯)x1"/>
+        <s v="手冲拿铁(杯)x7"/>
+        <s v="啤酒(瓶)x8"/>
+        <s v="果汁(杯)x2"/>
+        <s v="插花x1"/>
+        <s v="冰锐果酒(瓶)x1"/>
+        <s v="啤酒(瓶)x1"/>
+        <s v="斯里兰卡上等红茶(杯)x1"/>
+        <s v="啤酒(瓶)x6"/>
+        <s v="茶位费(位)x4"/>
+        <s v="非洲腰果(袋)x1"/>
+        <s v="啤酒(瓶)x2"/>
+        <s v="草莓酸奶(杯)x1"/>
+        <s v="德国手工花果茶(杯)x1"/>
+        <s v="峨眉山明前绿茶(杯)x1"/>
+        <s v="混合腰果(袋)x1"/>
+        <s v="啤酒(瓶)x3"/>
+        <s v="啤酒(瓶)x4"/>
+        <s v="手冲拿铁(杯)x5"/>
+        <s v="坚果(盘)x2"/>
+        <s v="德国手工花果茶(壶（3杯）)x1"/>
+        <s v="榻榻米茶位费(人)x1"/>
+        <s v="德国手工花果茶(壶（4杯）)x1"/>
+        <s v="英式奶茶(杯)x1"/>
+        <s v="美国蔓越梅子干(碟)x1"/>
+        <s v="进口无花果干(袋)x1"/>
+        <s v="高山古树普洱茶(杯)x1"/>
+        <s v="米果(袋)x1"/>
+        <s v="x1"/>
+        <s v="x"/>
+        <m u="1"/>
+        <s v="德国手工花果茶(壶（2杯）)x1" u="1"/>
+        <s v="x4" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="产品" numFmtId="0">
+      <sharedItems containsBlank="1" count="32">
+        <s v="充值"/>
+        <s v="高山普洱(壶)"/>
+        <s v="手冲拿铁(杯)"/>
+        <s v="茶位费(位)"/>
+        <s v="坚果(盘)"/>
+        <s v="锡兰红茶(壶)"/>
+        <s v="绿茶(杯)"/>
+        <s v="花果茶玫瑰(壶)"/>
+        <s v="花果茶玫瑰(杯)"/>
+        <s v="热巧克力(杯)"/>
+        <s v="高山普洱(杯)"/>
+        <s v="锡兰红茶(杯)"/>
+        <s v="啤酒(瓶)"/>
+        <s v="果汁(杯)"/>
+        <s v="插花"/>
+        <s v="冰锐果酒(瓶)"/>
+        <s v="斯里兰卡上等红茶(杯)"/>
+        <s v="非洲腰果(袋)"/>
+        <s v="草莓酸奶(杯)"/>
+        <s v="德国手工花果茶(杯)"/>
+        <s v="峨眉山明前绿茶(杯)"/>
+        <s v="混合腰果(袋)"/>
+        <s v="德国手工花果茶(壶（3杯）)"/>
+        <s v="榻榻米茶位费(人)"/>
+        <s v="德国手工花果茶(壶（4杯）)"/>
+        <s v="英式奶茶(杯)"/>
+        <s v="美国蔓越梅子干(碟)"/>
+        <s v="进口无花果干(袋)"/>
+        <s v="高山古树普洱茶(杯)"/>
+        <s v="米果(袋)"/>
+        <m/>
+        <s v="德国手工花果茶(壶（2杯）)" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="数量" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
+    </cacheField>
+    <cacheField name="DC" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.44" maxValue="1"/>
+    </cacheField>
+    <cacheField name="充值金额" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="2000"/>
+    </cacheField>
+    <cacheField name="汇总金额" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-308" maxValue="2000"/>
+    </cacheField>
+    <cacheField name="签名" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="备注" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42479.942365277777" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="127">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B2:M129" sheet="明细"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="姓名" numFmtId="0">
+      <sharedItems containsBlank="1" count="27">
+        <s v="冯宇"/>
+        <s v="薛丹"/>
+        <s v="张小容"/>
+        <s v="罗宏"/>
+        <s v="骆文明"/>
+        <s v="刘佳"/>
+        <s v="其他"/>
+        <s v="党玮娅"/>
+        <s v="涵涵妈"/>
+        <s v="何利"/>
+        <s v="嘟嘟妈妈"/>
+        <s v="原惠玲"/>
+        <s v="慧君"/>
+        <s v="零点"/>
+        <s v="原慧玲"/>
+        <s v="施济"/>
+        <s v="活动"/>
+        <s v="赵鹏飞"/>
+        <s v="蔚蓝"/>
+        <s v="高波"/>
+        <s v="曹曹"/>
+        <s v="黄勇"/>
+        <s v="黄一鸾"/>
+        <s v="candicie"/>
+        <m/>
+        <s v="张小蓉" u="1"/>
+        <s v="党委娅" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="昵称" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="类型（充值／消费／其他）" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <s v="充值"/>
+        <s v="消费"/>
+        <s v="会员消费"/>
+        <m/>
+        <s v="零点" u="1"/>
+        <s v="卢芳" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="日期" numFmtId="58">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-05T00:00:00" maxDate="2016-04-20T00:00:00" count="15">
+        <d v="2016-04-05T00:00:00"/>
+        <d v="2016-04-06T00:00:00"/>
+        <d v="2016-04-07T00:00:00"/>
+        <d v="2016-04-08T00:00:00"/>
+        <d v="2016-04-09T00:00:00"/>
+        <d v="2016-04-10T00:00:00"/>
+        <d v="2016-04-11T00:00:00"/>
+        <d v="2016-04-12T00:00:00"/>
+        <d v="2016-04-13T00:00:00"/>
+        <d v="2016-04-14T00:00:00"/>
+        <d v="2016-04-15T00:00:00"/>
+        <d v="2016-04-16T00:00:00"/>
+        <d v="2016-04-17T00:00:00"/>
+        <d v="2016-04-19T00:00:00"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="显示条目" numFmtId="58">
+      <sharedItems containsBlank="1" count="60">
+        <s v="充值x1"/>
+        <s v="高山普洱(壶)x10"/>
+        <s v="手冲拿铁(杯)x1"/>
+        <s v="茶位费(位)x1"/>
+        <s v="坚果(盘)x1"/>
+        <s v="锡兰红茶(壶)x1"/>
+        <s v="绿茶(杯)x2"/>
+        <s v="花果茶玫瑰(壶)x1"/>
+        <s v="坚果(盘)x3"/>
+        <s v="绿茶(杯)x1"/>
+        <s v="手冲拿铁(杯)x2"/>
+        <s v="花果茶玫瑰(杯)x2"/>
+        <s v="热巧克力(杯)x1"/>
+        <s v="高山普洱(杯)x1"/>
+        <s v="锡兰红茶(杯)x1"/>
+        <s v="手冲拿铁(杯)x3"/>
+        <s v="高山普洱(杯)x3"/>
+        <s v="花果茶玫瑰(杯)x1"/>
+        <s v="手冲拿铁(杯)x7"/>
+        <s v="啤酒(瓶)x8"/>
+        <s v="果汁(杯)x2"/>
+        <s v="插花x1"/>
+        <s v="冰锐果酒(瓶)x1"/>
+        <s v="啤酒(瓶)x1"/>
+        <s v="斯里兰卡上等红茶(杯)x1"/>
+        <s v="啤酒(瓶)x6"/>
+        <s v="茶位费(位)x4"/>
+        <s v="非洲腰果(袋)x1"/>
+        <s v="啤酒(瓶)x2"/>
+        <s v="草莓酸奶(杯)x1"/>
+        <s v="德国手工花果茶(杯)x1"/>
+        <s v="峨眉山明前绿茶(杯)x1"/>
+        <s v="混合腰果(袋)x1"/>
+        <s v="啤酒(瓶)x3"/>
+        <s v="啤酒(瓶)x4"/>
+        <s v="手冲拿铁(杯)x5"/>
+        <s v="坚果(盘)x2"/>
+        <s v="德国手工花果茶(壶（3杯）)x1"/>
+        <s v="榻榻米茶位费(人)x1"/>
+        <s v="德国手工花果茶(壶（4杯）)x1"/>
+        <s v="英式奶茶(杯)x1"/>
+        <s v="美国蔓越梅子干(碟)x1"/>
+        <s v="进口无花果干(袋)x1"/>
+        <s v="高山古树普洱茶(杯)x1"/>
+        <s v="米果(袋)x1"/>
+        <s v="x1"/>
+        <s v="x"/>
+        <m u="1"/>
+        <s v="德国手工花果茶(壶（2杯）)x1" u="1"/>
+        <s v="花果茶玫瑰1壶x1" u="1"/>
+        <s v="坚果1盘x1" u="1"/>
+        <s v="坚果1盘x3" u="1"/>
+        <s v="高山普洱1杯x1" u="1"/>
+        <s v="手冲拿铁1杯x1" u="1"/>
+        <s v="锡兰红茶1壶x1" u="1"/>
+        <s v="充值1次x1" u="1"/>
+        <s v="茶位费1位x1" u="1"/>
+        <s v="x4" u="1"/>
+        <s v="绿茶1杯x2" u="1"/>
+        <s v="高山普洱1壶x10" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="产品" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="数量" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
+    </cacheField>
+    <cacheField name="DC" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.44" maxValue="1"/>
+    </cacheField>
+    <cacheField name="充值金额" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="2000"/>
+    </cacheField>
+    <cacheField name="汇总金额" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-308" maxValue="2000"/>
+    </cacheField>
+    <cacheField name="签名" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="备注" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42479.942367939817" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="34">
   <cacheSource type="worksheet">
     <worksheetSource name="表2"/>
   </cacheSource>
@@ -3010,656 +3427,1785 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42477.977128356484" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="127">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="B2:M129" sheet="明细"/>
-  </cacheSource>
-  <cacheFields count="12">
-    <cacheField name="姓名" numFmtId="0">
-      <sharedItems containsBlank="1" count="27">
-        <s v="冯宇"/>
-        <s v="薛丹"/>
-        <s v="张小容"/>
-        <s v="罗宏"/>
-        <s v="骆文明"/>
-        <s v="刘佳"/>
-        <s v="其他"/>
-        <s v="党玮娅"/>
-        <s v="涵涵妈"/>
-        <s v="何利"/>
-        <s v="嘟嘟妈妈"/>
-        <s v="原惠玲"/>
-        <s v="慧君"/>
-        <s v="零点"/>
-        <s v="原慧玲"/>
-        <s v="施济"/>
-        <s v="活动"/>
-        <s v="赵鹏飞"/>
-        <s v="蔚蓝"/>
-        <s v="高波"/>
-        <s v="曹曹"/>
-        <s v="黄勇"/>
-        <s v="黄一鸾"/>
-        <s v="candicie"/>
-        <m/>
-        <s v="张小蓉" u="1"/>
-        <s v="党委娅" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="昵称" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="类型（充值／消费／其他）" numFmtId="0">
-      <sharedItems containsBlank="1" count="6">
-        <s v="充值"/>
-        <s v="消费"/>
-        <s v="会员消费"/>
-        <m/>
-        <s v="零点" u="1"/>
-        <s v="卢芳" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="日期" numFmtId="58">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-05T00:00:00" maxDate="2016-04-18T00:00:00" count="14">
-        <d v="2016-04-05T00:00:00"/>
-        <d v="2016-04-06T00:00:00"/>
-        <d v="2016-04-07T00:00:00"/>
-        <d v="2016-04-08T00:00:00"/>
-        <d v="2016-04-09T00:00:00"/>
-        <d v="2016-04-10T00:00:00"/>
-        <d v="2016-04-11T00:00:00"/>
-        <d v="2016-04-12T00:00:00"/>
-        <d v="2016-04-13T00:00:00"/>
-        <d v="2016-04-14T00:00:00"/>
-        <d v="2016-04-15T00:00:00"/>
-        <d v="2016-04-16T00:00:00"/>
-        <d v="2016-04-17T00:00:00"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="显示条目" numFmtId="58">
-      <sharedItems containsBlank="1" count="59">
-        <s v="充值x1"/>
-        <s v="高山普洱(壶)x10"/>
-        <s v="手冲拿铁(杯)x1"/>
-        <s v="茶位费(位)x1"/>
-        <s v="坚果(盘)x1"/>
-        <s v="锡兰红茶(壶)x1"/>
-        <s v="绿茶(杯)x2"/>
-        <s v="花果茶玫瑰(壶)x1"/>
-        <s v="坚果(盘)x3"/>
-        <s v="绿茶(杯)x1"/>
-        <s v="手冲拿铁(杯)x2"/>
-        <s v="花果茶玫瑰(杯)x2"/>
-        <s v="热巧克力(杯)x1"/>
-        <s v="高山普洱(杯)x1"/>
-        <s v="锡兰红茶(杯)x1"/>
-        <s v="手冲拿铁(杯)x3"/>
-        <s v="高山普洱(杯)x3"/>
-        <s v="花果茶玫瑰(杯)x1"/>
-        <s v="手冲拿铁(杯)x7"/>
-        <s v="啤酒(瓶)x8"/>
-        <s v="果汁(杯)x2"/>
-        <s v="插花x1"/>
-        <s v="冰锐果酒(瓶)x1"/>
-        <s v="啤酒(瓶)x1"/>
-        <s v="斯里兰卡上等红茶(杯)x1"/>
-        <s v="啤酒(瓶)x6"/>
-        <s v="茶位费(位)x4"/>
-        <s v="非洲腰果(袋)x1"/>
-        <s v="啤酒(瓶)x2"/>
-        <s v="草莓酸奶(杯)x1"/>
-        <s v="德国手工花果茶(杯)x1"/>
-        <s v="峨眉山明前绿茶(杯)x1"/>
-        <s v="混合腰果(袋)x1"/>
-        <s v="啤酒(瓶)x3"/>
-        <s v="啤酒(瓶)x4"/>
-        <s v="手冲拿铁(杯)x5"/>
-        <s v="坚果(盘)x2"/>
-        <s v="德国手工花果茶(壶（3杯）)x1"/>
-        <s v="榻榻米茶位费(人)x1"/>
-        <s v="德国手工花果茶(壶（4杯）)x1"/>
-        <s v="英式奶茶(杯)x1"/>
-        <s v="美国蔓越梅子干(碟)x1"/>
-        <s v="进口无花果干(袋)x1"/>
-        <s v="x1"/>
-        <s v="x"/>
-        <m u="1"/>
-        <s v="德国手工花果茶(壶（2杯）)x1" u="1"/>
-        <s v="花果茶玫瑰1壶x1" u="1"/>
-        <s v="坚果1盘x1" u="1"/>
-        <s v="米果(袋)x1" u="1"/>
-        <s v="坚果1盘x3" u="1"/>
-        <s v="高山普洱1杯x1" u="1"/>
-        <s v="手冲拿铁1杯x1" u="1"/>
-        <s v="锡兰红茶1壶x1" u="1"/>
-        <s v="充值1次x1" u="1"/>
-        <s v="茶位费1位x1" u="1"/>
-        <s v="x4" u="1"/>
-        <s v="绿茶1杯x2" u="1"/>
-        <s v="高山普洱1壶x10" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="产品" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="数量" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
-    </cacheField>
-    <cacheField name="DC" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.44" maxValue="1"/>
-    </cacheField>
-    <cacheField name="充值金额" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="2000"/>
-    </cacheField>
-    <cacheField name="汇总金额" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-308" maxValue="2000"/>
-    </cacheField>
-    <cacheField name="签名" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="备注" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42477.977130092593" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="127">
-  <cacheSource type="worksheet">
-    <worksheetSource name="表1"/>
-  </cacheSource>
-  <cacheFields count="12">
-    <cacheField name="姓名" numFmtId="0">
-      <sharedItems containsBlank="1" count="26">
-        <s v="冯宇"/>
-        <s v="薛丹"/>
-        <s v="张小容"/>
-        <s v="罗宏"/>
-        <s v="骆文明"/>
-        <s v="刘佳"/>
-        <s v="其他"/>
-        <s v="党玮娅"/>
-        <s v="涵涵妈"/>
-        <s v="何利"/>
-        <s v="嘟嘟妈妈"/>
-        <s v="原惠玲"/>
-        <s v="慧君"/>
-        <s v="零点"/>
-        <s v="原慧玲"/>
-        <s v="施济"/>
-        <s v="活动"/>
-        <s v="赵鹏飞"/>
-        <s v="蔚蓝"/>
-        <s v="高波"/>
-        <s v="曹曹"/>
-        <s v="黄勇"/>
-        <s v="黄一鸾"/>
-        <s v="candicie"/>
-        <m/>
-        <s v="党委娅" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="昵称" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="类型（充值／消费／其他）" numFmtId="0">
-      <sharedItems containsBlank="1" count="6">
-        <s v="充值"/>
-        <s v="消费"/>
-        <s v="会员消费"/>
-        <m/>
-        <s v="零点" u="1"/>
-        <s v="卢芳" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="日期" numFmtId="58">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-05T00:00:00" maxDate="2016-04-18T00:00:00" count="14">
-        <d v="2016-04-05T00:00:00"/>
-        <d v="2016-04-06T00:00:00"/>
-        <d v="2016-04-07T00:00:00"/>
-        <d v="2016-04-08T00:00:00"/>
-        <d v="2016-04-09T00:00:00"/>
-        <d v="2016-04-10T00:00:00"/>
-        <d v="2016-04-11T00:00:00"/>
-        <d v="2016-04-12T00:00:00"/>
-        <d v="2016-04-13T00:00:00"/>
-        <d v="2016-04-14T00:00:00"/>
-        <d v="2016-04-15T00:00:00"/>
-        <d v="2016-04-16T00:00:00"/>
-        <d v="2016-04-17T00:00:00"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="显示条目" numFmtId="58">
-      <sharedItems containsBlank="1" count="49">
-        <s v="充值x1"/>
-        <s v="高山普洱(壶)x10"/>
-        <s v="手冲拿铁(杯)x1"/>
-        <s v="茶位费(位)x1"/>
-        <s v="坚果(盘)x1"/>
-        <s v="锡兰红茶(壶)x1"/>
-        <s v="绿茶(杯)x2"/>
-        <s v="花果茶玫瑰(壶)x1"/>
-        <s v="坚果(盘)x3"/>
-        <s v="绿茶(杯)x1"/>
-        <s v="手冲拿铁(杯)x2"/>
-        <s v="花果茶玫瑰(杯)x2"/>
-        <s v="热巧克力(杯)x1"/>
-        <s v="高山普洱(杯)x1"/>
-        <s v="锡兰红茶(杯)x1"/>
-        <s v="手冲拿铁(杯)x3"/>
-        <s v="高山普洱(杯)x3"/>
-        <s v="花果茶玫瑰(杯)x1"/>
-        <s v="手冲拿铁(杯)x7"/>
-        <s v="啤酒(瓶)x8"/>
-        <s v="果汁(杯)x2"/>
-        <s v="插花x1"/>
-        <s v="冰锐果酒(瓶)x1"/>
-        <s v="啤酒(瓶)x1"/>
-        <s v="斯里兰卡上等红茶(杯)x1"/>
-        <s v="啤酒(瓶)x6"/>
-        <s v="茶位费(位)x4"/>
-        <s v="非洲腰果(袋)x1"/>
-        <s v="啤酒(瓶)x2"/>
-        <s v="草莓酸奶(杯)x1"/>
-        <s v="德国手工花果茶(杯)x1"/>
-        <s v="峨眉山明前绿茶(杯)x1"/>
-        <s v="混合腰果(袋)x1"/>
-        <s v="啤酒(瓶)x3"/>
-        <s v="啤酒(瓶)x4"/>
-        <s v="手冲拿铁(杯)x5"/>
-        <s v="坚果(盘)x2"/>
-        <s v="德国手工花果茶(壶（3杯）)x1"/>
-        <s v="榻榻米茶位费(人)x1"/>
-        <s v="德国手工花果茶(壶（4杯）)x1"/>
-        <s v="英式奶茶(杯)x1"/>
-        <s v="美国蔓越梅子干(碟)x1"/>
-        <s v="进口无花果干(袋)x1"/>
-        <s v="x1"/>
-        <s v="x"/>
-        <m u="1"/>
-        <s v="德国手工花果茶(壶（2杯）)x1" u="1"/>
-        <s v="米果(袋)x1" u="1"/>
-        <s v="x4" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="产品" numFmtId="0">
-      <sharedItems containsBlank="1" count="31">
-        <s v="充值"/>
-        <s v="高山普洱(壶)"/>
-        <s v="手冲拿铁(杯)"/>
-        <s v="茶位费(位)"/>
-        <s v="坚果(盘)"/>
-        <s v="锡兰红茶(壶)"/>
-        <s v="绿茶(杯)"/>
-        <s v="花果茶玫瑰(壶)"/>
-        <s v="花果茶玫瑰(杯)"/>
-        <s v="热巧克力(杯)"/>
-        <s v="高山普洱(杯)"/>
-        <s v="锡兰红茶(杯)"/>
-        <s v="啤酒(瓶)"/>
-        <s v="果汁(杯)"/>
-        <s v="插花"/>
-        <s v="冰锐果酒(瓶)"/>
-        <s v="斯里兰卡上等红茶(杯)"/>
-        <s v="非洲腰果(袋)"/>
-        <s v="草莓酸奶(杯)"/>
-        <s v="德国手工花果茶(杯)"/>
-        <s v="峨眉山明前绿茶(杯)"/>
-        <s v="混合腰果(袋)"/>
-        <s v="德国手工花果茶(壶（3杯）)"/>
-        <s v="榻榻米茶位费(人)"/>
-        <s v="德国手工花果茶(壶（4杯）)"/>
-        <s v="英式奶茶(杯)"/>
-        <s v="美国蔓越梅子干(碟)"/>
-        <s v="进口无花果干(袋)"/>
-        <m/>
-        <s v="德国手工花果茶(壶（2杯）)" u="1"/>
-        <s v="米果(袋)" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="数量" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
-    </cacheField>
-    <cacheField name="DC" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.44" maxValue="1"/>
-    </cacheField>
-    <cacheField name="充值金额" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="2000"/>
-    </cacheField>
-    <cacheField name="汇总金额" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-308" maxValue="2000"/>
-    </cacheField>
-    <cacheField name="签名" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="备注" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="34">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="127">
   <r>
     <x v="0"/>
-    <s v="锡兰红茶"/>
+    <s v="档爸"/>
     <x v="0"/>
-    <n v="70"/>
-    <s v="壶"/>
-    <n v="1"/>
-    <d v="2016-04-06T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1500"/>
+    <n v="1500"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
-    <s v="锡兰红茶"/>
+    <s v="皇上"/>
     <x v="0"/>
-    <n v="20"/>
-    <s v="杯"/>
-    <n v="1"/>
-    <d v="2016-04-06T00:00:00"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="斯里兰卡上等红茶"/>
+    <x v="1"/>
     <x v="0"/>
-    <n v="30"/>
-    <s v="杯"/>
-    <n v="1"/>
-    <d v="2016-04-12T00:00:00"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1500"/>
+    <n v="1500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2000"/>
+    <n v="2000"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
-    <s v="手冲拿铁"/>
+    <s v="喜爸"/>
     <x v="0"/>
-    <n v="25"/>
-    <s v="杯"/>
-    <n v="1"/>
-    <d v="2016-04-06T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2000"/>
+    <n v="2000"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
-    <s v="热巧克力"/>
+    <s v="峰峰妈"/>
     <x v="0"/>
-    <n v="25"/>
-    <s v="杯"/>
-    <n v="1"/>
-    <d v="2016-04-06T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1500"/>
+    <n v="1500"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
-    <s v="绿茶"/>
+    <s v="小艾爸"/>
     <x v="0"/>
-    <n v="20"/>
-    <s v="杯"/>
-    <n v="1"/>
-    <d v="2016-04-06T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1500"/>
+    <n v="1500"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
-    <s v="花果茶玫瑰"/>
+    <s v="宏哥朋友"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="10"/>
+    <n v="0.44"/>
+    <n v="0"/>
+    <n v="-308"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="兔妈"/>
     <x v="0"/>
-    <n v="80"/>
-    <s v="壶"/>
-    <n v="1"/>
-    <d v="2016-04-06T00:00:00"/>
-  </r>
-  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1500"/>
+    <n v="1500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="涵涵妈"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1500"/>
+    <n v="1500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="葡萄奶奶"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="500"/>
+    <n v="500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="档爸"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="档爸"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="葡萄奶奶"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-70"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="葡萄奶奶"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-40"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="葡萄奶奶"/>
+    <x v="2"/>
+    <x v="2"/>
     <x v="7"/>
-    <s v="花果茶玫瑰"/>
+    <x v="7"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-80"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="葡萄奶奶"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <n v="-60"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="皇上"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="8"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="12"/>
+    <x v="9"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-80"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="峰峰妈"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="8"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="喜爸"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="13"/>
+    <x v="10"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <x v="0"/>
-    <n v="25"/>
-    <s v="杯"/>
-    <n v="1"/>
-    <d v="2016-04-06T00:00:00"/>
-  </r>
-  <r>
+    <s v="档爸"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="皇上"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="喜爸"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="11"/>
     <x v="8"/>
-    <s v="果汁"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="慧君"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="慧君"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="11"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="15"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <n v="-75"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="喜爸"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="10"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="零点"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="零点"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="16"/>
+    <x v="10"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <n v="-60"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="零点"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="17"/>
+    <x v="8"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="17"/>
+    <x v="8"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="18"/>
+    <x v="2"/>
+    <n v="7"/>
+    <n v="1"/>
+    <m/>
+    <n v="-175"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="19"/>
+    <x v="12"/>
+    <n v="8"/>
+    <n v="1"/>
+    <m/>
+    <n v="-160"/>
+    <m/>
+    <s v="啤酒"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="原慧玲"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="施济"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="施济"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="13"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <s v="鲜榨果汁"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="信和活动"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="21"/>
+    <x v="14"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-300"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="飞哥"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="9"/>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="飞哥"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="22"/>
+    <x v="15"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-18"/>
+    <m/>
+    <s v="冰锐酒"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="帕萨迪纳业主"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="帕萨迪纳业主"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="17"/>
+    <x v="8"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="蔚蓝"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="23"/>
+    <x v="12"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="crystal"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="15"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <n v="-75"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="crystal"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="24"/>
+    <x v="16"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="颗颗妈妈"/>
     <x v="0"/>
-    <n v="25"/>
-    <s v="杯"/>
-    <n v="1"/>
-    <d v="2016-04-06T00:00:00"/>
-  </r>
-  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="500"/>
+    <n v="500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="颗颗妈妈"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="23"/>
+    <x v="12"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="25"/>
+    <x v="12"/>
+    <n v="6"/>
+    <n v="1"/>
+    <m/>
+    <n v="-120"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="二宝妈"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1500"/>
+    <n v="1500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="二宝妈"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="maji妈妈"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="26"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <m/>
+    <n v="-80"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="卢芳"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="卢芳"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="24"/>
+    <x v="16"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="27"/>
+    <x v="17"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="皇上"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="林总，唐老师"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="林总，唐老师"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="24"/>
+    <x v="16"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="林总，唐老师"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="28"/>
+    <x v="12"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-40"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="蓝山美术"/>
+    <x v="1"/>
     <x v="9"/>
-    <s v="高山普洱"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="蓝山美术"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="29"/>
+    <x v="18"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="曹曹妹妹"/>
     <x v="0"/>
-    <n v="70"/>
-    <s v="壶"/>
-    <n v="1"/>
-    <d v="2016-04-06T00:00:00"/>
-  </r>
-  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="500"/>
+    <n v="500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="勇哥"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="500"/>
+    <n v="500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="一鸾"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="500"/>
+    <n v="500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="曹曹妹妹"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="曹曹妹妹"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="30"/>
+    <x v="19"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="勇哥"/>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="颗颗妈妈"/>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="23"/>
+    <x v="12"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="皇上"/>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="小艾爸"/>
+    <x v="2"/>
     <x v="10"/>
-    <s v="高山普洱"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="小艾爸"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="31"/>
+    <x v="20"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="小艾爸"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="32"/>
+    <x v="21"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-35"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="达哥"/>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="15"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <n v="-75"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="达哥"/>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="29"/>
+    <x v="18"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="candice"/>
     <x v="0"/>
-    <n v="20"/>
-    <s v="杯"/>
-    <n v="1"/>
-    <d v="2016-04-06T00:00:00"/>
-  </r>
-  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="500"/>
+    <n v="500"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="candice"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="皇上"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="兔兔妈妈"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="33"/>
+    <x v="12"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <n v="-60"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="23"/>
+    <x v="12"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="皇上"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="34"/>
+    <x v="12"/>
+    <n v="4"/>
+    <n v="1"/>
+    <m/>
+    <n v="-80"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="23"/>
+    <x v="12"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="高卉"/>
+    <x v="1"/>
     <x v="11"/>
-    <s v="高山古树普洱茶"/>
+    <x v="35"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="1"/>
+    <m/>
+    <n v="-125"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="高卉"/>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="24"/>
+    <x v="16"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="高卉"/>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="30"/>
+    <x v="19"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="高卉"/>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="29"/>
+    <x v="18"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="皇上"/>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="小艾爸"/>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="30"/>
+    <x v="19"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="小艾爸"/>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="31"/>
+    <x v="20"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="峰峰妈妈"/>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="31"/>
+    <x v="20"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="峰峰妈妈"/>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="30"/>
+    <x v="19"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="峰峰妈妈"/>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="36"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="-40"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="二宝妈"/>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="37"/>
+    <x v="22"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-70"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="颗颗妈妈"/>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <x v="0"/>
-    <n v="50"/>
-    <s v="壶（2杯）"/>
-    <n v="1"/>
-    <d v="2016-04-12T00:00:00"/>
-  </r>
-  <r>
+    <s v="档爸"/>
+    <x v="2"/>
     <x v="12"/>
-    <s v="高山古树普洱茶"/>
+    <x v="38"/>
+    <x v="23"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <x v="0"/>
-    <n v="80"/>
-    <s v="壶（4杯）"/>
-    <n v="1"/>
-    <d v="2016-04-12T00:00:00"/>
+    <s v="档爸"/>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="13"/>
-    <s v="高山古树普洱茶"/>
-    <x v="0"/>
-    <n v="30"/>
-    <s v="杯"/>
-    <n v="1"/>
-    <d v="2016-04-12T00:00:00"/>
-  </r>
-  <r>
+    <s v="卫丹朋友"/>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="39"/>
+    <x v="24"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-80"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="卫丹朋友"/>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="24"/>
+    <x v="16"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="卫丹朋友"/>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="9"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="Candice"/>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="Candice"/>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="31"/>
+    <x v="20"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="Candice"/>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="40"/>
+    <x v="25"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="Candice"/>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="9"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="Candice"/>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="41"/>
+    <x v="26"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-15"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="Candice"/>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="42"/>
+    <x v="27"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-45"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="皇上"/>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="12"/>
+    <x v="9"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="皇上"/>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="喜爸"/>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="喜爸"/>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="43"/>
+    <x v="28"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="喜爸"/>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="44"/>
+    <x v="29"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-18"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="兔兔妈妈"/>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="24"/>
+    <m/>
+    <x v="3"/>
     <x v="14"/>
-    <s v="峨眉山明前绿茶"/>
-    <x v="0"/>
-    <n v="30"/>
-    <s v="杯"/>
-    <n v="1"/>
-    <d v="2016-04-12T00:00:00"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <s v="德国手工花果茶"/>
-    <x v="0"/>
-    <n v="80"/>
-    <s v="壶（4杯）"/>
-    <n v="1"/>
-    <d v="2016-04-12T00:00:00"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <s v="德国手工花果茶"/>
-    <x v="0"/>
-    <n v="50"/>
-    <s v="壶（2杯）"/>
-    <n v="1"/>
-    <d v="2016-04-12T00:00:00"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <s v="德国手工花果茶"/>
-    <x v="0"/>
-    <n v="30"/>
-    <s v="杯"/>
-    <n v="1"/>
-    <d v="2016-04-12T00:00:00"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <s v="茶位费"/>
-    <x v="0"/>
-    <n v="20"/>
-    <s v="位"/>
-    <n v="1"/>
-    <d v="2016-04-06T00:00:00"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <s v="冰锐果酒"/>
-    <x v="0"/>
-    <n v="18"/>
-    <s v="瓶"/>
-    <n v="1"/>
-    <d v="2016-04-06T00:00:00"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <s v="坚果"/>
-    <x v="1"/>
-    <n v="20"/>
-    <s v="盘"/>
-    <n v="1"/>
-    <d v="2016-04-06T00:00:00"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <s v="草莓酸奶"/>
-    <x v="2"/>
-    <n v="20"/>
-    <s v="杯"/>
-    <n v="1"/>
-    <d v="2016-04-12T00:00:00"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <s v="充值"/>
+    <x v="45"/>
+    <x v="30"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="24"/>
+    <m/>
     <x v="3"/>
+    <x v="14"/>
+    <x v="45"/>
+    <x v="30"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
     <n v="0"/>
     <m/>
-    <n v="1"/>
-    <d v="2016-04-06T00:00:00"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <s v="米果"/>
-    <x v="4"/>
-    <n v="18"/>
-    <s v="袋"/>
-    <n v="1"/>
-    <d v="2016-04-12T00:00:00"/>
+    <m/>
   </r>
   <r>
     <x v="24"/>
-    <s v="混合腰果"/>
-    <x v="4"/>
-    <n v="35"/>
-    <s v="袋"/>
-    <n v="1"/>
-    <d v="2016-04-12T00:00:00"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <s v="非洲腰果"/>
-    <x v="4"/>
-    <n v="30"/>
-    <s v="袋"/>
-    <n v="1"/>
-    <d v="2016-04-12T00:00:00"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <s v="啤酒"/>
-    <x v="5"/>
-    <n v="20"/>
-    <s v="瓶"/>
-    <n v="1"/>
-    <d v="2016-04-06T00:00:00"/>
-  </r>
-  <r>
-    <x v="27"/>
-    <s v="斯里兰卡上等红茶"/>
-    <x v="0"/>
-    <n v="80"/>
-    <s v="壶（4杯）"/>
-    <n v="1"/>
-    <d v="2016-04-12T00:00:00"/>
-  </r>
-  <r>
-    <x v="28"/>
-    <s v="斯里兰卡上等红茶"/>
-    <x v="0"/>
-    <n v="50"/>
-    <s v="壶（2杯）"/>
-    <n v="1"/>
-    <d v="2016-04-12T00:00:00"/>
-  </r>
-  <r>
-    <x v="29"/>
-    <s v="德国手工花果茶"/>
-    <x v="0"/>
-    <n v="70"/>
-    <s v="壶（3杯）"/>
-    <n v="1"/>
-    <d v="2016-04-12T00:00:00"/>
-  </r>
-  <r>
+    <m/>
+    <x v="3"/>
+    <x v="14"/>
+    <x v="46"/>
     <x v="30"/>
-    <s v="榻榻米茶位费"/>
-    <x v="0"/>
-    <n v="30"/>
-    <s v="人"/>
-    <n v="1"/>
-    <d v="2016-04-17T00:00:00"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <s v="英式奶茶"/>
-    <x v="0"/>
-    <n v="30"/>
-    <s v="杯"/>
-    <n v="1"/>
-    <d v="2016-04-17T00:00:00"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <s v="美国蔓越梅子干"/>
-    <x v="4"/>
-    <n v="15"/>
-    <s v="碟"/>
-    <n v="1"/>
-    <d v="2016-04-17T00:00:00"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <s v="进口无花果干"/>
-    <x v="4"/>
-    <n v="45"/>
-    <s v="袋"/>
-    <n v="1"/>
-    <d v="2016-04-17T00:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="24"/>
+    <m/>
+    <x v="3"/>
+    <x v="14"/>
+    <x v="46"/>
+    <x v="30"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="24"/>
+    <m/>
+    <x v="3"/>
+    <x v="14"/>
+    <x v="46"/>
+    <x v="30"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -5194,7 +6740,7 @@
   </r>
   <r>
     <x v="23"/>
-    <s v="candice"/>
+    <s v="Candice"/>
     <x v="2"/>
     <x v="12"/>
     <x v="4"/>
@@ -5208,7 +6754,7 @@
   </r>
   <r>
     <x v="23"/>
-    <s v="candice"/>
+    <s v="Candice"/>
     <x v="2"/>
     <x v="12"/>
     <x v="31"/>
@@ -5222,7 +6768,7 @@
   </r>
   <r>
     <x v="23"/>
-    <s v="candice"/>
+    <s v="Candice"/>
     <x v="2"/>
     <x v="12"/>
     <x v="40"/>
@@ -5236,7 +6782,7 @@
   </r>
   <r>
     <x v="23"/>
-    <s v="candice"/>
+    <s v="Candice"/>
     <x v="2"/>
     <x v="12"/>
     <x v="12"/>
@@ -5250,7 +6796,7 @@
   </r>
   <r>
     <x v="23"/>
-    <s v="candice"/>
+    <s v="Candice"/>
     <x v="2"/>
     <x v="12"/>
     <x v="41"/>
@@ -5264,7 +6810,7 @@
   </r>
   <r>
     <x v="23"/>
-    <s v="candice"/>
+    <s v="Candice"/>
     <x v="2"/>
     <x v="12"/>
     <x v="42"/>
@@ -5277,140 +6823,112 @@
     <m/>
   </r>
   <r>
-    <x v="24"/>
-    <m/>
+    <x v="1"/>
+    <s v="皇上"/>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="12"/>
+    <s v="热巧克力(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="皇上"/>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="2"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="阳妈"/>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="2"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <x v="3"/>
+    <s v="喜爸"/>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="2"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="喜爸"/>
+    <x v="2"/>
     <x v="13"/>
     <x v="43"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="24"/>
-    <m/>
+    <s v="高山古树普洱茶(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <x v="3"/>
-    <x v="13"/>
-    <x v="43"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="24"/>
-    <m/>
-    <x v="3"/>
-    <x v="13"/>
-    <x v="43"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="24"/>
-    <m/>
-    <x v="3"/>
-    <x v="13"/>
-    <x v="43"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="24"/>
-    <m/>
-    <x v="3"/>
-    <x v="13"/>
-    <x v="43"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="24"/>
-    <m/>
-    <x v="3"/>
-    <x v="13"/>
-    <x v="43"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="24"/>
-    <m/>
-    <x v="3"/>
-    <x v="13"/>
-    <x v="43"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="24"/>
-    <m/>
-    <x v="3"/>
-    <x v="13"/>
-    <x v="43"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="24"/>
-    <m/>
-    <x v="3"/>
-    <x v="13"/>
-    <x v="43"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="24"/>
-    <m/>
-    <x v="3"/>
+    <s v="喜爸"/>
+    <x v="2"/>
     <x v="13"/>
     <x v="44"/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="米果(袋)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-18"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="兔兔妈妈"/>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="2"/>
+    <s v="手冲拿铁(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="24"/>
+    <m/>
+    <x v="3"/>
+    <x v="14"/>
+    <x v="45"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
     <m/>
     <n v="0"/>
     <m/>
@@ -5420,11 +6938,11 @@
     <x v="24"/>
     <m/>
     <x v="3"/>
-    <x v="13"/>
-    <x v="44"/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="14"/>
+    <x v="45"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
     <m/>
     <n v="0"/>
     <m/>
@@ -5434,8 +6952,36 @@
     <x v="24"/>
     <m/>
     <x v="3"/>
-    <x v="13"/>
-    <x v="44"/>
+    <x v="14"/>
+    <x v="46"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="24"/>
+    <m/>
+    <x v="3"/>
+    <x v="14"/>
+    <x v="46"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="24"/>
+    <m/>
+    <x v="3"/>
+    <x v="14"/>
+    <x v="46"/>
     <m/>
     <m/>
     <m/>
@@ -5448,1791 +6994,319 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="127">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="34">
   <r>
     <x v="0"/>
-    <s v="档爸"/>
+    <s v="锡兰红茶"/>
     <x v="0"/>
+    <n v="70"/>
+    <s v="壶"/>
+    <n v="1"/>
+    <d v="2016-04-06T00:00:00"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="锡兰红茶"/>
     <x v="0"/>
+    <n v="20"/>
+    <s v="杯"/>
+    <n v="1"/>
+    <d v="2016-04-06T00:00:00"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="斯里兰卡上等红茶"/>
     <x v="0"/>
+    <n v="30"/>
+    <s v="杯"/>
+    <n v="1"/>
+    <d v="2016-04-12T00:00:00"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="手冲拿铁"/>
     <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1500"/>
-    <n v="1500"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
+    <n v="25"/>
+    <s v="杯"/>
+    <n v="1"/>
+    <d v="2016-04-06T00:00:00"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="热巧克力"/>
+    <x v="0"/>
+    <n v="25"/>
+    <s v="杯"/>
+    <n v="1"/>
+    <d v="2016-04-06T00:00:00"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="绿茶"/>
+    <x v="0"/>
+    <n v="20"/>
+    <s v="杯"/>
+    <n v="1"/>
+    <d v="2016-04-06T00:00:00"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="花果茶玫瑰"/>
+    <x v="0"/>
+    <n v="80"/>
+    <s v="壶"/>
+    <n v="1"/>
+    <d v="2016-04-06T00:00:00"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="花果茶玫瑰"/>
+    <x v="0"/>
+    <n v="25"/>
+    <s v="杯"/>
+    <n v="1"/>
+    <d v="2016-04-06T00:00:00"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="果汁"/>
+    <x v="0"/>
+    <n v="25"/>
+    <s v="杯"/>
+    <n v="1"/>
+    <d v="2016-04-06T00:00:00"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="高山普洱"/>
+    <x v="0"/>
+    <n v="70"/>
+    <s v="壶"/>
+    <n v="1"/>
+    <d v="2016-04-06T00:00:00"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="高山普洱"/>
+    <x v="0"/>
+    <n v="20"/>
+    <s v="杯"/>
+    <n v="1"/>
+    <d v="2016-04-06T00:00:00"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="高山古树普洱茶"/>
+    <x v="0"/>
+    <n v="50"/>
+    <s v="壶（2杯）"/>
+    <n v="1"/>
+    <d v="2016-04-12T00:00:00"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="高山古树普洱茶"/>
+    <x v="0"/>
+    <n v="80"/>
+    <s v="壶（4杯）"/>
+    <n v="1"/>
+    <d v="2016-04-12T00:00:00"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="高山古树普洱茶"/>
+    <x v="0"/>
+    <n v="30"/>
+    <s v="杯"/>
+    <n v="1"/>
+    <d v="2016-04-12T00:00:00"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="峨眉山明前绿茶"/>
+    <x v="0"/>
+    <n v="30"/>
+    <s v="杯"/>
+    <n v="1"/>
+    <d v="2016-04-12T00:00:00"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="德国手工花果茶"/>
+    <x v="0"/>
+    <n v="80"/>
+    <s v="壶（4杯）"/>
+    <n v="1"/>
+    <d v="2016-04-12T00:00:00"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="德国手工花果茶"/>
+    <x v="0"/>
+    <n v="50"/>
+    <s v="壶（2杯）"/>
+    <n v="1"/>
+    <d v="2016-04-12T00:00:00"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="德国手工花果茶"/>
+    <x v="0"/>
+    <n v="30"/>
+    <s v="杯"/>
+    <n v="1"/>
+    <d v="2016-04-12T00:00:00"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="茶位费"/>
+    <x v="0"/>
+    <n v="20"/>
+    <s v="位"/>
+    <n v="1"/>
+    <d v="2016-04-06T00:00:00"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="冰锐果酒"/>
+    <x v="0"/>
+    <n v="18"/>
+    <s v="瓶"/>
+    <n v="1"/>
+    <d v="2016-04-06T00:00:00"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="坚果"/>
     <x v="1"/>
-    <s v="皇上"/>
+    <n v="20"/>
+    <s v="盘"/>
+    <n v="1"/>
+    <d v="2016-04-06T00:00:00"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="草莓酸奶"/>
+    <x v="2"/>
+    <n v="20"/>
+    <s v="杯"/>
+    <n v="1"/>
+    <d v="2016-04-12T00:00:00"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="充值"/>
+    <x v="3"/>
+    <n v="0"/>
+    <m/>
+    <n v="1"/>
+    <d v="2016-04-06T00:00:00"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="米果"/>
+    <x v="4"/>
+    <n v="18"/>
+    <s v="袋"/>
+    <n v="1"/>
+    <d v="2016-04-12T00:00:00"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="混合腰果"/>
+    <x v="4"/>
+    <n v="35"/>
+    <s v="袋"/>
+    <n v="1"/>
+    <d v="2016-04-12T00:00:00"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <s v="非洲腰果"/>
+    <x v="4"/>
+    <n v="30"/>
+    <s v="袋"/>
+    <n v="1"/>
+    <d v="2016-04-12T00:00:00"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="啤酒"/>
+    <x v="5"/>
+    <n v="20"/>
+    <s v="瓶"/>
+    <n v="1"/>
+    <d v="2016-04-06T00:00:00"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <s v="斯里兰卡上等红茶"/>
     <x v="0"/>
-    <x v="1"/>
+    <n v="80"/>
+    <s v="壶（4杯）"/>
+    <n v="1"/>
+    <d v="2016-04-12T00:00:00"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <s v="斯里兰卡上等红茶"/>
     <x v="0"/>
+    <n v="50"/>
+    <s v="壶（2杯）"/>
+    <n v="1"/>
+    <d v="2016-04-12T00:00:00"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <s v="德国手工花果茶"/>
     <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1500"/>
-    <n v="1500"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="阳妈"/>
+    <n v="70"/>
+    <s v="壶（3杯）"/>
+    <n v="1"/>
+    <d v="2016-04-12T00:00:00"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <s v="榻榻米茶位费"/>
     <x v="0"/>
-    <x v="1"/>
+    <n v="30"/>
+    <s v="人"/>
+    <n v="1"/>
+    <d v="2016-04-17T00:00:00"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="英式奶茶"/>
     <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2000"/>
-    <n v="2000"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="喜爸"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2000"/>
-    <n v="2000"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
+    <n v="30"/>
+    <s v="杯"/>
+    <n v="1"/>
+    <d v="2016-04-17T00:00:00"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="美国蔓越梅子干"/>
     <x v="4"/>
-    <s v="峰峰妈"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1500"/>
-    <n v="1500"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="小艾爸"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1500"/>
-    <n v="1500"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="宏哥朋友"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="10"/>
-    <n v="0.44"/>
-    <n v="0"/>
-    <n v="-308"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="兔妈"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1500"/>
-    <n v="1500"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="8"/>
-    <s v="涵涵妈"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1500"/>
-    <n v="1500"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="葡萄奶奶"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="500"/>
-    <n v="500"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="阳妈"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="档爸"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="档爸"/>
-    <x v="2"/>
-    <x v="2"/>
+    <n v="15"/>
+    <s v="碟"/>
+    <n v="1"/>
+    <d v="2016-04-17T00:00:00"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <s v="进口无花果干"/>
     <x v="4"/>
-    <x v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="葡萄奶奶"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-70"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="葡萄奶奶"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="6"/>
-    <n v="2"/>
-    <n v="1"/>
-    <m/>
-    <n v="-40"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="葡萄奶奶"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="7"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-80"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="葡萄奶奶"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="1"/>
-    <m/>
-    <n v="-60"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="皇上"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="6"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="1"/>
-    <m/>
-    <n v="-50"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="10"/>
-    <m/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="8"/>
-    <n v="2"/>
-    <n v="1"/>
-    <m/>
-    <n v="-50"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="10"/>
-    <m/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="12"/>
-    <x v="9"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="7"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-80"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="11"/>
-    <m/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="峰峰妈"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="8"/>
-    <n v="2"/>
-    <n v="1"/>
-    <m/>
-    <n v="-50"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="喜爸"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="13"/>
-    <x v="10"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="档爸"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="皇上"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="喜爸"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="阳妈"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="11"/>
-    <x v="8"/>
-    <n v="2"/>
-    <n v="1"/>
-    <m/>
-    <n v="-50"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <s v="慧君"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="12"/>
-    <s v="慧君"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="14"/>
-    <x v="11"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="阳妈"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="15"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-    <m/>
-    <n v="-75"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="喜爸"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="10"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="零点"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="零点"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="16"/>
-    <x v="10"/>
-    <n v="3"/>
-    <n v="1"/>
-    <m/>
-    <n v="-60"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="零点"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="17"/>
-    <x v="8"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="17"/>
-    <x v="8"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="18"/>
-    <x v="2"/>
-    <n v="7"/>
-    <n v="1"/>
-    <m/>
-    <n v="-175"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="19"/>
-    <x v="12"/>
-    <n v="8"/>
-    <n v="1"/>
-    <m/>
-    <n v="-160"/>
-    <m/>
-    <s v="啤酒"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <s v="原慧玲"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="10"/>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="1"/>
-    <m/>
-    <n v="-50"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="15"/>
-    <s v="施济"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="10"/>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="1"/>
-    <m/>
-    <n v="-50"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="15"/>
-    <s v="施济"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="13"/>
-    <n v="2"/>
-    <n v="1"/>
-    <m/>
-    <n v="-50"/>
-    <m/>
-    <s v="鲜榨果汁"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <s v="信和活动"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="21"/>
-    <x v="14"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-300"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="17"/>
-    <s v="飞哥"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="9"/>
-    <x v="6"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="17"/>
-    <s v="飞哥"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="22"/>
-    <x v="15"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-18"/>
-    <m/>
-    <s v="冰锐酒"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="帕萨迪纳业主"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="帕萨迪纳业主"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="17"/>
-    <x v="8"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="蔚蓝"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="23"/>
-    <x v="12"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="crystal"/>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="15"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-    <m/>
-    <n v="-75"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="crystal"/>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="24"/>
-    <x v="16"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="18"/>
-    <s v="颗颗妈妈"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="500"/>
-    <n v="500"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="18"/>
-    <s v="颗颗妈妈"/>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="23"/>
-    <x v="12"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="阳妈"/>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="25"/>
-    <x v="12"/>
-    <n v="6"/>
-    <n v="1"/>
-    <m/>
-    <n v="-120"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="19"/>
-    <s v="二宝妈"/>
-    <x v="0"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1500"/>
-    <n v="1500"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="19"/>
-    <s v="二宝妈"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="maji妈妈"/>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="26"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="1"/>
-    <m/>
-    <n v="-80"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="卢芳"/>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="卢芳"/>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="24"/>
-    <x v="16"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="阳妈"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="阳妈"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="27"/>
-    <x v="17"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="皇上"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="林总，唐老师"/>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="10"/>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="1"/>
-    <m/>
-    <n v="-50"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="林总，唐老师"/>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="24"/>
-    <x v="16"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="林总，唐老师"/>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="28"/>
-    <x v="12"/>
-    <n v="2"/>
-    <n v="1"/>
-    <m/>
-    <n v="-40"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="蓝山美术"/>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="蓝山美术"/>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="29"/>
-    <x v="18"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <s v="曹曹妹妹"/>
-    <x v="0"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="500"/>
-    <n v="500"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="21"/>
-    <s v="勇哥"/>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="500"/>
-    <n v="500"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="22"/>
-    <s v="一鸾"/>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="500"/>
-    <n v="500"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <s v="曹曹妹妹"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <s v="曹曹妹妹"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="30"/>
-    <x v="19"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="21"/>
-    <s v="勇哥"/>
-    <x v="2"/>
-    <x v="9"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="18"/>
-    <s v="颗颗妈妈"/>
-    <x v="2"/>
-    <x v="9"/>
-    <x v="23"/>
-    <x v="12"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="皇上"/>
-    <x v="2"/>
-    <x v="9"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="小艾爸"/>
-    <x v="2"/>
-    <x v="10"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="小艾爸"/>
-    <x v="2"/>
-    <x v="10"/>
-    <x v="31"/>
-    <x v="20"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="小艾爸"/>
-    <x v="2"/>
-    <x v="10"/>
-    <x v="32"/>
-    <x v="21"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-35"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="达哥"/>
-    <x v="1"/>
-    <x v="10"/>
-    <x v="15"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-    <m/>
-    <n v="-75"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="达哥"/>
-    <x v="1"/>
-    <x v="10"/>
-    <x v="29"/>
-    <x v="18"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="23"/>
-    <s v="candice"/>
-    <x v="0"/>
-    <x v="10"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="500"/>
-    <n v="500"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="23"/>
-    <s v="candice"/>
-    <x v="2"/>
-    <x v="10"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="阳妈"/>
-    <x v="2"/>
-    <x v="10"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="皇上"/>
-    <x v="2"/>
-    <x v="10"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="兔兔妈妈"/>
-    <x v="2"/>
-    <x v="10"/>
-    <x v="33"/>
-    <x v="12"/>
-    <n v="3"/>
-    <n v="1"/>
-    <m/>
-    <n v="-60"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="阳妈"/>
-    <x v="2"/>
-    <x v="10"/>
-    <x v="23"/>
-    <x v="12"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="皇上"/>
-    <x v="2"/>
-    <x v="10"/>
-    <x v="34"/>
-    <x v="12"/>
-    <n v="4"/>
-    <n v="1"/>
-    <m/>
-    <n v="-80"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="阳妈"/>
-    <x v="2"/>
-    <x v="10"/>
-    <x v="23"/>
-    <x v="12"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="高卉"/>
-    <x v="1"/>
-    <x v="11"/>
-    <x v="35"/>
-    <x v="2"/>
-    <n v="5"/>
-    <n v="1"/>
-    <m/>
-    <n v="-125"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="高卉"/>
-    <x v="1"/>
-    <x v="11"/>
-    <x v="24"/>
-    <x v="16"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="高卉"/>
-    <x v="1"/>
-    <x v="11"/>
-    <x v="30"/>
-    <x v="19"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="高卉"/>
-    <x v="1"/>
-    <x v="11"/>
-    <x v="29"/>
-    <x v="18"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="皇上"/>
-    <x v="2"/>
-    <x v="11"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="小艾爸"/>
-    <x v="2"/>
-    <x v="11"/>
-    <x v="30"/>
-    <x v="19"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="小艾爸"/>
-    <x v="2"/>
-    <x v="11"/>
-    <x v="31"/>
-    <x v="20"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="峰峰妈妈"/>
-    <x v="2"/>
-    <x v="12"/>
-    <x v="31"/>
-    <x v="20"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="峰峰妈妈"/>
-    <x v="2"/>
-    <x v="12"/>
-    <x v="30"/>
-    <x v="19"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="峰峰妈妈"/>
-    <x v="2"/>
-    <x v="12"/>
-    <x v="36"/>
-    <x v="4"/>
-    <n v="2"/>
-    <n v="1"/>
-    <m/>
-    <n v="-40"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="19"/>
-    <s v="二宝妈"/>
-    <x v="2"/>
-    <x v="12"/>
-    <x v="37"/>
-    <x v="22"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-70"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="18"/>
-    <s v="颗颗妈妈"/>
-    <x v="2"/>
-    <x v="12"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="档爸"/>
-    <x v="2"/>
-    <x v="12"/>
-    <x v="38"/>
-    <x v="23"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="档爸"/>
-    <x v="2"/>
-    <x v="12"/>
-    <x v="4"/>
-    <x v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="卫丹朋友"/>
-    <x v="1"/>
-    <x v="12"/>
-    <x v="39"/>
-    <x v="24"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-80"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="卫丹朋友"/>
-    <x v="1"/>
-    <x v="12"/>
-    <x v="24"/>
-    <x v="16"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="卫丹朋友"/>
-    <x v="1"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="9"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="23"/>
-    <s v="candice"/>
-    <x v="2"/>
-    <x v="12"/>
-    <x v="4"/>
-    <x v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="23"/>
-    <s v="candice"/>
-    <x v="2"/>
-    <x v="12"/>
-    <x v="31"/>
-    <x v="20"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="23"/>
-    <s v="candice"/>
-    <x v="2"/>
-    <x v="12"/>
-    <x v="40"/>
-    <x v="25"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="23"/>
-    <s v="candice"/>
-    <x v="2"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="9"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="23"/>
-    <s v="candice"/>
-    <x v="2"/>
-    <x v="12"/>
-    <x v="41"/>
-    <x v="26"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-15"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="23"/>
-    <s v="candice"/>
-    <x v="2"/>
-    <x v="12"/>
-    <x v="42"/>
-    <x v="27"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="-45"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="24"/>
-    <m/>
-    <x v="3"/>
-    <x v="13"/>
-    <x v="43"/>
-    <x v="28"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="24"/>
-    <m/>
-    <x v="3"/>
-    <x v="13"/>
-    <x v="43"/>
-    <x v="28"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="24"/>
-    <m/>
-    <x v="3"/>
-    <x v="13"/>
-    <x v="43"/>
-    <x v="28"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="24"/>
-    <m/>
-    <x v="3"/>
-    <x v="13"/>
-    <x v="43"/>
-    <x v="28"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="24"/>
-    <m/>
-    <x v="3"/>
-    <x v="13"/>
-    <x v="43"/>
-    <x v="28"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="24"/>
-    <m/>
-    <x v="3"/>
-    <x v="13"/>
-    <x v="43"/>
-    <x v="28"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="24"/>
-    <m/>
-    <x v="3"/>
-    <x v="13"/>
-    <x v="43"/>
-    <x v="28"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="24"/>
-    <m/>
-    <x v="3"/>
-    <x v="13"/>
-    <x v="43"/>
-    <x v="28"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="24"/>
-    <m/>
-    <x v="3"/>
-    <x v="13"/>
-    <x v="43"/>
-    <x v="28"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="24"/>
-    <m/>
-    <x v="3"/>
-    <x v="13"/>
-    <x v="44"/>
-    <x v="28"/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="24"/>
-    <m/>
-    <x v="3"/>
-    <x v="13"/>
-    <x v="44"/>
-    <x v="28"/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="24"/>
-    <m/>
-    <x v="3"/>
-    <x v="13"/>
-    <x v="44"/>
-    <x v="28"/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
+    <n v="45"/>
+    <s v="袋"/>
+    <n v="1"/>
+    <d v="2016-04-17T00:00:00"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="会员汇总" cacheId="679" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" grandTotalCaption="余额" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B12:C25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="会员汇总" cacheId="733" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" grandTotalCaption="余额" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B12:C19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="28">
@@ -7257,12 +7331,12 @@
         <item h="1" x="16"/>
         <item h="1" x="17"/>
         <item h="1" x="18"/>
-        <item h="1" x="7"/>
+        <item x="7"/>
         <item h="1" x="19"/>
         <item h="1" x="20"/>
         <item h="1" x="21"/>
         <item h="1" x="22"/>
-        <item x="23"/>
+        <item h="1" x="23"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7279,7 +7353,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="15">
+      <items count="16">
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
         <item sd="0" x="2"/>
@@ -7288,29 +7362,30 @@
         <item sd="0" x="5"/>
         <item sd="0" x="6"/>
         <item sd="0" x="7"/>
-        <item x="8"/>
+        <item sd="0" x="8"/>
         <item sd="0" x="9"/>
-        <item x="10"/>
-        <item x="11"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
         <item x="12"/>
+        <item x="14"/>
         <item x="13"/>
         <item t="default" sd="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="59">
-        <item m="1" x="54"/>
+      <items count="60">
+        <item m="1" x="55"/>
+        <item m="1" x="52"/>
+        <item m="1" x="59"/>
+        <item m="1" x="49"/>
+        <item m="1" x="50"/>
         <item m="1" x="51"/>
         <item m="1" x="58"/>
+        <item m="1" x="53"/>
+        <item m="1" x="54"/>
         <item m="1" x="47"/>
-        <item m="1" x="48"/>
-        <item m="1" x="50"/>
-        <item m="1" x="57"/>
-        <item m="1" x="52"/>
-        <item m="1" x="53"/>
-        <item m="1" x="45"/>
         <item x="0"/>
-        <item m="1" x="55"/>
+        <item m="1" x="56"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
@@ -7320,7 +7395,7 @@
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
-        <item x="43"/>
+        <item x="45"/>
         <item x="10"/>
         <item x="11"/>
         <item x="12"/>
@@ -7337,7 +7412,7 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
-        <item m="1" x="56"/>
+        <item m="1" x="57"/>
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
@@ -7347,17 +7422,18 @@
         <item x="32"/>
         <item x="33"/>
         <item x="34"/>
-        <item m="1" x="49"/>
+        <item x="44"/>
         <item x="35"/>
         <item x="36"/>
-        <item m="1" x="46"/>
+        <item m="1" x="48"/>
         <item x="37"/>
         <item x="39"/>
         <item x="38"/>
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
-        <item x="44"/>
+        <item x="46"/>
+        <item x="43"/>
       </items>
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -7373,42 +7449,24 @@
     <field x="2"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="13">
+  <rowItems count="7">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
     <i>
       <x v="10"/>
     </i>
-    <i r="1">
-      <x/>
+    <i>
+      <x v="14"/>
     </i>
     <i r="1">
       <x v="3"/>
     </i>
     <i r="2">
       <x v="13"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="15"/>
-    </i>
-    <i r="2">
-      <x v="24"/>
-    </i>
-    <i r="2">
-      <x v="44"/>
-    </i>
-    <i r="2">
-      <x v="55"/>
-    </i>
-    <i r="2">
-      <x v="56"/>
-    </i>
-    <i r="2">
-      <x v="57"/>
     </i>
     <i t="grand">
       <x/>
@@ -7424,7 +7482,7 @@
     <dataField name="消费明细" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="76">
+    <format dxfId="88">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -7438,8 +7496,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="686" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H10:L25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="727" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H10:L34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
       <items count="27">
@@ -7485,7 +7543,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="15">
+      <items count="16">
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
         <item sd="0" x="2"/>
@@ -7499,13 +7557,14 @@
         <item sd="0" x="10"/>
         <item sd="0" x="11"/>
         <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item x="13"/>
         <item t="default" sd="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="50">
-        <item sd="0" x="43"/>
+      <items count="51">
+        <item sd="0" x="45"/>
         <item sd="0" x="22"/>
         <item sd="0" x="21"/>
         <item x="3"/>
@@ -7532,7 +7591,7 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
-        <item m="1" x="48"/>
+        <item m="1" x="49"/>
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
@@ -7541,19 +7600,20 @@
         <item x="31"/>
         <item x="32"/>
         <item x="33"/>
-        <item m="1" x="45"/>
+        <item m="1" x="47"/>
         <item x="34"/>
-        <item m="1" x="47"/>
+        <item x="44"/>
         <item x="35"/>
         <item x="36"/>
-        <item m="1" x="46"/>
+        <item m="1" x="48"/>
         <item x="37"/>
         <item x="39"/>
         <item x="38"/>
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
-        <item x="44"/>
+        <item x="46"/>
+        <item x="43"/>
         <item t="default" sd="0"/>
       </items>
     </pivotField>
@@ -7570,7 +7630,7 @@
     <field x="0"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="14">
+  <rowItems count="23">
     <i>
       <x v="1"/>
     </i>
@@ -7610,6 +7670,33 @@
     <i>
       <x v="13"/>
     </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="18"/>
+    </i>
+    <i r="2">
+      <x v="38"/>
+    </i>
+    <i r="2">
+      <x v="49"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="2">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -7635,7 +7722,7 @@
     <dataField name="求和/汇总金额" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="84">
+    <format dxfId="96">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -7647,7 +7734,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="95">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -7656,7 +7743,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="82">
+    <format dxfId="94">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -7665,7 +7752,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="81">
+    <format dxfId="93">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -7674,7 +7761,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="92">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -7683,7 +7770,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="79">
+    <format dxfId="91">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -7692,7 +7779,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="78">
+    <format dxfId="90">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -7701,7 +7788,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="89">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
@@ -7719,8 +7806,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="686" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="Q10:R33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="727" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="Q10:R34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -7728,7 +7815,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="32">
+      <items count="33">
         <item x="15"/>
         <item x="14"/>
         <item x="3"/>
@@ -7745,21 +7832,22 @@
         <item x="2"/>
         <item x="11"/>
         <item x="5"/>
-        <item h="1" x="28"/>
+        <item h="1" x="30"/>
         <item x="16"/>
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
         <item x="20"/>
         <item x="21"/>
-        <item m="1" x="30"/>
-        <item h="1" m="1" x="29"/>
+        <item x="29"/>
+        <item h="1" m="1" x="31"/>
         <item h="1" x="22"/>
         <item h="1" x="24"/>
         <item h="1" x="23"/>
         <item h="1" x="25"/>
         <item h="1" x="26"/>
         <item h="1" x="27"/>
+        <item h="1" x="28"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -7782,7 +7870,7 @@
   <rowFields count="1">
     <field x="5"/>
   </rowFields>
-  <rowItems count="23">
+  <rowItems count="24">
     <i>
       <x v="13"/>
     </i>
@@ -7811,25 +7899,25 @@
       <x v="4"/>
     </i>
     <i>
-      <x v="20"/>
+      <x v="21"/>
     </i>
     <i>
-      <x v="21"/>
+      <x v="20"/>
     </i>
     <i>
       <x v="10"/>
     </i>
     <i>
+      <x v="12"/>
+    </i>
+    <i>
       <x v="19"/>
     </i>
     <i>
-      <x v="12"/>
+      <x v="6"/>
     </i>
     <i>
       <x v="8"/>
-    </i>
-    <i>
-      <x v="6"/>
     </i>
     <i>
       <x/>
@@ -7838,16 +7926,19 @@
       <x v="22"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="15"/>
     </i>
     <i>
-      <x v="18"/>
+      <x v="23"/>
     </i>
     <i>
       <x v="14"/>
     </i>
     <i>
-      <x v="15"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="18"/>
     </i>
     <i t="grand">
       <x/>
@@ -7869,7 +7960,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="673" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="737" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -8075,41 +8166,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:M129" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72" totalsRowBorderDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:M129" totalsRowShown="0" headerRowDxfId="87" dataDxfId="85" headerRowBorderDxfId="86" tableBorderDxfId="84" totalsRowBorderDxfId="83">
   <autoFilter ref="B2:M129"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="姓名" dataDxfId="70"/>
-    <tableColumn id="2" name="昵称" dataDxfId="69"/>
-    <tableColumn id="3" name="类型（充值／消费／其他）" dataDxfId="68"/>
-    <tableColumn id="4" name="日期" dataDxfId="67"/>
-    <tableColumn id="5" name="显示条目" dataDxfId="66"/>
-    <tableColumn id="6" name="产品" dataDxfId="65"/>
-    <tableColumn id="7" name="数量" dataDxfId="64"/>
-    <tableColumn id="8" name="DC" dataDxfId="63"/>
-    <tableColumn id="9" name="充值金额" dataDxfId="62"/>
-    <tableColumn id="10" name="汇总金额" dataDxfId="61">
+    <tableColumn id="1" name="姓名" dataDxfId="82"/>
+    <tableColumn id="2" name="昵称" dataDxfId="81"/>
+    <tableColumn id="3" name="类型（充值／消费／其他）" dataDxfId="80"/>
+    <tableColumn id="4" name="日期" dataDxfId="79"/>
+    <tableColumn id="5" name="显示条目" dataDxfId="78"/>
+    <tableColumn id="6" name="产品" dataDxfId="77"/>
+    <tableColumn id="7" name="数量" dataDxfId="76"/>
+    <tableColumn id="8" name="DC" dataDxfId="75"/>
+    <tableColumn id="9" name="充值金额" dataDxfId="74"/>
+    <tableColumn id="10" name="汇总金额" dataDxfId="73">
       <calculatedColumnFormula>IF(表1[[#This Row],[姓名]]="",0,IF(D3="充值",J3,VLOOKUP(G3,表2[#All],4,FALSE)*H3*I3*-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="签名" dataDxfId="60"/>
-    <tableColumn id="12" name="备注" dataDxfId="59"/>
+    <tableColumn id="11" name="签名" dataDxfId="72"/>
+    <tableColumn id="12" name="备注" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B2:H36" totalsRowShown="0" headerRowDxfId="58" headerRowBorderDxfId="57" tableBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B2:H36" totalsRowShown="0" headerRowDxfId="70" headerRowBorderDxfId="69" tableBorderDxfId="68">
   <autoFilter ref="B2:H36"/>
   <sortState ref="B3:H35">
     <sortCondition descending="1" ref="D2:D35"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="描述" dataDxfId="55"/>
-    <tableColumn id="2" name="名称" dataDxfId="54"/>
-    <tableColumn id="3" name="类别" dataDxfId="53"/>
-    <tableColumn id="4" name="售价" dataDxfId="52"/>
-    <tableColumn id="5" name="单位" dataDxfId="51"/>
-    <tableColumn id="6" name="菜单版本号" dataDxfId="50"/>
+    <tableColumn id="1" name="描述" dataDxfId="67"/>
+    <tableColumn id="2" name="名称" dataDxfId="66"/>
+    <tableColumn id="3" name="类别" dataDxfId="65"/>
+    <tableColumn id="4" name="售价" dataDxfId="64"/>
+    <tableColumn id="5" name="单位" dataDxfId="63"/>
+    <tableColumn id="6" name="菜单版本号" dataDxfId="62"/>
     <tableColumn id="7" name="创建日期"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -8381,19 +8472,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.83203125" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="32.1640625" customWidth="1"/>
     <col min="9" max="9" width="10.1640625" customWidth="1"/>
     <col min="10" max="10" width="6.5" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
@@ -8441,12 +8532,12 @@
     </row>
     <row r="5" spans="2:18" ht="24" x14ac:dyDescent="0.35">
       <c r="B5" s="28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="28" t="s">
-        <v>89</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="2:18" ht="11" customHeight="1" x14ac:dyDescent="0.35">
@@ -8466,42 +8557,42 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H11" s="34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" t="s">
         <v>90</v>
       </c>
-      <c r="K11" t="s">
-        <v>91</v>
-      </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q11" s="32" t="s">
         <v>59</v>
       </c>
       <c r="R11" s="33">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="2:18" ht="24" x14ac:dyDescent="0.25">
@@ -8521,7 +8612,7 @@
         <v>-308</v>
       </c>
       <c r="Q12" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R12" s="33">
         <v>28</v>
@@ -8529,10 +8620,10 @@
     </row>
     <row r="13" spans="2:18" ht="24" x14ac:dyDescent="0.25">
       <c r="B13" s="35">
-        <v>42475</v>
+        <v>42466</v>
       </c>
       <c r="C13" s="11">
-        <v>475</v>
+        <v>1500</v>
       </c>
       <c r="H13" s="39">
         <v>42467</v>
@@ -8553,11 +8644,11 @@
       </c>
     </row>
     <row r="14" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B14" s="50" t="s">
-        <v>8</v>
+      <c r="B14" s="35">
+        <v>42470</v>
       </c>
       <c r="C14" s="11">
-        <v>500</v>
+        <v>-25</v>
       </c>
       <c r="H14" s="39">
         <v>42468</v>
@@ -8580,11 +8671,11 @@
       </c>
     </row>
     <row r="15" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B15" s="50" t="s">
-        <v>92</v>
+      <c r="B15" s="35">
+        <v>42475</v>
       </c>
       <c r="C15" s="11">
-        <v>1</v>
+        <v>-60</v>
       </c>
       <c r="H15" s="39">
         <v>42469</v>
@@ -8607,8 +8698,8 @@
       </c>
     </row>
     <row r="16" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B16" s="51" t="s">
-        <v>152</v>
+      <c r="B16" s="35">
+        <v>42479</v>
       </c>
       <c r="C16" s="11">
         <v>-25</v>
@@ -8634,11 +8725,11 @@
       </c>
     </row>
     <row r="17" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B17" s="35">
-        <v>42477</v>
+      <c r="B17" s="50" t="s">
+        <v>91</v>
       </c>
       <c r="C17" s="11">
-        <v>-165</v>
+        <v>1</v>
       </c>
       <c r="E17" s="25"/>
       <c r="H17" s="39">
@@ -8662,11 +8753,11 @@
       </c>
     </row>
     <row r="18" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B18" s="50" t="s">
-        <v>92</v>
+      <c r="B18" s="52" t="s">
+        <v>153</v>
       </c>
       <c r="C18" s="11">
-        <v>6</v>
+        <v>-25</v>
       </c>
       <c r="H18" s="39">
         <v>42472</v>
@@ -8682,18 +8773,18 @@
         <v>-245</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R18" s="33">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B19" s="51" t="s">
-        <v>210</v>
+      <c r="B19" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="C19" s="11">
-        <v>-20</v>
+        <v>1390</v>
       </c>
       <c r="F19" s="25"/>
       <c r="H19" s="39">
@@ -8716,13 +8807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B20" s="51" t="s">
-        <v>226</v>
-      </c>
-      <c r="C20" s="11">
-        <v>-25</v>
-      </c>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
       <c r="G20" s="25"/>
       <c r="H20" s="39">
         <v>42474</v>
@@ -8739,19 +8824,13 @@
       </c>
       <c r="P20" s="25"/>
       <c r="Q20" s="32" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="R20" s="33">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B21" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" s="11">
-        <v>-30</v>
-      </c>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H21" s="39">
         <v>42475</v>
       </c>
@@ -8766,19 +8845,13 @@
         <v>-440</v>
       </c>
       <c r="Q21" s="32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R21" s="33">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B22" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="C22" s="11">
-        <v>-30</v>
-      </c>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H22" s="39">
         <v>42476</v>
       </c>
@@ -8799,13 +8872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B23" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="C23" s="11">
-        <v>-15</v>
-      </c>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H23" s="39">
         <v>42477</v>
       </c>
@@ -8820,21 +8887,15 @@
         <v>-545</v>
       </c>
       <c r="Q23" s="32" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="R23" s="33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B24" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="C24" s="11">
-        <v>-45</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H24" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I24" s="33"/>
       <c r="J24" s="33"/>
@@ -8845,82 +8906,138 @@
         <v>0</v>
       </c>
       <c r="Q24" s="32" t="s">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="R24" s="33">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="11">
-        <v>310</v>
-      </c>
-      <c r="H25" s="32" t="s">
-        <v>111</v>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="H25" s="39">
+        <v>42479</v>
       </c>
       <c r="I25" s="33">
-        <v>-2438</v>
-      </c>
-      <c r="J25" s="33">
-        <v>-1978</v>
-      </c>
-      <c r="K25" s="33">
-        <v>0</v>
-      </c>
+        <v>-173</v>
+      </c>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
       <c r="L25" s="33">
-        <v>-4416</v>
+        <v>-173</v>
       </c>
       <c r="Q25" s="32" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="R25" s="33">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="H26" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="I26" s="33">
+        <v>-73</v>
+      </c>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33">
+        <v>-73</v>
+      </c>
       <c r="Q26" s="32" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="R26" s="33">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="H27" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="I27" s="33">
+        <v>-25</v>
+      </c>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33">
+        <v>-25</v>
+      </c>
       <c r="Q27" s="32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R27" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="H28" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="I28" s="33">
+        <v>-18</v>
+      </c>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33">
+        <v>-18</v>
+      </c>
       <c r="Q28" s="32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="R28" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="H29" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="I29" s="33">
+        <v>-30</v>
+      </c>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33">
+        <v>-30</v>
+      </c>
       <c r="Q29" s="32" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="R29" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="H30" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" s="33">
+        <v>-50</v>
+      </c>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33">
+        <v>-50</v>
+      </c>
       <c r="Q30" s="32" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="R30" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="H31" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="I31" s="33">
+        <v>-25</v>
+      </c>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33">
+        <v>-25</v>
+      </c>
       <c r="Q31" s="32" t="s">
         <v>86</v>
       </c>
@@ -8928,36 +9045,80 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="H32" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="I32" s="33">
+        <v>-25</v>
+      </c>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33">
+        <v>-25</v>
+      </c>
       <c r="Q32" s="32" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="R32" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="17:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="8:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="H33" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="I33" s="33">
+        <v>-25</v>
+      </c>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33">
+        <v>-25</v>
+      </c>
       <c r="Q33" s="32" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="R33" s="33">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="17:18" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="17:18" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="17:18" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="17:18" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="17:18" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="17:18" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="17:18" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="17:18" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="17:18" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="17:18" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="17:18" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="17:18" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="17:18" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="17:18" ht="24" x14ac:dyDescent="0.25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="8:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="H34" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="I34" s="33">
+        <v>-2611</v>
+      </c>
+      <c r="J34" s="33">
+        <v>-1978</v>
+      </c>
+      <c r="K34" s="33">
+        <v>0</v>
+      </c>
+      <c r="L34" s="33">
+        <v>-4589</v>
+      </c>
+      <c r="Q34" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="R34" s="33">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="8:18" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="8:18" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="8:18" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="8:18" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="8:18" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="8:18" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="8:18" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="8:18" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="8:18" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="8:18" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="8:18" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="8:18" ht="24" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="8:18" ht="24" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B8:C8"/>
@@ -8972,8 +9133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="109" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView topLeftCell="A108" zoomScale="109" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -9296,7 +9457,7 @@
     </row>
     <row r="10" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B10" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>38</v>
@@ -9410,7 +9571,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13" s="12">
         <v>42467</v>
@@ -9444,7 +9605,7 @@
         <v>46</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E14" s="12">
         <v>42467</v>
@@ -9478,7 +9639,7 @@
         <v>46</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" s="12">
         <v>42467</v>
@@ -9512,7 +9673,7 @@
         <v>41</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" s="12">
         <v>42467</v>
@@ -9546,7 +9707,7 @@
         <v>41</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" s="12">
         <v>42467</v>
@@ -9580,7 +9741,7 @@
         <v>41</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E18" s="12">
         <v>42467</v>
@@ -9614,7 +9775,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E19" s="12">
         <v>42467</v>
@@ -9648,7 +9809,7 @@
         <v>52</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E20" s="12">
         <v>42467</v>
@@ -9680,7 +9841,7 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21" s="12">
         <v>42468</v>
@@ -9712,7 +9873,7 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E22" s="12">
         <v>42468</v>
@@ -9744,7 +9905,7 @@
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E23" s="12">
         <v>42468</v>
@@ -9840,7 +10001,7 @@
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E26" s="12">
         <v>42468</v>
@@ -9906,7 +10067,7 @@
         <v>34</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E28" s="12">
         <v>42468</v>
@@ -9940,7 +10101,7 @@
         <v>82</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E29" s="12">
         <v>42468</v>
@@ -9974,7 +10135,7 @@
         <v>78</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E30" s="12">
         <v>42469</v>
@@ -10008,7 +10169,7 @@
         <v>80</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E31" s="12">
         <v>42469</v>
@@ -10042,7 +10203,7 @@
         <v>82</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E32" s="12">
         <v>42469</v>
@@ -10076,7 +10237,7 @@
         <v>84</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E33" s="12">
         <v>42469</v>
@@ -10178,7 +10339,7 @@
         <v>84</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="12">
         <v>42469</v>
@@ -10212,7 +10373,7 @@
         <v>82</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E37" s="12">
         <v>42469</v>
@@ -10346,7 +10507,7 @@
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E41" s="12">
         <v>42470</v>
@@ -10378,7 +10539,7 @@
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E42" s="12">
         <v>42470</v>
@@ -10406,11 +10567,11 @@
     </row>
     <row r="43" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E43" s="12">
         <v>42470</v>
@@ -10442,7 +10603,7 @@
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E44" s="12">
         <v>42470</v>
@@ -10452,7 +10613,7 @@
         <v>啤酒(瓶)x8</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H44" s="6">
         <v>8</v>
@@ -10576,7 +10737,7 @@
     </row>
     <row r="48" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>97</v>
@@ -10609,7 +10770,7 @@
     </row>
     <row r="49" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>100</v>
@@ -10642,7 +10803,7 @@
     </row>
     <row r="50" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>100</v>
@@ -10680,7 +10841,7 @@
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E51" s="12">
         <v>42470</v>
@@ -10690,7 +10851,7 @@
         <v>冰锐果酒(瓶)x1</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H51" s="6">
         <v>1</v>
@@ -10705,7 +10866,7 @@
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="2:13" ht="22" x14ac:dyDescent="0.35">
@@ -10713,7 +10874,7 @@
         <v>88</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>47</v>
@@ -10747,7 +10908,7 @@
         <v>88</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>47</v>
@@ -10781,7 +10942,7 @@
         <v>88</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>47</v>
@@ -10794,7 +10955,7 @@
         <v>啤酒(瓶)x1</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H54" s="6">
         <v>1</v>
@@ -10816,7 +10977,7 @@
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E55" s="12">
         <v>42471</v>
@@ -10847,7 +11008,7 @@
         <v>88</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>47</v>
@@ -10881,7 +11042,7 @@
         <v>88</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>47</v>
@@ -10894,7 +11055,7 @@
         <v>斯里兰卡上等红茶(杯)x1</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H57" s="6">
         <v>1</v>
@@ -10912,10 +11073,10 @@
     </row>
     <row r="58" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>8</v>
@@ -10948,13 +11109,13 @@
     </row>
     <row r="59" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E59" s="12">
         <v>42472</v>
@@ -10964,7 +11125,7 @@
         <v>啤酒(瓶)x1</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H59" s="6">
         <v>1</v>
@@ -10985,10 +11146,10 @@
         <v>65</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="12">
         <v>42472</v>
@@ -10998,7 +11159,7 @@
         <v>啤酒(瓶)x6</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H60" s="6">
         <v>6</v>
@@ -11016,10 +11177,10 @@
     </row>
     <row r="61" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>8</v>
@@ -11052,13 +11213,13 @@
     </row>
     <row r="62" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="12">
         <v>42473</v>
@@ -11089,7 +11250,7 @@
         <v>88</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>47</v>
@@ -11123,7 +11284,7 @@
         <v>88</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>47</v>
@@ -11157,7 +11318,7 @@
         <v>88</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>11</v>
@@ -11170,7 +11331,7 @@
         <v>斯里兰卡上等红茶(杯)x1</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H65" s="6">
         <v>1</v>
@@ -11191,10 +11352,10 @@
         <v>65</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E66" s="12">
         <v>42473</v>
@@ -11225,10 +11386,10 @@
         <v>65</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E67" s="12">
         <v>42473</v>
@@ -11238,7 +11399,7 @@
         <v>非洲腰果(袋)x1</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H67" s="6">
         <v>1</v>
@@ -11262,7 +11423,7 @@
         <v>80</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E68" s="12">
         <v>42473</v>
@@ -11293,7 +11454,7 @@
         <v>88</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>47</v>
@@ -11327,7 +11488,7 @@
         <v>88</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>47</v>
@@ -11340,7 +11501,7 @@
         <v>斯里兰卡上等红茶(杯)x1</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H70" s="6">
         <v>1</v>
@@ -11361,7 +11522,7 @@
         <v>88</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>47</v>
@@ -11374,7 +11535,7 @@
         <v>啤酒(瓶)x2</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H71" s="6">
         <v>2</v>
@@ -11395,7 +11556,7 @@
         <v>88</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>47</v>
@@ -11429,7 +11590,7 @@
         <v>88</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>47</v>
@@ -11442,7 +11603,7 @@
         <v>草莓酸奶(杯)x1</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H73" s="6">
         <v>1</v>
@@ -11460,10 +11621,10 @@
     </row>
     <row r="74" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>8</v>
@@ -11496,10 +11657,10 @@
     </row>
     <row r="75" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B75" s="20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>8</v>
@@ -11532,10 +11693,10 @@
     </row>
     <row r="76" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B76" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>8</v>
@@ -11568,13 +11729,13 @@
     </row>
     <row r="77" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B77" s="20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E77" s="12">
         <v>42473</v>
@@ -11602,13 +11763,13 @@
     </row>
     <row r="78" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B78" s="20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E78" s="12">
         <v>42473</v>
@@ -11618,7 +11779,7 @@
         <v>德国手工花果茶(杯)x1</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H78" s="22">
         <v>1</v>
@@ -11636,13 +11797,13 @@
     </row>
     <row r="79" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B79" s="20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E79" s="12">
         <v>42474</v>
@@ -11670,13 +11831,13 @@
     </row>
     <row r="80" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E80" s="12">
         <v>42474</v>
@@ -11686,7 +11847,7 @@
         <v>啤酒(瓶)x1</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H80" s="22">
         <v>1</v>
@@ -11710,7 +11871,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E81" s="12">
         <v>42474</v>
@@ -11744,7 +11905,7 @@
         <v>45</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E82" s="12">
         <v>42475</v>
@@ -11778,7 +11939,7 @@
         <v>45</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E83" s="12">
         <v>42475</v>
@@ -11788,7 +11949,7 @@
         <v>峨眉山明前绿茶(杯)x1</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H83" s="22">
         <v>1</v>
@@ -11812,7 +11973,7 @@
         <v>45</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E84" s="12">
         <v>42475</v>
@@ -11822,7 +11983,7 @@
         <v>混合腰果(袋)x1</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H84" s="22">
         <v>1</v>
@@ -11843,7 +12004,7 @@
         <v>88</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>47</v>
@@ -11877,7 +12038,7 @@
         <v>88</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>47</v>
@@ -11890,7 +12051,7 @@
         <v>草莓酸奶(杯)x1</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H86" s="22">
         <v>1</v>
@@ -11950,7 +12111,7 @@
         <v>161</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E88" s="12">
         <v>42475</v>
@@ -11981,10 +12142,10 @@
         <v>65</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E89" s="12">
         <v>42475</v>
@@ -12018,7 +12179,7 @@
         <v>80</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E90" s="12">
         <v>42475</v>
@@ -12049,10 +12210,10 @@
         <v>165</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E91" s="12">
         <v>42475</v>
@@ -12062,7 +12223,7 @@
         <v>啤酒(瓶)x3</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H91" s="22">
         <v>3</v>
@@ -12083,10 +12244,10 @@
         <v>87</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E92" s="12">
         <v>42475</v>
@@ -12096,7 +12257,7 @@
         <v>啤酒(瓶)x1</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H92" s="22">
         <v>1</v>
@@ -12120,7 +12281,7 @@
         <v>80</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E93" s="12">
         <v>42475</v>
@@ -12130,7 +12291,7 @@
         <v>啤酒(瓶)x4</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H93" s="22">
         <v>4</v>
@@ -12151,10 +12312,10 @@
         <v>87</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E94" s="12">
         <v>42475</v>
@@ -12164,7 +12325,7 @@
         <v>啤酒(瓶)x1</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H94" s="22">
         <v>1</v>
@@ -12185,7 +12346,7 @@
         <v>88</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>11</v>
@@ -12219,7 +12380,7 @@
         <v>88</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>11</v>
@@ -12232,7 +12393,7 @@
         <v>斯里兰卡上等红茶(杯)x1</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H96" s="6">
         <v>1</v>
@@ -12253,7 +12414,7 @@
         <v>88</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>11</v>
@@ -12266,7 +12427,7 @@
         <v>德国手工花果茶(杯)x1</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H97" s="6">
         <v>1</v>
@@ -12287,7 +12448,7 @@
         <v>88</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>11</v>
@@ -12300,7 +12461,7 @@
         <v>草莓酸奶(杯)x1</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H98" s="6">
         <v>1</v>
@@ -12324,7 +12485,7 @@
         <v>80</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E99" s="12">
         <v>42476</v>
@@ -12355,10 +12516,10 @@
         <v>36</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E100" s="12">
         <v>42476</v>
@@ -12368,7 +12529,7 @@
         <v>德国手工花果茶(杯)x1</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H100" s="6">
         <v>1</v>
@@ -12392,7 +12553,7 @@
         <v>45</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E101" s="12">
         <v>42476</v>
@@ -12402,7 +12563,7 @@
         <v>峨眉山明前绿茶(杯)x1</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H101" s="6">
         <v>1</v>
@@ -12420,13 +12581,13 @@
     </row>
     <row r="102" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E102" s="12">
         <v>42477</v>
@@ -12436,7 +12597,7 @@
         <v>峨眉山明前绿茶(杯)x1</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H102" s="6">
         <v>1</v>
@@ -12454,13 +12615,13 @@
     </row>
     <row r="103" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E103" s="12">
         <v>42477</v>
@@ -12470,7 +12631,7 @@
         <v>德国手工花果茶(杯)x1</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H103" s="6">
         <v>1</v>
@@ -12488,13 +12649,13 @@
     </row>
     <row r="104" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E104" s="12">
         <v>42477</v>
@@ -12522,13 +12683,13 @@
     </row>
     <row r="105" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E105" s="12">
         <v>42477</v>
@@ -12538,7 +12699,7 @@
         <v>德国手工花果茶(壶（3杯）)x1</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H105" s="6">
         <v>1</v>
@@ -12556,13 +12717,13 @@
     </row>
     <row r="106" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E106" s="12">
         <v>42477</v>
@@ -12593,10 +12754,10 @@
         <v>77</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E107" s="12">
         <v>42477</v>
@@ -12627,10 +12788,10 @@
         <v>77</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E108" s="12">
         <v>42477</v>
@@ -12674,7 +12835,7 @@
         <v>德国手工花果茶(壶（4杯）)x1</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H109" s="6">
         <v>1</v>
@@ -12708,7 +12869,7 @@
         <v>斯里兰卡上等红茶(杯)x1</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H110" s="6">
         <v>1</v>
@@ -12760,10 +12921,10 @@
     </row>
     <row r="112" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>216</v>
@@ -12794,10 +12955,10 @@
     </row>
     <row r="113" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>216</v>
@@ -12810,7 +12971,7 @@
         <v>峨眉山明前绿茶(杯)x1</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H113" s="6">
         <v>1</v>
@@ -12828,10 +12989,10 @@
     </row>
     <row r="114" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>216</v>
@@ -12862,10 +13023,10 @@
     </row>
     <row r="115" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>216</v>
@@ -12896,10 +13057,10 @@
     </row>
     <row r="116" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>216</v>
@@ -12930,10 +13091,10 @@
     </row>
     <row r="117" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>216</v>
@@ -12963,15 +13124,25 @@
       <c r="M117" s="16"/>
     </row>
     <row r="118" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B118" s="20"/>
-      <c r="C118" s="21"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="30"/>
+      <c r="B118" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E118" s="12">
+        <v>42479</v>
+      </c>
       <c r="F118" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>x1</v>
-      </c>
-      <c r="G118" s="5"/>
+        <v>热巧克力(杯)x1</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="H118" s="6">
         <v>1</v>
       </c>
@@ -12981,21 +13152,31 @@
       <c r="J118" s="22"/>
       <c r="K118" s="23">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D118="充值",J118,VLOOKUP(G118,表2[#All],4,FALSE)*H118*I118*-1))</f>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L118" s="22"/>
       <c r="M118" s="24"/>
     </row>
     <row r="119" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B119" s="15"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="12"/>
+      <c r="B119" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E119" s="12">
+        <v>42479</v>
+      </c>
       <c r="F119" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>x1</v>
-      </c>
-      <c r="G119" s="5"/>
+        <v>手冲拿铁(杯)x1</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="H119" s="6">
         <v>1</v>
       </c>
@@ -13005,21 +13186,31 @@
       <c r="J119" s="6"/>
       <c r="K119" s="5">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D119="充值",J119,VLOOKUP(G119,表2[#All],4,FALSE)*H119*I119*-1))</f>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L119" s="6"/>
       <c r="M119" s="16"/>
     </row>
     <row r="120" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B120" s="15"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="12"/>
+      <c r="B120" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E120" s="12">
+        <v>42479</v>
+      </c>
       <c r="F120" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>x1</v>
-      </c>
-      <c r="G120" s="5"/>
+        <v>手冲拿铁(杯)x1</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="H120" s="6">
         <v>1</v>
       </c>
@@ -13029,21 +13220,31 @@
       <c r="J120" s="6"/>
       <c r="K120" s="5">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D120="充值",J120,VLOOKUP(G120,表2[#All],4,FALSE)*H120*I120*-1))</f>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L120" s="6"/>
       <c r="M120" s="16"/>
     </row>
     <row r="121" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B121" s="15"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="12"/>
+      <c r="B121" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E121" s="12">
+        <v>42479</v>
+      </c>
       <c r="F121" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>x1</v>
-      </c>
-      <c r="G121" s="5"/>
+        <v>手冲拿铁(杯)x1</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="H121" s="6">
         <v>1</v>
       </c>
@@ -13053,21 +13254,31 @@
       <c r="J121" s="6"/>
       <c r="K121" s="5">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D121="充值",J121,VLOOKUP(G121,表2[#All],4,FALSE)*H121*I121*-1))</f>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L121" s="6"/>
       <c r="M121" s="16"/>
     </row>
     <row r="122" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B122" s="15"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="12"/>
+      <c r="B122" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E122" s="12">
+        <v>42479</v>
+      </c>
       <c r="F122" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>x1</v>
-      </c>
-      <c r="G122" s="5"/>
+        <v>高山古树普洱茶(杯)x1</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="H122" s="6">
         <v>1</v>
       </c>
@@ -13077,21 +13288,31 @@
       <c r="J122" s="6"/>
       <c r="K122" s="5">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D122="充值",J122,VLOOKUP(G122,表2[#All],4,FALSE)*H122*I122*-1))</f>
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="L122" s="6"/>
       <c r="M122" s="16"/>
     </row>
     <row r="123" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B123" s="15"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="12"/>
+      <c r="B123" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E123" s="12">
+        <v>42479</v>
+      </c>
       <c r="F123" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>x1</v>
-      </c>
-      <c r="G123" s="5"/>
+        <v>米果(袋)x1</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="H123" s="6">
         <v>1</v>
       </c>
@@ -13101,21 +13322,31 @@
       <c r="J123" s="6"/>
       <c r="K123" s="5">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D123="充值",J123,VLOOKUP(G123,表2[#All],4,FALSE)*H123*I123*-1))</f>
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="L123" s="6"/>
       <c r="M123" s="16"/>
     </row>
     <row r="124" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B124" s="15"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="12"/>
+      <c r="B124" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E124" s="12">
+        <v>42479</v>
+      </c>
       <c r="F124" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>x1</v>
-      </c>
-      <c r="G124" s="5"/>
+        <v>手冲拿铁(杯)x1</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="H124" s="6">
         <v>1</v>
       </c>
@@ -13125,7 +13356,7 @@
       <c r="J124" s="6"/>
       <c r="K124" s="5">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D124="充值",J124,VLOOKUP(G124,表2[#All],4,FALSE)*H124*I124*-1))</f>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L124" s="6"/>
       <c r="M124" s="16"/>
@@ -13308,7 +13539,7 @@
         <v>28</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
@@ -13373,7 +13604,7 @@
         <v>斯里兰卡上等红茶(杯)</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>14</v>
@@ -13625,7 +13856,7 @@
         <v>高山古树普洱茶(壶（2杯）)</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>14</v>
@@ -13634,7 +13865,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G14" s="37">
         <v>1</v>
@@ -13653,7 +13884,7 @@
         <v>高山古树普洱茶(壶（4杯）)</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>14</v>
@@ -13662,7 +13893,7 @@
         <v>80</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G15" s="37">
         <v>1</v>
@@ -13681,7 +13912,7 @@
         <v>高山古树普洱茶(杯)</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>14</v>
@@ -13709,7 +13940,7 @@
         <v>峨眉山明前绿茶(杯)</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>14</v>
@@ -13737,7 +13968,7 @@
         <v>德国手工花果茶(壶（4杯）)</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>14</v>
@@ -13746,7 +13977,7 @@
         <v>80</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="37">
         <v>1</v>
@@ -13765,7 +13996,7 @@
         <v>德国手工花果茶(壶（2杯）)</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>14</v>
@@ -13774,7 +14005,7 @@
         <v>50</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G19" s="37">
         <v>1</v>
@@ -13793,7 +14024,7 @@
         <v>德国手工花果茶(杯)</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D20" s="29" t="s">
         <v>14</v>
@@ -13849,7 +14080,7 @@
         <v>冰锐果酒(瓶)</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D22" s="29" t="s">
         <v>14</v>
@@ -13858,7 +14089,7 @@
         <v>18</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G22" s="37">
         <v>1</v>
@@ -13905,10 +14136,10 @@
         <v>草莓酸奶(杯)</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E24" s="26">
         <v>20</v>
@@ -13961,13 +14192,13 @@
         <v>166</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E26" s="29">
         <v>18</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G26" s="37">
         <v>1</v>
@@ -13986,16 +14217,16 @@
         <v>混合腰果(袋)</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E27" s="29">
         <v>35</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G27" s="37">
         <v>1</v>
@@ -14014,16 +14245,16 @@
         <v>非洲腰果(袋)</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E28" s="29">
         <v>30</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G28" s="37">
         <v>1</v>
@@ -14051,7 +14282,7 @@
         <v>20</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G29" s="37">
         <v>1</v>
@@ -14070,16 +14301,16 @@
         <v>斯里兰卡上等红茶(壶（4杯）)</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E30" s="29">
         <v>80</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G30" s="37">
         <v>1</v>
@@ -14098,16 +14329,16 @@
         <v>斯里兰卡上等红茶(壶（2杯）)</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E31" s="29">
         <v>50</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G31" s="37">
         <v>1</v>
@@ -14126,7 +14357,7 @@
         <v>德国手工花果茶(壶（3杯）)</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D32" s="29" t="s">
         <v>14</v>
@@ -14135,7 +14366,7 @@
         <v>70</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G32" s="37">
         <v>1</v>
@@ -14235,7 +14466,7 @@
         <v>45</v>
       </c>
       <c r="F36" s="43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G36" s="44">
         <v>1</v>
@@ -14273,15 +14504,15 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B4" s="33">
         <v>20</v>
@@ -14289,7 +14520,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" s="33">
         <v>20</v>
@@ -14297,7 +14528,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B6" s="33">
         <v>143</v>
@@ -14305,7 +14536,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B7" s="33">
         <v>30</v>
@@ -14313,7 +14544,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B8" s="33">
         <v>35</v>
@@ -14345,7 +14576,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B12" s="33">
         <v>0</v>
@@ -14361,7 +14592,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B14" s="33">
         <v>20</v>
@@ -14369,7 +14600,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" s="33">
         <v>20</v>
@@ -14377,7 +14608,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B16" s="33">
         <v>20</v>
@@ -14393,7 +14624,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B18" s="33">
         <v>1058</v>
@@ -14401,7 +14632,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B19" s="33">
         <v>18</v>
@@ -14417,7 +14648,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B21" s="33">
         <v>30</v>
@@ -14425,7 +14656,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B22" s="33">
         <v>50</v>
@@ -14433,7 +14664,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="36" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B23" s="33">
         <v>80</v>
@@ -14441,7 +14672,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B24" s="33">
         <v>30</v>
@@ -14449,7 +14680,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="36" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B25" s="33">
         <v>30</v>
@@ -14457,7 +14688,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B26" s="33">
         <v>50</v>
@@ -14529,7 +14760,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B35" s="33">
         <v>30</v>
@@ -14537,7 +14768,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B36" s="33">
         <v>50</v>
@@ -14545,7 +14776,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B37" s="33">
         <v>80</v>
@@ -14569,7 +14800,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B40" s="33">
         <v>80</v>
@@ -14577,7 +14808,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="36" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B41" s="33">
         <v>70</v>
@@ -14601,7 +14832,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B44" s="33">
         <v>1261</v>
@@ -14628,289 +14859,289 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A2" s="64" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="56"/>
+      <c r="A2" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="57"/>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A3" s="65" t="s">
-        <v>186</v>
-      </c>
-      <c r="B3" s="57" t="s">
+      <c r="A3" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="68">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+      <c r="A4" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="69">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+      <c r="A5" s="67" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="69">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+      <c r="A6" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="59"/>
+      <c r="C6" s="69">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+      <c r="A7" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+      <c r="A8" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="59"/>
+      <c r="C8" s="69">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+      <c r="A9" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="59"/>
+      <c r="C9" s="69">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+      <c r="A10" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="61"/>
+      <c r="C10" s="68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+      <c r="A11" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="61"/>
+      <c r="C11" s="68">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+      <c r="A12" s="66" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+      <c r="A13" s="66" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="68">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+      <c r="A14" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="61"/>
+      <c r="C14" s="68">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+      <c r="A15" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="61"/>
+      <c r="C15" s="68">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+      <c r="A16" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="61"/>
+      <c r="C16" s="68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+      <c r="A17" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="62"/>
+      <c r="C17" s="70"/>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+      <c r="A18" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="68">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+      <c r="A19" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" s="61"/>
+      <c r="C19" s="68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+      <c r="A20" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" s="62"/>
+      <c r="C20" s="70"/>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+      <c r="A21" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="68">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+      <c r="A22" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="61"/>
+      <c r="C22" s="68">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+      <c r="A23" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="61"/>
+      <c r="C23" s="68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+      <c r="A24" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24" s="61"/>
+      <c r="C24" s="68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+      <c r="A25" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="67">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A4" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="68">
+      <c r="B25" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" s="68">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+      <c r="A26" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="62"/>
+      <c r="C26" s="70"/>
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+      <c r="A27" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" s="68">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+      <c r="A28" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="56"/>
+      <c r="C28" s="70"/>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+      <c r="A29" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="63"/>
+      <c r="C29" s="68">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A5" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" s="68">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A6" s="66" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="68">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A7" s="65" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" s="67">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A8" s="66" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="68">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A9" s="66" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="68">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A10" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="67">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A11" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="67">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A12" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="B12" s="57" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" s="67">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A13" s="65" t="s">
-        <v>200</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>198</v>
-      </c>
-      <c r="C13" s="67">
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+      <c r="A30" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" s="63"/>
+      <c r="C30" s="68">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A14" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="67">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A15" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="67">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A16" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="67">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A17" s="64" t="s">
-        <v>172</v>
-      </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="69"/>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A18" s="65" t="s">
-        <v>191</v>
-      </c>
-      <c r="B18" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="C18" s="67">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A19" s="65" t="s">
-        <v>192</v>
-      </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="67">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A20" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="69"/>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A21" s="65" t="s">
-        <v>193</v>
-      </c>
-      <c r="B21" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="C21" s="67">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A22" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="67">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A23" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="67">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A24" s="65" t="s">
-        <v>194</v>
-      </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="67">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A25" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="B25" s="57" t="s">
-        <v>198</v>
-      </c>
-      <c r="C25" s="67">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A26" s="64" t="s">
-        <v>141</v>
-      </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="69"/>
-    </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A27" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="C27" s="67">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A28" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="69"/>
-    </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A29" s="65" t="s">
-        <v>137</v>
-      </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="67">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A30" s="65" t="s">
-        <v>157</v>
-      </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="67">
-        <v>35</v>
-      </c>
-    </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.45">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="67">
+      <c r="B31" s="64"/>
+      <c r="C31" s="68">
         <v>18</v>
       </c>
     </row>

--- a/文档/葡萄院儿会员日记.xlsx
+++ b/文档/葡萄院儿会员日记.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenxi/dev/ptye/文档/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="2" r:id="rId1"/>
@@ -20,9 +15,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="633" r:id="rId6"/>
-    <pivotCache cacheId="640" r:id="rId7"/>
-    <pivotCache cacheId="646" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="285">
   <si>
     <t>葡萄院儿The Vineyard会员日记</t>
     <rPh sb="0" eb="1">
@@ -761,10 +756,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>感谢光临葡萄院儿  the Vineyard！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蔚蓝</t>
     <rPh sb="0" eb="1">
       <t>wei lan</t>
@@ -1784,9 +1775,6 @@
     <t>手冲单品咖啡(杯)</t>
   </si>
   <si>
-    <t>罗宏</t>
-  </si>
-  <si>
     <t>喜爸客人</t>
     <rPh sb="0" eb="1">
       <t>xi ba</t>
@@ -1797,12 +1785,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张小容</t>
-  </si>
-  <si>
-    <t>薛丹</t>
-  </si>
-  <si>
     <t>皇上生日</t>
     <rPh sb="0" eb="1">
       <t>huang s</t>
@@ -1840,32 +1822,29 @@
   </si>
   <si>
     <t>杨玲</t>
+    <rPh sb="0" eb="1">
+      <t>yang ling</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都督妈妈</t>
+    <rPh sb="0" eb="1">
+      <t>du du</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ma ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>杨玲</t>
     <rPh sb="0" eb="1">
       <t>yang ling</t>
     </rPh>
-    <rPh sb="1" eb="2">
-      <t>ling</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>都督妈妈</t>
-    <rPh sb="0" eb="1">
-      <t>du du</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ma ma</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨玲</t>
-    <rPh sb="0" eb="1">
-      <t>yang ling</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1907,9 +1886,6 @@
   </si>
   <si>
     <t>阳光盛开</t>
-  </si>
-  <si>
-    <t>阳光盛开</t>
     <rPh sb="0" eb="1">
       <t>yang guang sheng kai</t>
     </rPh>
@@ -1923,9 +1899,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冯宇</t>
-  </si>
-  <si>
     <t>档爸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1934,24 +1907,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>骆文明</t>
-  </si>
-  <si>
     <t>胡锐</t>
   </si>
   <si>
     <t>儿童绘本演读专场(会员）(1大1小)x1</t>
+  </si>
+  <si>
+    <t>感谢光临葡萄院儿  the Vineyard！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2004,7 +1978,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="PingFang SC"/>
-      <charset val="136"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2034,7 +2008,8 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2136,6 +2111,22 @@
       <color theme="0"/>
       <name val="雅痞-简 常规体"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2328,7 +2319,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2364,7 +2355,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2385,7 +2376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2393,7 +2384,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2446,18 +2437,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2466,17 +2458,9 @@
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="145">
+  <dxfs count="44">
     <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     </dxf>
     <dxf>
       <font>
@@ -2514,435 +2498,7 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
+      <numFmt numFmtId="177" formatCode="0.0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -3544,7 +3100,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -3592,7 +3148,10 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </dxf>
     <dxf>
       <font>
@@ -3688,7 +3247,7 @@
     <cacheField name="单位" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="菜单版本号" numFmtId="176">
+    <cacheField name="菜单版本号" numFmtId="177">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
     </cacheField>
     <cacheField name="创建日期" numFmtId="0">
@@ -11016,7 +10575,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="640" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="Q10:R34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -11183,8 +10742,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="640" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H10:M52" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H10:M42" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
       <items count="34">
@@ -11268,7 +10827,7 @@
         <item sd="0" x="25"/>
         <item sd="0" x="26"/>
         <item sd="0" x="27"/>
-        <item x="28"/>
+        <item sd="0" x="28"/>
         <item t="default" sd="0"/>
       </items>
     </pivotField>
@@ -11367,7 +10926,7 @@
     <field x="0"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="41">
+  <rowItems count="31">
     <i>
       <x/>
     </i>
@@ -11458,36 +11017,6 @@
     <i>
       <x v="30"/>
     </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="26"/>
-    </i>
-    <i r="2">
-      <x v="55"/>
-    </i>
-    <i r="1">
-      <x v="28"/>
-    </i>
-    <i r="2">
-      <x v="55"/>
-    </i>
-    <i r="1">
-      <x v="32"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
@@ -11516,7 +11045,7 @@
     <dataField name="求和/汇总金额" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="143">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -11528,7 +11057,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="142">
+    <format dxfId="40">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -11537,7 +11066,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="141">
+    <format dxfId="39">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -11546,7 +11075,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="140">
+    <format dxfId="38">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -11555,7 +11084,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="139">
+    <format dxfId="37">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -11564,7 +11093,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="138">
+    <format dxfId="36">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -11573,7 +11102,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="137">
+    <format dxfId="35">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -11582,7 +11111,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="136">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
@@ -11600,7 +11129,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="会员汇总" cacheId="646" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" grandTotalCaption="余额" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="会员汇总" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" grandTotalCaption="余额" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B12:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -11824,10 +11353,10 @@
     <dataField name="消费明细" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="144">
+    <format dxfId="43">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -11847,7 +11376,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="633" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -12103,41 +11632,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:M232" totalsRowShown="0" headerRowDxfId="135" dataDxfId="133" headerRowBorderDxfId="134" tableBorderDxfId="132" totalsRowBorderDxfId="131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:M232" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29">
   <autoFilter ref="B2:M232"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="姓名" dataDxfId="130"/>
-    <tableColumn id="2" name="昵称" dataDxfId="129"/>
-    <tableColumn id="3" name="类型（充值／消费／其他）" dataDxfId="128"/>
-    <tableColumn id="4" name="日期" dataDxfId="127"/>
-    <tableColumn id="5" name="显示条目" dataDxfId="126"/>
-    <tableColumn id="6" name="产品" dataDxfId="125"/>
-    <tableColumn id="7" name="数量" dataDxfId="124"/>
-    <tableColumn id="8" name="DC" dataDxfId="123"/>
-    <tableColumn id="9" name="充值金额" dataDxfId="122"/>
-    <tableColumn id="10" name="汇总金额" dataDxfId="121">
+    <tableColumn id="1" name="姓名" dataDxfId="28"/>
+    <tableColumn id="2" name="昵称" dataDxfId="27"/>
+    <tableColumn id="3" name="类型（充值／消费／其他）" dataDxfId="26"/>
+    <tableColumn id="4" name="日期" dataDxfId="25"/>
+    <tableColumn id="5" name="显示条目" dataDxfId="24"/>
+    <tableColumn id="6" name="产品" dataDxfId="23"/>
+    <tableColumn id="7" name="数量" dataDxfId="22"/>
+    <tableColumn id="8" name="DC" dataDxfId="21"/>
+    <tableColumn id="9" name="充值金额" dataDxfId="20"/>
+    <tableColumn id="10" name="汇总金额" dataDxfId="19">
       <calculatedColumnFormula>IF(表1[[#This Row],[姓名]]="",0,IF(D3="充值",J3,VLOOKUP(G3,表2[#All],4,FALSE)*H3*I3*-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="签名" dataDxfId="120"/>
-    <tableColumn id="12" name="备注" dataDxfId="119"/>
+    <tableColumn id="11" name="签名" dataDxfId="18"/>
+    <tableColumn id="12" name="备注" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B2:H46" totalsRowShown="0" headerRowDxfId="118" headerRowBorderDxfId="117" tableBorderDxfId="116">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B2:H46" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="B2:H46"/>
   <sortState ref="B3:H35">
     <sortCondition descending="1" ref="D2:D35"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="描述" dataDxfId="115"/>
-    <tableColumn id="2" name="名称" dataDxfId="114"/>
-    <tableColumn id="3" name="类别" dataDxfId="113"/>
-    <tableColumn id="4" name="售价" dataDxfId="112"/>
-    <tableColumn id="5" name="单位" dataDxfId="111"/>
-    <tableColumn id="6" name="菜单版本号" dataDxfId="110"/>
+    <tableColumn id="1" name="描述" dataDxfId="13"/>
+    <tableColumn id="2" name="名称" dataDxfId="12"/>
+    <tableColumn id="3" name="类别" dataDxfId="11"/>
+    <tableColumn id="4" name="售价" dataDxfId="10"/>
+    <tableColumn id="5" name="单位" dataDxfId="9"/>
+    <tableColumn id="6" name="菜单版本号" dataDxfId="8"/>
     <tableColumn id="7" name="创建日期"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -12187,7 +11716,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12222,7 +11751,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12399,38 +11928,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:R42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="89" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.5" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" customWidth="1"/>
-    <col min="12" max="12" width="7.83203125" customWidth="1"/>
-    <col min="13" max="13" width="7.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="5" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" customWidth="1"/>
+    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="9" max="9" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="8.375" customWidth="1"/>
+    <col min="12" max="12" width="8.125" customWidth="1"/>
+    <col min="13" max="13" width="7.5" customWidth="1"/>
     <col min="14" max="14" width="6.5" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" customWidth="1"/>
-    <col min="17" max="17" width="22.33203125" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" customWidth="1"/>
+    <col min="15" max="15" width="6.625" customWidth="1"/>
+    <col min="17" max="17" width="22.375" customWidth="1"/>
+    <col min="18" max="18" width="10.875" customWidth="1"/>
     <col min="19" max="22" width="9.5" customWidth="1"/>
     <col min="23" max="23" width="10.5" customWidth="1"/>
     <col min="24" max="24" width="7.5" customWidth="1"/>
@@ -12460,43 +11989,52 @@
     <col min="53" max="53" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="53" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="2:18" ht="13" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:18" ht="53.1" customHeight="1"/>
+    <row r="3" spans="2:18" ht="12.95" customHeight="1">
       <c r="B3" s="27"/>
     </row>
-    <row r="4" spans="2:18" ht="24" x14ac:dyDescent="0.35">
-      <c r="B4" s="28" t="s">
+    <row r="4" spans="2:18" ht="22.5">
+      <c r="B4" s="70" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="2:18" ht="24" x14ac:dyDescent="0.35">
-      <c r="B5" s="28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="28" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" ht="11" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+    </row>
+    <row r="5" spans="2:18" ht="22.5">
+      <c r="B5" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+    </row>
+    <row r="6" spans="2:18" ht="24" customHeight="1">
+      <c r="B6" s="70" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+    </row>
+    <row r="7" spans="2:18" ht="11.1" customHeight="1">
       <c r="B7" s="28"/>
     </row>
-    <row r="8" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="67" t="s">
+    <row r="8" spans="2:18" ht="24.95" customHeight="1">
+      <c r="B8" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="67"/>
-    </row>
-    <row r="9" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="69"/>
+    </row>
+    <row r="9" spans="2:18" ht="12" customHeight="1">
       <c r="B9" s="27"/>
     </row>
-    <row r="10" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" ht="22.5">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>111</v>
@@ -12511,7 +12049,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:18">
       <c r="H11" s="33" t="s">
         <v>112</v>
       </c>
@@ -12537,7 +12075,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" ht="22.5">
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
         <v>2</v>
@@ -12561,7 +12099,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" ht="22.5">
       <c r="B13" s="34">
         <v>42481</v>
       </c>
@@ -12589,7 +12127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" ht="22.5">
       <c r="B14" s="34">
         <v>42497</v>
       </c>
@@ -12617,7 +12155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" ht="22.5">
       <c r="B15" s="34">
         <v>42498</v>
       </c>
@@ -12645,8 +12183,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B16" s="69" t="s">
+    <row r="16" spans="2:18" ht="22.5">
+      <c r="B16" s="67" t="s">
         <v>91</v>
       </c>
       <c r="C16" s="11">
@@ -12673,9 +12211,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B17" s="70" t="s">
-        <v>291</v>
+    <row r="17" spans="2:18" ht="22.5">
+      <c r="B17" s="68" t="s">
+        <v>283</v>
       </c>
       <c r="C17" s="11">
         <v>-100</v>
@@ -12702,7 +12240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" ht="22.5">
       <c r="B18" s="10" t="s">
         <v>53</v>
       </c>
@@ -12724,13 +12262,13 @@
         <v>-45</v>
       </c>
       <c r="Q18" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R18" s="32">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:18">
       <c r="F19" s="25"/>
       <c r="H19" s="38">
         <v>42472</v>
@@ -12749,13 +12287,13 @@
         <v>255</v>
       </c>
       <c r="Q19" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R19" s="32">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:18">
       <c r="G20" s="25"/>
       <c r="H20" s="38">
         <v>42473</v>
@@ -12781,7 +12319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:18">
       <c r="H21" s="38">
         <v>42474</v>
       </c>
@@ -12805,7 +12343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:18">
       <c r="H22" s="38">
         <v>42475</v>
       </c>
@@ -12823,13 +12361,13 @@
         <v>60</v>
       </c>
       <c r="Q22" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R22" s="32">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:18">
       <c r="H23" s="38">
         <v>42476</v>
       </c>
@@ -12853,7 +12391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:18">
       <c r="H24" s="38">
         <v>42477</v>
       </c>
@@ -12875,7 +12413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:18">
       <c r="H25" s="38">
         <v>42479</v>
       </c>
@@ -12889,13 +12427,13 @@
         <v>-173</v>
       </c>
       <c r="Q25" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R25" s="32">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:18">
       <c r="D26" s="25"/>
       <c r="H26" s="38">
         <v>42480</v>
@@ -12918,7 +12456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:18">
       <c r="H27" s="38">
         <v>42481</v>
       </c>
@@ -12938,7 +12476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:18">
       <c r="H28" s="38">
         <v>42482</v>
       </c>
@@ -12958,7 +12496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:18">
       <c r="H29" s="38">
         <v>42484</v>
       </c>
@@ -12980,7 +12518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:18">
       <c r="H30" s="38">
         <v>42486</v>
       </c>
@@ -12996,13 +12534,13 @@
         <v>-314</v>
       </c>
       <c r="Q30" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R30" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:18">
       <c r="H31" s="38">
         <v>42487</v>
       </c>
@@ -13018,13 +12556,13 @@
         <v>-625</v>
       </c>
       <c r="Q31" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R31" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:18">
       <c r="H32" s="38">
         <v>42488</v>
       </c>
@@ -13046,7 +12584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="8:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="8:18">
       <c r="H33" s="38">
         <v>42489</v>
       </c>
@@ -13062,13 +12600,13 @@
         <v>-815</v>
       </c>
       <c r="Q33" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R33" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="8:18">
       <c r="H34" s="66" t="s">
         <v>90</v>
       </c>
@@ -13088,7 +12626,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="35" spans="8:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="8:18">
       <c r="H35" s="38">
         <v>42491</v>
       </c>
@@ -13102,7 +12640,7 @@
         <v>-380</v>
       </c>
     </row>
-    <row r="36" spans="8:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="8:18">
       <c r="H36" s="38">
         <v>42492</v>
       </c>
@@ -13118,7 +12656,7 @@
         <v>-230</v>
       </c>
     </row>
-    <row r="37" spans="8:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="8:18">
       <c r="H37" s="38">
         <v>42493</v>
       </c>
@@ -13132,7 +12670,7 @@
         <v>-1600</v>
       </c>
     </row>
-    <row r="38" spans="8:18" x14ac:dyDescent="0.15">
+    <row r="38" spans="8:18">
       <c r="H38" s="38">
         <v>42495</v>
       </c>
@@ -13148,7 +12686,7 @@
         <v>-325</v>
       </c>
     </row>
-    <row r="39" spans="8:18" x14ac:dyDescent="0.15">
+    <row r="39" spans="8:18">
       <c r="H39" s="38">
         <v>42496</v>
       </c>
@@ -13164,7 +12702,7 @@
         <v>-105</v>
       </c>
     </row>
-    <row r="40" spans="8:18" x14ac:dyDescent="0.15">
+    <row r="40" spans="8:18">
       <c r="H40" s="38">
         <v>42497</v>
       </c>
@@ -13180,7 +12718,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="41" spans="8:18" x14ac:dyDescent="0.15">
+    <row r="41" spans="8:18">
       <c r="H41" s="38">
         <v>42498</v>
       </c>
@@ -13196,177 +12734,26 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="8:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="H42" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="I42" s="32"/>
+    <row r="42" spans="8:18">
+      <c r="H42" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I42" s="32">
+        <v>21000</v>
+      </c>
       <c r="J42" s="32">
-        <v>-100</v>
-      </c>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
+        <v>-6761</v>
+      </c>
+      <c r="K42" s="32">
+        <v>-5728</v>
+      </c>
+      <c r="L42" s="32">
+        <v>0</v>
+      </c>
       <c r="M42" s="32">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="43" spans="8:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="H43" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32">
-        <v>-100</v>
-      </c>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="44" spans="8:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="H44" s="35" t="s">
-        <v>289</v>
-      </c>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32">
-        <v>-100</v>
-      </c>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="45" spans="8:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="H45" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32">
-        <v>-50</v>
-      </c>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="46" spans="8:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="H46" s="35" t="s">
-        <v>268</v>
-      </c>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32">
-        <v>-100</v>
-      </c>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="47" spans="8:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="H47" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32">
-        <v>-100</v>
-      </c>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="48" spans="8:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="H48" s="68" t="s">
-        <v>291</v>
-      </c>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32">
-        <v>-100</v>
-      </c>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="32">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="49" spans="8:13" x14ac:dyDescent="0.15">
-      <c r="H49" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32">
-        <v>-100</v>
-      </c>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="50" spans="8:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="H50" s="68" t="s">
-        <v>291</v>
-      </c>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32">
-        <v>-100</v>
-      </c>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="51" spans="8:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="H51" s="35" t="s">
-        <v>283</v>
-      </c>
-      <c r="I51" s="32">
-        <v>1000</v>
-      </c>
-      <c r="J51" s="32">
-        <v>-136</v>
-      </c>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="52" spans="8:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="H52" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="I52" s="32">
-        <v>21000</v>
-      </c>
-      <c r="J52" s="32">
-        <v>-6761</v>
-      </c>
-      <c r="K52" s="32">
-        <v>-5728</v>
-      </c>
-      <c r="L52" s="32">
-        <v>0</v>
-      </c>
-      <c r="M52" s="32">
         <v>8511</v>
       </c>
     </row>
-    <row r="53" spans="8:13" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="8:13" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="8:13" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="8:13" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="8:13" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="8:13" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="8:13" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="8:13" ht="24" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="8:13" ht="24" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B8:C8"/>
@@ -13378,28 +12765,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="109" workbookViewId="0">
+    <sheetView topLeftCell="A169" zoomScale="109" workbookViewId="0">
       <selection activeCell="F236" sqref="F236"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" customWidth="1"/>
-    <col min="7" max="7" width="33.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
+    <col min="7" max="7" width="33.625" customWidth="1"/>
+    <col min="8" max="8" width="11.125" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="46" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:13" ht="45.95" customHeight="1">
       <c r="C1" s="7"/>
       <c r="D1" s="7" t="s">
         <v>0</v>
@@ -13412,7 +12799,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="2:13" ht="37" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:13" ht="36.950000000000003" customHeight="1">
       <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
@@ -13450,7 +12837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" ht="33.950000000000003" customHeight="1">
       <c r="B3" s="14" t="s">
         <v>43</v>
       </c>
@@ -13486,7 +12873,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="16"/>
     </row>
-    <row r="4" spans="2:13" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" ht="23.1" customHeight="1">
       <c r="B4" s="14" t="s">
         <v>31</v>
       </c>
@@ -13522,7 +12909,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="16"/>
     </row>
-    <row r="5" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" ht="19.5">
       <c r="B5" s="14" t="s">
         <v>65</v>
       </c>
@@ -13558,7 +12945,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="16"/>
     </row>
-    <row r="6" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" ht="19.5">
       <c r="B6" s="15" t="s">
         <v>32</v>
       </c>
@@ -13594,7 +12981,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="16"/>
     </row>
-    <row r="7" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" ht="19.5">
       <c r="B7" s="14" t="s">
         <v>35</v>
       </c>
@@ -13630,7 +13017,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="16"/>
     </row>
-    <row r="8" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" ht="19.5">
       <c r="B8" s="15" t="s">
         <v>36</v>
       </c>
@@ -13666,7 +13053,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="16"/>
     </row>
-    <row r="9" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" ht="19.5">
       <c r="B9" s="15" t="s">
         <v>27</v>
       </c>
@@ -13703,9 +13090,9 @@
       <c r="L9" s="6"/>
       <c r="M9" s="16"/>
     </row>
-    <row r="10" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" ht="19.5">
       <c r="B10" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>38</v>
@@ -13739,9 +13126,9 @@
       <c r="L10" s="6"/>
       <c r="M10" s="16"/>
     </row>
-    <row r="11" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" ht="19.5">
       <c r="B11" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>40</v>
@@ -13775,7 +13162,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="16"/>
     </row>
-    <row r="12" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" ht="19.5">
       <c r="B12" s="15" t="s">
         <v>57</v>
       </c>
@@ -13811,7 +13198,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="16"/>
     </row>
-    <row r="13" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13" ht="19.5">
       <c r="B13" s="14" t="s">
         <v>65</v>
       </c>
@@ -13845,7 +13232,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="16"/>
     </row>
-    <row r="14" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" ht="19.5">
       <c r="B14" s="14" t="s">
         <v>43</v>
       </c>
@@ -13879,7 +13266,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="16"/>
     </row>
-    <row r="15" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:13" ht="19.5">
       <c r="B15" s="14" t="s">
         <v>43</v>
       </c>
@@ -13913,7 +13300,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="16"/>
     </row>
-    <row r="16" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:13" ht="19.5">
       <c r="B16" s="15" t="s">
         <v>57</v>
       </c>
@@ -13947,7 +13334,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="16"/>
     </row>
-    <row r="17" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" ht="19.5">
       <c r="B17" s="15" t="s">
         <v>57</v>
       </c>
@@ -13981,7 +13368,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="16"/>
     </row>
-    <row r="18" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13" ht="19.5">
       <c r="B18" s="15" t="s">
         <v>57</v>
       </c>
@@ -14015,7 +13402,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="16"/>
     </row>
-    <row r="19" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:13" ht="19.5">
       <c r="B19" s="15" t="s">
         <v>57</v>
       </c>
@@ -14049,7 +13436,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="16"/>
     </row>
-    <row r="20" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:13" ht="19.5">
       <c r="B20" s="14" t="s">
         <v>31</v>
       </c>
@@ -14083,7 +13470,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="16"/>
     </row>
-    <row r="21" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:13" ht="19.5">
       <c r="B21" s="14" t="s">
         <v>31</v>
       </c>
@@ -14115,7 +13502,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="16"/>
     </row>
-    <row r="22" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:13" ht="19.5">
       <c r="B22" s="14" t="s">
         <v>31</v>
       </c>
@@ -14147,7 +13534,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="16"/>
     </row>
-    <row r="23" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" ht="19.5">
       <c r="B23" s="14" t="s">
         <v>65</v>
       </c>
@@ -14179,7 +13566,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="16"/>
     </row>
-    <row r="24" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:13" ht="19.5">
       <c r="B24" s="14" t="s">
         <v>67</v>
       </c>
@@ -14211,7 +13598,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="16"/>
     </row>
-    <row r="25" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:13" ht="19.5">
       <c r="B25" s="14" t="s">
         <v>67</v>
       </c>
@@ -14243,7 +13630,7 @@
       <c r="L25" s="6"/>
       <c r="M25" s="16"/>
     </row>
-    <row r="26" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:13" ht="19.5">
       <c r="B26" s="15" t="s">
         <v>57</v>
       </c>
@@ -14275,7 +13662,7 @@
       <c r="L26" s="6"/>
       <c r="M26" s="16"/>
     </row>
-    <row r="27" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" ht="18.75">
       <c r="B27" s="15" t="s">
         <v>88</v>
       </c>
@@ -14309,7 +13696,7 @@
       <c r="L27" s="6"/>
       <c r="M27" s="16"/>
     </row>
-    <row r="28" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:13" ht="19.5">
       <c r="B28" s="14" t="s">
         <v>35</v>
       </c>
@@ -14343,7 +13730,7 @@
       <c r="L28" s="6"/>
       <c r="M28" s="16"/>
     </row>
-    <row r="29" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:13" ht="19.5">
       <c r="B29" s="14" t="s">
         <v>75</v>
       </c>
@@ -14377,7 +13764,7 @@
       <c r="L29" s="6"/>
       <c r="M29" s="16"/>
     </row>
-    <row r="30" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:13" ht="19.5">
       <c r="B30" s="15" t="s">
         <v>77</v>
       </c>
@@ -14411,7 +13798,7 @@
       <c r="L30" s="6"/>
       <c r="M30" s="16"/>
     </row>
-    <row r="31" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:13" ht="19.5">
       <c r="B31" s="15" t="s">
         <v>79</v>
       </c>
@@ -14445,7 +13832,7 @@
       <c r="L31" s="6"/>
       <c r="M31" s="16"/>
     </row>
-    <row r="32" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:13" ht="19.5">
       <c r="B32" s="15" t="s">
         <v>81</v>
       </c>
@@ -14479,7 +13866,7 @@
       <c r="L32" s="6"/>
       <c r="M32" s="16"/>
     </row>
-    <row r="33" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:13" ht="19.5">
       <c r="B33" s="15" t="s">
         <v>83</v>
       </c>
@@ -14513,7 +13900,7 @@
       <c r="L33" s="6"/>
       <c r="M33" s="16"/>
     </row>
-    <row r="34" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:13" ht="19.5">
       <c r="B34" s="15" t="s">
         <v>85</v>
       </c>
@@ -14547,7 +13934,7 @@
       <c r="L34" s="6"/>
       <c r="M34" s="16"/>
     </row>
-    <row r="35" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" ht="18.75">
       <c r="B35" s="15" t="s">
         <v>85</v>
       </c>
@@ -14581,7 +13968,7 @@
       <c r="L35" s="22"/>
       <c r="M35" s="24"/>
     </row>
-    <row r="36" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:13" ht="19.5">
       <c r="B36" s="15" t="s">
         <v>87</v>
       </c>
@@ -14615,7 +14002,7 @@
       <c r="L36" s="6"/>
       <c r="M36" s="16"/>
     </row>
-    <row r="37" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:13" ht="19.5">
       <c r="B37" s="15" t="s">
         <v>81</v>
       </c>
@@ -14649,7 +14036,7 @@
       <c r="L37" s="6"/>
       <c r="M37" s="16"/>
     </row>
-    <row r="38" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:13" ht="19.5">
       <c r="B38" s="15" t="s">
         <v>88</v>
       </c>
@@ -14683,7 +14070,7 @@
       <c r="L38" s="6"/>
       <c r="M38" s="16"/>
     </row>
-    <row r="39" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:13" ht="19.5">
       <c r="B39" s="15" t="s">
         <v>88</v>
       </c>
@@ -14717,7 +14104,7 @@
       <c r="L39" s="6"/>
       <c r="M39" s="16"/>
     </row>
-    <row r="40" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:13" ht="19.5">
       <c r="B40" s="15" t="s">
         <v>88</v>
       </c>
@@ -14751,7 +14138,7 @@
       <c r="L40" s="6"/>
       <c r="M40" s="16"/>
     </row>
-    <row r="41" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:13" ht="19.5">
       <c r="B41" s="15" t="s">
         <v>87</v>
       </c>
@@ -14783,7 +14170,7 @@
       <c r="L41" s="6"/>
       <c r="M41" s="16"/>
     </row>
-    <row r="42" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:13" ht="19.5">
       <c r="B42" s="15" t="s">
         <v>87</v>
       </c>
@@ -14815,9 +14202,9 @@
       <c r="L42" s="6"/>
       <c r="M42" s="16"/>
     </row>
-    <row r="43" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:13" ht="19.5">
       <c r="B43" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="6" t="s">
@@ -14847,7 +14234,7 @@
       <c r="L43" s="6"/>
       <c r="M43" s="16"/>
     </row>
-    <row r="44" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:13" ht="19.5">
       <c r="B44" s="15" t="s">
         <v>87</v>
       </c>
@@ -14881,7 +14268,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:13" ht="19.5">
       <c r="B45" s="15" t="s">
         <v>88</v>
       </c>
@@ -14915,7 +14302,7 @@
       <c r="L45" s="6"/>
       <c r="M45" s="16"/>
     </row>
-    <row r="46" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:13" ht="19.5">
       <c r="B46" s="4" t="s">
         <v>94</v>
       </c>
@@ -14949,7 +14336,7 @@
       <c r="L46" s="6"/>
       <c r="M46" s="16"/>
     </row>
-    <row r="47" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:13" ht="19.5">
       <c r="B47" s="4" t="s">
         <v>94</v>
       </c>
@@ -14985,7 +14372,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:13" ht="19.5">
       <c r="B48" s="15" t="s">
         <v>108</v>
       </c>
@@ -15018,7 +14405,7 @@
       <c r="L48" s="6"/>
       <c r="M48" s="16"/>
     </row>
-    <row r="49" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:13" ht="19.5">
       <c r="B49" s="15" t="s">
         <v>107</v>
       </c>
@@ -15051,7 +14438,7 @@
       <c r="L49" s="6"/>
       <c r="M49" s="16"/>
     </row>
-    <row r="50" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:13" ht="19.5">
       <c r="B50" s="15" t="s">
         <v>107</v>
       </c>
@@ -15085,7 +14472,7 @@
       <c r="L50" s="6"/>
       <c r="M50" s="16"/>
     </row>
-    <row r="51" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:13" ht="19.5">
       <c r="B51" s="15" t="s">
         <v>79</v>
       </c>
@@ -15119,7 +14506,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:13" ht="19.5">
       <c r="B52" s="15" t="s">
         <v>88</v>
       </c>
@@ -15153,7 +14540,7 @@
       <c r="L52" s="6"/>
       <c r="M52" s="16"/>
     </row>
-    <row r="53" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:13" ht="19.5">
       <c r="B53" s="15" t="s">
         <v>88</v>
       </c>
@@ -15187,12 +14574,12 @@
       <c r="L53" s="6"/>
       <c r="M53" s="16"/>
     </row>
-    <row r="54" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:13" ht="19.5">
       <c r="B54" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>47</v>
@@ -15221,7 +14608,7 @@
       <c r="L54" s="6"/>
       <c r="M54" s="16"/>
     </row>
-    <row r="55" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:13" ht="19.5">
       <c r="B55" s="20" t="s">
         <v>79</v>
       </c>
@@ -15253,12 +14640,12 @@
       <c r="L55" s="22"/>
       <c r="M55" s="24"/>
     </row>
-    <row r="56" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:13" ht="19.5">
       <c r="B56" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>47</v>
@@ -15287,12 +14674,12 @@
       <c r="L56" s="6"/>
       <c r="M56" s="16"/>
     </row>
-    <row r="57" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:13" ht="19.5">
       <c r="B57" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>47</v>
@@ -15305,7 +14692,7 @@
         <v>斯里兰卡上等红茶(杯)x1</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H57" s="6">
         <v>1</v>
@@ -15321,12 +14708,12 @@
       <c r="L57" s="6"/>
       <c r="M57" s="16"/>
     </row>
-    <row r="58" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:13" ht="19.5">
       <c r="B58" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>8</v>
@@ -15357,12 +14744,12 @@
       <c r="L58" s="6"/>
       <c r="M58" s="16"/>
     </row>
-    <row r="59" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:13" ht="19.5">
       <c r="B59" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>92</v>
@@ -15391,12 +14778,12 @@
       <c r="L59" s="6"/>
       <c r="M59" s="16"/>
     </row>
-    <row r="60" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:13" ht="19.5">
       <c r="B60" s="15" t="s">
         <v>65</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>91</v>
@@ -15425,12 +14812,12 @@
       <c r="L60" s="6"/>
       <c r="M60" s="16"/>
     </row>
-    <row r="61" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:13" ht="19.5">
       <c r="B61" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>8</v>
@@ -15461,12 +14848,12 @@
       <c r="L61" s="6"/>
       <c r="M61" s="16"/>
     </row>
-    <row r="62" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:13" ht="19.5">
       <c r="B62" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>91</v>
@@ -15495,12 +14882,12 @@
       <c r="L62" s="6"/>
       <c r="M62" s="16"/>
     </row>
-    <row r="63" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:13" ht="19.5">
       <c r="B63" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>47</v>
@@ -15529,12 +14916,12 @@
       <c r="L63" s="6"/>
       <c r="M63" s="16"/>
     </row>
-    <row r="64" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:13" ht="19.5">
       <c r="B64" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>47</v>
@@ -15563,12 +14950,12 @@
       <c r="L64" s="6"/>
       <c r="M64" s="16"/>
     </row>
-    <row r="65" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:13" ht="19.5">
       <c r="B65" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>11</v>
@@ -15581,7 +14968,7 @@
         <v>斯里兰卡上等红茶(杯)x1</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H65" s="6">
         <v>1</v>
@@ -15597,12 +14984,12 @@
       <c r="L65" s="6"/>
       <c r="M65" s="16"/>
     </row>
-    <row r="66" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:13" ht="19.5">
       <c r="B66" s="15" t="s">
         <v>65</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>92</v>
@@ -15631,12 +15018,12 @@
       <c r="L66" s="6"/>
       <c r="M66" s="16"/>
     </row>
-    <row r="67" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:13" ht="19.5">
       <c r="B67" s="15" t="s">
         <v>65</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>92</v>
@@ -15649,7 +15036,7 @@
         <v>非洲腰果(袋)x1</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H67" s="6">
         <v>1</v>
@@ -15665,7 +15052,7 @@
       <c r="L67" s="6"/>
       <c r="M67" s="16"/>
     </row>
-    <row r="68" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:13" ht="19.5">
       <c r="B68" s="15" t="s">
         <v>79</v>
       </c>
@@ -15699,12 +15086,12 @@
       <c r="L68" s="6"/>
       <c r="M68" s="16"/>
     </row>
-    <row r="69" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:13" ht="19.5">
       <c r="B69" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>47</v>
@@ -15733,12 +15120,12 @@
       <c r="L69" s="6"/>
       <c r="M69" s="16"/>
     </row>
-    <row r="70" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:13" ht="19.5">
       <c r="B70" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>47</v>
@@ -15751,7 +15138,7 @@
         <v>斯里兰卡上等红茶(杯)x1</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H70" s="6">
         <v>1</v>
@@ -15767,12 +15154,12 @@
       <c r="L70" s="6"/>
       <c r="M70" s="16"/>
     </row>
-    <row r="71" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:13" ht="19.5">
       <c r="B71" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>47</v>
@@ -15801,12 +15188,12 @@
       <c r="L71" s="6"/>
       <c r="M71" s="16"/>
     </row>
-    <row r="72" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:13" ht="19.5">
       <c r="B72" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>47</v>
@@ -15835,12 +15222,12 @@
       <c r="L72" s="6"/>
       <c r="M72" s="16"/>
     </row>
-    <row r="73" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:13" ht="19.5">
       <c r="B73" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>47</v>
@@ -15853,7 +15240,7 @@
         <v>草莓酸奶(杯)x1</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H73" s="6">
         <v>1</v>
@@ -15869,12 +15256,12 @@
       <c r="L73" s="6"/>
       <c r="M73" s="16"/>
     </row>
-    <row r="74" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:13" ht="19.5">
       <c r="B74" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>8</v>
@@ -15905,12 +15292,12 @@
       <c r="L74" s="6"/>
       <c r="M74" s="16"/>
     </row>
-    <row r="75" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:13" ht="19.5">
       <c r="B75" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" s="21" t="s">
         <v>145</v>
-      </c>
-      <c r="C75" s="21" t="s">
-        <v>146</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>8</v>
@@ -15941,12 +15328,12 @@
       <c r="L75" s="22"/>
       <c r="M75" s="24"/>
     </row>
-    <row r="76" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:13" ht="19.5">
       <c r="B76" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" s="21" t="s">
         <v>147</v>
-      </c>
-      <c r="C76" s="21" t="s">
-        <v>148</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>8</v>
@@ -15977,12 +15364,12 @@
       <c r="L76" s="22"/>
       <c r="M76" s="24"/>
     </row>
-    <row r="77" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:13" ht="19.5">
       <c r="B77" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>92</v>
@@ -16011,12 +15398,12 @@
       <c r="L77" s="22"/>
       <c r="M77" s="24"/>
     </row>
-    <row r="78" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:13" ht="19.5">
       <c r="B78" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D78" s="22" t="s">
         <v>92</v>
@@ -16029,7 +15416,7 @@
         <v>德国手工花果茶(杯)x1</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H78" s="22">
         <v>1</v>
@@ -16045,12 +15432,12 @@
       <c r="L78" s="22"/>
       <c r="M78" s="24"/>
     </row>
-    <row r="79" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:13" ht="19.5">
       <c r="B79" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C79" s="21" t="s">
         <v>145</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>146</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>92</v>
@@ -16079,12 +15466,12 @@
       <c r="L79" s="6"/>
       <c r="M79" s="16"/>
     </row>
-    <row r="80" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:13" ht="19.5">
       <c r="B80" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>92</v>
@@ -16113,7 +15500,7 @@
       <c r="L80" s="6"/>
       <c r="M80" s="16"/>
     </row>
-    <row r="81" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:13" ht="19.5">
       <c r="B81" s="15" t="s">
         <v>79</v>
       </c>
@@ -16147,7 +15534,7 @@
       <c r="L81" s="6"/>
       <c r="M81" s="16"/>
     </row>
-    <row r="82" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:13" ht="19.5">
       <c r="B82" s="15" t="s">
         <v>36</v>
       </c>
@@ -16181,7 +15568,7 @@
       <c r="L82" s="6"/>
       <c r="M82" s="16"/>
     </row>
-    <row r="83" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:13" ht="19.5">
       <c r="B83" s="15" t="s">
         <v>36</v>
       </c>
@@ -16199,7 +15586,7 @@
         <v>峨眉山明前绿茶(杯)x1</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H83" s="22">
         <v>1</v>
@@ -16215,7 +15602,7 @@
       <c r="L83" s="6"/>
       <c r="M83" s="16"/>
     </row>
-    <row r="84" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:13" ht="19.5">
       <c r="B84" s="15" t="s">
         <v>36</v>
       </c>
@@ -16233,7 +15620,7 @@
         <v>混合腰果(袋)x1</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H84" s="22">
         <v>1</v>
@@ -16249,12 +15636,12 @@
       <c r="L84" s="6"/>
       <c r="M84" s="16"/>
     </row>
-    <row r="85" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:13" ht="19.5">
       <c r="B85" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>47</v>
@@ -16283,12 +15670,12 @@
       <c r="L85" s="6"/>
       <c r="M85" s="16"/>
     </row>
-    <row r="86" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:13" ht="19.5">
       <c r="B86" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>47</v>
@@ -16301,7 +15688,7 @@
         <v>草莓酸奶(杯)x1</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H86" s="22">
         <v>1</v>
@@ -16317,12 +15704,12 @@
       <c r="L86" s="6"/>
       <c r="M86" s="16"/>
     </row>
-    <row r="87" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:13" ht="19.5">
       <c r="B87" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>26</v>
@@ -16353,12 +15740,12 @@
       <c r="L87" s="6"/>
       <c r="M87" s="16"/>
     </row>
-    <row r="88" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:13" ht="19.5">
       <c r="B88" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>92</v>
@@ -16387,12 +15774,12 @@
       <c r="L88" s="6"/>
       <c r="M88" s="16"/>
     </row>
-    <row r="89" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:13" ht="19.5">
       <c r="B89" s="15" t="s">
         <v>65</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>92</v>
@@ -16421,7 +15808,7 @@
       <c r="L89" s="6"/>
       <c r="M89" s="16"/>
     </row>
-    <row r="90" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:13" ht="19.5">
       <c r="B90" s="15" t="s">
         <v>79</v>
       </c>
@@ -16455,12 +15842,12 @@
       <c r="L90" s="6"/>
       <c r="M90" s="16"/>
     </row>
-    <row r="91" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:13" ht="19.5">
       <c r="B91" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>92</v>
@@ -16489,12 +15876,12 @@
       <c r="L91" s="6"/>
       <c r="M91" s="16"/>
     </row>
-    <row r="92" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:13" ht="19.5">
       <c r="B92" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>92</v>
@@ -16523,7 +15910,7 @@
       <c r="L92" s="6"/>
       <c r="M92" s="16"/>
     </row>
-    <row r="93" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:13" ht="19.5">
       <c r="B93" s="15" t="s">
         <v>79</v>
       </c>
@@ -16557,12 +15944,12 @@
       <c r="L93" s="6"/>
       <c r="M93" s="16"/>
     </row>
-    <row r="94" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:13" ht="19.5">
       <c r="B94" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>92</v>
@@ -16591,12 +15978,12 @@
       <c r="L94" s="22"/>
       <c r="M94" s="24"/>
     </row>
-    <row r="95" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:13" ht="18.75">
       <c r="B95" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>11</v>
@@ -16625,12 +16012,12 @@
       <c r="L95" s="6"/>
       <c r="M95" s="16"/>
     </row>
-    <row r="96" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:13" ht="18.75">
       <c r="B96" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>11</v>
@@ -16643,7 +16030,7 @@
         <v>斯里兰卡上等红茶(杯)x1</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H96" s="6">
         <v>1</v>
@@ -16659,12 +16046,12 @@
       <c r="L96" s="6"/>
       <c r="M96" s="16"/>
     </row>
-    <row r="97" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:13" ht="18.75">
       <c r="B97" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>11</v>
@@ -16677,7 +16064,7 @@
         <v>德国手工花果茶(杯)x1</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H97" s="6">
         <v>1</v>
@@ -16693,12 +16080,12 @@
       <c r="L97" s="6"/>
       <c r="M97" s="16"/>
     </row>
-    <row r="98" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:13" ht="18.75">
       <c r="B98" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>11</v>
@@ -16711,7 +16098,7 @@
         <v>草莓酸奶(杯)x1</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H98" s="6">
         <v>1</v>
@@ -16727,7 +16114,7 @@
       <c r="L98" s="6"/>
       <c r="M98" s="16"/>
     </row>
-    <row r="99" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:13" ht="19.5">
       <c r="B99" s="15" t="s">
         <v>72</v>
       </c>
@@ -16758,7 +16145,7 @@
       <c r="L99" s="6"/>
       <c r="M99" s="16"/>
     </row>
-    <row r="100" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:13" ht="19.5">
       <c r="B100" s="15" t="s">
         <v>79</v>
       </c>
@@ -16792,15 +16179,15 @@
       <c r="L100" s="6"/>
       <c r="M100" s="16"/>
     </row>
-    <row r="101" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:13" ht="19.5">
       <c r="B101" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C101" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="E101" s="12">
         <v>42476</v>
@@ -16810,7 +16197,7 @@
         <v>德国手工花果茶(杯)x1</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H101" s="6">
         <v>1</v>
@@ -16826,7 +16213,7 @@
       <c r="L101" s="6"/>
       <c r="M101" s="16"/>
     </row>
-    <row r="102" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:13" ht="19.5">
       <c r="B102" s="15" t="s">
         <v>36</v>
       </c>
@@ -16844,7 +16231,7 @@
         <v>峨眉山明前绿茶(杯)x1</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H102" s="6">
         <v>1</v>
@@ -16860,12 +16247,12 @@
       <c r="L102" s="6"/>
       <c r="M102" s="16"/>
     </row>
-    <row r="103" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:13" ht="19.5">
       <c r="B103" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>92</v>
@@ -16878,7 +16265,7 @@
         <v>峨眉山明前绿茶(杯)x1</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H103" s="6">
         <v>1</v>
@@ -16894,12 +16281,12 @@
       <c r="L103" s="6"/>
       <c r="M103" s="16"/>
     </row>
-    <row r="104" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:13" ht="19.5">
       <c r="B104" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>92</v>
@@ -16912,7 +16299,7 @@
         <v>德国手工花果茶(杯)x1</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H104" s="6">
         <v>1</v>
@@ -16928,12 +16315,12 @@
       <c r="L104" s="6"/>
       <c r="M104" s="16"/>
     </row>
-    <row r="105" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:13" ht="19.5">
       <c r="B105" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>92</v>
@@ -16962,12 +16349,12 @@
       <c r="L105" s="6"/>
       <c r="M105" s="16"/>
     </row>
-    <row r="106" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:13" ht="19.5">
       <c r="B106" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>92</v>
@@ -16980,7 +16367,7 @@
         <v>德国手工花果茶(壶（3杯）)x1</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H106" s="6">
         <v>1</v>
@@ -16996,12 +16383,12 @@
       <c r="L106" s="6"/>
       <c r="M106" s="16"/>
     </row>
-    <row r="107" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:13" ht="19.5">
       <c r="B107" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>92</v>
@@ -17030,12 +16417,12 @@
       <c r="L107" s="6"/>
       <c r="M107" s="16"/>
     </row>
-    <row r="108" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:13" ht="19.5">
       <c r="B108" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>92</v>
@@ -17048,7 +16435,7 @@
         <v>榻榻米茶位费(人)x1</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H108" s="6">
         <v>1</v>
@@ -17064,12 +16451,12 @@
       <c r="L108" s="6"/>
       <c r="M108" s="16"/>
     </row>
-    <row r="109" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:13" ht="19.5">
       <c r="B109" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>92</v>
@@ -17098,15 +16485,15 @@
       <c r="L109" s="6"/>
       <c r="M109" s="16"/>
     </row>
-    <row r="110" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:13" ht="19.5">
       <c r="B110" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E110" s="12">
         <v>42477</v>
@@ -17116,7 +16503,7 @@
         <v>德国手工花果茶(壶（4杯）)x1</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H110" s="6">
         <v>1</v>
@@ -17132,15 +16519,15 @@
       <c r="L110" s="6"/>
       <c r="M110" s="16"/>
     </row>
-    <row r="111" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:13" ht="19.5">
       <c r="B111" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E111" s="12">
         <v>42477</v>
@@ -17150,7 +16537,7 @@
         <v>斯里兰卡上等红茶(杯)x1</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H111" s="6">
         <v>1</v>
@@ -17166,15 +16553,15 @@
       <c r="L111" s="6"/>
       <c r="M111" s="16"/>
     </row>
-    <row r="112" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:13" ht="19.5">
       <c r="B112" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E112" s="12">
         <v>42477</v>
@@ -17200,15 +16587,15 @@
       <c r="L112" s="6"/>
       <c r="M112" s="16"/>
     </row>
-    <row r="113" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:13" ht="19.5">
       <c r="B113" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>222</v>
-      </c>
       <c r="D113" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E113" s="12">
         <v>42477</v>
@@ -17234,15 +16621,15 @@
       <c r="L113" s="6"/>
       <c r="M113" s="16"/>
     </row>
-    <row r="114" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:13" ht="19.5">
       <c r="B114" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>222</v>
-      </c>
       <c r="D114" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E114" s="12">
         <v>42477</v>
@@ -17252,7 +16639,7 @@
         <v>峨眉山明前绿茶(杯)x1</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H114" s="6">
         <v>1</v>
@@ -17268,15 +16655,15 @@
       <c r="L114" s="6"/>
       <c r="M114" s="16"/>
     </row>
-    <row r="115" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:13" ht="19.5">
       <c r="B115" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>222</v>
-      </c>
       <c r="D115" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E115" s="12">
         <v>42477</v>
@@ -17286,7 +16673,7 @@
         <v>英式奶茶(杯)x1</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H115" s="6">
         <v>1</v>
@@ -17302,15 +16689,15 @@
       <c r="L115" s="6"/>
       <c r="M115" s="16"/>
     </row>
-    <row r="116" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:13" ht="19.5">
       <c r="B116" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C116" s="4" t="s">
-        <v>222</v>
-      </c>
       <c r="D116" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E116" s="12">
         <v>42477</v>
@@ -17336,15 +16723,15 @@
       <c r="L116" s="6"/>
       <c r="M116" s="16"/>
     </row>
-    <row r="117" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:13" ht="19.5">
       <c r="B117" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C117" s="4" t="s">
-        <v>222</v>
-      </c>
       <c r="D117" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E117" s="12">
         <v>42477</v>
@@ -17354,7 +16741,7 @@
         <v>美国蔓越梅子干(碟)x1</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H117" s="6">
         <v>1</v>
@@ -17370,15 +16757,15 @@
       <c r="L117" s="6"/>
       <c r="M117" s="16"/>
     </row>
-    <row r="118" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:13" ht="19.5">
       <c r="B118" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C118" s="4" t="s">
-        <v>222</v>
-      </c>
       <c r="D118" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E118" s="12">
         <v>42477</v>
@@ -17388,7 +16775,7 @@
         <v>进口无花果干(袋)x1</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H118" s="6">
         <v>1</v>
@@ -17404,7 +16791,7 @@
       <c r="L118" s="6"/>
       <c r="M118" s="16"/>
     </row>
-    <row r="119" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:13" ht="19.5">
       <c r="B119" s="20" t="s">
         <v>79</v>
       </c>
@@ -17412,7 +16799,7 @@
         <v>80</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E119" s="12">
         <v>42479</v>
@@ -17438,7 +16825,7 @@
       <c r="L119" s="22"/>
       <c r="M119" s="24"/>
     </row>
-    <row r="120" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:13" ht="19.5">
       <c r="B120" s="20" t="s">
         <v>79</v>
       </c>
@@ -17446,7 +16833,7 @@
         <v>80</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E120" s="12">
         <v>42479</v>
@@ -17472,7 +16859,7 @@
       <c r="L120" s="6"/>
       <c r="M120" s="16"/>
     </row>
-    <row r="121" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:13" ht="19.5">
       <c r="B121" s="15" t="s">
         <v>87</v>
       </c>
@@ -17480,7 +16867,7 @@
         <v>84</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E121" s="12">
         <v>42479</v>
@@ -17506,7 +16893,7 @@
       <c r="L121" s="6"/>
       <c r="M121" s="16"/>
     </row>
-    <row r="122" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:13" ht="19.5">
       <c r="B122" s="15" t="s">
         <v>81</v>
       </c>
@@ -17514,7 +16901,7 @@
         <v>82</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E122" s="12">
         <v>42479</v>
@@ -17540,7 +16927,7 @@
       <c r="L122" s="6"/>
       <c r="M122" s="16"/>
     </row>
-    <row r="123" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:13" ht="19.5">
       <c r="B123" s="15" t="s">
         <v>81</v>
       </c>
@@ -17548,7 +16935,7 @@
         <v>82</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E123" s="12">
         <v>42479</v>
@@ -17558,7 +16945,7 @@
         <v>高山古树普洱茶(杯)x1</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H123" s="6">
         <v>1</v>
@@ -17574,15 +16961,15 @@
       <c r="L123" s="6"/>
       <c r="M123" s="16"/>
     </row>
-    <row r="124" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:13" ht="19.5">
       <c r="B124" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>82</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E124" s="12">
         <v>42479</v>
@@ -17592,7 +16979,7 @@
         <v>米果(袋)x1</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H124" s="6">
         <v>1</v>
@@ -17608,15 +16995,15 @@
       <c r="L124" s="6"/>
       <c r="M124" s="16"/>
     </row>
-    <row r="125" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:13" ht="19.5">
       <c r="B125" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E125" s="12">
         <v>42479</v>
@@ -17642,15 +17029,15 @@
       <c r="L125" s="6"/>
       <c r="M125" s="16"/>
     </row>
-    <row r="126" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:13" ht="19.5">
       <c r="B126" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E126" s="12">
         <v>42480</v>
@@ -17676,15 +17063,15 @@
       <c r="L126" s="6"/>
       <c r="M126" s="16"/>
     </row>
-    <row r="127" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:13" ht="19.5">
       <c r="B127" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E127" s="12">
         <v>42480</v>
@@ -17694,7 +17081,7 @@
         <v>牛奶热巧克力（儿童优惠装）(杯)x1</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H127" s="6">
         <v>1</v>
@@ -17710,7 +17097,7 @@
       <c r="L127" s="22"/>
       <c r="M127" s="24"/>
     </row>
-    <row r="128" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:13" ht="19.5">
       <c r="B128" s="15" t="s">
         <v>87</v>
       </c>
@@ -17718,7 +17105,7 @@
         <v>84</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E128" s="12">
         <v>42480</v>
@@ -17728,7 +17115,7 @@
         <v>牛奶热巧克力（儿童优惠装）(杯)x2</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H128" s="6">
         <v>2</v>
@@ -17744,7 +17131,7 @@
       <c r="L128" s="6"/>
       <c r="M128" s="16"/>
     </row>
-    <row r="129" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:13" ht="19.5">
       <c r="B129" s="15" t="s">
         <v>79</v>
       </c>
@@ -17752,7 +17139,7 @@
         <v>80</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E129" s="12">
         <v>42480</v>
@@ -17762,7 +17149,7 @@
         <v>高山古树普洱茶(杯)x1</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H129" s="6">
         <v>1</v>
@@ -17778,15 +17165,15 @@
       <c r="L129" s="6"/>
       <c r="M129" s="16"/>
     </row>
-    <row r="130" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:13" ht="19.5">
       <c r="B130" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E130" s="12">
         <v>42480</v>
@@ -17796,7 +17183,7 @@
         <v>牛奶热巧克力（儿童优惠装）(杯)x1</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H130" s="6">
         <v>1</v>
@@ -17812,12 +17199,12 @@
       <c r="L130" s="6"/>
       <c r="M130" s="16"/>
     </row>
-    <row r="131" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:13" ht="19.5">
       <c r="B131" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>47</v>
@@ -17830,7 +17217,7 @@
         <v>德国手工花果茶(杯)x2</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H131" s="6">
         <v>2</v>
@@ -17846,13 +17233,13 @@
       <c r="L131" s="6"/>
       <c r="M131" s="16"/>
     </row>
-    <row r="132" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:13" ht="19.5">
       <c r="B132" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E132" s="12">
         <v>42481</v>
@@ -17862,7 +17249,7 @@
         <v>高山古树普洱茶(壶（4杯）)x1</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H132" s="6">
         <v>1</v>
@@ -17878,13 +17265,13 @@
       <c r="L132" s="6"/>
       <c r="M132" s="16"/>
     </row>
-    <row r="133" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:13" ht="19.5">
       <c r="B133" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E133" s="12">
         <v>42481</v>
@@ -17910,13 +17297,13 @@
       <c r="L133" s="6"/>
       <c r="M133" s="16"/>
     </row>
-    <row r="134" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:13" ht="19.5">
       <c r="B134" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E134" s="12">
         <v>42481</v>
@@ -17926,7 +17313,7 @@
         <v>儿童绘本演读专场(会员）(1大1小)x1</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H134" s="6">
         <v>1</v>
@@ -17942,13 +17329,13 @@
       <c r="L134" s="6"/>
       <c r="M134" s="16"/>
     </row>
-    <row r="135" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:13" ht="19.5">
       <c r="B135" s="15" t="s">
         <v>65</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E135" s="12">
         <v>42481</v>
@@ -17958,7 +17345,7 @@
         <v>儿童绘本演读专场(会员）(1大1小)x1</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H135" s="6">
         <v>1</v>
@@ -17974,13 +17361,13 @@
       <c r="L135" s="6"/>
       <c r="M135" s="16"/>
     </row>
-    <row r="136" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:13" ht="19.5">
       <c r="B136" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E136" s="12">
         <v>42481</v>
@@ -17990,7 +17377,7 @@
         <v>儿童绘本演读专场(会员）(1大1小)x1</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H136" s="6">
         <v>1</v>
@@ -18006,13 +17393,13 @@
       <c r="L136" s="6"/>
       <c r="M136" s="16"/>
     </row>
-    <row r="137" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:13" ht="19.5">
       <c r="B137" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E137" s="12">
         <v>42481</v>
@@ -18022,7 +17409,7 @@
         <v>儿童绘本演读专场(会员）(1大1小)x1</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H137" s="6">
         <v>1</v>
@@ -18038,15 +17425,15 @@
       <c r="L137" s="6"/>
       <c r="M137" s="16"/>
     </row>
-    <row r="138" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:13" ht="19.5">
       <c r="B138" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E138" s="12">
         <v>42481</v>
@@ -18056,7 +17443,7 @@
         <v>儿童绘本演读专场(会员）(1大1小)x1</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H138" s="6">
         <v>1</v>
@@ -18072,15 +17459,15 @@
       <c r="L138" s="6"/>
       <c r="M138" s="16"/>
     </row>
-    <row r="139" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:13" ht="19.5">
       <c r="B139" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E139" s="12">
         <v>42481</v>
@@ -18090,7 +17477,7 @@
         <v>儿童绘本演读专场(会员）(1大1小)x1</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H139" s="6">
         <v>1</v>
@@ -18106,15 +17493,15 @@
       <c r="L139" s="6"/>
       <c r="M139" s="16"/>
     </row>
-    <row r="140" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:13" ht="19.5">
       <c r="B140" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E140" s="12">
         <v>42482</v>
@@ -18140,7 +17527,7 @@
       <c r="L140" s="6"/>
       <c r="M140" s="16"/>
     </row>
-    <row r="141" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:13" ht="19.5">
       <c r="B141" s="15" t="s">
         <v>81</v>
       </c>
@@ -18148,7 +17535,7 @@
         <v>82</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E141" s="12">
         <v>42482</v>
@@ -18174,7 +17561,7 @@
       <c r="L141" s="6"/>
       <c r="M141" s="16"/>
     </row>
-    <row r="142" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:13" ht="19.5">
       <c r="B142" s="15" t="s">
         <v>79</v>
       </c>
@@ -18182,7 +17569,7 @@
         <v>80</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E142" s="12">
         <v>42482</v>
@@ -18208,7 +17595,7 @@
       <c r="L142" s="6"/>
       <c r="M142" s="16"/>
     </row>
-    <row r="143" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:13" ht="19.5">
       <c r="B143" s="15" t="s">
         <v>79</v>
       </c>
@@ -18216,7 +17603,7 @@
         <v>80</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E143" s="12">
         <v>42482</v>
@@ -18226,7 +17613,7 @@
         <v>高山古树普洱茶(杯)x1</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H143" s="6">
         <v>1</v>
@@ -18242,15 +17629,15 @@
       <c r="L143" s="6"/>
       <c r="M143" s="16"/>
     </row>
-    <row r="144" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:13" ht="19.5">
       <c r="B144" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E144" s="12">
         <v>42482</v>
@@ -18276,15 +17663,15 @@
       <c r="L144" s="6"/>
       <c r="M144" s="16"/>
     </row>
-    <row r="145" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:13" ht="19.5">
       <c r="B145" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E145" s="12">
         <v>42484</v>
@@ -18294,7 +17681,7 @@
         <v>斯里兰卡上等红茶(壶（4杯）)x1</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H145" s="6">
         <v>1</v>
@@ -18310,15 +17697,15 @@
       <c r="L145" s="6"/>
       <c r="M145" s="16"/>
     </row>
-    <row r="146" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:13" ht="19.5">
       <c r="B146" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E146" s="12">
         <v>42484</v>
@@ -18344,15 +17731,15 @@
       <c r="L146" s="6"/>
       <c r="M146" s="16"/>
     </row>
-    <row r="147" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:13" ht="19.5">
       <c r="B147" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E147" s="12">
         <v>42484</v>
@@ -18362,7 +17749,7 @@
         <v>英式奶茶(杯)x1</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H147" s="6">
         <v>1</v>
@@ -18378,15 +17765,15 @@
       <c r="L147" s="6"/>
       <c r="M147" s="16"/>
     </row>
-    <row r="148" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:13" ht="19.5">
       <c r="B148" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E148" s="12">
         <v>42484</v>
@@ -18396,7 +17783,7 @@
         <v>高山古树普洱茶(杯)x1</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H148" s="6">
         <v>1</v>
@@ -18412,7 +17799,7 @@
       <c r="L148" s="6"/>
       <c r="M148" s="16"/>
     </row>
-    <row r="149" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:13" ht="19.5">
       <c r="B149" s="15" t="s">
         <v>79</v>
       </c>
@@ -18420,7 +17807,7 @@
         <v>80</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E149" s="12">
         <v>42484</v>
@@ -18446,7 +17833,7 @@
       <c r="L149" s="6"/>
       <c r="M149" s="16"/>
     </row>
-    <row r="150" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:13" ht="19.5">
       <c r="B150" s="15" t="s">
         <v>79</v>
       </c>
@@ -18454,7 +17841,7 @@
         <v>80</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E150" s="12">
         <v>42484</v>
@@ -18464,7 +17851,7 @@
         <v>高山古树普洱茶(杯)x1</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H150" s="6">
         <v>1</v>
@@ -18480,12 +17867,12 @@
       <c r="L150" s="6"/>
       <c r="M150" s="16"/>
     </row>
-    <row r="151" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:13" ht="19.5">
       <c r="B151" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>47</v>
@@ -18514,12 +17901,12 @@
       <c r="L151" s="6"/>
       <c r="M151" s="16"/>
     </row>
-    <row r="152" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:13" ht="19.5">
       <c r="B152" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>47</v>
@@ -18532,7 +17919,7 @@
         <v>高山古树普洱茶(杯)x2</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H152" s="6">
         <v>2</v>
@@ -18548,12 +17935,12 @@
       <c r="L152" s="6"/>
       <c r="M152" s="16"/>
     </row>
-    <row r="153" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:13" ht="19.5">
       <c r="B153" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>47</v>
@@ -18566,7 +17953,7 @@
         <v>德国手工花果茶(壶（3杯）)x1</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H153" s="6">
         <v>1</v>
@@ -18582,12 +17969,12 @@
       <c r="L153" s="6"/>
       <c r="M153" s="16"/>
     </row>
-    <row r="154" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:13" ht="19.5">
       <c r="B154" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>47</v>
@@ -18600,7 +17987,7 @@
         <v>美国蔓越梅子干(碟)x1</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H154" s="6">
         <v>1</v>
@@ -18616,15 +18003,15 @@
       <c r="L154" s="6"/>
       <c r="M154" s="16"/>
     </row>
-    <row r="155" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:13" ht="19.5">
       <c r="B155" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E155" s="12">
         <v>42484</v>
@@ -18634,7 +18021,7 @@
         <v>高山古树普洱茶(杯)x1</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H155" s="6">
         <v>1</v>
@@ -18650,15 +18037,15 @@
       <c r="L155" s="6"/>
       <c r="M155" s="16"/>
     </row>
-    <row r="156" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:13" ht="19.5">
       <c r="B156" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E156" s="12">
         <v>42484</v>
@@ -18684,15 +18071,15 @@
       <c r="L156" s="6"/>
       <c r="M156" s="16"/>
     </row>
-    <row r="157" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:13" ht="19.5">
       <c r="B157" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E157" s="12">
         <v>42484</v>
@@ -18718,12 +18105,12 @@
       <c r="L157" s="6"/>
       <c r="M157" s="16"/>
     </row>
-    <row r="158" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:13" ht="19.5">
       <c r="B158" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>47</v>
@@ -18752,12 +18139,12 @@
       <c r="L158" s="6"/>
       <c r="M158" s="16"/>
     </row>
-    <row r="159" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:13" ht="19.5">
       <c r="B159" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>92</v>
@@ -18786,7 +18173,7 @@
       <c r="L159" s="6"/>
       <c r="M159" s="16"/>
     </row>
-    <row r="160" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:13" ht="19.5">
       <c r="B160" s="15" t="s">
         <v>81</v>
       </c>
@@ -18820,7 +18207,7 @@
       <c r="L160" s="6"/>
       <c r="M160" s="16"/>
     </row>
-    <row r="161" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:13" ht="19.5">
       <c r="B161" s="15" t="s">
         <v>79</v>
       </c>
@@ -18854,7 +18241,7 @@
       <c r="L161" s="6"/>
       <c r="M161" s="16"/>
     </row>
-    <row r="162" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:13" ht="19.5">
       <c r="B162" s="15" t="s">
         <v>81</v>
       </c>
@@ -18872,7 +18259,7 @@
         <v>高山古树普洱茶(杯)x1</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H162" s="6">
         <v>1</v>
@@ -18888,12 +18275,12 @@
       <c r="L162" s="6"/>
       <c r="M162" s="16"/>
     </row>
-    <row r="163" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:13" ht="19.5">
       <c r="B163" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D163" s="6" t="s">
         <v>92</v>
@@ -18906,7 +18293,7 @@
         <v>德国手工花果茶(壶（2杯）)x1</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H163" s="6">
         <v>1</v>
@@ -18922,12 +18309,12 @@
       <c r="L163" s="6"/>
       <c r="M163" s="16"/>
     </row>
-    <row r="164" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:13" ht="19.5">
       <c r="B164" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>47</v>
@@ -18940,7 +18327,7 @@
         <v>德国手工花果茶(杯)x1</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H164" s="6">
         <v>1</v>
@@ -18956,12 +18343,12 @@
       <c r="L164" s="6"/>
       <c r="M164" s="16"/>
     </row>
-    <row r="165" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:13" ht="19.5">
       <c r="B165" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>47</v>
@@ -18990,12 +18377,12 @@
       <c r="L165" s="6"/>
       <c r="M165" s="16"/>
     </row>
-    <row r="166" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:13" ht="19.5">
       <c r="B166" s="15" t="s">
         <v>65</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>92</v>
@@ -19008,7 +18395,7 @@
         <v>峨眉山明前绿茶(杯)x1</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H166" s="6">
         <v>1</v>
@@ -19024,12 +18411,12 @@
       <c r="L166" s="6"/>
       <c r="M166" s="16"/>
     </row>
-    <row r="167" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:13" ht="19.5">
       <c r="B167" s="15" t="s">
         <v>65</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>92</v>
@@ -19042,7 +18429,7 @@
         <v>新加坡骆驼牌腰果(袋)x1</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H167" s="6">
         <v>1</v>
@@ -19058,7 +18445,7 @@
       <c r="L167" s="6"/>
       <c r="M167" s="16"/>
     </row>
-    <row r="168" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:13" ht="19.5">
       <c r="B168" s="15" t="s">
         <v>81</v>
       </c>
@@ -19076,7 +18463,7 @@
         <v>新加坡骆驼牌腰果(袋)x1</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H168" s="6">
         <v>1</v>
@@ -19092,7 +18479,7 @@
       <c r="L168" s="6"/>
       <c r="M168" s="16"/>
     </row>
-    <row r="169" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:13" ht="19.5">
       <c r="B169" s="15" t="s">
         <v>79</v>
       </c>
@@ -19110,7 +18497,7 @@
         <v>新加坡骆驼牌腰果(袋)x1</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H169" s="6">
         <v>1</v>
@@ -19126,12 +18513,12 @@
       <c r="L169" s="6"/>
       <c r="M169" s="16"/>
     </row>
-    <row r="170" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:13" ht="19.5">
       <c r="B170" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>47</v>
@@ -19160,12 +18547,12 @@
       <c r="L170" s="6"/>
       <c r="M170" s="16"/>
     </row>
-    <row r="171" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:13" ht="19.5">
       <c r="B171" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D171" s="6" t="s">
         <v>47</v>
@@ -19178,7 +18565,7 @@
         <v>儿童绘本演读专场(会员）(1大1小)x3</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H171" s="6">
         <v>3</v>
@@ -19194,7 +18581,7 @@
       <c r="L171" s="6"/>
       <c r="M171" s="16"/>
     </row>
-    <row r="172" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:13" ht="19.5">
       <c r="B172" s="15" t="s">
         <v>79</v>
       </c>
@@ -19212,7 +18599,7 @@
         <v>包场 场地费(次)x2</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H172" s="6">
         <v>2</v>
@@ -19228,12 +18615,12 @@
       <c r="L172" s="6"/>
       <c r="M172" s="16"/>
     </row>
-    <row r="173" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:13" ht="19.5">
       <c r="B173" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D173" s="6" t="s">
         <v>47</v>
@@ -19262,12 +18649,12 @@
       <c r="L173" s="6"/>
       <c r="M173" s="16"/>
     </row>
-    <row r="174" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:13" ht="19.5">
       <c r="B174" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D174" s="6" t="s">
         <v>47</v>
@@ -19296,7 +18683,7 @@
       <c r="L174" s="6"/>
       <c r="M174" s="16"/>
     </row>
-    <row r="175" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:13" ht="19.5">
       <c r="B175" s="15" t="s">
         <v>81</v>
       </c>
@@ -19314,7 +18701,7 @@
         <v>高山古树普洱茶(杯)x1</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H175" s="6">
         <v>1</v>
@@ -19330,7 +18717,7 @@
       <c r="L175" s="6"/>
       <c r="M175" s="16"/>
     </row>
-    <row r="176" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:13" ht="19.5">
       <c r="B176" s="15" t="s">
         <v>81</v>
       </c>
@@ -19348,7 +18735,7 @@
         <v>德国手工花果茶(杯)x1</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H176" s="6">
         <v>1</v>
@@ -19364,7 +18751,7 @@
       <c r="L176" s="6"/>
       <c r="M176" s="16"/>
     </row>
-    <row r="177" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:13" ht="19.5">
       <c r="B177" s="20" t="s">
         <v>81</v>
       </c>
@@ -19382,7 +18769,7 @@
         <v>儿童绘本演读专场(会员）(1大1小)x1</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H177" s="22">
         <v>1</v>
@@ -19398,7 +18785,7 @@
       <c r="L177" s="22"/>
       <c r="M177" s="24"/>
     </row>
-    <row r="178" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:13" ht="19.5">
       <c r="B178" s="15" t="s">
         <v>79</v>
       </c>
@@ -19416,7 +18803,7 @@
         <v>儿童绘本演读专场(会员）(1大1小)x1</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H178" s="6">
         <v>1</v>
@@ -19432,12 +18819,12 @@
       <c r="L178" s="6"/>
       <c r="M178" s="16"/>
     </row>
-    <row r="179" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:13" ht="19.5">
       <c r="B179" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D179" s="6" t="s">
         <v>92</v>
@@ -19450,7 +18837,7 @@
         <v>儿童绘本演读专场(会员）(1大1小)x1</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H179" s="22">
         <v>1</v>
@@ -19466,12 +18853,12 @@
       <c r="L179" s="22"/>
       <c r="M179" s="24"/>
     </row>
-    <row r="180" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:13" ht="19.5">
       <c r="B180" s="20" t="s">
         <v>65</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D180" s="6" t="s">
         <v>92</v>
@@ -19484,7 +18871,7 @@
         <v>儿童绘本演读专场(会员）(1大1小)x1</v>
       </c>
       <c r="G180" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H180" s="22">
         <v>1</v>
@@ -19500,7 +18887,7 @@
       <c r="L180" s="22"/>
       <c r="M180" s="24"/>
     </row>
-    <row r="181" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:13" ht="19.5">
       <c r="B181" s="20" t="s">
         <v>77</v>
       </c>
@@ -19518,7 +18905,7 @@
         <v>儿童绘本演读专场(会员）(1大1小)x1</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H181" s="22">
         <v>1</v>
@@ -19534,7 +18921,7 @@
       <c r="L181" s="22"/>
       <c r="M181" s="24"/>
     </row>
-    <row r="182" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:13" ht="19.5">
       <c r="B182" s="20" t="s">
         <v>36</v>
       </c>
@@ -19552,7 +18939,7 @@
         <v>儿童绘本演读专场(会员）(1大1小)x1</v>
       </c>
       <c r="G182" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H182" s="22">
         <v>1</v>
@@ -19568,12 +18955,12 @@
       <c r="L182" s="22"/>
       <c r="M182" s="24"/>
     </row>
-    <row r="183" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:13" ht="19.5">
       <c r="B183" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D183" s="6" t="s">
         <v>92</v>
@@ -19586,7 +18973,7 @@
         <v>儿童绘本演读专场(会员）(1大1小)x1</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H183" s="22">
         <v>1</v>
@@ -19602,12 +18989,12 @@
       <c r="L183" s="22"/>
       <c r="M183" s="24"/>
     </row>
-    <row r="184" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:13" ht="19.5">
       <c r="B184" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D184" s="6" t="s">
         <v>47</v>
@@ -19636,12 +19023,12 @@
       <c r="L184" s="6"/>
       <c r="M184" s="16"/>
     </row>
-    <row r="185" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:13" ht="19.5">
       <c r="B185" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D185" s="6" t="s">
         <v>47</v>
@@ -19654,7 +19041,7 @@
         <v>进口无花果干(袋)x1</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H185" s="6">
         <v>1</v>
@@ -19670,12 +19057,12 @@
       <c r="L185" s="6"/>
       <c r="M185" s="16"/>
     </row>
-    <row r="186" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:13" ht="19.5">
       <c r="B186" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>47</v>
@@ -19688,7 +19075,7 @@
         <v>美国蔓越梅子干(碟)x5</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H186" s="6">
         <v>5</v>
@@ -19704,12 +19091,12 @@
       <c r="L186" s="6"/>
       <c r="M186" s="16"/>
     </row>
-    <row r="187" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:13" ht="19.5">
       <c r="B187" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D187" s="6" t="s">
         <v>47</v>
@@ -19722,7 +19109,7 @@
         <v>高山古树普洱茶(杯)x2</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H187" s="6">
         <v>2</v>
@@ -19738,7 +19125,7 @@
       <c r="L187" s="6"/>
       <c r="M187" s="16"/>
     </row>
-    <row r="188" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:13" ht="19.5">
       <c r="B188" s="15" t="s">
         <v>81</v>
       </c>
@@ -19756,7 +19143,7 @@
         <v>高山古树普洱茶(杯)x2</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H188" s="6">
         <v>2</v>
@@ -19772,7 +19159,7 @@
       <c r="L188" s="6"/>
       <c r="M188" s="16"/>
     </row>
-    <row r="189" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:13" ht="19.5">
       <c r="B189" s="15" t="s">
         <v>81</v>
       </c>
@@ -19806,7 +19193,7 @@
       <c r="L189" s="6"/>
       <c r="M189" s="16"/>
     </row>
-    <row r="190" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:13" ht="19.5">
       <c r="B190" s="15" t="s">
         <v>79</v>
       </c>
@@ -19840,12 +19227,12 @@
       <c r="L190" s="6"/>
       <c r="M190" s="16"/>
     </row>
-    <row r="191" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:13" ht="19.5">
       <c r="B191" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D191" s="6" t="s">
         <v>92</v>
@@ -19874,12 +19261,12 @@
       <c r="L191" s="6"/>
       <c r="M191" s="16"/>
     </row>
-    <row r="192" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:13" ht="19.5">
       <c r="B192" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D192" s="6" t="s">
         <v>47</v>
@@ -19892,7 +19279,7 @@
         <v>包场 场地费(次)x5</v>
       </c>
       <c r="G192" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H192" s="6">
         <v>5</v>
@@ -19908,12 +19295,12 @@
       <c r="L192" s="6"/>
       <c r="M192" s="16"/>
     </row>
-    <row r="193" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:13" ht="19.5">
       <c r="B193" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D193" s="6" t="s">
         <v>47</v>
@@ -19926,7 +19313,7 @@
         <v>峨眉山明前绿茶(杯)x1</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H193" s="6">
         <v>1</v>
@@ -19942,12 +19329,12 @@
       <c r="L193" s="6"/>
       <c r="M193" s="16"/>
     </row>
-    <row r="194" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:13" ht="19.5">
       <c r="B194" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>47</v>
@@ -19976,12 +19363,12 @@
       <c r="L194" s="6"/>
       <c r="M194" s="16"/>
     </row>
-    <row r="195" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:13" ht="19.5">
       <c r="B195" s="15" t="s">
         <v>72</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D195" s="6" t="s">
         <v>92</v>
@@ -20010,9 +19397,9 @@
       <c r="L195" s="6"/>
       <c r="M195" s="16"/>
     </row>
-    <row r="196" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:13" ht="19.5">
       <c r="B196" s="15" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>40</v>
@@ -20044,9 +19431,9 @@
       <c r="L196" s="6"/>
       <c r="M196" s="16"/>
     </row>
-    <row r="197" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:13" ht="19.5">
       <c r="B197" s="15" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>40</v>
@@ -20062,7 +19449,7 @@
         <v>手冲单品咖啡(杯)x2</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H197" s="6">
         <v>2</v>
@@ -20078,9 +19465,9 @@
       <c r="L197" s="6"/>
       <c r="M197" s="16"/>
     </row>
-    <row r="198" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:13" ht="19.5">
       <c r="B198" s="15" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>40</v>
@@ -20112,9 +19499,9 @@
       <c r="L198" s="6"/>
       <c r="M198" s="16"/>
     </row>
-    <row r="199" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:13" ht="19.5">
       <c r="B199" s="15" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>40</v>
@@ -20146,12 +19533,12 @@
       <c r="L199" s="6"/>
       <c r="M199" s="16"/>
     </row>
-    <row r="200" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:13" ht="19.5">
       <c r="B200" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>92</v>
@@ -20180,12 +19567,12 @@
       <c r="L200" s="22"/>
       <c r="M200" s="24"/>
     </row>
-    <row r="201" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:13" ht="19.5">
       <c r="B201" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D201" s="6" t="s">
         <v>92</v>
@@ -20198,7 +19585,7 @@
         <v>峨眉山明前绿茶(杯)x1</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H201" s="6">
         <v>1</v>
@@ -20214,7 +19601,7 @@
       <c r="L201" s="6"/>
       <c r="M201" s="16"/>
     </row>
-    <row r="202" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:13" ht="19.5">
       <c r="B202" s="15" t="s">
         <v>81</v>
       </c>
@@ -20232,7 +19619,7 @@
         <v>高山古树普洱茶(杯)x1</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H202" s="6">
         <v>1</v>
@@ -20248,12 +19635,12 @@
       <c r="L202" s="6"/>
       <c r="M202" s="16"/>
     </row>
-    <row r="203" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:13" ht="19.5">
       <c r="B203" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D203" s="6" t="s">
         <v>92</v>
@@ -20266,7 +19653,7 @@
         <v>德国手工花果茶(杯)x1</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H203" s="6">
         <v>1</v>
@@ -20282,12 +19669,12 @@
       <c r="L203" s="6"/>
       <c r="M203" s="16"/>
     </row>
-    <row r="204" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:13" ht="19.5">
       <c r="B204" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>47</v>
@@ -20316,12 +19703,12 @@
       <c r="L204" s="6"/>
       <c r="M204" s="16"/>
     </row>
-    <row r="205" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:13" ht="19.5">
       <c r="B205" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D205" s="6" t="s">
         <v>47</v>
@@ -20334,7 +19721,7 @@
         <v>峨眉山明前绿茶(杯)x1</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H205" s="6">
         <v>1</v>
@@ -20350,12 +19737,12 @@
       <c r="L205" s="6"/>
       <c r="M205" s="16"/>
     </row>
-    <row r="206" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:13" ht="19.5">
       <c r="B206" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>47</v>
@@ -20368,7 +19755,7 @@
         <v>生日派对专场(次)x1</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H206" s="6">
         <v>1</v>
@@ -20384,12 +19771,12 @@
       <c r="L206" s="6"/>
       <c r="M206" s="16"/>
     </row>
-    <row r="207" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:13" ht="19.5">
       <c r="B207" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C207" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="D207" s="6" t="s">
         <v>92</v>
@@ -20418,7 +19805,7 @@
       <c r="L207" s="6"/>
       <c r="M207" s="16"/>
     </row>
-    <row r="208" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:13" ht="19.5">
       <c r="B208" s="15" t="s">
         <v>79</v>
       </c>
@@ -20452,7 +19839,7 @@
       <c r="L208" s="6"/>
       <c r="M208" s="16"/>
     </row>
-    <row r="209" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:13" ht="19.5">
       <c r="B209" s="15" t="s">
         <v>79</v>
       </c>
@@ -20470,7 +19857,7 @@
         <v>峨眉山明前绿茶(杯)x1</v>
       </c>
       <c r="G209" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H209" s="6">
         <v>1</v>
@@ -20486,12 +19873,12 @@
       <c r="L209" s="6"/>
       <c r="M209" s="16"/>
     </row>
-    <row r="210" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:13" ht="19.5">
       <c r="B210" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>47</v>
@@ -20520,12 +19907,12 @@
       <c r="L210" s="6"/>
       <c r="M210" s="16"/>
     </row>
-    <row r="211" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:13" ht="19.5">
       <c r="B211" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D211" s="6" t="s">
         <v>47</v>
@@ -20538,7 +19925,7 @@
         <v>包场 场地费(次)x3</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H211" s="6">
         <v>3</v>
@@ -20554,9 +19941,9 @@
       <c r="L211" s="6"/>
       <c r="M211" s="16"/>
     </row>
-    <row r="212" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:13" ht="19.5">
       <c r="B212" s="15" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>40</v>
@@ -20588,9 +19975,9 @@
       <c r="L212" s="6"/>
       <c r="M212" s="16"/>
     </row>
-    <row r="213" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:13" ht="19.5">
       <c r="B213" s="15" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>40</v>
@@ -20622,12 +20009,12 @@
       <c r="L213" s="6"/>
       <c r="M213" s="16"/>
     </row>
-    <row r="214" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:13" ht="19.5">
       <c r="B214" s="15" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>26</v>
@@ -20658,12 +20045,12 @@
       <c r="L214" s="6"/>
       <c r="M214" s="16"/>
     </row>
-    <row r="215" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:13" ht="19.5">
       <c r="B215" s="15" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D215" s="6" t="s">
         <v>26</v>
@@ -20694,12 +20081,12 @@
       <c r="L215" s="6"/>
       <c r="M215" s="16"/>
     </row>
-    <row r="216" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:13" ht="19.5">
       <c r="B216" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D216" s="6" t="s">
         <v>92</v>
@@ -20712,7 +20099,7 @@
         <v>德国手工花果茶(壶（3杯）)x1</v>
       </c>
       <c r="G216" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H216" s="6">
         <v>1</v>
@@ -20728,12 +20115,12 @@
       <c r="L216" s="6"/>
       <c r="M216" s="16"/>
     </row>
-    <row r="217" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:13" ht="19.5">
       <c r="B217" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D217" s="6" t="s">
         <v>92</v>
@@ -20746,7 +20133,7 @@
         <v>峨眉山明前绿茶(杯)x1</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H217" s="6">
         <v>1</v>
@@ -20762,7 +20149,7 @@
       <c r="L217" s="6"/>
       <c r="M217" s="16"/>
     </row>
-    <row r="218" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:13" ht="19.5">
       <c r="B218" s="15" t="s">
         <v>79</v>
       </c>
@@ -20780,7 +20167,7 @@
         <v>高山古树普洱茶(壶（2杯）)x1</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H218" s="6">
         <v>1</v>
@@ -20796,12 +20183,12 @@
       <c r="L218" s="6"/>
       <c r="M218" s="16"/>
     </row>
-    <row r="219" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:13" ht="19.5">
       <c r="B219" s="15" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D219" s="6" t="s">
         <v>26</v>
@@ -20832,12 +20219,12 @@
       <c r="L219" s="6"/>
       <c r="M219" s="16"/>
     </row>
-    <row r="220" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:13" ht="19.5">
       <c r="B220" s="15" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D220" s="6" t="s">
         <v>92</v>
@@ -20850,7 +20237,7 @@
         <v>斯里兰卡上等红茶(壶（4杯）)x1</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H220" s="6">
         <v>1</v>
@@ -20866,12 +20253,12 @@
       <c r="L220" s="6"/>
       <c r="M220" s="16"/>
     </row>
-    <row r="221" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:13" ht="19.5">
       <c r="B221" s="15" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D221" s="6" t="s">
         <v>92</v>
@@ -20884,7 +20271,7 @@
         <v>摩卡咖啡(杯)x1</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H221" s="6">
         <v>1</v>
@@ -20900,12 +20287,12 @@
       <c r="L221" s="6"/>
       <c r="M221" s="16"/>
     </row>
-    <row r="222" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:13" ht="19.5">
       <c r="B222" s="15" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D222" s="6" t="s">
         <v>92</v>
@@ -20918,7 +20305,7 @@
         <v>英式奶茶(杯)x1</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H222" s="6">
         <v>1</v>
@@ -20934,7 +20321,7 @@
       <c r="L222" s="6"/>
       <c r="M222" s="16"/>
     </row>
-    <row r="223" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:13" ht="19.5">
       <c r="B223" s="20" t="s">
         <v>81</v>
       </c>
@@ -20952,7 +20339,7 @@
         <v>儿童绘本演读专场(会员）(1大1小)x1</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H223" s="22">
         <v>1</v>
@@ -20968,12 +20355,12 @@
       <c r="L223" s="22"/>
       <c r="M223" s="24"/>
     </row>
-    <row r="224" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:13" ht="19.5">
       <c r="B224" s="20" t="s">
         <v>65</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D224" s="6" t="s">
         <v>92</v>
@@ -20986,7 +20373,7 @@
         <v>儿童绘本演读专场(会员）(1大1小)x1</v>
       </c>
       <c r="G224" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H224" s="22">
         <v>1</v>
@@ -21002,9 +20389,9 @@
       <c r="L224" s="22"/>
       <c r="M224" s="24"/>
     </row>
-    <row r="225" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:13" ht="19.5">
       <c r="B225" s="20" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>40</v>
@@ -21020,7 +20407,7 @@
         <v>儿童绘本演读专场(会员）(1大1小)x1</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H225" s="22">
         <v>1</v>
@@ -21036,12 +20423,12 @@
       <c r="L225" s="22"/>
       <c r="M225" s="24"/>
     </row>
-    <row r="226" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:13" ht="19.5">
       <c r="B226" s="20" t="s">
         <v>77</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D226" s="6" t="s">
         <v>92</v>
@@ -21054,7 +20441,7 @@
         <v>儿童绘本演读专场(会员）(1大1小)x1</v>
       </c>
       <c r="G226" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H226" s="22">
         <v>1</v>
@@ -21070,9 +20457,9 @@
       <c r="L226" s="22"/>
       <c r="M226" s="24"/>
     </row>
-    <row r="227" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:13" ht="19.5">
       <c r="B227" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>34</v>
@@ -21088,7 +20475,7 @@
         <v>儿童绘本演读专场(会员）(1大1小)x1</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H227" s="22">
         <v>1</v>
@@ -21104,12 +20491,12 @@
       <c r="L227" s="22"/>
       <c r="M227" s="24"/>
     </row>
-    <row r="228" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:13" ht="19.5">
       <c r="B228" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D228" s="6" t="s">
         <v>92</v>
@@ -21122,7 +20509,7 @@
         <v>儿童绘本演读专场(会员）(1大1小)x1</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H228" s="22">
         <v>1</v>
@@ -21138,12 +20525,12 @@
       <c r="L228" s="22"/>
       <c r="M228" s="24"/>
     </row>
-    <row r="229" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:13" ht="19.5">
       <c r="B229" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D229" s="6" t="s">
         <v>26</v>
@@ -21174,7 +20561,7 @@
       <c r="L229" s="6"/>
       <c r="M229" s="16"/>
     </row>
-    <row r="230" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:13" ht="19.5">
       <c r="B230" s="15"/>
       <c r="C230" s="4"/>
       <c r="D230" s="6"/>
@@ -21191,7 +20578,7 @@
       <c r="L230" s="6"/>
       <c r="M230" s="16"/>
     </row>
-    <row r="231" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:13" ht="19.5">
       <c r="B231" s="15"/>
       <c r="C231" s="4"/>
       <c r="D231" s="6"/>
@@ -21208,7 +20595,7 @@
       <c r="L231" s="6"/>
       <c r="M231" s="16"/>
     </row>
-    <row r="232" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:13" ht="19.5">
       <c r="B232" s="15"/>
       <c r="C232" s="4"/>
       <c r="D232" s="6"/>
@@ -21259,23 +20646,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J46"/>
   <sheetViews>
-    <sheetView zoomScale="169" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" customWidth="1"/>
+    <col min="7" max="7" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:10">
       <c r="B2" s="37" t="s">
         <v>22</v>
       </c>
@@ -21295,10 +20682,10 @@
         <v>28</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
       <c r="B3" s="1" t="str">
         <f t="shared" ref="B3:B24" si="0">CONCATENATE(C3,"(",F3,")")</f>
         <v>锡兰红茶(壶)</v>
@@ -21326,7 +20713,7 @@
         <v>锡兰红茶(壶) 70</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:10">
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>锡兰红茶(杯)</v>
@@ -21354,13 +20741,13 @@
         <v>锡兰红茶(杯) 20</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:10">
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>斯里兰卡上等红茶(杯)</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>14</v>
@@ -21382,7 +20769,7 @@
         <v>斯里兰卡上等红茶(杯) 30</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10">
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>手冲拿铁(杯)</v>
@@ -21410,7 +20797,7 @@
         <v>手冲拿铁(杯) 25</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:10">
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>热巧克力(杯)</v>
@@ -21438,7 +20825,7 @@
         <v>热巧克力(杯) 25</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:10">
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>绿茶(杯)</v>
@@ -21466,7 +20853,7 @@
         <v>绿茶(杯) 20</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:10">
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>花果茶玫瑰(壶)</v>
@@ -21494,7 +20881,7 @@
         <v>花果茶玫瑰(壶) 80</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:10">
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>花果茶玫瑰(杯)</v>
@@ -21522,7 +20909,7 @@
         <v>花果茶玫瑰(杯) 25</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:10">
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>果汁(杯)</v>
@@ -21550,7 +20937,7 @@
         <v>果汁(杯) 25</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:10">
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>高山普洱(壶)</v>
@@ -21578,7 +20965,7 @@
         <v>高山普洱(壶) 70</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:10">
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>高山普洱(杯)</v>
@@ -21606,13 +20993,13 @@
         <v>高山普洱(杯) 20</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:10">
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>高山古树普洱茶(壶（2杯）)</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>14</v>
@@ -21621,7 +21008,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G14" s="36">
         <v>1</v>
@@ -21634,13 +21021,13 @@
         <v>高山古树普洱茶(壶（2杯）) 50</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:10">
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>高山古树普洱茶(壶（4杯）)</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>14</v>
@@ -21649,7 +21036,7 @@
         <v>80</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G15" s="36">
         <v>1</v>
@@ -21662,13 +21049,13 @@
         <v>高山古树普洱茶(壶（4杯）) 80</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:10">
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>高山古树普洱茶(杯)</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>14</v>
@@ -21690,13 +21077,13 @@
         <v>高山古树普洱茶(杯) 30</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10">
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>峨眉山明前绿茶(杯)</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>14</v>
@@ -21718,13 +21105,13 @@
         <v>峨眉山明前绿茶(杯) 30</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10">
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>德国手工花果茶(壶（4杯）)</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>14</v>
@@ -21733,7 +21120,7 @@
         <v>80</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G18" s="36">
         <v>1</v>
@@ -21746,13 +21133,13 @@
         <v>德国手工花果茶(壶（4杯）) 80</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10">
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>德国手工花果茶(壶（2杯）)</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>14</v>
@@ -21761,7 +21148,7 @@
         <v>50</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G19" s="36">
         <v>1</v>
@@ -21774,13 +21161,13 @@
         <v>德国手工花果茶(壶（2杯）) 50</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10">
       <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>德国手工花果茶(杯)</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D20" s="29" t="s">
         <v>14</v>
@@ -21802,7 +21189,7 @@
         <v>德国手工花果茶(杯) 30</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10">
       <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>茶位费(位)</v>
@@ -21830,7 +21217,7 @@
         <v>茶位费(位) 20</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10">
       <c r="B22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>冰锐果酒(瓶)</v>
@@ -21858,7 +21245,7 @@
         <v>冰锐果酒(瓶) 18</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10">
       <c r="B23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>坚果(盘)</v>
@@ -21886,16 +21273,16 @@
         <v>坚果(盘) 20</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10">
       <c r="B24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>草莓酸奶(杯)</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E24" s="26">
         <v>20</v>
@@ -21914,7 +21301,7 @@
         <v>草莓酸奶(杯) 20</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10">
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
@@ -21939,22 +21326,22 @@
         <v>充值 0</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10">
       <c r="B26" s="1" t="str">
         <f t="shared" ref="B26:B35" si="1">CONCATENATE(C26,"(",F26,")")</f>
         <v>米果(袋)</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E26" s="29">
         <v>18</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G26" s="36">
         <v>1</v>
@@ -21967,22 +21354,22 @@
         <v>米果(袋) 18</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10">
       <c r="B27" s="1" t="str">
         <f t="shared" si="1"/>
         <v>混合腰果(袋)</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E27" s="29">
         <v>35</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G27" s="36">
         <v>1</v>
@@ -21995,22 +21382,22 @@
         <v>混合腰果(袋) 35</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10">
       <c r="B28" s="1" t="str">
         <f t="shared" si="1"/>
         <v>非洲腰果(袋)</v>
       </c>
       <c r="C28" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="E28" s="29">
         <v>30</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G28" s="36">
         <v>1</v>
@@ -22023,7 +21410,7 @@
         <v>非洲腰果(袋) 30</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10">
       <c r="B29" s="1" t="str">
         <f t="shared" si="1"/>
         <v>啤酒(瓶)</v>
@@ -22051,22 +21438,22 @@
         <v>啤酒(瓶) 20</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10">
       <c r="B30" s="1" t="str">
         <f t="shared" si="1"/>
         <v>斯里兰卡上等红茶(壶（4杯）)</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E30" s="29">
         <v>80</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G30" s="36">
         <v>1</v>
@@ -22079,22 +21466,22 @@
         <v>斯里兰卡上等红茶(壶（4杯）) 80</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10">
       <c r="B31" s="1" t="str">
         <f t="shared" si="1"/>
         <v>斯里兰卡上等红茶(壶（2杯）)</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E31" s="29">
         <v>50</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G31" s="36">
         <v>1</v>
@@ -22107,13 +21494,13 @@
         <v>斯里兰卡上等红茶(壶（2杯）) 50</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10">
       <c r="B32" s="1" t="str">
         <f t="shared" si="1"/>
         <v>德国手工花果茶(壶（3杯）)</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D32" s="29" t="s">
         <v>14</v>
@@ -22122,7 +21509,7 @@
         <v>70</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G32" s="36">
         <v>1</v>
@@ -22135,13 +21522,13 @@
         <v>德国手工花果茶(壶（3杯）) 70</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:8">
       <c r="B33" s="1" t="str">
         <f t="shared" si="1"/>
         <v>榻榻米茶位费(人)</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>14</v>
@@ -22150,7 +21537,7 @@
         <v>30</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G33" s="36">
         <v>1</v>
@@ -22159,13 +21546,13 @@
         <v>42477</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:8">
       <c r="B34" s="1" t="str">
         <f t="shared" si="1"/>
         <v>英式奶茶(杯)</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>14</v>
@@ -22183,22 +21570,22 @@
         <v>42477</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:8">
       <c r="B35" s="1" t="str">
         <f t="shared" si="1"/>
         <v>美国蔓越梅子干(碟)</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E35" s="29">
         <v>15</v>
       </c>
       <c r="F35" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G35" s="42">
         <v>1</v>
@@ -22207,22 +21594,22 @@
         <v>42477</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:8">
       <c r="B36" s="1" t="str">
-        <f t="shared" ref="B36:B46" si="2">CONCATENATE(C36,"(",F36,")")</f>
+        <f t="shared" ref="B36:B44" si="2">CONCATENATE(C36,"(",F36,")")</f>
         <v>进口无花果干(袋)</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E36" s="29">
         <v>45</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G36" s="42">
         <v>1</v>
@@ -22231,13 +21618,13 @@
         <v>42477</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:8">
       <c r="B37" s="1" t="str">
         <f t="shared" si="2"/>
         <v>牛奶热巧克力（儿童优惠装）(杯)</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>14</v>
@@ -22255,22 +21642,22 @@
         <v>42477</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:8">
       <c r="B38" s="1" t="str">
         <f t="shared" si="2"/>
         <v>嘀嗒猫开心果(袋)</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E38" s="29">
         <v>45</v>
       </c>
       <c r="F38" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G38" s="42">
         <v>1</v>
@@ -22279,22 +21666,22 @@
         <v>42477</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:8">
       <c r="B39" s="1" t="str">
         <f t="shared" si="2"/>
         <v>儿童绘本演读专场(会员）(1大1小)</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E39" s="29">
         <v>100</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G39" s="36">
         <v>1</v>
@@ -22303,22 +21690,22 @@
         <v>42481</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:8">
       <c r="B40" s="1" t="str">
         <f t="shared" si="2"/>
         <v>新加坡骆驼牌腰果(袋)</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E40" s="29">
         <v>18</v>
       </c>
       <c r="F40" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G40" s="36">
         <v>1</v>
@@ -22327,22 +21714,22 @@
         <v>42486</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:8">
       <c r="B41" s="1" t="str">
         <f t="shared" si="2"/>
         <v>包场 场地费(次)</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E41" s="29">
         <v>100</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G41" s="36">
         <v>1</v>
@@ -22351,13 +21738,13 @@
         <v>42487</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:8">
       <c r="B42" s="1" t="str">
         <f t="shared" si="2"/>
         <v>手冲单品咖啡(杯)</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>14</v>
@@ -22375,13 +21762,13 @@
         <v>42487</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:8">
       <c r="B43" s="1" t="str">
         <f t="shared" si="2"/>
         <v>生日派对专场(次)</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>108</v>
@@ -22390,7 +21777,7 @@
         <v>1600</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G43" s="36">
         <v>1</v>
@@ -22399,13 +21786,13 @@
         <v>42487</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:8">
       <c r="B44" s="1" t="str">
         <f t="shared" si="2"/>
         <v>摩卡咖啡(杯)</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>14</v>
@@ -22423,7 +21810,7 @@
         <v>42487</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:8">
       <c r="B45" s="1"/>
       <c r="C45" s="29"/>
       <c r="D45" s="1"/>
@@ -22432,7 +21819,7 @@
       <c r="G45" s="36"/>
       <c r="H45" s="46"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:8">
       <c r="B46" s="1"/>
       <c r="C46" s="29"/>
       <c r="D46" s="40"/>
@@ -22452,39 +21839,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="3.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="33" t="s">
         <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" s="32">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="35" t="s">
         <v>104</v>
       </c>
@@ -22492,79 +21879,79 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" s="32">
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="32">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" s="32">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B9" s="32">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B10" s="32">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B11" s="32">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B12" s="32">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B13" s="32">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B14" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="35" t="s">
         <v>8</v>
       </c>
@@ -22572,31 +21959,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16" s="32">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" s="32">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B18" s="32">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" s="35" t="s">
         <v>61</v>
       </c>
@@ -22604,15 +21991,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B20" s="32">
         <v>1129</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" s="35" t="s">
         <v>106</v>
       </c>
@@ -22620,7 +22007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22" s="35" t="s">
         <v>60</v>
       </c>
@@ -22628,55 +22015,55 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B23" s="32">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B24" s="32">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25" s="35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B25" s="32">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B26" s="32">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B27" s="32">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B28" s="32">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="A29" s="35" t="s">
         <v>76</v>
       </c>
@@ -22684,7 +22071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30" s="35" t="s">
         <v>58</v>
       </c>
@@ -22692,7 +22079,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="A31" s="35" t="s">
         <v>101</v>
       </c>
@@ -22700,7 +22087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32" s="35" t="s">
         <v>68</v>
       </c>
@@ -22708,7 +22095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" s="35" t="s">
         <v>64</v>
       </c>
@@ -22716,7 +22103,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" s="35" t="s">
         <v>63</v>
       </c>
@@ -22724,7 +22111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" s="35" t="s">
         <v>70</v>
       </c>
@@ -22732,7 +22119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36" s="35" t="s">
         <v>59</v>
       </c>
@@ -22740,31 +22127,31 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="A37" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B37" s="32">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="A38" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B38" s="32">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="A39" s="35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B39" s="32">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="A40" s="35" t="s">
         <v>86</v>
       </c>
@@ -22772,7 +22159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="A41" s="35" t="s">
         <v>62</v>
       </c>
@@ -22780,115 +22167,115 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="A42" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B42" s="32">
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2">
       <c r="A43" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B43" s="32">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2">
       <c r="A44" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B44" s="32">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2">
       <c r="A45" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B45" s="32">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2">
       <c r="A46" s="35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B46" s="32">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2">
       <c r="A47" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B47" s="32">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2">
       <c r="A48" s="35" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B48" s="32">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2">
       <c r="A49" s="31" t="s">
         <v>90</v>
       </c>
       <c r="B49" s="32"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2">
       <c r="A50" s="35" t="s">
         <v>90</v>
       </c>
       <c r="B50" s="32"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2">
       <c r="A51" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B51" s="32">
         <v>1700</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2">
       <c r="A52" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B52" s="32">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2">
       <c r="A53" s="35" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B53" s="32">
         <v>1600</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2">
       <c r="A54" s="31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B54" s="32">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2">
       <c r="A55" s="35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B55" s="32">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2">
       <c r="A56" s="31" t="s">
         <v>110</v>
       </c>
@@ -22903,154 +22290,154 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="22.5">
       <c r="A1" s="48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="50" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="25.5">
       <c r="A2" s="60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="52"/>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="25.5">
       <c r="A3" s="61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3" s="63">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="25.5">
       <c r="A4" s="62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="54"/>
       <c r="C4" s="64">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="25.5">
       <c r="A5" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" s="64">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="25.5">
       <c r="A6" s="62" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6" s="54"/>
       <c r="C6" s="64">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="25.5">
       <c r="A7" s="61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="63">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="25.5">
       <c r="A8" s="62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B8" s="54"/>
       <c r="C8" s="64">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="25.5">
       <c r="A9" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B9" s="54"/>
       <c r="C9" s="64">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="25.5">
       <c r="A10" s="61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" s="56"/>
       <c r="C10" s="63">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="25.5">
       <c r="A11" s="61" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B11" s="56"/>
       <c r="C11" s="63">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="25.5">
       <c r="A12" s="61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C12" s="63">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="25.5">
       <c r="A13" s="61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C13" s="63">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="25.5">
       <c r="A14" s="61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B14" s="56"/>
       <c r="C14" s="63">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" ht="25.5">
       <c r="A15" s="61" t="s">
         <v>70</v>
       </c>
@@ -23059,7 +22446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" ht="25.5">
       <c r="A16" s="61" t="s">
         <v>60</v>
       </c>
@@ -23068,52 +22455,52 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" ht="25.5">
       <c r="A17" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B17" s="57"/>
       <c r="C17" s="65"/>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" ht="25.5">
       <c r="A18" s="61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C18" s="63">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="25.5">
       <c r="A19" s="61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B19" s="56"/>
       <c r="C19" s="63">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" ht="25.5">
       <c r="A20" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" s="57"/>
       <c r="C20" s="65"/>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" ht="25.5">
       <c r="A21" s="61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C21" s="63">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" ht="25.5">
       <c r="A22" s="61" t="s">
         <v>106</v>
       </c>
@@ -23122,81 +22509,81 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" ht="25.5">
       <c r="A23" s="61" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B23" s="56"/>
       <c r="C23" s="63">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" ht="25.5">
       <c r="A24" s="61" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B24" s="56"/>
       <c r="C24" s="63">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" ht="25.5">
       <c r="A25" s="61" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B25" s="53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C25" s="63">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" ht="25.5">
       <c r="A26" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B26" s="57"/>
       <c r="C26" s="65"/>
     </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" ht="25.5">
       <c r="A27" s="61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B27" s="53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C27" s="63">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" ht="25.5">
       <c r="A28" s="60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B28" s="51"/>
       <c r="C28" s="65"/>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" ht="25.5">
       <c r="A29" s="61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B29" s="58"/>
       <c r="C29" s="63">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" ht="25.5">
       <c r="A30" s="61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B30" s="58"/>
       <c r="C30" s="63">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" ht="25.5">
       <c r="A31" s="61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B31" s="59"/>
       <c r="C31" s="63">
@@ -23206,6 +22593,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/文档/葡萄院儿会员日记.xlsx
+++ b/文档/葡萄院儿会员日记.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="2" r:id="rId1"/>
@@ -20,9 +20,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="103" r:id="rId6"/>
-    <pivotCache cacheId="110" r:id="rId7"/>
-    <pivotCache cacheId="114" r:id="rId8"/>
+    <pivotCache cacheId="141" r:id="rId6"/>
+    <pivotCache cacheId="148" r:id="rId7"/>
+    <pivotCache cacheId="152" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="307">
   <si>
     <t>葡萄院儿The Vineyard会员日记</t>
     <rPh sb="0" eb="1">
@@ -1978,7 +1978,52 @@
     <t>原惠玲</t>
   </si>
   <si>
-    <t>摩卡咖啡(杯)x2</t>
+    <t>零点</t>
+  </si>
+  <si>
+    <t>雅</t>
+    <rPh sb="0" eb="1">
+      <t>ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄勇</t>
+  </si>
+  <si>
+    <t>玫瑰冰拿铁</t>
+    <rPh sb="0" eb="1">
+      <t>mei gui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bing na tie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰冰拿铁(杯)</t>
+  </si>
+  <si>
+    <t>曹曹</t>
+  </si>
+  <si>
+    <t>曹曹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党玮娅</t>
+  </si>
+  <si>
+    <t>手冲拿铁(杯)x1</t>
+  </si>
+  <si>
+    <t>玫瑰冰拿铁(杯)x1</t>
+  </si>
+  <si>
+    <t>德国手工花果茶(杯)x1</t>
+  </si>
+  <si>
+    <t>充值x1</t>
   </si>
 </sst>
 </file>
@@ -2497,13 +2542,13 @@
     </xf>
     <xf numFmtId="58" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2512,7 +2557,15 @@
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="82">
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
     <dxf>
       <font>
         <sz val="18"/>
@@ -2664,38 +2717,6 @@
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </dxf>
     <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     </dxf>
     <dxf>
@@ -2734,12 +2755,150 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3144,13 +3303,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -3183,6 +3335,13 @@
       </font>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3199,152 +3358,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -3413,9 +3426,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42500.726565393517" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="245">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42502.656160416664" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="277">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B2:M247" sheet="明细"/>
+    <worksheetSource ref="B2:M279" sheet="明细"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="姓名" numFmtId="0">
@@ -3471,7 +3484,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="日期" numFmtId="58">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-05T00:00:00" maxDate="2016-05-11T00:00:00" count="33">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-05T00:00:00" maxDate="2016-05-12T00:00:00" count="34">
         <d v="2016-04-05T00:00:00"/>
         <d v="2016-04-06T00:00:00"/>
         <d v="2016-04-07T00:00:00"/>
@@ -3503,12 +3516,13 @@
         <d v="2016-05-08T00:00:00"/>
         <d v="2016-05-09T00:00:00"/>
         <d v="2016-05-10T00:00:00"/>
+        <d v="2016-05-11T00:00:00"/>
         <m/>
         <d v="2016-04-30T00:00:00" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="显示条目" numFmtId="58">
-      <sharedItems containsBlank="1" count="88">
+      <sharedItems containsBlank="1" count="90">
         <s v="充值x1"/>
         <s v="高山普洱(壶)x10"/>
         <s v="手冲拿铁(杯)x1"/>
@@ -3580,6 +3594,7 @@
         <s v="高山古树普洱茶(壶（2杯）)x1"/>
         <s v="摩卡咖啡(杯)x1"/>
         <s v="摩卡咖啡(杯)x2"/>
+        <s v="玫瑰冰拿铁(杯)x1"/>
         <s v="花果茶玫瑰1壶x1" u="1"/>
         <s v="x1" u="1"/>
         <s v="牛奶热巧克力（儿童优惠装）x1" u="1"/>
@@ -3590,6 +3605,7 @@
         <s v="牛奶热巧克力（儿童优惠装）x2" u="1"/>
         <s v="手冲拿铁1杯x1" u="1"/>
         <s v="锡兰红茶1壶x1" u="1"/>
+        <s v="德国手工花果茶(杯)" u="1"/>
         <s v="充值1次x1" u="1"/>
         <s v="茶位费1位x1" u="1"/>
         <s v="x4" u="1"/>
@@ -3630,7 +3646,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42500.726567361111" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="245">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42502.656163194442" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="277">
   <cacheSource type="worksheet">
     <worksheetSource name="表1"/>
   </cacheSource>
@@ -3687,7 +3703,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="日期" numFmtId="58">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-05T00:00:00" maxDate="2016-05-11T00:00:00" count="33">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-05T00:00:00" maxDate="2016-05-12T00:00:00" count="34">
         <d v="2016-04-05T00:00:00"/>
         <d v="2016-04-06T00:00:00"/>
         <d v="2016-04-07T00:00:00"/>
@@ -3719,12 +3735,13 @@
         <d v="2016-05-08T00:00:00"/>
         <d v="2016-05-09T00:00:00"/>
         <d v="2016-05-10T00:00:00"/>
+        <d v="2016-05-11T00:00:00"/>
         <m/>
         <d v="2016-04-30T00:00:00" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="显示条目" numFmtId="58">
-      <sharedItems containsBlank="1" count="78">
+      <sharedItems containsBlank="1" count="80">
         <s v="充值x1"/>
         <s v="高山普洱(壶)x10"/>
         <s v="手冲拿铁(杯)x1"/>
@@ -3796,17 +3813,19 @@
         <s v="高山古树普洱茶(壶（2杯）)x1"/>
         <s v="摩卡咖啡(杯)x1"/>
         <s v="摩卡咖啡(杯)x2"/>
+        <s v="玫瑰冰拿铁(杯)x1"/>
         <s v="x1" u="1"/>
         <s v="牛奶热巧克力（儿童优惠装）x1" u="1"/>
         <s v="x" u="1"/>
         <s v="牛奶热巧克力（儿童优惠装）x2" u="1"/>
+        <s v="德国手工花果茶(杯)" u="1"/>
         <s v="x4" u="1"/>
         <s v="摩卡(杯)x1" u="1"/>
         <s v="嘀嗒猫开心果x1" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="产品" numFmtId="0">
-      <sharedItems containsBlank="1" count="45">
+      <sharedItems containsBlank="1" count="46">
         <s v="充值"/>
         <s v="高山普洱(壶)"/>
         <s v="手冲拿铁(杯)"/>
@@ -3848,6 +3867,7 @@
         <s v="生日派对专场(次)"/>
         <s v="高山古树普洱茶(壶（2杯）)"/>
         <s v="摩卡咖啡(杯)"/>
+        <s v="玫瑰冰拿铁(杯)"/>
         <m/>
         <s v="摩卡(杯)" u="1"/>
         <s v="嘀嗒猫开心果" u="1"/>
@@ -3882,13 +3902,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42500.726570486113" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="44">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42502.656167361114" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="44">
   <cacheSource type="worksheet">
     <worksheetSource name="表2"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="描述" numFmtId="0">
-      <sharedItems containsBlank="1" count="47">
+      <sharedItems containsBlank="1" count="48">
         <s v="锡兰红茶(壶)"/>
         <s v="锡兰红茶(杯)"/>
         <s v="斯里兰卡上等红茶(杯)"/>
@@ -3931,6 +3951,7 @@
         <s v="手冲单品咖啡(杯)"/>
         <s v="生日派对专场(次)"/>
         <s v="摩卡咖啡(杯)"/>
+        <s v="玫瑰冰拿铁(杯)"/>
         <m/>
         <s v="摩卡(杯)" u="1"/>
         <s v="()" u="1"/>
@@ -3961,7 +3982,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="菜单版本号" numFmtId="176">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
     </cacheField>
     <cacheField name="创建日期" numFmtId="0">
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-06T00:00:00" maxDate="2016-04-28T00:00:00"/>
@@ -3976,7 +3997,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="245">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="277">
   <r>
     <x v="0"/>
     <s v="档爸"/>
@@ -7380,10 +7401,66 @@
     <m/>
   </r>
   <r>
+    <x v="11"/>
+    <s v="雅"/>
+    <x v="1"/>
+    <x v="31"/>
+    <x v="30"/>
+    <s v="德国手工花果茶(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="兔兔妈妈"/>
+    <x v="2"/>
+    <x v="31"/>
+    <x v="30"/>
+    <s v="德国手工花果茶(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="勇哥"/>
+    <x v="2"/>
+    <x v="31"/>
+    <x v="71"/>
+    <s v="玫瑰冰拿铁(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-26"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="曹曹妹妹"/>
+    <x v="2"/>
+    <x v="31"/>
+    <x v="71"/>
+    <s v="玫瑰冰拿铁(杯)"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-26"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <x v="28"/>
     <m/>
     <x v="3"/>
-    <x v="31"/>
+    <x v="32"/>
     <x v="36"/>
     <m/>
     <m/>
@@ -7397,7 +7474,399 @@
     <x v="28"/>
     <m/>
     <x v="3"/>
-    <x v="31"/>
+    <x v="32"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
     <x v="36"/>
     <m/>
     <m/>
@@ -7411,7 +7880,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="245">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="277">
   <r>
     <x v="0"/>
     <s v="档爸"/>
@@ -10815,12 +11284,68 @@
     <m/>
   </r>
   <r>
+    <x v="11"/>
+    <s v="雅"/>
+    <x v="1"/>
+    <x v="31"/>
+    <x v="30"/>
+    <x v="19"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="兔兔妈妈"/>
+    <x v="2"/>
+    <x v="31"/>
+    <x v="30"/>
+    <x v="19"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="勇哥"/>
+    <x v="2"/>
+    <x v="31"/>
+    <x v="71"/>
+    <x v="41"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-26"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="曹曹妹妹"/>
+    <x v="2"/>
+    <x v="31"/>
+    <x v="71"/>
+    <x v="41"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="-26"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <x v="28"/>
     <m/>
     <x v="3"/>
-    <x v="31"/>
+    <x v="32"/>
     <x v="36"/>
-    <x v="41"/>
+    <x v="42"/>
     <m/>
     <m/>
     <m/>
@@ -10832,9 +11357,401 @@
     <x v="28"/>
     <m/>
     <x v="3"/>
-    <x v="31"/>
+    <x v="32"/>
     <x v="36"/>
-    <x v="41"/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <m/>
+    <x v="3"/>
+    <x v="32"/>
+    <x v="36"/>
+    <x v="42"/>
     <m/>
     <m/>
     <m/>
@@ -11227,195 +12144,28 @@
   </r>
   <r>
     <x v="42"/>
+    <s v="玫瑰冰拿铁"/>
+    <x v="0"/>
+    <n v="26"/>
+    <s v="杯"/>
+    <n v="1"/>
+    <d v="2016-04-27T00:00:00"/>
+  </r>
+  <r>
+    <x v="43"/>
     <m/>
     <x v="8"/>
     <m/>
     <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="42"/>
-    <m/>
-    <x v="8"/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="1"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="110" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="Q10:R34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="46">
-        <item x="15"/>
-        <item x="14"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="10"/>
-        <item x="1"/>
-        <item x="13"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="12"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="11"/>
-        <item x="5"/>
-        <item h="1" x="41"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="29"/>
-        <item h="1" x="34"/>
-        <item h="1" x="22"/>
-        <item h="1" x="24"/>
-        <item h="1" x="23"/>
-        <item h="1" x="25"/>
-        <item h="1" x="26"/>
-        <item h="1" x="27"/>
-        <item h="1" x="28"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" x="31"/>
-        <item h="1" x="32"/>
-        <item h="1" x="30"/>
-        <item h="1" x="33"/>
-        <item h="1" x="35"/>
-        <item h="1" x="36"/>
-        <item h="1" x="37"/>
-        <item h="1" x="38"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" x="39"/>
-        <item h="1" x="40"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="24">
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="求和/数量" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="110" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H10:M50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="148" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H10:M54" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
       <items count="35">
@@ -11469,7 +12219,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="34">
+      <items count="35">
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
         <item sd="0" x="2"/>
@@ -11492,7 +12242,7 @@
         <item sd="0" x="19"/>
         <item sd="0" x="20"/>
         <item sd="0" x="21"/>
-        <item sd="0" m="1" x="32"/>
+        <item sd="0" m="1" x="33"/>
         <item sd="0" x="22"/>
         <item sd="0" x="23"/>
         <item sd="0" x="24"/>
@@ -11501,14 +12251,15 @@
         <item sd="0" x="27"/>
         <item sd="0" x="28"/>
         <item sd="0" x="29"/>
+        <item sd="0" x="32"/>
+        <item x="30"/>
         <item x="31"/>
-        <item x="30"/>
         <item t="default" sd="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="79">
-        <item sd="0" m="1" x="71"/>
+      <items count="81">
+        <item sd="0" m="1" x="72"/>
         <item sd="0" x="22"/>
         <item sd="0" x="21"/>
         <item x="3"/>
@@ -11535,7 +12286,7 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
-        <item m="1" x="75"/>
+        <item m="1" x="77"/>
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
@@ -11556,11 +12307,11 @@
         <item x="41"/>
         <item x="42"/>
         <item x="43"/>
+        <item m="1" x="74"/>
+        <item x="44"/>
         <item m="1" x="73"/>
-        <item x="44"/>
-        <item m="1" x="72"/>
-        <item m="1" x="74"/>
-        <item m="1" x="77"/>
+        <item m="1" x="75"/>
+        <item m="1" x="79"/>
         <item x="48"/>
         <item x="49"/>
         <item x="50"/>
@@ -11582,10 +12333,12 @@
         <item x="65"/>
         <item x="66"/>
         <item x="67"/>
-        <item m="1" x="76"/>
+        <item m="1" x="78"/>
         <item x="68"/>
         <item x="69"/>
         <item x="70"/>
+        <item m="1" x="76"/>
+        <item x="71"/>
         <item t="default" sd="0"/>
       </items>
     </pivotField>
@@ -11602,7 +12355,7 @@
     <field x="0"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="39">
+  <rowItems count="43">
     <i>
       <x/>
     </i>
@@ -11696,12 +12449,6 @@
     <i>
       <x v="31"/>
     </i>
-    <i r="1">
-      <x v="18"/>
-    </i>
-    <i r="2">
-      <x v="36"/>
-    </i>
     <i>
       <x v="32"/>
     </i>
@@ -11716,6 +12463,24 @@
     </i>
     <i r="1">
       <x v="21"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="2">
+      <x v="79"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
     </i>
     <i t="grand">
       <x/>
@@ -11745,7 +12510,7 @@
     <dataField name="求和/汇总金额" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="87">
+    <format dxfId="79">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -11757,7 +12522,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="78">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -11766,7 +12531,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="85">
+    <format dxfId="77">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -11775,7 +12540,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="76">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -11784,7 +12549,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="75">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -11793,7 +12558,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="82">
+    <format dxfId="74">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -11802,7 +12567,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="81">
+    <format dxfId="73">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -11811,7 +12576,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
@@ -11828,9 +12593,177 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="148" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="Q10:R34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="47">
+        <item x="15"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="11"/>
+        <item x="5"/>
+        <item h="1" x="42"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="29"/>
+        <item h="1" x="34"/>
+        <item h="1" x="22"/>
+        <item h="1" x="24"/>
+        <item h="1" x="23"/>
+        <item h="1" x="25"/>
+        <item h="1" x="26"/>
+        <item h="1" x="27"/>
+        <item h="1" x="28"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" x="31"/>
+        <item h="1" x="32"/>
+        <item h="1" x="30"/>
+        <item h="1" x="33"/>
+        <item h="1" x="35"/>
+        <item h="1" x="36"/>
+        <item h="1" x="37"/>
+        <item h="1" x="38"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" x="39"/>
+        <item h="1" x="40"/>
+        <item h="1" x="41"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="24">
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="求和/数量" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="会员汇总" cacheId="103" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" grandTotalCaption="余额" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B12:C24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="会员汇总" cacheId="141" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" grandTotalCaption="余额" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B12:C22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="36">
@@ -11856,8 +12789,8 @@
         <item h="1" x="15"/>
         <item h="1" x="16"/>
         <item h="1" x="7"/>
-        <item x="17"/>
-        <item h="1" x="18"/>
+        <item h="1" x="17"/>
+        <item x="18"/>
         <item h="1" x="19"/>
         <item h="1" x="20"/>
         <item h="1" x="21"/>
@@ -11875,7 +12808,7 @@
     <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0" countASubtotal="1">
       <items count="7">
-        <item sd="0" x="0"/>
+        <item x="0"/>
         <item sd="0" x="1"/>
         <item sd="0" x="3"/>
         <item x="2"/>
@@ -11885,7 +12818,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="34">
+      <items count="35">
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
         <item sd="0" x="2"/>
@@ -11894,7 +12827,7 @@
         <item sd="0" x="5"/>
         <item sd="0" x="6"/>
         <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
+        <item x="8"/>
         <item sd="0" x="9"/>
         <item sd="0" x="10"/>
         <item sd="0" x="11"/>
@@ -11908,34 +12841,35 @@
         <item sd="0" x="19"/>
         <item sd="0" x="20"/>
         <item sd="0" x="21"/>
-        <item m="1" x="32"/>
+        <item m="1" x="33"/>
         <item sd="0" x="22"/>
         <item sd="0" x="23"/>
         <item x="24"/>
-        <item x="25"/>
+        <item sd="0" x="25"/>
         <item sd="0" x="26"/>
         <item sd="0" x="27"/>
         <item sd="0" x="28"/>
         <item sd="0" x="29"/>
+        <item x="32"/>
+        <item x="30"/>
         <item x="31"/>
-        <item x="30"/>
         <item t="default" sd="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="88">
-        <item m="1" x="81"/>
+      <items count="90">
+        <item m="1" x="83"/>
+        <item m="1" x="78"/>
+        <item m="1" x="89"/>
+        <item m="1" x="72"/>
+        <item m="1" x="76"/>
         <item m="1" x="77"/>
         <item m="1" x="87"/>
-        <item m="1" x="71"/>
-        <item m="1" x="75"/>
-        <item m="1" x="76"/>
-        <item m="1" x="85"/>
-        <item m="1" x="79"/>
         <item m="1" x="80"/>
+        <item m="1" x="81"/>
         <item x="36"/>
         <item x="0"/>
-        <item m="1" x="82"/>
+        <item m="1" x="84"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
@@ -11945,7 +12879,7 @@
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
-        <item m="1" x="72"/>
+        <item m="1" x="73"/>
         <item x="10"/>
         <item x="11"/>
         <item x="12"/>
@@ -11962,7 +12896,7 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
-        <item m="1" x="83"/>
+        <item m="1" x="85"/>
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
@@ -11982,11 +12916,11 @@
         <item x="41"/>
         <item x="42"/>
         <item x="43"/>
+        <item m="1" x="75"/>
+        <item x="44"/>
         <item m="1" x="74"/>
-        <item x="44"/>
-        <item m="1" x="73"/>
-        <item m="1" x="78"/>
-        <item m="1" x="86"/>
+        <item m="1" x="79"/>
+        <item m="1" x="88"/>
         <item x="48"/>
         <item x="49"/>
         <item x="50"/>
@@ -12008,10 +12942,12 @@
         <item x="65"/>
         <item x="66"/>
         <item x="67"/>
-        <item m="1" x="84"/>
+        <item m="1" x="86"/>
         <item x="68"/>
         <item x="69"/>
         <item x="70"/>
+        <item m="1" x="82"/>
+        <item x="71"/>
       </items>
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -12027,39 +12963,33 @@
     <field x="2"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="12">
+  <rowItems count="10">
     <i>
       <x v="8"/>
     </i>
-    <i>
-      <x v="12"/>
+    <i r="1">
+      <x/>
     </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="32"/>
+    <i r="2">
+      <x v="10"/>
     </i>
     <i r="1">
       <x v="3"/>
     </i>
     <i r="2">
-      <x v="87"/>
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="89"/>
     </i>
     <i t="grand">
       <x/>
@@ -12075,10 +13005,10 @@
     <dataField name="消费明细" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="89">
+    <format dxfId="81">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="88">
+    <format dxfId="80">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -12098,12 +13028,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="114" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="152" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B57" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
-      <items count="48">
-        <item m="1" x="44"/>
+      <items count="49">
+        <item m="1" x="45"/>
         <item x="19"/>
         <item x="21"/>
         <item x="18"/>
@@ -12138,8 +13068,8 @@
         <item x="31"/>
         <item x="32"/>
         <item x="33"/>
+        <item m="1" x="47"/>
         <item m="1" x="46"/>
-        <item m="1" x="45"/>
         <item x="34"/>
         <item x="35"/>
         <item x="36"/>
@@ -12147,8 +13077,9 @@
         <item x="38"/>
         <item x="39"/>
         <item x="40"/>
-        <item m="1" x="43"/>
+        <item m="1" x="44"/>
         <item x="41"/>
+        <item x="43"/>
         <item x="42"/>
         <item t="default"/>
       </items>
@@ -12177,7 +13108,7 @@
     <field x="2"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="53">
+  <rowItems count="54">
     <i>
       <x/>
     </i>
@@ -12313,6 +13244,9 @@
     <i r="1">
       <x v="45"/>
     </i>
+    <i r="1">
+      <x v="47"/>
+    </i>
     <i>
       <x v="6"/>
     </i>
@@ -12354,41 +13288,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:M247" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69" headerRowBorderDxfId="67" tableBorderDxfId="68" totalsRowBorderDxfId="66">
-  <autoFilter ref="B2:M247"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:M279" totalsRowShown="0" headerRowDxfId="71" dataDxfId="69" headerRowBorderDxfId="70" tableBorderDxfId="68" totalsRowBorderDxfId="67">
+  <autoFilter ref="B2:M279"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="姓名" dataDxfId="65"/>
-    <tableColumn id="2" name="昵称" dataDxfId="64"/>
-    <tableColumn id="3" name="类型（充值／消费／其他）" dataDxfId="63"/>
-    <tableColumn id="4" name="日期" dataDxfId="62"/>
-    <tableColumn id="5" name="显示条目" dataDxfId="61"/>
-    <tableColumn id="6" name="产品" dataDxfId="60"/>
-    <tableColumn id="7" name="数量" dataDxfId="59"/>
-    <tableColumn id="8" name="DC" dataDxfId="58"/>
-    <tableColumn id="9" name="充值金额" dataDxfId="57"/>
-    <tableColumn id="10" name="汇总金额" dataDxfId="56">
+    <tableColumn id="1" name="姓名" dataDxfId="66"/>
+    <tableColumn id="2" name="昵称" dataDxfId="65"/>
+    <tableColumn id="3" name="类型（充值／消费／其他）" dataDxfId="64"/>
+    <tableColumn id="4" name="日期" dataDxfId="63"/>
+    <tableColumn id="5" name="显示条目" dataDxfId="62"/>
+    <tableColumn id="6" name="产品" dataDxfId="61"/>
+    <tableColumn id="7" name="数量" dataDxfId="60"/>
+    <tableColumn id="8" name="DC" dataDxfId="59"/>
+    <tableColumn id="9" name="充值金额" dataDxfId="58"/>
+    <tableColumn id="10" name="汇总金额" dataDxfId="57">
       <calculatedColumnFormula>IF(表1[[#This Row],[姓名]]="",0,IF(D3="充值",J3,VLOOKUP(G3,表2[#All],4,FALSE)*H3*I3*-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="签名" dataDxfId="55"/>
-    <tableColumn id="12" name="备注" dataDxfId="54"/>
+    <tableColumn id="11" name="签名" dataDxfId="56"/>
+    <tableColumn id="12" name="备注" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B2:H46" totalsRowShown="0" headerRowDxfId="79" headerRowBorderDxfId="78" tableBorderDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B2:H46" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="53" tableBorderDxfId="52">
   <autoFilter ref="B2:H46"/>
   <sortState ref="B3:H35">
     <sortCondition descending="1" ref="D2:D35"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="描述" dataDxfId="76"/>
-    <tableColumn id="2" name="名称" dataDxfId="75"/>
-    <tableColumn id="3" name="类别" dataDxfId="74"/>
-    <tableColumn id="4" name="售价" dataDxfId="73"/>
-    <tableColumn id="5" name="单位" dataDxfId="72"/>
-    <tableColumn id="6" name="菜单版本号" dataDxfId="71"/>
+    <tableColumn id="1" name="描述" dataDxfId="51"/>
+    <tableColumn id="2" name="名称" dataDxfId="50"/>
+    <tableColumn id="3" name="类别" dataDxfId="49"/>
+    <tableColumn id="4" name="售价" dataDxfId="48"/>
+    <tableColumn id="5" name="单位" dataDxfId="47"/>
+    <tableColumn id="6" name="菜单版本号" dataDxfId="46"/>
     <tableColumn id="7" name="创建日期"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -12658,26 +13592,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R50"/>
+  <dimension ref="B1:R54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" zoomScale="94" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="33.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="2" max="2" width="42.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.83203125" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" customWidth="1"/>
-    <col min="12" max="12" width="7.5" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" customWidth="1"/>
     <col min="14" max="14" width="6.5" customWidth="1"/>
     <col min="15" max="15" width="6.6640625" customWidth="1"/>
     <col min="17" max="17" width="21.5" customWidth="1"/>
@@ -12734,10 +13668,10 @@
       <c r="B7" s="28"/>
     </row>
     <row r="8" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="71"/>
+      <c r="C8" s="72"/>
     </row>
     <row r="9" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="27"/>
@@ -12747,7 +13681,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>111</v>
@@ -12817,7 +13751,7 @@
         <v>42473</v>
       </c>
       <c r="C13" s="11">
-        <v>1475</v>
+        <v>445</v>
       </c>
       <c r="H13" s="38">
         <v>42466</v>
@@ -12841,11 +13775,11 @@
       </c>
     </row>
     <row r="14" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B14" s="34">
-        <v>42477</v>
+      <c r="B14" s="67" t="s">
+        <v>8</v>
       </c>
       <c r="C14" s="11">
-        <v>-70</v>
+        <v>1</v>
       </c>
       <c r="H14" s="38">
         <v>42467</v>
@@ -12869,11 +13803,11 @@
       </c>
     </row>
     <row r="15" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B15" s="34">
-        <v>42481</v>
+      <c r="B15" s="68" t="s">
+        <v>306</v>
       </c>
       <c r="C15" s="11">
-        <v>-100</v>
+        <v>500</v>
       </c>
       <c r="H15" s="38">
         <v>42468</v>
@@ -12897,11 +13831,11 @@
       </c>
     </row>
     <row r="16" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B16" s="34">
-        <v>42482</v>
+      <c r="B16" s="67" t="s">
+        <v>91</v>
       </c>
       <c r="C16" s="11">
-        <v>-25</v>
+        <v>2</v>
       </c>
       <c r="H16" s="38">
         <v>42469</v>
@@ -12918,18 +13852,18 @@
         <v>-370</v>
       </c>
       <c r="Q16" s="31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R16" s="32">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B17" s="34">
-        <v>42484</v>
+      <c r="B17" s="68" t="s">
+        <v>303</v>
       </c>
       <c r="C17" s="11">
-        <v>-165</v>
+        <v>-25</v>
       </c>
       <c r="E17" s="25"/>
       <c r="H17" s="38">
@@ -12947,18 +13881,18 @@
         <v>-958</v>
       </c>
       <c r="Q17" s="31" t="s">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="R17" s="32">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B18" s="34">
-        <v>42488</v>
+      <c r="B18" s="68" t="s">
+        <v>305</v>
       </c>
       <c r="C18" s="11">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="H18" s="38">
         <v>42471</v>
@@ -12975,7 +13909,7 @@
         <v>-45</v>
       </c>
       <c r="Q18" s="31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R18" s="32">
         <v>10</v>
@@ -12983,10 +13917,10 @@
     </row>
     <row r="19" spans="2:18" ht="24" x14ac:dyDescent="0.25">
       <c r="B19" s="34">
-        <v>42491</v>
+        <v>42501</v>
       </c>
       <c r="C19" s="11">
-        <v>-25</v>
+        <v>-26</v>
       </c>
       <c r="F19" s="25"/>
       <c r="H19" s="38">
@@ -13006,18 +13940,18 @@
         <v>255</v>
       </c>
       <c r="Q19" s="31" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="R19" s="32">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B20" s="34">
-        <v>42499</v>
+      <c r="B20" s="67" t="s">
+        <v>91</v>
       </c>
       <c r="C20" s="11">
-        <v>-100</v>
+        <v>1</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="38">
@@ -13045,11 +13979,11 @@
       </c>
     </row>
     <row r="21" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B21" s="34">
-        <v>42500</v>
+      <c r="B21" s="68" t="s">
+        <v>304</v>
       </c>
       <c r="C21" s="11">
-        <v>-52</v>
+        <v>-26</v>
       </c>
       <c r="H21" s="38">
         <v>42474</v>
@@ -13075,11 +14009,11 @@
       </c>
     </row>
     <row r="22" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B22" s="67" t="s">
-        <v>91</v>
+      <c r="B22" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="C22" s="11">
-        <v>1</v>
+        <v>419</v>
       </c>
       <c r="H22" s="38">
         <v>42475</v>
@@ -13104,13 +14038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B23" s="68" t="s">
-        <v>295</v>
-      </c>
-      <c r="C23" s="11">
-        <v>-52</v>
-      </c>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H23" s="38">
         <v>42476</v>
       </c>
@@ -13134,13 +14062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="11">
-        <v>838</v>
-      </c>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H24" s="38">
         <v>42477</v>
       </c>
@@ -13162,7 +14084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H25" s="38">
         <v>42479</v>
       </c>
@@ -13182,7 +14104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D26" s="25"/>
       <c r="H26" s="38">
         <v>42480</v>
@@ -13207,7 +14129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H27" s="38">
         <v>42481</v>
       </c>
@@ -13227,7 +14149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H28" s="38">
         <v>42482</v>
       </c>
@@ -13247,7 +14169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H29" s="38">
         <v>42484</v>
       </c>
@@ -13269,7 +14191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H30" s="38">
         <v>42486</v>
       </c>
@@ -13291,7 +14213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H31" s="38">
         <v>42487</v>
       </c>
@@ -13313,7 +14235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H32" s="38">
         <v>42488</v>
       </c>
@@ -13335,7 +14257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="8:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:18" x14ac:dyDescent="0.15">
       <c r="H33" s="38">
         <v>42489</v>
       </c>
@@ -13357,7 +14279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:18" x14ac:dyDescent="0.15">
       <c r="H34" s="38">
         <v>42491</v>
       </c>
@@ -13374,10 +14296,10 @@
         <v>110</v>
       </c>
       <c r="R34" s="32">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="35" spans="8:18" ht="24" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="8:18" x14ac:dyDescent="0.15">
       <c r="H35" s="38">
         <v>42492</v>
       </c>
@@ -13504,50 +14426,50 @@
       </c>
     </row>
     <row r="43" spans="8:18" x14ac:dyDescent="0.15">
-      <c r="H43" s="35" t="s">
-        <v>90</v>
+      <c r="H43" s="38">
+        <v>42500</v>
       </c>
       <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
+      <c r="J43" s="32">
+        <v>-128</v>
+      </c>
       <c r="K43" s="32"/>
-      <c r="L43" s="32">
-        <v>0</v>
-      </c>
+      <c r="L43" s="32"/>
       <c r="M43" s="32">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="44" spans="8:18" x14ac:dyDescent="0.15">
-      <c r="H44" s="72" t="s">
-        <v>90</v>
+      <c r="H44" s="35" t="s">
+        <v>285</v>
       </c>
       <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
+      <c r="J44" s="32">
+        <v>-25</v>
+      </c>
       <c r="K44" s="32"/>
-      <c r="L44" s="32">
-        <v>0</v>
-      </c>
+      <c r="L44" s="32"/>
       <c r="M44" s="32">
-        <v>0</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="45" spans="8:18" x14ac:dyDescent="0.15">
-      <c r="H45" s="38">
-        <v>42500</v>
+      <c r="H45" s="35" t="s">
+        <v>294</v>
       </c>
       <c r="I45" s="32"/>
       <c r="J45" s="32">
-        <v>-128</v>
+        <v>-26</v>
       </c>
       <c r="K45" s="32"/>
       <c r="L45" s="32"/>
       <c r="M45" s="32">
-        <v>-128</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="46" spans="8:18" x14ac:dyDescent="0.15">
       <c r="H46" s="35" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="I46" s="32"/>
       <c r="J46" s="32">
@@ -13561,64 +14483,122 @@
     </row>
     <row r="47" spans="8:18" x14ac:dyDescent="0.15">
       <c r="H47" s="35" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="I47" s="32"/>
       <c r="J47" s="32">
-        <v>-26</v>
+        <v>-52</v>
       </c>
       <c r="K47" s="32"/>
       <c r="L47" s="32"/>
       <c r="M47" s="32">
-        <v>-26</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="48" spans="8:18" x14ac:dyDescent="0.15">
-      <c r="H48" s="35" t="s">
-        <v>292</v>
+      <c r="H48" s="38">
+        <v>42501</v>
       </c>
       <c r="I48" s="32"/>
       <c r="J48" s="32">
-        <v>-25</v>
-      </c>
-      <c r="K48" s="32"/>
+        <v>-82</v>
+      </c>
+      <c r="K48" s="32">
+        <v>-30</v>
+      </c>
       <c r="L48" s="32"/>
       <c r="M48" s="32">
-        <v>-25</v>
+        <v>-112</v>
       </c>
     </row>
     <row r="49" spans="8:13" x14ac:dyDescent="0.15">
       <c r="H49" s="35" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="I49" s="32"/>
-      <c r="J49" s="32">
-        <v>-52</v>
-      </c>
-      <c r="K49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32">
+        <v>-30</v>
+      </c>
       <c r="L49" s="32"/>
       <c r="M49" s="32">
-        <v>-52</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="50" spans="8:13" x14ac:dyDescent="0.15">
-      <c r="H50" s="31" t="s">
+      <c r="H50" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32">
+        <v>-30</v>
+      </c>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="51" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H51" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32">
+        <v>-26</v>
+      </c>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="52" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H52" s="73" t="s">
+        <v>304</v>
+      </c>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32">
+        <v>-26</v>
+      </c>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="53" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H53" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32">
+        <v>-26</v>
+      </c>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="54" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H54" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="I50" s="32">
+      <c r="I54" s="32">
         <v>21500</v>
       </c>
-      <c r="J50" s="32">
-        <v>-7575</v>
-      </c>
-      <c r="K50" s="32">
-        <v>-5783</v>
-      </c>
-      <c r="L50" s="32">
+      <c r="J54" s="32">
+        <v>-7657</v>
+      </c>
+      <c r="K54" s="32">
+        <v>-5813</v>
+      </c>
+      <c r="L54" s="32">
         <v>0</v>
       </c>
-      <c r="M50" s="32">
-        <v>8142</v>
+      <c r="M54" s="32">
+        <v>8030</v>
       </c>
     </row>
   </sheetData>
@@ -13633,10 +14613,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M247"/>
+  <dimension ref="B1:M279"/>
   <sheetViews>
-    <sheetView topLeftCell="A227" zoomScale="109" workbookViewId="0">
-      <selection activeCell="H246" sqref="H246"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="109" workbookViewId="0">
+      <selection activeCell="F256" sqref="F256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -21920,7 +22900,7 @@
         <v>42500</v>
       </c>
       <c r="F244" s="12" t="str">
-        <f t="shared" ref="F244" si="27">CONCATENATE(G244,"x",H244)</f>
+        <f t="shared" ref="F244:F254" si="27">CONCATENATE(G244,"x",H244)</f>
         <v>摩卡咖啡(杯)x1</v>
       </c>
       <c r="G244" s="5" t="s">
@@ -21954,7 +22934,7 @@
         <v>42500</v>
       </c>
       <c r="F245" s="12" t="str">
-        <f t="shared" ref="F245" si="28">CONCATENATE(G245,"x",H245)</f>
+        <f t="shared" si="27"/>
         <v>摩卡咖啡(杯)x2</v>
       </c>
       <c r="G245" s="5" t="s">
@@ -21975,38 +22955,735 @@
       <c r="M245" s="16"/>
     </row>
     <row r="246" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B246" s="15"/>
-      <c r="C246" s="4"/>
-      <c r="D246" s="6"/>
-      <c r="E246" s="12"/>
-      <c r="F246" s="12"/>
-      <c r="G246" s="5"/>
-      <c r="H246" s="6"/>
-      <c r="I246" s="6"/>
+      <c r="B246" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E246" s="69">
+        <v>42501</v>
+      </c>
+      <c r="F246" s="12" t="str">
+        <f t="shared" si="27"/>
+        <v>德国手工花果茶(杯)x1</v>
+      </c>
+      <c r="G246" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H246" s="6">
+        <v>1</v>
+      </c>
+      <c r="I246" s="6">
+        <v>1</v>
+      </c>
       <c r="J246" s="6"/>
       <c r="K246" s="5">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D246="充值",J246,VLOOKUP(G246,表2[#All],4,FALSE)*H246*I246*-1))</f>
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="L246" s="6"/>
       <c r="M246" s="16"/>
     </row>
     <row r="247" spans="2:13" ht="22" x14ac:dyDescent="0.35">
-      <c r="B247" s="20"/>
-      <c r="C247" s="21"/>
-      <c r="D247" s="22"/>
-      <c r="E247" s="70"/>
-      <c r="F247" s="70"/>
-      <c r="G247" s="23"/>
-      <c r="H247" s="22"/>
-      <c r="I247" s="22"/>
-      <c r="J247" s="22"/>
-      <c r="K247" s="23">
+      <c r="B247" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E247" s="69">
+        <v>42501</v>
+      </c>
+      <c r="F247" s="12" t="str">
+        <f t="shared" si="27"/>
+        <v>德国手工花果茶(杯)x1</v>
+      </c>
+      <c r="G247" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H247" s="6">
+        <v>1</v>
+      </c>
+      <c r="I247" s="6">
+        <v>1</v>
+      </c>
+      <c r="J247" s="6"/>
+      <c r="K247" s="5">
         <f>IF(表1[[#This Row],[姓名]]="",0,IF(D247="充值",J247,VLOOKUP(G247,表2[#All],4,FALSE)*H247*I247*-1))</f>
+        <v>-30</v>
+      </c>
+      <c r="L247" s="6"/>
+      <c r="M247" s="16"/>
+    </row>
+    <row r="248" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B248" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E248" s="69">
+        <v>42501</v>
+      </c>
+      <c r="F248" s="12" t="str">
+        <f t="shared" si="27"/>
+        <v>玫瑰冰拿铁(杯)x1</v>
+      </c>
+      <c r="G248" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H248" s="6">
+        <v>1</v>
+      </c>
+      <c r="I248" s="6">
+        <v>1</v>
+      </c>
+      <c r="J248" s="6"/>
+      <c r="K248" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D248="充值",J248,VLOOKUP(G248,表2[#All],4,FALSE)*H248*I248*-1))</f>
+        <v>-26</v>
+      </c>
+      <c r="L248" s="6"/>
+      <c r="M248" s="16"/>
+    </row>
+    <row r="249" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B249" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E249" s="69">
+        <v>42501</v>
+      </c>
+      <c r="F249" s="12" t="str">
+        <f t="shared" si="27"/>
+        <v>玫瑰冰拿铁(杯)x1</v>
+      </c>
+      <c r="G249" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H249" s="6">
+        <v>1</v>
+      </c>
+      <c r="I249" s="6">
+        <v>1</v>
+      </c>
+      <c r="J249" s="6"/>
+      <c r="K249" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D249="充值",J249,VLOOKUP(G249,表2[#All],4,FALSE)*H249*I249*-1))</f>
+        <v>-26</v>
+      </c>
+      <c r="L249" s="6"/>
+      <c r="M249" s="16"/>
+    </row>
+    <row r="250" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B250" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D250" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E250" s="12">
+        <v>42502</v>
+      </c>
+      <c r="F250" s="12" t="str">
+        <f t="shared" si="27"/>
+        <v>儿童绘本演读专场(会员）(1大1小)x1</v>
+      </c>
+      <c r="G250" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H250" s="22">
+        <v>1</v>
+      </c>
+      <c r="I250" s="22">
+        <v>1</v>
+      </c>
+      <c r="J250" s="22"/>
+      <c r="K250" s="23">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D250="充值",J250,VLOOKUP(G250,表2[#All],4,FALSE)*H250*I250*-1))</f>
+        <v>-100</v>
+      </c>
+      <c r="L250" s="22"/>
+      <c r="M250" s="24"/>
+    </row>
+    <row r="251" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B251" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E251" s="12">
+        <v>42502</v>
+      </c>
+      <c r="F251" s="12" t="str">
+        <f t="shared" si="27"/>
+        <v>儿童绘本演读专场(会员）(1大1小)x1</v>
+      </c>
+      <c r="G251" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H251" s="22">
+        <v>1</v>
+      </c>
+      <c r="I251" s="22">
+        <v>1</v>
+      </c>
+      <c r="J251" s="22"/>
+      <c r="K251" s="23">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D251="充值",J251,VLOOKUP(G251,表2[#All],4,FALSE)*H251*I251*-1))</f>
+        <v>-100</v>
+      </c>
+      <c r="L251" s="22"/>
+      <c r="M251" s="24"/>
+    </row>
+    <row r="252" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B252" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E252" s="12">
+        <v>42502</v>
+      </c>
+      <c r="F252" s="12" t="str">
+        <f t="shared" si="27"/>
+        <v>儿童绘本演读专场(会员）(1大1小)x1</v>
+      </c>
+      <c r="G252" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H252" s="6">
+        <v>1</v>
+      </c>
+      <c r="I252" s="6">
+        <v>1</v>
+      </c>
+      <c r="J252" s="6"/>
+      <c r="K252" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D252="充值",J252,VLOOKUP(G252,表2[#All],4,FALSE)*H252*I252*-1))</f>
+        <v>-100</v>
+      </c>
+      <c r="L252" s="6"/>
+      <c r="M252" s="16"/>
+    </row>
+    <row r="253" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B253" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D253" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E253" s="12">
+        <v>42502</v>
+      </c>
+      <c r="F253" s="12" t="str">
+        <f t="shared" si="27"/>
+        <v>儿童绘本演读专场(会员）(1大1小)x1</v>
+      </c>
+      <c r="G253" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H253" s="22">
+        <v>1</v>
+      </c>
+      <c r="I253" s="22">
+        <v>1</v>
+      </c>
+      <c r="J253" s="22"/>
+      <c r="K253" s="23">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D253="充值",J253,VLOOKUP(G253,表2[#All],4,FALSE)*H253*I253*-1))</f>
+        <v>-100</v>
+      </c>
+      <c r="L253" s="22"/>
+      <c r="M253" s="24"/>
+    </row>
+    <row r="254" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B254" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E254" s="12">
+        <v>42502</v>
+      </c>
+      <c r="F254" s="12" t="str">
+        <f t="shared" si="27"/>
+        <v>儿童绘本演读专场(会员）(1大1小)x1</v>
+      </c>
+      <c r="G254" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H254" s="22">
+        <v>1</v>
+      </c>
+      <c r="I254" s="22">
+        <v>1</v>
+      </c>
+      <c r="J254" s="22"/>
+      <c r="K254" s="23">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D254="充值",J254,VLOOKUP(G254,表2[#All],4,FALSE)*H254*I254*-1))</f>
+        <v>-100</v>
+      </c>
+      <c r="L254" s="22"/>
+      <c r="M254" s="24"/>
+    </row>
+    <row r="255" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B255" s="15"/>
+      <c r="C255" s="4"/>
+      <c r="D255" s="6"/>
+      <c r="E255" s="12"/>
+      <c r="F255" s="12"/>
+      <c r="G255" s="5"/>
+      <c r="H255" s="6"/>
+      <c r="I255" s="6"/>
+      <c r="J255" s="6"/>
+      <c r="K255" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D255="充值",J255,VLOOKUP(G255,表2[#All],4,FALSE)*H255*I255*-1))</f>
         <v>0</v>
       </c>
-      <c r="L247" s="22"/>
-      <c r="M247" s="24"/>
+      <c r="L255" s="6"/>
+      <c r="M255" s="16"/>
+    </row>
+    <row r="256" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B256" s="15"/>
+      <c r="C256" s="4"/>
+      <c r="D256" s="6"/>
+      <c r="E256" s="12"/>
+      <c r="F256" s="12"/>
+      <c r="G256" s="5"/>
+      <c r="H256" s="6"/>
+      <c r="I256" s="6"/>
+      <c r="J256" s="6"/>
+      <c r="K256" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D256="充值",J256,VLOOKUP(G256,表2[#All],4,FALSE)*H256*I256*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L256" s="6"/>
+      <c r="M256" s="16"/>
+    </row>
+    <row r="257" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B257" s="15"/>
+      <c r="C257" s="4"/>
+      <c r="D257" s="6"/>
+      <c r="E257" s="12"/>
+      <c r="F257" s="12"/>
+      <c r="G257" s="5"/>
+      <c r="H257" s="6"/>
+      <c r="I257" s="6"/>
+      <c r="J257" s="6"/>
+      <c r="K257" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D257="充值",J257,VLOOKUP(G257,表2[#All],4,FALSE)*H257*I257*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L257" s="6"/>
+      <c r="M257" s="16"/>
+    </row>
+    <row r="258" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B258" s="15"/>
+      <c r="C258" s="4"/>
+      <c r="D258" s="6"/>
+      <c r="E258" s="12"/>
+      <c r="F258" s="12"/>
+      <c r="G258" s="5"/>
+      <c r="H258" s="6"/>
+      <c r="I258" s="6"/>
+      <c r="J258" s="6"/>
+      <c r="K258" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D258="充值",J258,VLOOKUP(G258,表2[#All],4,FALSE)*H258*I258*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L258" s="6"/>
+      <c r="M258" s="16"/>
+    </row>
+    <row r="259" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B259" s="15"/>
+      <c r="C259" s="4"/>
+      <c r="D259" s="6"/>
+      <c r="E259" s="12"/>
+      <c r="F259" s="12"/>
+      <c r="G259" s="5"/>
+      <c r="H259" s="6"/>
+      <c r="I259" s="6"/>
+      <c r="J259" s="6"/>
+      <c r="K259" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D259="充值",J259,VLOOKUP(G259,表2[#All],4,FALSE)*H259*I259*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L259" s="6"/>
+      <c r="M259" s="16"/>
+    </row>
+    <row r="260" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B260" s="15"/>
+      <c r="C260" s="4"/>
+      <c r="D260" s="6"/>
+      <c r="E260" s="12"/>
+      <c r="F260" s="12"/>
+      <c r="G260" s="5"/>
+      <c r="H260" s="6"/>
+      <c r="I260" s="6"/>
+      <c r="J260" s="6"/>
+      <c r="K260" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D260="充值",J260,VLOOKUP(G260,表2[#All],4,FALSE)*H260*I260*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L260" s="6"/>
+      <c r="M260" s="16"/>
+    </row>
+    <row r="261" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B261" s="15"/>
+      <c r="C261" s="4"/>
+      <c r="D261" s="6"/>
+      <c r="E261" s="12"/>
+      <c r="F261" s="12"/>
+      <c r="G261" s="5"/>
+      <c r="H261" s="6"/>
+      <c r="I261" s="6"/>
+      <c r="J261" s="6"/>
+      <c r="K261" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D261="充值",J261,VLOOKUP(G261,表2[#All],4,FALSE)*H261*I261*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L261" s="6"/>
+      <c r="M261" s="16"/>
+    </row>
+    <row r="262" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B262" s="15"/>
+      <c r="C262" s="4"/>
+      <c r="D262" s="6"/>
+      <c r="E262" s="12"/>
+      <c r="F262" s="12"/>
+      <c r="G262" s="5"/>
+      <c r="H262" s="6"/>
+      <c r="I262" s="6"/>
+      <c r="J262" s="6"/>
+      <c r="K262" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D262="充值",J262,VLOOKUP(G262,表2[#All],4,FALSE)*H262*I262*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L262" s="6"/>
+      <c r="M262" s="16"/>
+    </row>
+    <row r="263" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B263" s="15"/>
+      <c r="C263" s="4"/>
+      <c r="D263" s="6"/>
+      <c r="E263" s="12"/>
+      <c r="F263" s="12"/>
+      <c r="G263" s="5"/>
+      <c r="H263" s="6"/>
+      <c r="I263" s="6"/>
+      <c r="J263" s="6"/>
+      <c r="K263" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D263="充值",J263,VLOOKUP(G263,表2[#All],4,FALSE)*H263*I263*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L263" s="6"/>
+      <c r="M263" s="16"/>
+    </row>
+    <row r="264" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B264" s="15"/>
+      <c r="C264" s="4"/>
+      <c r="D264" s="6"/>
+      <c r="E264" s="12"/>
+      <c r="F264" s="12"/>
+      <c r="G264" s="5"/>
+      <c r="H264" s="6"/>
+      <c r="I264" s="6"/>
+      <c r="J264" s="6"/>
+      <c r="K264" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D264="充值",J264,VLOOKUP(G264,表2[#All],4,FALSE)*H264*I264*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L264" s="6"/>
+      <c r="M264" s="16"/>
+    </row>
+    <row r="265" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B265" s="15"/>
+      <c r="C265" s="4"/>
+      <c r="D265" s="6"/>
+      <c r="E265" s="12"/>
+      <c r="F265" s="12"/>
+      <c r="G265" s="5"/>
+      <c r="H265" s="6"/>
+      <c r="I265" s="6"/>
+      <c r="J265" s="6"/>
+      <c r="K265" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D265="充值",J265,VLOOKUP(G265,表2[#All],4,FALSE)*H265*I265*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L265" s="6"/>
+      <c r="M265" s="16"/>
+    </row>
+    <row r="266" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B266" s="15"/>
+      <c r="C266" s="4"/>
+      <c r="D266" s="6"/>
+      <c r="E266" s="12"/>
+      <c r="F266" s="12"/>
+      <c r="G266" s="5"/>
+      <c r="H266" s="6"/>
+      <c r="I266" s="6"/>
+      <c r="J266" s="6"/>
+      <c r="K266" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D266="充值",J266,VLOOKUP(G266,表2[#All],4,FALSE)*H266*I266*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L266" s="6"/>
+      <c r="M266" s="16"/>
+    </row>
+    <row r="267" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B267" s="15"/>
+      <c r="C267" s="4"/>
+      <c r="D267" s="6"/>
+      <c r="E267" s="12"/>
+      <c r="F267" s="12"/>
+      <c r="G267" s="5"/>
+      <c r="H267" s="6"/>
+      <c r="I267" s="6"/>
+      <c r="J267" s="6"/>
+      <c r="K267" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D267="充值",J267,VLOOKUP(G267,表2[#All],4,FALSE)*H267*I267*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L267" s="6"/>
+      <c r="M267" s="16"/>
+    </row>
+    <row r="268" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B268" s="15"/>
+      <c r="C268" s="4"/>
+      <c r="D268" s="6"/>
+      <c r="E268" s="12"/>
+      <c r="F268" s="12"/>
+      <c r="G268" s="5"/>
+      <c r="H268" s="6"/>
+      <c r="I268" s="6"/>
+      <c r="J268" s="6"/>
+      <c r="K268" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D268="充值",J268,VLOOKUP(G268,表2[#All],4,FALSE)*H268*I268*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L268" s="6"/>
+      <c r="M268" s="16"/>
+    </row>
+    <row r="269" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B269" s="15"/>
+      <c r="C269" s="4"/>
+      <c r="D269" s="6"/>
+      <c r="E269" s="12"/>
+      <c r="F269" s="12"/>
+      <c r="G269" s="5"/>
+      <c r="H269" s="6"/>
+      <c r="I269" s="6"/>
+      <c r="J269" s="6"/>
+      <c r="K269" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D269="充值",J269,VLOOKUP(G269,表2[#All],4,FALSE)*H269*I269*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L269" s="6"/>
+      <c r="M269" s="16"/>
+    </row>
+    <row r="270" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B270" s="15"/>
+      <c r="C270" s="4"/>
+      <c r="D270" s="6"/>
+      <c r="E270" s="12"/>
+      <c r="F270" s="12"/>
+      <c r="G270" s="5"/>
+      <c r="H270" s="6"/>
+      <c r="I270" s="6"/>
+      <c r="J270" s="6"/>
+      <c r="K270" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D270="充值",J270,VLOOKUP(G270,表2[#All],4,FALSE)*H270*I270*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L270" s="6"/>
+      <c r="M270" s="16"/>
+    </row>
+    <row r="271" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B271" s="15"/>
+      <c r="C271" s="4"/>
+      <c r="D271" s="6"/>
+      <c r="E271" s="12"/>
+      <c r="F271" s="12"/>
+      <c r="G271" s="5"/>
+      <c r="H271" s="6"/>
+      <c r="I271" s="6"/>
+      <c r="J271" s="6"/>
+      <c r="K271" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D271="充值",J271,VLOOKUP(G271,表2[#All],4,FALSE)*H271*I271*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L271" s="6"/>
+      <c r="M271" s="16"/>
+    </row>
+    <row r="272" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B272" s="15"/>
+      <c r="C272" s="4"/>
+      <c r="D272" s="6"/>
+      <c r="E272" s="12"/>
+      <c r="F272" s="12"/>
+      <c r="G272" s="5"/>
+      <c r="H272" s="6"/>
+      <c r="I272" s="6"/>
+      <c r="J272" s="6"/>
+      <c r="K272" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D272="充值",J272,VLOOKUP(G272,表2[#All],4,FALSE)*H272*I272*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L272" s="6"/>
+      <c r="M272" s="16"/>
+    </row>
+    <row r="273" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B273" s="15"/>
+      <c r="C273" s="4"/>
+      <c r="D273" s="6"/>
+      <c r="E273" s="12"/>
+      <c r="F273" s="12"/>
+      <c r="G273" s="5"/>
+      <c r="H273" s="6"/>
+      <c r="I273" s="6"/>
+      <c r="J273" s="6"/>
+      <c r="K273" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D273="充值",J273,VLOOKUP(G273,表2[#All],4,FALSE)*H273*I273*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L273" s="6"/>
+      <c r="M273" s="16"/>
+    </row>
+    <row r="274" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B274" s="15"/>
+      <c r="C274" s="4"/>
+      <c r="D274" s="6"/>
+      <c r="E274" s="12"/>
+      <c r="F274" s="12"/>
+      <c r="G274" s="5"/>
+      <c r="H274" s="6"/>
+      <c r="I274" s="6"/>
+      <c r="J274" s="6"/>
+      <c r="K274" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D274="充值",J274,VLOOKUP(G274,表2[#All],4,FALSE)*H274*I274*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L274" s="6"/>
+      <c r="M274" s="16"/>
+    </row>
+    <row r="275" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B275" s="15"/>
+      <c r="C275" s="4"/>
+      <c r="D275" s="6"/>
+      <c r="E275" s="12"/>
+      <c r="F275" s="12"/>
+      <c r="G275" s="5"/>
+      <c r="H275" s="6"/>
+      <c r="I275" s="6"/>
+      <c r="J275" s="6"/>
+      <c r="K275" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D275="充值",J275,VLOOKUP(G275,表2[#All],4,FALSE)*H275*I275*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L275" s="6"/>
+      <c r="M275" s="16"/>
+    </row>
+    <row r="276" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B276" s="15"/>
+      <c r="C276" s="4"/>
+      <c r="D276" s="6"/>
+      <c r="E276" s="12"/>
+      <c r="F276" s="12"/>
+      <c r="G276" s="5"/>
+      <c r="H276" s="6"/>
+      <c r="I276" s="6"/>
+      <c r="J276" s="6"/>
+      <c r="K276" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D276="充值",J276,VLOOKUP(G276,表2[#All],4,FALSE)*H276*I276*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L276" s="6"/>
+      <c r="M276" s="16"/>
+    </row>
+    <row r="277" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B277" s="15"/>
+      <c r="C277" s="4"/>
+      <c r="D277" s="6"/>
+      <c r="E277" s="12"/>
+      <c r="F277" s="12"/>
+      <c r="G277" s="5"/>
+      <c r="H277" s="6"/>
+      <c r="I277" s="6"/>
+      <c r="J277" s="6"/>
+      <c r="K277" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D277="充值",J277,VLOOKUP(G277,表2[#All],4,FALSE)*H277*I277*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L277" s="6"/>
+      <c r="M277" s="16"/>
+    </row>
+    <row r="278" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B278" s="15"/>
+      <c r="C278" s="4"/>
+      <c r="D278" s="6"/>
+      <c r="E278" s="12"/>
+      <c r="F278" s="12"/>
+      <c r="G278" s="5"/>
+      <c r="H278" s="6"/>
+      <c r="I278" s="6"/>
+      <c r="J278" s="6"/>
+      <c r="K278" s="5">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D278="充值",J278,VLOOKUP(G278,表2[#All],4,FALSE)*H278*I278*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L278" s="6"/>
+      <c r="M278" s="16"/>
+    </row>
+    <row r="279" spans="2:13" ht="22" x14ac:dyDescent="0.35">
+      <c r="B279" s="20"/>
+      <c r="C279" s="21"/>
+      <c r="D279" s="22"/>
+      <c r="E279" s="70"/>
+      <c r="F279" s="70"/>
+      <c r="G279" s="23"/>
+      <c r="H279" s="22"/>
+      <c r="I279" s="22"/>
+      <c r="J279" s="22"/>
+      <c r="K279" s="23">
+        <f>IF(表1[[#This Row],[姓名]]="",0,IF(D279="充值",J279,VLOOKUP(G279,表2[#All],4,FALSE)*H279*I279*-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L279" s="22"/>
+      <c r="M279" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -22033,7 +23710,7 @@
           <x14:formula1>
             <xm:f>产品表!$B$3:$B$115</xm:f>
           </x14:formula1>
-          <xm:sqref>G9 G13:G47 G49:G245</xm:sqref>
+          <xm:sqref>G9 G13:G47 G49:G254</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -22045,8 +23722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P46"/>
   <sheetViews>
-    <sheetView topLeftCell="C26" zoomScale="116" workbookViewId="0">
-      <selection activeCell="P44" sqref="P3:P44"/>
+    <sheetView topLeftCell="A34" zoomScale="116" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -22184,7 +23861,7 @@
         <v>饮品</v>
       </c>
       <c r="P4" t="str">
-        <f t="shared" ref="P4:P45" si="1">CONCATENATE(K4,"'",L4,"','",M4,"','",N4,"' , (select id from catagories where name='",O4,"') ,",1,", '2016-05-06 15:36:38' , '2016-05-06 15:36:38');")</f>
+        <f t="shared" ref="P4:P44" si="1">CONCATENATE(K4,"'",L4,"','",M4,"','",N4,"' , (select id from catagories where name='",O4,"') ,",1,", '2016-05-06 15:36:38' , '2016-05-06 15:36:38');")</f>
         <v>INSERT INTO products (name, unit,price,catagory_id,version_id,created_at,updated_at) VALUES ('锡兰红茶','杯','20' , (select id from catagories where name='饮品') ,1, '2016-05-06 15:36:38' , '2016-05-06 15:36:38');</v>
       </c>
     </row>
@@ -23756,7 +25433,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="str">
-        <f t="shared" ref="B36:B44" si="3">CONCATENATE(C36,"(",F36,")")</f>
+        <f t="shared" ref="B36:B45" si="3">CONCATENATE(C36,"(",F36,")")</f>
         <v>进口无花果干(袋)</v>
       </c>
       <c r="C36" s="29" t="s">
@@ -24178,13 +25855,28 @@
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B45" s="1"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="46"/>
+      <c r="B45" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>玫瑰冰拿铁(杯)</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="29">
+        <v>26</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="36">
+        <v>1</v>
+      </c>
+      <c r="H45" s="46">
+        <v>42487</v>
+      </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B46" s="1"/>
@@ -24192,7 +25884,9 @@
       <c r="D46" s="40"/>
       <c r="E46" s="29"/>
       <c r="F46" s="41"/>
-      <c r="G46" s="42"/>
+      <c r="G46" s="36">
+        <v>1</v>
+      </c>
       <c r="H46" s="45"/>
     </row>
   </sheetData>
@@ -24207,7 +25901,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B56"/>
+  <dimension ref="A3:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
@@ -24363,7 +26057,7 @@
         <v>167</v>
       </c>
       <c r="B20" s="32">
-        <v>1129</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -24591,63 +26285,71 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="B49" s="32">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="32"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="35" t="s">
+      <c r="B50" s="32"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B50" s="32"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="31" t="s">
+      <c r="B51" s="32"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="B51" s="32">
+      <c r="B52" s="32">
         <v>1700</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="B52" s="32">
-        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="B53" s="32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="B53" s="32">
+      <c r="B54" s="32">
         <v>1600</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="31" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="31" t="s">
         <v>250</v>
-      </c>
-      <c r="B54" s="32">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="35" t="s">
-        <v>253</v>
       </c>
       <c r="B55" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="B56" s="32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="32">
-        <v>3195</v>
+      <c r="B57" s="32">
+        <v>3221</v>
       </c>
     </row>
   </sheetData>
@@ -24689,7 +26391,7 @@
         <f>$A$2</f>
         <v>饮品</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="71" t="s">
         <v>290</v>
       </c>
     </row>
